--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EBA9E9-90E1-43BC-9D01-9F2FF9DF9F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3EEDA8-2EE7-4868-A91B-BAABCE8DE6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1597,22 +1597,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
-    <col min="3" max="3" width="74.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="3" max="3" width="74.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>115</v>
       </c>
@@ -1657,15 +1657,12 @@
       <c r="F2" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="21">
-        <f>DATE(YEAR(E2)+1,MONTH(E2),DAY(E2))</f>
-        <v>44197</v>
-      </c>
+      <c r="G2" s="21"/>
       <c r="H2" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -1690,7 +1687,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>177</v>
       </c>
@@ -1717,7 +1714,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>27</v>
       </c>
@@ -1737,39 +1734,41 @@
         <v>159</v>
       </c>
       <c r="G5" s="24">
+        <f>DATE(YEAR(E5),MONTH(E5)+1,DAY(E5))</f>
         <v>44562</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="41" t="s">
         <v>139</v>
       </c>
       <c r="E6" s="24">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>159</v>
       </c>
       <c r="G6" s="24">
+        <f t="shared" ref="G6:G7" si="0">DATE(YEAR(E6),MONTH(E6)+1,DAY(E6))</f>
         <v>44562</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>51</v>
       </c>
@@ -1789,13 +1788,14 @@
         <v>159</v>
       </c>
       <c r="G7" s="24">
+        <f t="shared" si="0"/>
         <v>44562</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>67</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>69</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>70</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>79</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>209</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>216</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>183</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>212</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>127</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>201</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>117</v>
       </c>
@@ -2110,14 +2110,14 @@
         <v>157</v>
       </c>
       <c r="G19" s="24">
-        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
+        <f t="shared" ref="G19:G37" si="1">DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
         <v>44593</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
@@ -2137,14 +2137,14 @@
         <v>157</v>
       </c>
       <c r="G20" s="24">
-        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>45</v>
       </c>
@@ -2164,14 +2164,14 @@
         <v>157</v>
       </c>
       <c r="G21" s="24">
-        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H21" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>303</v>
       </c>
@@ -2191,14 +2191,14 @@
         <v>157</v>
       </c>
       <c r="G22" s="24">
-        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H22" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>304</v>
       </c>
@@ -2218,14 +2218,14 @@
         <v>157</v>
       </c>
       <c r="G23" s="24">
-        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>63</v>
       </c>
@@ -2245,14 +2245,14 @@
         <v>157</v>
       </c>
       <c r="G24" s="24">
-        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>65</v>
       </c>
@@ -2272,14 +2272,14 @@
         <v>157</v>
       </c>
       <c r="G25" s="24">
-        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H25" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>4</v>
       </c>
@@ -2299,14 +2299,14 @@
         <v>157</v>
       </c>
       <c r="G26" s="24">
-        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>6</v>
       </c>
@@ -2326,14 +2326,14 @@
         <v>157</v>
       </c>
       <c r="G27" s="24">
-        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>296</v>
       </c>
@@ -2353,14 +2353,14 @@
         <v>157</v>
       </c>
       <c r="G28" s="24">
-        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>295</v>
       </c>
@@ -2380,14 +2380,14 @@
         <v>157</v>
       </c>
       <c r="G29" s="24">
-        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>29</v>
       </c>
@@ -2407,14 +2407,14 @@
         <v>157</v>
       </c>
       <c r="G30" s="24">
-        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>39</v>
       </c>
@@ -2434,14 +2434,14 @@
         <v>157</v>
       </c>
       <c r="G31" s="24">
-        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H31" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>41</v>
       </c>
@@ -2461,14 +2461,14 @@
         <v>157</v>
       </c>
       <c r="G32" s="24">
-        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H32" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>47</v>
       </c>
@@ -2488,14 +2488,14 @@
         <v>157</v>
       </c>
       <c r="G33" s="24">
-        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>84</v>
       </c>
@@ -2513,14 +2513,14 @@
         <v>157</v>
       </c>
       <c r="G34" s="24">
-        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>87</v>
       </c>
@@ -2538,14 +2538,14 @@
         <v>157</v>
       </c>
       <c r="G35" s="24">
-        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>90</v>
       </c>
@@ -2563,14 +2563,14 @@
         <v>157</v>
       </c>
       <c r="G36" s="24">
-        <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
         <v>185</v>
       </c>
@@ -2588,14 +2588,14 @@
         <v>157</v>
       </c>
       <c r="G37" s="24">
-        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
+        <f t="shared" si="1"/>
         <v>44621</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>113</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>164</v>
       </c>
@@ -2639,14 +2639,14 @@
         <v>158</v>
       </c>
       <c r="G39" s="24">
-        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
+        <f t="shared" ref="G39:G47" si="2">DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
         <v>44652</v>
       </c>
       <c r="H39" s="22" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>129</v>
       </c>
@@ -2666,14 +2666,14 @@
         <v>158</v>
       </c>
       <c r="G40" s="24">
-        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
+        <f t="shared" si="2"/>
         <v>44652</v>
       </c>
       <c r="H40" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>229</v>
       </c>
@@ -2693,14 +2693,14 @@
         <v>158</v>
       </c>
       <c r="G41" s="24">
-        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
+        <f t="shared" si="2"/>
         <v>44652</v>
       </c>
       <c r="H41" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
         <v>110</v>
       </c>
@@ -2720,14 +2720,14 @@
         <v>158</v>
       </c>
       <c r="G42" s="32">
-        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
+        <f t="shared" si="2"/>
         <v>44652</v>
       </c>
       <c r="H42" s="30" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>31</v>
       </c>
@@ -2747,14 +2747,14 @@
         <v>158</v>
       </c>
       <c r="G43" s="29">
-        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
+        <f t="shared" si="2"/>
         <v>44713</v>
       </c>
       <c r="H43" s="28" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>92</v>
       </c>
@@ -2774,14 +2774,14 @@
         <v>158</v>
       </c>
       <c r="G44" s="29">
-        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
+        <f t="shared" si="2"/>
         <v>44713</v>
       </c>
       <c r="H44" s="28" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
         <v>94</v>
       </c>
@@ -2799,14 +2799,14 @@
         <v>158</v>
       </c>
       <c r="G45" s="24">
-        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
+        <f t="shared" si="2"/>
         <v>44713</v>
       </c>
       <c r="H45" s="28" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>101</v>
       </c>
@@ -2826,14 +2826,14 @@
         <v>158</v>
       </c>
       <c r="G46" s="24">
-        <f>DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
+        <f t="shared" si="2"/>
         <v>44713</v>
       </c>
       <c r="H46" s="28" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>103</v>
       </c>
@@ -2853,14 +2853,14 @@
         <v>158</v>
       </c>
       <c r="G47" s="24">
-        <f>DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
+        <f t="shared" si="2"/>
         <v>44713</v>
       </c>
       <c r="H47" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>235</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>188</v>
       </c>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>10</v>
       </c>
@@ -2930,14 +2930,14 @@
         <v>158</v>
       </c>
       <c r="G50" s="24">
-        <f>DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
+        <f t="shared" ref="G50:G55" si="3">DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
         <v>44743</v>
       </c>
       <c r="H50" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>12</v>
       </c>
@@ -2957,14 +2957,14 @@
         <v>158</v>
       </c>
       <c r="G51" s="24">
-        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
+        <f t="shared" si="3"/>
         <v>44743</v>
       </c>
       <c r="H51" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>14</v>
       </c>
@@ -2984,14 +2984,14 @@
         <v>158</v>
       </c>
       <c r="G52" s="24">
-        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
+        <f t="shared" si="3"/>
         <v>44743</v>
       </c>
       <c r="H52" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>16</v>
       </c>
@@ -3011,14 +3011,14 @@
         <v>158</v>
       </c>
       <c r="G53" s="24">
-        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
+        <f t="shared" si="3"/>
         <v>44743</v>
       </c>
       <c r="H53" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>33</v>
       </c>
@@ -3038,14 +3038,14 @@
         <v>158</v>
       </c>
       <c r="G54" s="24">
-        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <f t="shared" si="3"/>
         <v>44743</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
         <v>97</v>
       </c>
@@ -3065,14 +3065,14 @@
         <v>158</v>
       </c>
       <c r="G55" s="24">
-        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <f t="shared" si="3"/>
         <v>44774</v>
       </c>
       <c r="H55" s="22" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>105</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
         <v>8</v>
       </c>
@@ -3118,14 +3118,14 @@
         <v>158</v>
       </c>
       <c r="G57" s="24">
-        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <f t="shared" ref="G57:G68" si="4">DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
         <v>44805</v>
       </c>
       <c r="H57" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
         <v>199</v>
       </c>
@@ -3145,14 +3145,14 @@
         <v>158</v>
       </c>
       <c r="G58" s="24">
-        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <f t="shared" si="4"/>
         <v>44805</v>
       </c>
       <c r="H58" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
         <v>196</v>
       </c>
@@ -3172,14 +3172,14 @@
         <v>158</v>
       </c>
       <c r="G59" s="24">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <f t="shared" si="4"/>
         <v>44805</v>
       </c>
       <c r="H59" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>55</v>
       </c>
@@ -3199,14 +3199,14 @@
         <v>158</v>
       </c>
       <c r="G60" s="24">
-        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <f t="shared" si="4"/>
         <v>44805</v>
       </c>
       <c r="H60" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
         <v>57</v>
       </c>
@@ -3226,14 +3226,14 @@
         <v>158</v>
       </c>
       <c r="G61" s="24">
-        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
+        <f t="shared" si="4"/>
         <v>44805</v>
       </c>
       <c r="H61" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
         <v>61</v>
       </c>
@@ -3253,14 +3253,14 @@
         <v>158</v>
       </c>
       <c r="G62" s="24">
-        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <f t="shared" si="4"/>
         <v>44866</v>
       </c>
       <c r="H62" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
         <v>77</v>
       </c>
@@ -3280,14 +3280,14 @@
         <v>158</v>
       </c>
       <c r="G63" s="24">
-        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <f t="shared" si="4"/>
         <v>44866</v>
       </c>
       <c r="H63" s="22" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
         <v>35</v>
       </c>
@@ -3307,14 +3307,14 @@
         <v>158</v>
       </c>
       <c r="G64" s="24">
-        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
+        <f t="shared" si="4"/>
         <v>44896</v>
       </c>
       <c r="H64" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
         <v>18</v>
       </c>
@@ -3334,14 +3334,14 @@
         <v>158</v>
       </c>
       <c r="G65" s="24">
-        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <f t="shared" si="4"/>
         <v>44896</v>
       </c>
       <c r="H65" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
         <v>23</v>
       </c>
@@ -3361,14 +3361,14 @@
         <v>158</v>
       </c>
       <c r="G66" s="24">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <f t="shared" si="4"/>
         <v>44896</v>
       </c>
       <c r="H66" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
         <v>53</v>
       </c>
@@ -3388,14 +3388,14 @@
         <v>158</v>
       </c>
       <c r="G67" s="24">
-        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
+        <f t="shared" si="4"/>
         <v>44896</v>
       </c>
       <c r="H67" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
         <v>59</v>
       </c>
@@ -3415,14 +3415,14 @@
         <v>158</v>
       </c>
       <c r="G68" s="24">
-        <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
+        <f t="shared" si="4"/>
         <v>44896</v>
       </c>
       <c r="H68" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22" t="s">
         <v>72</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>176</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>20</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>25</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>181</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="22" t="s">
         <v>75</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="22" t="s">
         <v>125</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>205</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>99</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
         <v>161</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="22" t="s">
         <v>107</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="22" t="s">
         <v>119</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
         <v>121</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="22" t="s">
         <v>123</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>189</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>204</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>266</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E90" s="8"/>
       <c r="G90" s="9"/>
     </row>
@@ -3919,11 +3919,12 @@
     <hyperlink ref="C7" r:id="rId99" xr:uid="{A78AD813-CB36-42C4-A8B4-E99D8216FC95}"/>
     <hyperlink ref="C31" r:id="rId100" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
     <hyperlink ref="C23" r:id="rId101" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C6" r:id="rId102" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId102"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId103"/>
   <tableParts count="1">
-    <tablePart r:id="rId103"/>
+    <tablePart r:id="rId104"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3EEDA8-2EE7-4868-A91B-BAABCE8DE6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCCE0D9-79E5-4071-86C5-73BAED9FAA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -871,9 +871,6 @@
     <t>https://www.gov.uk/government/statistics/energy-trends-september-2021-special-feature-article-combined-heat-and-power-in-the-regions</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1042590/Headline_HEE_tables_23_DECEMBER_2021.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043485/subnational_estimates_of_properties_not_connected_to_the_gas_network_2015-2020.xlsx</t>
   </si>
   <si>
@@ -934,9 +931,6 @@
     <t>BEIS: Average annual domestic electricity bills for GB regions</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1040269/RHI_monthly_official_stats_tables_Nov_21.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043393/table_242.xlsx</t>
   </si>
   <si>
@@ -947,6 +941,12 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043397/table_252.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1047733/Headline_HEE_tables_20_JANUARY_2022.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-december-2021-annual-edition</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1117,6 +1117,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1598,7 +1604,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1640,92 +1646,95 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>154</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D2" s="39"/>
       <c r="E2" s="21">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="21">
+        <f>DATE(YEAR(E2)+1,MONTH(E2),DAY(E2))</f>
+        <v>44228</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="21">
-        <v>43862</v>
-      </c>
-      <c r="F3" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="40">
+        <v>43891</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G3" s="21">
         <f>DATE(YEAR(E3)+1,MONTH(E3),DAY(E3))</f>
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="E4" s="40">
-        <v>43891</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="21">
-        <f>DATE(YEAR(E4)+1,MONTH(E4),DAY(E4))</f>
-        <v>44256</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>221</v>
+    <row r="4" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="24">
+        <v>44531</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="24">
+        <f>DATE(YEAR(E4),MONTH(E4)+1,DAY(E4))</f>
+        <v>44562</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>263</v>
+        <v>38</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="E5" s="24">
         <v>44531</v>
@@ -1742,132 +1751,132 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="A6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="17">
+        <v>44440</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="17">
+        <v>44562</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="17">
+        <v>44440</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="11">
+        <v>44562</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="46">
         <v>44531</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F8" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="24">
-        <f t="shared" ref="G6:G7" si="0">DATE(YEAR(E6),MONTH(E6)+1,DAY(E6))</f>
+      <c r="G8" s="46">
+        <f>DATE(YEAR(E8),MONTH(E8)+1,DAY(E8))</f>
         <v>44562</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="24">
-        <v>44531</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="24">
-        <f t="shared" si="0"/>
+      <c r="H8" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="46">
+        <v>44197</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="46">
+        <f>DATE(YEAR(E9)+1,MONTH(E9),DAY(E9))</f>
         <v>44562</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="17">
-        <v>44440</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="17">
-        <v>44562</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="17">
-        <v>44440</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="11">
-        <v>44562</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="24">
-        <v>44531</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>159</v>
+      <c r="H9" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="34">
+        <v>44197</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="G10" s="24">
-        <f>DATE(YEAR(E10),MONTH(E10)+1,DAY(E10))</f>
+        <f>DATE(YEAR(E10)+1,MONTH(E10),DAY(E10))</f>
         <v>44562</v>
       </c>
       <c r="H10" s="22" t="s">
@@ -1876,124 +1885,124 @@
     </row>
     <row r="11" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>174</v>
+        <v>52</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="E11" s="24">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G11" s="24">
-        <f>DATE(YEAR(E11)+1,MONTH(E11),DAY(E11))</f>
-        <v>44562</v>
+        <f>DATE(YEAR(E11),MONTH(E11)+1,DAY(E11))</f>
+        <v>44593</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>291</v>
+        <v>170</v>
       </c>
       <c r="E12" s="24">
-        <v>44440</v>
-      </c>
-      <c r="F12" s="25" t="s">
+        <v>44228</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="24">
+        <f>DATE(YEAR(E12)+1,MONTH(E12),DAY(E12))</f>
+        <v>44593</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="24">
+        <v>44501</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="24">
-        <f>DATE(YEAR(E12),MONTH(E12)+4,DAY(E12))</f>
-        <v>44562</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="34">
-        <v>44197</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>158</v>
-      </c>
       <c r="G13" s="24">
-        <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
-        <v>44562</v>
+        <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
+        <v>44593</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="24">
-        <v>44228</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="24">
-        <f>DATE(YEAR(E14)+1,MONTH(E14),DAY(E14))</f>
+      <c r="A14" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="32">
+        <v>44501</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="32">
+        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
         <v>44593</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>220</v>
+      <c r="H14" s="30" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>142</v>
+        <v>128</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>171</v>
       </c>
       <c r="E15" s="24">
         <v>44501</v>
@@ -2005,49 +2014,49 @@
         <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
         <v>44593</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>220</v>
+      <c r="H15" s="30" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="E16" s="32">
-        <v>44501</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="32">
-        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
+      <c r="A16" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="24">
+        <v>44409</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="G16" s="24">
+        <f>DATE(YEAR(E16),MONTH(E16)+6,DAY(E16))</f>
         <v>44593</v>
       </c>
-      <c r="H16" s="30" t="s">
-        <v>222</v>
+      <c r="H16" s="22" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>260</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>261</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="E17" s="24">
         <v>44501</v>
@@ -2059,85 +2068,85 @@
         <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
         <v>44593</v>
       </c>
-      <c r="H17" s="30" t="s">
-        <v>222</v>
+      <c r="H17" s="22" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>203</v>
+        <v>44</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="E18" s="24">
-        <v>44409</v>
+        <v>44531</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="G18" s="24">
-        <f>DATE(YEAR(E18),MONTH(E18)+6,DAY(E18))</f>
-        <v>44593</v>
+        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
+        <v>44621</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>261</v>
+        <v>283</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="E19" s="24">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>157</v>
       </c>
       <c r="G19" s="24">
-        <f t="shared" ref="G19:G37" si="1">DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
-        <v>44593</v>
+        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
+        <v>44621</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" s="24">
+        <v>301</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="4">
         <v>44531</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>157</v>
       </c>
       <c r="G20" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
         <v>44621</v>
       </c>
       <c r="H20" s="22" t="s">
@@ -2146,25 +2155,25 @@
     </row>
     <row r="21" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="D21" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="D21" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="4">
         <v>44531</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>157</v>
       </c>
       <c r="G21" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
         <v>44621</v>
       </c>
       <c r="H21" s="22" t="s">
@@ -2173,25 +2182,25 @@
     </row>
     <row r="22" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="4">
+        <v>63</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="24">
         <v>44531</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>157</v>
       </c>
       <c r="G22" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
         <v>44621</v>
       </c>
       <c r="H22" s="22" t="s">
@@ -2200,25 +2209,25 @@
     </row>
     <row r="23" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="4">
+        <v>65</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="24">
         <v>44531</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>157</v>
       </c>
       <c r="G23" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
         <v>44621</v>
       </c>
       <c r="H23" s="22" t="s">
@@ -2227,13 +2236,13 @@
     </row>
     <row r="24" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>133</v>
@@ -2245,7 +2254,7 @@
         <v>157</v>
       </c>
       <c r="G24" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
         <v>44621</v>
       </c>
       <c r="H24" s="22" t="s">
@@ -2254,13 +2263,13 @@
     </row>
     <row r="25" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>133</v>
@@ -2272,7 +2281,7 @@
         <v>157</v>
       </c>
       <c r="G25" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
         <v>44621</v>
       </c>
       <c r="H25" s="22" t="s">
@@ -2281,13 +2290,13 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>5</v>
+        <v>299</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>133</v>
@@ -2299,7 +2308,7 @@
         <v>157</v>
       </c>
       <c r="G26" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
         <v>44621</v>
       </c>
       <c r="H26" s="22" t="s">
@@ -2308,13 +2317,13 @@
     </row>
     <row r="27" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
-        <v>6</v>
+        <v>294</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>7</v>
+        <v>298</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>133</v>
@@ -2326,7 +2335,7 @@
         <v>157</v>
       </c>
       <c r="G27" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
         <v>44621</v>
       </c>
       <c r="H27" s="22" t="s">
@@ -2335,16 +2344,16 @@
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
-        <v>296</v>
+        <v>29</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>297</v>
+        <v>30</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>276</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E28" s="24">
         <v>44531</v>
@@ -2353,7 +2362,7 @@
         <v>157</v>
       </c>
       <c r="G28" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
         <v>44621</v>
       </c>
       <c r="H28" s="22" t="s">
@@ -2362,16 +2371,16 @@
     </row>
     <row r="29" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
-        <v>295</v>
+        <v>39</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E29" s="24">
         <v>44531</v>
@@ -2380,7 +2389,7 @@
         <v>157</v>
       </c>
       <c r="G29" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
         <v>44621</v>
       </c>
       <c r="H29" s="22" t="s">
@@ -2389,16 +2398,16 @@
     </row>
     <row r="30" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>276</v>
+        <v>42</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E30" s="24">
         <v>44531</v>
@@ -2407,7 +2416,7 @@
         <v>157</v>
       </c>
       <c r="G30" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
         <v>44621</v>
       </c>
       <c r="H30" s="22" t="s">
@@ -2416,16 +2425,16 @@
     </row>
     <row r="31" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E31" s="24">
         <v>44531</v>
@@ -2434,7 +2443,7 @@
         <v>157</v>
       </c>
       <c r="G31" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
         <v>44621</v>
       </c>
       <c r="H31" s="22" t="s">
@@ -2443,17 +2452,15 @@
     </row>
     <row r="32" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>140</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="27"/>
       <c r="E32" s="24">
         <v>44531</v>
       </c>
@@ -2461,26 +2468,24 @@
         <v>157</v>
       </c>
       <c r="G32" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
         <v>44621</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>141</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D33" s="27"/>
       <c r="E33" s="24">
         <v>44531</v>
       </c>
@@ -2488,22 +2493,22 @@
         <v>157</v>
       </c>
       <c r="G33" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
         <v>44621</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="24">
@@ -2513,7 +2518,7 @@
         <v>157</v>
       </c>
       <c r="G34" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
         <v>44621</v>
       </c>
       <c r="H34" s="22" t="s">
@@ -2521,75 +2526,78 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="24">
+      <c r="A35" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="32">
         <v>44531</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="30" t="s">
         <v>157</v>
       </c>
       <c r="G35" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
         <v>44621</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="27"/>
+        <v>114</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>247</v>
+      </c>
       <c r="E36" s="24">
+        <v>44256</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="24">
+        <v>44621</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="E37" s="24">
         <v>44531</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F37" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="G36" s="24">
-        <f t="shared" si="1"/>
-        <v>44621</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="32">
-        <v>44531</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>157</v>
-      </c>
       <c r="G37" s="24">
-        <f t="shared" si="1"/>
-        <v>44621</v>
+        <f>DATE(YEAR(E37),MONTH(E37)+4,DAY(E37))</f>
+        <v>44652</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>225</v>
@@ -2597,41 +2605,42 @@
     </row>
     <row r="38" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>247</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="26"/>
       <c r="E38" s="24">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="F38" s="25" t="s">
         <v>158</v>
       </c>
       <c r="G38" s="24">
-        <v>44621</v>
+        <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
+        <v>44652</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="26"/>
+        <v>112</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>153</v>
+      </c>
       <c r="E39" s="24">
         <v>44287</v>
       </c>
@@ -2639,34 +2648,34 @@
         <v>158</v>
       </c>
       <c r="G39" s="24">
-        <f t="shared" ref="G39:G47" si="2">DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
+        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
         <v>44652</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>153</v>
+        <v>231</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="E40" s="24">
         <v>44287</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="22" t="s">
         <v>158</v>
       </c>
       <c r="G40" s="24">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
         <v>44652</v>
       </c>
       <c r="H40" s="22" t="s">
@@ -2674,71 +2683,71 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" s="24">
+      <c r="A41" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="32">
         <v>44287</v>
       </c>
-      <c r="F41" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G41" s="24">
-        <f t="shared" si="2"/>
+      <c r="F41" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="32">
+        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
         <v>44652</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="30" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E42" s="32">
-        <v>44287</v>
+        <v>44348</v>
       </c>
       <c r="F42" s="44" t="s">
         <v>158</v>
       </c>
       <c r="G42" s="32">
-        <f t="shared" si="2"/>
-        <v>44652</v>
+        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
+        <v>44713</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>137</v>
+        <v>250</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>175</v>
       </c>
       <c r="E43" s="29">
         <v>44348</v>
@@ -2747,73 +2756,73 @@
         <v>158</v>
       </c>
       <c r="G43" s="29">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
         <v>44713</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E44" s="24">
+      <c r="A44" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="32">
         <v>44348</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="30" t="s">
         <v>158</v>
       </c>
       <c r="G44" s="29">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
         <v>44713</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="32">
+        <v>102</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="24">
         <v>44348</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="44" t="s">
         <v>158</v>
       </c>
       <c r="G45" s="24">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
         <v>44713</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="50" t="s">
         <v>233</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -2826,7 +2835,7 @@
         <v>158</v>
       </c>
       <c r="G46" s="24">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
         <v>44713</v>
       </c>
       <c r="H46" s="28" t="s">
@@ -2835,90 +2844,90 @@
     </row>
     <row r="47" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>234</v>
+        <v>236</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>238</v>
       </c>
       <c r="E47" s="24">
         <v>44348</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="22" t="s">
         <v>158</v>
       </c>
       <c r="G47" s="24">
-        <f t="shared" si="2"/>
         <v>44713</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="E48" s="24">
-        <v>44348</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G48" s="24">
-        <v>44713</v>
-      </c>
-      <c r="H48" s="22" t="s">
+      <c r="A48" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="4">
+        <v>44646</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" s="4">
+        <v>44738</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="24">
+        <v>44378</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="24">
+        <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
+        <v>44743</v>
+      </c>
+      <c r="H49" s="22" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" s="4">
-        <v>44646</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G49" s="4">
-        <v>44738</v>
-      </c>
-      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>251</v>
+        <v>13</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>134</v>
@@ -2930,7 +2939,7 @@
         <v>158</v>
       </c>
       <c r="G50" s="24">
-        <f t="shared" ref="G50:G55" si="3">DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
+        <f>DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
         <v>44743</v>
       </c>
       <c r="H50" s="22" t="s">
@@ -2939,13 +2948,13 @@
     </row>
     <row r="51" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>252</v>
+        <v>15</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>253</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>134</v>
@@ -2957,7 +2966,7 @@
         <v>158</v>
       </c>
       <c r="G51" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
         <v>44743</v>
       </c>
       <c r="H51" s="22" t="s">
@@ -2966,13 +2975,13 @@
     </row>
     <row r="52" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>253</v>
+        <v>17</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>242</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>134</v>
@@ -2984,7 +2993,7 @@
         <v>158</v>
       </c>
       <c r="G52" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
         <v>44743</v>
       </c>
       <c r="H52" s="22" t="s">
@@ -2993,16 +3002,16 @@
     </row>
     <row r="53" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>242</v>
+        <v>34</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="E53" s="24">
         <v>44378</v>
@@ -3011,7 +3020,7 @@
         <v>158</v>
       </c>
       <c r="G53" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
         <v>44743</v>
       </c>
       <c r="H53" s="22" t="s">
@@ -3020,105 +3029,105 @@
     </row>
     <row r="54" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>240</v>
+        <v>98</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>241</v>
+        <v>160</v>
       </c>
       <c r="E54" s="24">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="F54" s="25" t="s">
         <v>158</v>
       </c>
       <c r="G54" s="24">
-        <f t="shared" si="3"/>
-        <v>44743</v>
+        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <v>44774</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E55" s="24">
-        <v>44409</v>
+        <v>44287</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="G55" s="24">
-        <f t="shared" si="3"/>
         <v>44774</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>106</v>
+      <c r="A56" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E56" s="24">
-        <v>44287</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>194</v>
+        <v>279</v>
+      </c>
+      <c r="E56" s="32">
+        <v>44440</v>
+      </c>
+      <c r="F56" s="44" t="s">
+        <v>158</v>
       </c>
       <c r="G56" s="24">
-        <v>44774</v>
+        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
+        <v>44805</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>279</v>
+        <v>200</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>197</v>
       </c>
       <c r="E57" s="32">
         <v>44440</v>
       </c>
-      <c r="F57" s="44" t="s">
+      <c r="F57" s="30" t="s">
         <v>158</v>
       </c>
       <c r="G57" s="24">
-        <f t="shared" ref="G57:G68" si="4">DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
         <v>44805</v>
       </c>
       <c r="H57" s="22" t="s">
@@ -3127,13 +3136,13 @@
     </row>
     <row r="58" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="D58" s="43" t="s">
         <v>197</v>
@@ -3145,7 +3154,7 @@
         <v>158</v>
       </c>
       <c r="G58" s="24">
-        <f t="shared" si="4"/>
+        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
         <v>44805</v>
       </c>
       <c r="H58" s="22" t="s">
@@ -3154,25 +3163,25 @@
     </row>
     <row r="59" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>197</v>
+        <v>56</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="E59" s="24">
         <v>44440</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="25" t="s">
         <v>158</v>
       </c>
       <c r="G59" s="24">
-        <f t="shared" si="4"/>
+        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
         <v>44805</v>
       </c>
       <c r="H59" s="22" t="s">
@@ -3181,16 +3190,16 @@
     </row>
     <row r="60" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>254</v>
+        <v>58</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E60" s="24">
         <v>44440</v>
@@ -3199,7 +3208,7 @@
         <v>158</v>
       </c>
       <c r="G60" s="24">
-        <f t="shared" si="4"/>
+        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
         <v>44805</v>
       </c>
       <c r="H60" s="22" t="s">
@@ -3208,26 +3217,26 @@
     </row>
     <row r="61" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E61" s="24">
-        <v>44440</v>
+        <v>44501</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>158</v>
       </c>
       <c r="G61" s="24">
-        <f t="shared" si="4"/>
-        <v>44805</v>
+        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
+        <v>44866</v>
       </c>
       <c r="H61" s="22" t="s">
         <v>220</v>
@@ -3235,16 +3244,16 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>264</v>
+        <v>78</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>262</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>148</v>
+        <v>262</v>
       </c>
       <c r="E62" s="24">
         <v>44501</v>
@@ -3253,52 +3262,52 @@
         <v>158</v>
       </c>
       <c r="G62" s="24">
-        <f t="shared" si="4"/>
+        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
         <v>44866</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>262</v>
+        <v>36</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>280</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="E63" s="24">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>158</v>
       </c>
       <c r="G63" s="24">
-        <f t="shared" si="4"/>
-        <v>44866</v>
+        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <v>44896</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E64" s="24">
         <v>44531</v>
@@ -3307,7 +3316,7 @@
         <v>158</v>
       </c>
       <c r="G64" s="24">
-        <f t="shared" si="4"/>
+        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
         <v>44896</v>
       </c>
       <c r="H64" s="22" t="s">
@@ -3316,16 +3325,16 @@
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>274</v>
+        <v>24</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>273</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E65" s="24">
         <v>44531</v>
@@ -3334,7 +3343,7 @@
         <v>158</v>
       </c>
       <c r="G65" s="24">
-        <f t="shared" si="4"/>
+        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
         <v>44896</v>
       </c>
       <c r="H65" s="22" t="s">
@@ -3343,16 +3352,16 @@
     </row>
     <row r="66" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E66" s="24">
         <v>44531</v>
@@ -3361,7 +3370,7 @@
         <v>158</v>
       </c>
       <c r="G66" s="24">
-        <f t="shared" si="4"/>
+        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
         <v>44896</v>
       </c>
       <c r="H66" s="22" t="s">
@@ -3370,16 +3379,16 @@
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E67" s="24">
         <v>44531</v>
@@ -3388,7 +3397,7 @@
         <v>158</v>
       </c>
       <c r="G67" s="24">
-        <f t="shared" si="4"/>
+        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
         <v>44896</v>
       </c>
       <c r="H67" s="22" t="s">
@@ -3397,56 +3406,53 @@
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>147</v>
+        <v>73</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="E68" s="24">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="F68" s="25" t="s">
         <v>158</v>
       </c>
       <c r="G68" s="24">
-        <f t="shared" si="4"/>
-        <v>44896</v>
+        <f>DATE(YEAR(E68),MONTH(E68)+12,DAY(E68))</f>
+        <v>44927</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E69" s="24">
-        <v>44562</v>
-      </c>
-      <c r="F69" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G69" s="24">
-        <f>DATE(YEAR(E69),MONTH(E69)+12,DAY(E69))</f>
-        <v>44927</v>
-      </c>
-      <c r="H69" s="22" t="s">
-        <v>221</v>
+      <c r="A69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="21">
+        <v>43831</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="G69" s="21"/>
+      <c r="H69" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -3543,10 +3549,10 @@
         <v>76</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E74" s="24">
         <v>44256</v>
@@ -3594,7 +3600,7 @@
         <v>207</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E76" s="11">
         <v>44044</v>
@@ -3818,113 +3824,111 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D69" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C34" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C35" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C36" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C45" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C42" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D68" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C34" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C44" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C79" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C42" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C41" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C81" r:id="rId10" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D75" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C40" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D57" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D50" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C39" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D56" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D49" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D10:D12" r:id="rId17" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D43" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D54" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D64" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D33" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D67" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D60" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D61" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D68" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D62" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D24" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D25" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D8" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D28" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D42" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D53" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D63" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D66" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D59" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D60" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D67" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D61" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D23" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D6" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D7" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D77" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D79" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D42" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D65" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D18" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D64" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D29" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D54" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D82" r:id="rId40" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D78" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C78" r:id="rId42" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D52" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D53" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C27" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D6" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D17" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D10" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C69" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D11" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D44" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D40" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D38" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D51" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D52" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D5" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D15" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D8" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C68" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D9" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D43" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D39" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D36" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C70" r:id="rId55" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C73" r:id="rId56" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D14" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C37" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D12" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C35" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D83" r:id="rId59" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C83" r:id="rId60" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D2" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C2" r:id="rId62" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="D69" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C69" r:id="rId62" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
     <hyperlink ref="C82" r:id="rId63" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D59" r:id="rId64" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D58" r:id="rId65" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D18" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="D58" r:id="rId64" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D57" r:id="rId65" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="D16" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C76" r:id="rId67" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C50" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D32" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D21" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C56" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="C9" r:id="rId72" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="D7" r:id="rId73" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C38" r:id="rId74" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
-    <hyperlink ref="C61" r:id="rId75" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D5" r:id="rId76" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
-    <hyperlink ref="C5" r:id="rId77" xr:uid="{297E8AFF-D409-44A3-B4A4-152FB4EE0D99}"/>
-    <hyperlink ref="C85" r:id="rId78" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="C33" r:id="rId79" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
-    <hyperlink ref="D66" r:id="rId80" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C26" r:id="rId81" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="C65" r:id="rId82" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
-    <hyperlink ref="D63" r:id="rId83" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
-    <hyperlink ref="C3" r:id="rId84" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D12" r:id="rId85" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
-    <hyperlink ref="C55" r:id="rId86" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
-    <hyperlink ref="D76" r:id="rId87" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
-    <hyperlink ref="D4" r:id="rId88" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
-    <hyperlink ref="C4" r:id="rId89" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
-    <hyperlink ref="D81" r:id="rId90" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
-    <hyperlink ref="D85" r:id="rId91" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
-    <hyperlink ref="C74" r:id="rId92" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C12" r:id="rId93" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
-    <hyperlink ref="C57" r:id="rId94" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
-    <hyperlink ref="C64" r:id="rId95" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D28" r:id="rId96" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D29" r:id="rId97" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C28" r:id="rId98" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C7" r:id="rId99" xr:uid="{A78AD813-CB36-42C4-A8B4-E99D8216FC95}"/>
-    <hyperlink ref="C31" r:id="rId100" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C23" r:id="rId101" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C6" r:id="rId102" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C49" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="D30" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D19" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="C55" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
+    <hyperlink ref="C7" r:id="rId72" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="D11" r:id="rId73" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C36" r:id="rId74" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
+    <hyperlink ref="C60" r:id="rId75" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
+    <hyperlink ref="D4" r:id="rId76" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="C85" r:id="rId77" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
+    <hyperlink ref="C31" r:id="rId78" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
+    <hyperlink ref="D65" r:id="rId79" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
+    <hyperlink ref="C24" r:id="rId80" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C64" r:id="rId81" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
+    <hyperlink ref="D62" r:id="rId82" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
+    <hyperlink ref="C2" r:id="rId83" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
+    <hyperlink ref="D37" r:id="rId84" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="C54" r:id="rId85" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
+    <hyperlink ref="D76" r:id="rId86" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
+    <hyperlink ref="D3" r:id="rId87" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
+    <hyperlink ref="C3" r:id="rId88" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
+    <hyperlink ref="D81" r:id="rId89" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
+    <hyperlink ref="D85" r:id="rId90" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
+    <hyperlink ref="C74" r:id="rId91" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
+    <hyperlink ref="C37" r:id="rId92" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
+    <hyperlink ref="C56" r:id="rId93" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
+    <hyperlink ref="C63" r:id="rId94" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D26" r:id="rId95" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D27" r:id="rId96" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C26" r:id="rId97" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C29" r:id="rId98" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C21" r:id="rId99" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C5" r:id="rId100" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId103"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId101"/>
   <tableParts count="1">
-    <tablePart r:id="rId104"/>
+    <tablePart r:id="rId102"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCCE0D9-79E5-4071-86C5-73BAED9FAA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC0964B-2EAF-4C19-A801-7BB47049DFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1071,7 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1117,7 +1117,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -1604,7 +1603,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1710,14 +1709,14 @@
         <v>263</v>
       </c>
       <c r="E4" s="24">
-        <v>44531</v>
+        <v>44197</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>159</v>
       </c>
       <c r="G4" s="24">
         <f>DATE(YEAR(E4),MONTH(E4)+1,DAY(E4))</f>
-        <v>44562</v>
+        <v>44228</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>220</v>
@@ -1803,29 +1802,29 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="46">
-        <v>44531</v>
-      </c>
-      <c r="F8" s="47" t="s">
+      <c r="E8" s="24">
+        <v>44197</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="24">
         <f>DATE(YEAR(E8),MONTH(E8)+1,DAY(E8))</f>
-        <v>44562</v>
-      </c>
-      <c r="H8" s="6" t="s">
+        <v>44228</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>221</v>
       </c>
     </row>
@@ -1836,19 +1835,19 @@
       <c r="B9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>44197</v>
       </c>
-      <c r="F9" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="46">
+      <c r="F9" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="45">
         <f>DATE(YEAR(E9)+1,MONTH(E9),DAY(E9))</f>
         <v>44562</v>
       </c>
@@ -2065,7 +2064,7 @@
         <v>157</v>
       </c>
       <c r="G17" s="24">
-        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
+        <f t="shared" ref="G17:G35" si="0">DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
         <v>44593</v>
       </c>
       <c r="H17" s="22" t="s">
@@ -2092,7 +2091,7 @@
         <v>157</v>
       </c>
       <c r="G18" s="24">
-        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H18" s="22" t="s">
@@ -2119,7 +2118,7 @@
         <v>157</v>
       </c>
       <c r="G19" s="24">
-        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H19" s="22" t="s">
@@ -2146,7 +2145,7 @@
         <v>157</v>
       </c>
       <c r="G20" s="24">
-        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H20" s="22" t="s">
@@ -2173,7 +2172,7 @@
         <v>157</v>
       </c>
       <c r="G21" s="24">
-        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H21" s="22" t="s">
@@ -2200,7 +2199,7 @@
         <v>157</v>
       </c>
       <c r="G22" s="24">
-        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H22" s="22" t="s">
@@ -2227,7 +2226,7 @@
         <v>157</v>
       </c>
       <c r="G23" s="24">
-        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H23" s="22" t="s">
@@ -2254,7 +2253,7 @@
         <v>157</v>
       </c>
       <c r="G24" s="24">
-        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H24" s="22" t="s">
@@ -2281,7 +2280,7 @@
         <v>157</v>
       </c>
       <c r="G25" s="24">
-        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H25" s="22" t="s">
@@ -2308,7 +2307,7 @@
         <v>157</v>
       </c>
       <c r="G26" s="24">
-        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H26" s="22" t="s">
@@ -2335,7 +2334,7 @@
         <v>157</v>
       </c>
       <c r="G27" s="24">
-        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H27" s="22" t="s">
@@ -2362,7 +2361,7 @@
         <v>157</v>
       </c>
       <c r="G28" s="24">
-        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H28" s="22" t="s">
@@ -2389,7 +2388,7 @@
         <v>157</v>
       </c>
       <c r="G29" s="24">
-        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H29" s="22" t="s">
@@ -2416,7 +2415,7 @@
         <v>157</v>
       </c>
       <c r="G30" s="24">
-        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H30" s="22" t="s">
@@ -2443,7 +2442,7 @@
         <v>157</v>
       </c>
       <c r="G31" s="24">
-        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H31" s="22" t="s">
@@ -2468,7 +2467,7 @@
         <v>157</v>
       </c>
       <c r="G32" s="24">
-        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H32" s="22" t="s">
@@ -2493,7 +2492,7 @@
         <v>157</v>
       </c>
       <c r="G33" s="24">
-        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H33" s="22" t="s">
@@ -2518,7 +2517,7 @@
         <v>157</v>
       </c>
       <c r="G34" s="24">
-        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H34" s="22" t="s">
@@ -2543,7 +2542,7 @@
         <v>157</v>
       </c>
       <c r="G35" s="24">
-        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H35" s="22" t="s">
@@ -2621,7 +2620,7 @@
         <v>158</v>
       </c>
       <c r="G38" s="24">
-        <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
+        <f t="shared" ref="G38:G46" si="1">DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
         <v>44652</v>
       </c>
       <c r="H38" s="22" t="s">
@@ -2648,7 +2647,7 @@
         <v>158</v>
       </c>
       <c r="G39" s="24">
-        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
+        <f t="shared" si="1"/>
         <v>44652</v>
       </c>
       <c r="H39" s="22" t="s">
@@ -2675,7 +2674,7 @@
         <v>158</v>
       </c>
       <c r="G40" s="24">
-        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
+        <f t="shared" si="1"/>
         <v>44652</v>
       </c>
       <c r="H40" s="22" t="s">
@@ -2702,7 +2701,7 @@
         <v>158</v>
       </c>
       <c r="G41" s="32">
-        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
+        <f t="shared" si="1"/>
         <v>44652</v>
       </c>
       <c r="H41" s="30" t="s">
@@ -2729,7 +2728,7 @@
         <v>158</v>
       </c>
       <c r="G42" s="32">
-        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H42" s="30" t="s">
@@ -2756,7 +2755,7 @@
         <v>158</v>
       </c>
       <c r="G43" s="29">
-        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H43" s="28" t="s">
@@ -2781,7 +2780,7 @@
         <v>158</v>
       </c>
       <c r="G44" s="29">
-        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H44" s="28" t="s">
@@ -2808,7 +2807,7 @@
         <v>158</v>
       </c>
       <c r="G45" s="24">
-        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H45" s="28" t="s">
@@ -2822,7 +2821,7 @@
       <c r="B46" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="49" t="s">
         <v>233</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -2835,7 +2834,7 @@
         <v>158</v>
       </c>
       <c r="G46" s="24">
-        <f>DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H46" s="28" t="s">
@@ -2912,7 +2911,7 @@
         <v>158</v>
       </c>
       <c r="G49" s="24">
-        <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
+        <f t="shared" ref="G49:G54" si="2">DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
         <v>44743</v>
       </c>
       <c r="H49" s="22" t="s">
@@ -2939,7 +2938,7 @@
         <v>158</v>
       </c>
       <c r="G50" s="24">
-        <f>DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
+        <f t="shared" si="2"/>
         <v>44743</v>
       </c>
       <c r="H50" s="22" t="s">
@@ -2966,7 +2965,7 @@
         <v>158</v>
       </c>
       <c r="G51" s="24">
-        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
+        <f t="shared" si="2"/>
         <v>44743</v>
       </c>
       <c r="H51" s="22" t="s">
@@ -2993,7 +2992,7 @@
         <v>158</v>
       </c>
       <c r="G52" s="24">
-        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
+        <f t="shared" si="2"/>
         <v>44743</v>
       </c>
       <c r="H52" s="22" t="s">
@@ -3020,7 +3019,7 @@
         <v>158</v>
       </c>
       <c r="G53" s="24">
-        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
+        <f t="shared" si="2"/>
         <v>44743</v>
       </c>
       <c r="H53" s="22" t="s">
@@ -3047,7 +3046,7 @@
         <v>158</v>
       </c>
       <c r="G54" s="24">
-        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <f t="shared" si="2"/>
         <v>44774</v>
       </c>
       <c r="H54" s="22" t="s">
@@ -3100,7 +3099,7 @@
         <v>158</v>
       </c>
       <c r="G56" s="24">
-        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
+        <f t="shared" ref="G56:G67" si="3">DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
         <v>44805</v>
       </c>
       <c r="H56" s="22" t="s">
@@ -3127,7 +3126,7 @@
         <v>158</v>
       </c>
       <c r="G57" s="24">
-        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <f t="shared" si="3"/>
         <v>44805</v>
       </c>
       <c r="H57" s="22" t="s">
@@ -3154,7 +3153,7 @@
         <v>158</v>
       </c>
       <c r="G58" s="24">
-        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <f t="shared" si="3"/>
         <v>44805</v>
       </c>
       <c r="H58" s="22" t="s">
@@ -3181,7 +3180,7 @@
         <v>158</v>
       </c>
       <c r="G59" s="24">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <f t="shared" si="3"/>
         <v>44805</v>
       </c>
       <c r="H59" s="22" t="s">
@@ -3208,7 +3207,7 @@
         <v>158</v>
       </c>
       <c r="G60" s="24">
-        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <f t="shared" si="3"/>
         <v>44805</v>
       </c>
       <c r="H60" s="22" t="s">
@@ -3235,7 +3234,7 @@
         <v>158</v>
       </c>
       <c r="G61" s="24">
-        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
+        <f t="shared" si="3"/>
         <v>44866</v>
       </c>
       <c r="H61" s="22" t="s">
@@ -3262,7 +3261,7 @@
         <v>158</v>
       </c>
       <c r="G62" s="24">
-        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <f t="shared" si="3"/>
         <v>44866</v>
       </c>
       <c r="H62" s="22" t="s">
@@ -3289,7 +3288,7 @@
         <v>158</v>
       </c>
       <c r="G63" s="24">
-        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <f t="shared" si="3"/>
         <v>44896</v>
       </c>
       <c r="H63" s="22" t="s">
@@ -3316,7 +3315,7 @@
         <v>158</v>
       </c>
       <c r="G64" s="24">
-        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
+        <f t="shared" si="3"/>
         <v>44896</v>
       </c>
       <c r="H64" s="22" t="s">
@@ -3343,7 +3342,7 @@
         <v>158</v>
       </c>
       <c r="G65" s="24">
-        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <f t="shared" si="3"/>
         <v>44896</v>
       </c>
       <c r="H65" s="22" t="s">
@@ -3370,7 +3369,7 @@
         <v>158</v>
       </c>
       <c r="G66" s="24">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <f t="shared" si="3"/>
         <v>44896</v>
       </c>
       <c r="H66" s="22" t="s">
@@ -3397,7 +3396,7 @@
         <v>158</v>
       </c>
       <c r="G67" s="24">
-        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
+        <f t="shared" si="3"/>
         <v>44896</v>
       </c>
       <c r="H67" s="22" t="s">

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC0964B-2EAF-4C19-A801-7BB47049DFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092006C4-A4B6-4278-8FBF-1678B2CC1170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1071,7 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1117,10 +1117,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1603,7 +1599,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1697,67 +1693,66 @@
     </row>
     <row r="4" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>263</v>
+        <v>38</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="E4" s="24">
-        <v>44197</v>
+        <v>44531</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>159</v>
       </c>
       <c r="G4" s="24">
         <f>DATE(YEAR(E4),MONTH(E4)+1,DAY(E4))</f>
-        <v>44228</v>
+        <v>44562</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="24">
-        <v>44531</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="24">
-        <f>DATE(YEAR(E5),MONTH(E5)+1,DAY(E5))</f>
+      <c r="A5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="17">
+        <v>44440</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="17">
         <v>44562</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>220</v>
+      <c r="H5" s="14" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>149</v>
@@ -1768,141 +1763,142 @@
       <c r="F6" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="11">
         <v>44562</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="17">
-        <v>44440</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="11">
+    <row r="7" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="34">
+        <v>44197</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="24">
+        <f>DATE(YEAR(E7)+1,MONTH(E7),DAY(E7))</f>
         <v>44562</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>222</v>
+      <c r="H7" s="22" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>172</v>
+        <v>304</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="E8" s="24">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>159</v>
       </c>
       <c r="G8" s="24">
         <f>DATE(YEAR(E8),MONTH(E8)+1,DAY(E8))</f>
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="H8" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="24">
+        <v>44562</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="24">
+        <f>DATE(YEAR(E9),MONTH(E9)+1,DAY(E9))</f>
+        <v>44593</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="45">
-        <v>44197</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="45">
-        <f>DATE(YEAR(E9)+1,MONTH(E9),DAY(E9))</f>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="24">
         <v>44562</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="34">
-        <v>44197</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>158</v>
+      <c r="F10" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="G10" s="24">
-        <f>DATE(YEAR(E10)+1,MONTH(E10),DAY(E10))</f>
-        <v>44562</v>
+        <f>DATE(YEAR(E10),MONTH(E10)+1,DAY(E10))</f>
+        <v>44593</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>143</v>
+        <v>182</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="E11" s="24">
-        <v>44562</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>159</v>
+        <v>44228</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="G11" s="24">
-        <f>DATE(YEAR(E11),MONTH(E11)+1,DAY(E11))</f>
+        <f>DATE(YEAR(E11)+1,MONTH(E11),DAY(E11))</f>
         <v>44593</v>
       </c>
       <c r="H11" s="22" t="s">
@@ -1911,25 +1907,25 @@
     </row>
     <row r="12" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>170</v>
+        <v>50</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="E12" s="24">
-        <v>44228</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>158</v>
+        <v>44501</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="G12" s="24">
-        <f>DATE(YEAR(E12)+1,MONTH(E12),DAY(E12))</f>
+        <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
         <v>44593</v>
       </c>
       <c r="H12" s="22" t="s">
@@ -1937,52 +1933,52 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="24">
+      <c r="A13" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" s="32">
         <v>44501</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="32">
         <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
         <v>44593</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>220</v>
+      <c r="H13" s="30" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="E14" s="32">
+      <c r="A14" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="24">
         <v>44501</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="24">
         <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
         <v>44593</v>
       </c>
@@ -1992,97 +1988,97 @@
     </row>
     <row r="15" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="E15" s="24">
-        <v>44501</v>
+        <v>44409</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>157</v>
+        <v>289</v>
       </c>
       <c r="G15" s="24">
-        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
+        <f>DATE(YEAR(E15),MONTH(E15)+6,DAY(E15))</f>
         <v>44593</v>
       </c>
-      <c r="H15" s="30" t="s">
-        <v>222</v>
+      <c r="H15" s="22" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>249</v>
+        <v>118</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>261</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="E16" s="24">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>289</v>
+        <v>157</v>
       </c>
       <c r="G16" s="24">
-        <f>DATE(YEAR(E16),MONTH(E16)+6,DAY(E16))</f>
+        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
         <v>44593</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>261</v>
+        <v>282</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="E17" s="24">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>157</v>
       </c>
       <c r="G17" s="24">
-        <f t="shared" ref="G17:G35" si="0">DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
-        <v>44593</v>
+        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
+        <v>44621</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E18" s="24">
         <v>44531</v>
@@ -2091,7 +2087,7 @@
         <v>157</v>
       </c>
       <c r="G18" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
         <v>44621</v>
       </c>
       <c r="H18" s="22" t="s">
@@ -2100,25 +2096,25 @@
     </row>
     <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="4">
         <v>44531</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>157</v>
       </c>
       <c r="G19" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
         <v>44621</v>
       </c>
       <c r="H19" s="22" t="s">
@@ -2127,13 +2123,13 @@
     </row>
     <row r="20" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>300</v>
+        <v>42</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>303</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>140</v>
@@ -2145,7 +2141,7 @@
         <v>157</v>
       </c>
       <c r="G20" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
         <v>44621</v>
       </c>
       <c r="H20" s="22" t="s">
@@ -2154,25 +2150,25 @@
     </row>
     <row r="21" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="4">
+        <v>63</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="24">
         <v>44531</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>157</v>
       </c>
       <c r="G21" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
         <v>44621</v>
       </c>
       <c r="H21" s="22" t="s">
@@ -2181,13 +2177,13 @@
     </row>
     <row r="22" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>133</v>
@@ -2199,7 +2195,7 @@
         <v>157</v>
       </c>
       <c r="G22" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
         <v>44621</v>
       </c>
       <c r="H22" s="22" t="s">
@@ -2208,13 +2204,13 @@
     </row>
     <row r="23" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>133</v>
@@ -2226,7 +2222,7 @@
         <v>157</v>
       </c>
       <c r="G23" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
         <v>44621</v>
       </c>
       <c r="H23" s="22" t="s">
@@ -2235,13 +2231,13 @@
     </row>
     <row r="24" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>133</v>
@@ -2253,7 +2249,7 @@
         <v>157</v>
       </c>
       <c r="G24" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
         <v>44621</v>
       </c>
       <c r="H24" s="22" t="s">
@@ -2262,13 +2258,13 @@
     </row>
     <row r="25" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
-        <v>6</v>
+        <v>295</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>7</v>
+        <v>299</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>133</v>
@@ -2280,7 +2276,7 @@
         <v>157</v>
       </c>
       <c r="G25" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
         <v>44621</v>
       </c>
       <c r="H25" s="22" t="s">
@@ -2289,13 +2285,13 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>133</v>
@@ -2307,7 +2303,7 @@
         <v>157</v>
       </c>
       <c r="G26" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
         <v>44621</v>
       </c>
       <c r="H26" s="22" t="s">
@@ -2316,16 +2312,16 @@
     </row>
     <row r="27" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
-        <v>294</v>
+        <v>29</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>297</v>
+        <v>30</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>276</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E27" s="24">
         <v>44531</v>
@@ -2334,7 +2330,7 @@
         <v>157</v>
       </c>
       <c r="G27" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
         <v>44621</v>
       </c>
       <c r="H27" s="22" t="s">
@@ -2343,16 +2339,16 @@
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>276</v>
+        <v>40</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E28" s="24">
         <v>44531</v>
@@ -2361,7 +2357,7 @@
         <v>157</v>
       </c>
       <c r="G28" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
         <v>44621</v>
       </c>
       <c r="H28" s="22" t="s">
@@ -2370,13 +2366,13 @@
     </row>
     <row r="29" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>140</v>
@@ -2388,7 +2384,7 @@
         <v>157</v>
       </c>
       <c r="G29" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
         <v>44621</v>
       </c>
       <c r="H29" s="22" t="s">
@@ -2397,16 +2393,16 @@
     </row>
     <row r="30" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E30" s="24">
         <v>44531</v>
@@ -2415,7 +2411,7 @@
         <v>157</v>
       </c>
       <c r="G30" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
         <v>44621</v>
       </c>
       <c r="H30" s="22" t="s">
@@ -2424,17 +2420,15 @@
     </row>
     <row r="31" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>141</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="27"/>
       <c r="E31" s="24">
         <v>44531</v>
       </c>
@@ -2442,22 +2436,22 @@
         <v>157</v>
       </c>
       <c r="G31" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
         <v>44621</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="24">
@@ -2467,7 +2461,7 @@
         <v>157</v>
       </c>
       <c r="G32" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
         <v>44621</v>
       </c>
       <c r="H32" s="22" t="s">
@@ -2476,13 +2470,13 @@
     </row>
     <row r="33" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>248</v>
+        <v>91</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="24">
@@ -2492,7 +2486,7 @@
         <v>157</v>
       </c>
       <c r="G33" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
         <v>44621</v>
       </c>
       <c r="H33" s="22" t="s">
@@ -2500,119 +2494,121 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="24">
+      <c r="A34" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="32">
         <v>44531</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="30" t="s">
         <v>157</v>
       </c>
       <c r="G34" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
         <v>44621</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="32">
-        <v>44531</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>157</v>
+      <c r="A35" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E35" s="24">
+        <v>44256</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="G35" s="24">
-        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>246</v>
+        <v>210</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>291</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="E36" s="24">
-        <v>44256</v>
+        <v>44531</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G36" s="24">
-        <v>44621</v>
+        <f>DATE(YEAR(E36),MONTH(E36)+4,DAY(E36))</f>
+        <v>44652</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>290</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D37" s="26"/>
       <c r="E37" s="24">
-        <v>44531</v>
+        <v>44287</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G37" s="24">
-        <f>DATE(YEAR(E37),MONTH(E37)+4,DAY(E37))</f>
+        <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
         <v>44652</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="26"/>
+        <v>112</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>153</v>
+      </c>
       <c r="E38" s="24">
         <v>44287</v>
       </c>
@@ -2620,34 +2616,34 @@
         <v>158</v>
       </c>
       <c r="G38" s="24">
-        <f t="shared" ref="G38:G46" si="1">DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
+        <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
         <v>44652</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>153</v>
+        <v>231</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="E39" s="24">
         <v>44287</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="22" t="s">
         <v>158</v>
       </c>
       <c r="G39" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
         <v>44652</v>
       </c>
       <c r="H39" s="22" t="s">
@@ -2655,71 +2651,71 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" s="24">
+      <c r="A40" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="32">
         <v>44287</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G40" s="24">
-        <f t="shared" si="1"/>
+      <c r="F40" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="32">
+        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
         <v>44652</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="30" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E41" s="32">
-        <v>44287</v>
+        <v>44348</v>
       </c>
       <c r="F41" s="44" t="s">
         <v>158</v>
       </c>
       <c r="G41" s="32">
-        <f t="shared" si="1"/>
-        <v>44652</v>
+        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
+        <v>44713</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>137</v>
+        <v>250</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="E42" s="32">
         <v>44348</v>
@@ -2728,73 +2724,73 @@
         <v>158</v>
       </c>
       <c r="G42" s="32">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
         <v>44713</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>175</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="45"/>
       <c r="E43" s="29">
         <v>44348</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="28" t="s">
         <v>158</v>
       </c>
       <c r="G43" s="29">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
         <v>44713</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="32">
+        <v>102</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E44" s="24">
         <v>44348</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="44" t="s">
         <v>158</v>
       </c>
       <c r="G44" s="29">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
         <v>44713</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="27" t="s">
         <v>233</v>
       </c>
       <c r="D45" s="23" t="s">
@@ -2807,7 +2803,7 @@
         <v>158</v>
       </c>
       <c r="G45" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
         <v>44713</v>
       </c>
       <c r="H45" s="28" t="s">
@@ -2816,90 +2812,90 @@
     </row>
     <row r="46" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>234</v>
+        <v>236</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>238</v>
       </c>
       <c r="E46" s="24">
         <v>44348</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="28" t="s">
         <v>158</v>
       </c>
       <c r="G46" s="24">
-        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="E47" s="24">
-        <v>44348</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G47" s="24">
-        <v>44713</v>
-      </c>
-      <c r="H47" s="22" t="s">
+      <c r="A47" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="4">
+        <v>44646</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G47" s="4">
+        <v>44738</v>
+      </c>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="24">
+        <v>44378</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="24">
+        <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
+        <v>44743</v>
+      </c>
+      <c r="H48" s="22" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E48" s="4">
-        <v>44646</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G48" s="4">
-        <v>44738</v>
-      </c>
-      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>251</v>
+        <v>13</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>134</v>
@@ -2911,7 +2907,7 @@
         <v>158</v>
       </c>
       <c r="G49" s="24">
-        <f t="shared" ref="G49:G54" si="2">DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
+        <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
         <v>44743</v>
       </c>
       <c r="H49" s="22" t="s">
@@ -2920,13 +2916,13 @@
     </row>
     <row r="50" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>252</v>
+        <v>15</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>253</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>134</v>
@@ -2938,7 +2934,7 @@
         <v>158</v>
       </c>
       <c r="G50" s="24">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
         <v>44743</v>
       </c>
       <c r="H50" s="22" t="s">
@@ -2947,13 +2943,13 @@
     </row>
     <row r="51" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>253</v>
+        <v>17</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>242</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>134</v>
@@ -2965,7 +2961,7 @@
         <v>158</v>
       </c>
       <c r="G51" s="24">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
         <v>44743</v>
       </c>
       <c r="H51" s="22" t="s">
@@ -2974,16 +2970,16 @@
     </row>
     <row r="52" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>242</v>
+        <v>34</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="E52" s="24">
         <v>44378</v>
@@ -2992,7 +2988,7 @@
         <v>158</v>
       </c>
       <c r="G52" s="24">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
         <v>44743</v>
       </c>
       <c r="H52" s="22" t="s">
@@ -3001,105 +2997,105 @@
     </row>
     <row r="53" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>240</v>
+        <v>98</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>241</v>
+        <v>160</v>
       </c>
       <c r="E53" s="24">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>158</v>
       </c>
       <c r="G53" s="24">
-        <f t="shared" si="2"/>
-        <v>44743</v>
+        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
+        <v>44774</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E54" s="24">
-        <v>44409</v>
+        <v>44287</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="G54" s="24">
-        <f t="shared" si="2"/>
         <v>44774</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>106</v>
+      <c r="A55" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E55" s="24">
-        <v>44287</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>194</v>
+        <v>279</v>
+      </c>
+      <c r="E55" s="32">
+        <v>44440</v>
+      </c>
+      <c r="F55" s="44" t="s">
+        <v>158</v>
       </c>
       <c r="G55" s="24">
-        <v>44774</v>
+        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <v>44805</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="30" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>279</v>
+        <v>200</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>197</v>
       </c>
       <c r="E56" s="32">
         <v>44440</v>
       </c>
-      <c r="F56" s="44" t="s">
+      <c r="F56" s="30" t="s">
         <v>158</v>
       </c>
       <c r="G56" s="24">
-        <f t="shared" ref="G56:G67" si="3">DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
+        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
         <v>44805</v>
       </c>
       <c r="H56" s="22" t="s">
@@ -3108,13 +3104,13 @@
     </row>
     <row r="57" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="D57" s="31" t="s">
         <v>197</v>
@@ -3126,7 +3122,7 @@
         <v>158</v>
       </c>
       <c r="G57" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
         <v>44805</v>
       </c>
       <c r="H57" s="22" t="s">
@@ -3135,25 +3131,25 @@
     </row>
     <row r="58" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="D58" s="43" t="s">
-        <v>197</v>
+        <v>56</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="E58" s="29">
         <v>44440</v>
       </c>
-      <c r="F58" s="28" t="s">
+      <c r="F58" s="36" t="s">
         <v>158</v>
       </c>
       <c r="G58" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
         <v>44805</v>
       </c>
       <c r="H58" s="22" t="s">
@@ -3162,16 +3158,16 @@
     </row>
     <row r="59" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>254</v>
+        <v>58</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E59" s="24">
         <v>44440</v>
@@ -3180,7 +3176,7 @@
         <v>158</v>
       </c>
       <c r="G59" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
         <v>44805</v>
       </c>
       <c r="H59" s="22" t="s">
@@ -3189,26 +3185,26 @@
     </row>
     <row r="60" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E60" s="24">
-        <v>44440</v>
+        <v>44501</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>158</v>
       </c>
       <c r="G60" s="24">
-        <f t="shared" si="3"/>
-        <v>44805</v>
+        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <v>44866</v>
       </c>
       <c r="H60" s="22" t="s">
         <v>220</v>
@@ -3216,16 +3212,16 @@
     </row>
     <row r="61" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>264</v>
+        <v>78</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>262</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>148</v>
+        <v>262</v>
       </c>
       <c r="E61" s="24">
         <v>44501</v>
@@ -3234,52 +3230,52 @@
         <v>158</v>
       </c>
       <c r="G61" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
         <v>44866</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>262</v>
+        <v>36</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>280</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="E62" s="24">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>158</v>
       </c>
       <c r="G62" s="24">
-        <f t="shared" si="3"/>
-        <v>44866</v>
+        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <v>44896</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E63" s="24">
         <v>44531</v>
@@ -3288,7 +3284,7 @@
         <v>158</v>
       </c>
       <c r="G63" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
         <v>44896</v>
       </c>
       <c r="H63" s="22" t="s">
@@ -3297,16 +3293,16 @@
     </row>
     <row r="64" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>274</v>
+        <v>24</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>273</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E64" s="24">
         <v>44531</v>
@@ -3315,7 +3311,7 @@
         <v>158</v>
       </c>
       <c r="G64" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
         <v>44896</v>
       </c>
       <c r="H64" s="22" t="s">
@@ -3324,16 +3320,16 @@
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E65" s="24">
         <v>44531</v>
@@ -3342,7 +3338,7 @@
         <v>158</v>
       </c>
       <c r="G65" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
         <v>44896</v>
       </c>
       <c r="H65" s="22" t="s">
@@ -3351,16 +3347,16 @@
     </row>
     <row r="66" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E66" s="24">
         <v>44531</v>
@@ -3369,7 +3365,7 @@
         <v>158</v>
       </c>
       <c r="G66" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
         <v>44896</v>
       </c>
       <c r="H66" s="22" t="s">
@@ -3378,29 +3374,29 @@
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>147</v>
+        <v>81</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="E67" s="24">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>158</v>
       </c>
       <c r="G67" s="24">
-        <f t="shared" si="3"/>
-        <v>44896</v>
+        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
+        <v>44927</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -3823,106 +3819,106 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C42" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C41" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="D68" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C32" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C34" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C44" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C67" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C31" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C32" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C43" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C79" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C41" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C40" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C81" r:id="rId10" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D75" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C39" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D56" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D49" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C38" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D24" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D55" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D48" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D10:D12" r:id="rId17" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D28" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D42" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D53" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D63" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D66" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D59" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D60" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D67" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D61" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D23" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D6" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D7" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D41" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D52" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D62" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D12" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D65" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D58" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D59" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D66" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D60" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D21" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D22" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D5" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D6" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D77" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D79" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D18" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D64" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D29" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D54" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D17" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D63" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D28" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D53" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D82" r:id="rId40" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D78" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C78" r:id="rId42" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D51" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D52" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D5" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D15" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D8" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D4" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D14" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D9" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C68" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D9" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D43" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D39" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D36" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D67" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D42" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D38" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D35" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C70" r:id="rId55" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C73" r:id="rId56" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D12" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C35" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D11" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C34" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D83" r:id="rId59" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C83" r:id="rId60" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
     <hyperlink ref="D69" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="C69" r:id="rId62" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
     <hyperlink ref="C82" r:id="rId63" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D58" r:id="rId64" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D57" r:id="rId65" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D16" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="D57" r:id="rId64" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D56" r:id="rId65" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="D15" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C76" r:id="rId67" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C49" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D30" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D19" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C55" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="C7" r:id="rId72" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="D11" r:id="rId73" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C36" r:id="rId74" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
-    <hyperlink ref="C60" r:id="rId75" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D4" r:id="rId76" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="C48" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="D29" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D18" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="C54" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
+    <hyperlink ref="C6" r:id="rId72" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="D10" r:id="rId73" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C35" r:id="rId74" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
+    <hyperlink ref="C59" r:id="rId75" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
+    <hyperlink ref="D8" r:id="rId76" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C85" r:id="rId77" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="C31" r:id="rId78" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
-    <hyperlink ref="D65" r:id="rId79" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C24" r:id="rId80" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="C64" r:id="rId81" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
-    <hyperlink ref="D62" r:id="rId82" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
+    <hyperlink ref="C30" r:id="rId78" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
+    <hyperlink ref="D64" r:id="rId79" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
+    <hyperlink ref="C23" r:id="rId80" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C63" r:id="rId81" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
+    <hyperlink ref="D61" r:id="rId82" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId83" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D37" r:id="rId84" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
-    <hyperlink ref="C54" r:id="rId85" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
+    <hyperlink ref="D36" r:id="rId84" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="C53" r:id="rId85" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
     <hyperlink ref="D76" r:id="rId86" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
     <hyperlink ref="D3" r:id="rId87" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
     <hyperlink ref="C3" r:id="rId88" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
     <hyperlink ref="D81" r:id="rId89" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
     <hyperlink ref="D85" r:id="rId90" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
     <hyperlink ref="C74" r:id="rId91" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C37" r:id="rId92" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
-    <hyperlink ref="C56" r:id="rId93" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
-    <hyperlink ref="C63" r:id="rId94" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D26" r:id="rId95" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D27" r:id="rId96" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C26" r:id="rId97" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C29" r:id="rId98" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C21" r:id="rId99" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C5" r:id="rId100" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C36" r:id="rId92" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
+    <hyperlink ref="C55" r:id="rId93" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
+    <hyperlink ref="C62" r:id="rId94" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D25" r:id="rId95" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D26" r:id="rId96" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C25" r:id="rId97" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C28" r:id="rId98" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C20" r:id="rId99" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C4" r:id="rId100" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId101"/>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092006C4-A4B6-4278-8FBF-1678B2CC1170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0875F3-FB44-4C93-83BC-C09C4F3AB6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,9 +856,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043239/Regional_Electricity_Generation_and_Supply_Timeseries.xlsx</t>
   </si>
   <si>
-    <t>https://www.electralink.co.uk/2021/12/17-million-smart-installations/</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043309/ET_5.6_DEC_21.xlsx</t>
   </si>
   <si>
@@ -947,6 +944,9 @@
   </si>
   <si>
     <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-december-2021-annual-edition</t>
+  </si>
+  <si>
+    <t>https://www.electralink.co.uk/2022/01/2021-smart-installations-increase-2020/</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1599,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1699,7 +1699,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>139</v>
@@ -1805,7 +1805,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>263</v>
@@ -1831,8 +1831,8 @@
       <c r="B9" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>275</v>
+      <c r="C9" s="41" t="s">
+        <v>305</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>172</v>
@@ -1859,7 +1859,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>143</v>
@@ -1913,7 +1913,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>142</v>
@@ -1943,7 +1943,7 @@
         <v>265</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E13" s="32">
         <v>44501</v>
@@ -2003,7 +2003,7 @@
         <v>44409</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G15" s="24">
         <f>DATE(YEAR(E15),MONTH(E15)+6,DAY(E15))</f>
@@ -2033,7 +2033,7 @@
         <v>157</v>
       </c>
       <c r="G16" s="24">
-        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
+        <f t="shared" ref="G16:G34" si="0">DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
         <v>44593</v>
       </c>
       <c r="H16" s="22" t="s">
@@ -2048,7 +2048,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>156</v>
@@ -2060,7 +2060,7 @@
         <v>157</v>
       </c>
       <c r="G17" s="24">
-        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H17" s="22" t="s">
@@ -2075,7 +2075,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>140</v>
@@ -2087,7 +2087,7 @@
         <v>157</v>
       </c>
       <c r="G18" s="24">
-        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H18" s="22" t="s">
@@ -2096,13 +2096,13 @@
     </row>
     <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>140</v>
@@ -2114,7 +2114,7 @@
         <v>157</v>
       </c>
       <c r="G19" s="24">
-        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H19" s="22" t="s">
@@ -2123,13 +2123,13 @@
     </row>
     <row r="20" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>140</v>
@@ -2141,7 +2141,7 @@
         <v>157</v>
       </c>
       <c r="G20" s="24">
-        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H20" s="22" t="s">
@@ -2156,7 +2156,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>133</v>
@@ -2168,7 +2168,7 @@
         <v>157</v>
       </c>
       <c r="G21" s="24">
-        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H21" s="22" t="s">
@@ -2183,7 +2183,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>133</v>
@@ -2195,7 +2195,7 @@
         <v>157</v>
       </c>
       <c r="G22" s="24">
-        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H22" s="22" t="s">
@@ -2210,7 +2210,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>133</v>
@@ -2222,7 +2222,7 @@
         <v>157</v>
       </c>
       <c r="G23" s="24">
-        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H23" s="22" t="s">
@@ -2237,7 +2237,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>133</v>
@@ -2249,7 +2249,7 @@
         <v>157</v>
       </c>
       <c r="G24" s="24">
-        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H24" s="22" t="s">
@@ -2258,13 +2258,13 @@
     </row>
     <row r="25" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>295</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>296</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>133</v>
@@ -2276,7 +2276,7 @@
         <v>157</v>
       </c>
       <c r="G25" s="24">
-        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H25" s="22" t="s">
@@ -2285,13 +2285,13 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>133</v>
@@ -2303,7 +2303,7 @@
         <v>157</v>
       </c>
       <c r="G26" s="24">
-        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H26" s="22" t="s">
@@ -2318,7 +2318,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>136</v>
@@ -2330,7 +2330,7 @@
         <v>157</v>
       </c>
       <c r="G27" s="24">
-        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H27" s="22" t="s">
@@ -2345,7 +2345,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>140</v>
@@ -2357,7 +2357,7 @@
         <v>157</v>
       </c>
       <c r="G28" s="24">
-        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H28" s="22" t="s">
@@ -2384,7 +2384,7 @@
         <v>157</v>
       </c>
       <c r="G29" s="24">
-        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H29" s="22" t="s">
@@ -2411,7 +2411,7 @@
         <v>157</v>
       </c>
       <c r="G30" s="24">
-        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H30" s="22" t="s">
@@ -2436,7 +2436,7 @@
         <v>157</v>
       </c>
       <c r="G31" s="24">
-        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H31" s="22" t="s">
@@ -2461,7 +2461,7 @@
         <v>157</v>
       </c>
       <c r="G32" s="24">
-        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H32" s="22" t="s">
@@ -2486,7 +2486,7 @@
         <v>157</v>
       </c>
       <c r="G33" s="24">
-        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H33" s="22" t="s">
@@ -2511,7 +2511,7 @@
         <v>157</v>
       </c>
       <c r="G34" s="24">
-        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H34" s="22" t="s">
@@ -2552,10 +2552,10 @@
         <v>210</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E36" s="24">
         <v>44531</v>
@@ -2589,7 +2589,7 @@
         <v>158</v>
       </c>
       <c r="G37" s="24">
-        <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
+        <f t="shared" ref="G37:G45" si="1">DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
         <v>44652</v>
       </c>
       <c r="H37" s="22" t="s">
@@ -2616,7 +2616,7 @@
         <v>158</v>
       </c>
       <c r="G38" s="24">
-        <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
+        <f t="shared" si="1"/>
         <v>44652</v>
       </c>
       <c r="H38" s="22" t="s">
@@ -2643,7 +2643,7 @@
         <v>158</v>
       </c>
       <c r="G39" s="24">
-        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
+        <f t="shared" si="1"/>
         <v>44652</v>
       </c>
       <c r="H39" s="22" t="s">
@@ -2670,7 +2670,7 @@
         <v>158</v>
       </c>
       <c r="G40" s="32">
-        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
+        <f t="shared" si="1"/>
         <v>44652</v>
       </c>
       <c r="H40" s="30" t="s">
@@ -2697,7 +2697,7 @@
         <v>158</v>
       </c>
       <c r="G41" s="32">
-        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H41" s="30" t="s">
@@ -2724,7 +2724,7 @@
         <v>158</v>
       </c>
       <c r="G42" s="32">
-        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H42" s="30" t="s">
@@ -2749,7 +2749,7 @@
         <v>158</v>
       </c>
       <c r="G43" s="29">
-        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H43" s="28" t="s">
@@ -2776,7 +2776,7 @@
         <v>158</v>
       </c>
       <c r="G44" s="29">
-        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H44" s="28" t="s">
@@ -2803,7 +2803,7 @@
         <v>158</v>
       </c>
       <c r="G45" s="24">
-        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H45" s="28" t="s">
@@ -2880,7 +2880,7 @@
         <v>158</v>
       </c>
       <c r="G48" s="24">
-        <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
+        <f t="shared" ref="G48:G53" si="2">DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
         <v>44743</v>
       </c>
       <c r="H48" s="22" t="s">
@@ -2907,7 +2907,7 @@
         <v>158</v>
       </c>
       <c r="G49" s="24">
-        <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
+        <f t="shared" si="2"/>
         <v>44743</v>
       </c>
       <c r="H49" s="22" t="s">
@@ -2934,7 +2934,7 @@
         <v>158</v>
       </c>
       <c r="G50" s="24">
-        <f>DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
+        <f t="shared" si="2"/>
         <v>44743</v>
       </c>
       <c r="H50" s="22" t="s">
@@ -2961,7 +2961,7 @@
         <v>158</v>
       </c>
       <c r="G51" s="24">
-        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
+        <f t="shared" si="2"/>
         <v>44743</v>
       </c>
       <c r="H51" s="22" t="s">
@@ -2988,7 +2988,7 @@
         <v>158</v>
       </c>
       <c r="G52" s="24">
-        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
+        <f t="shared" si="2"/>
         <v>44743</v>
       </c>
       <c r="H52" s="22" t="s">
@@ -3003,7 +3003,7 @@
         <v>98</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>160</v>
@@ -3015,7 +3015,7 @@
         <v>158</v>
       </c>
       <c r="G53" s="24">
-        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
+        <f t="shared" si="2"/>
         <v>44774</v>
       </c>
       <c r="H53" s="22" t="s">
@@ -3059,7 +3059,7 @@
         <v>256</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E55" s="32">
         <v>44440</v>
@@ -3068,7 +3068,7 @@
         <v>158</v>
       </c>
       <c r="G55" s="24">
-        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <f t="shared" ref="G55:G67" si="3">DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
         <v>44805</v>
       </c>
       <c r="H55" s="22" t="s">
@@ -3095,7 +3095,7 @@
         <v>158</v>
       </c>
       <c r="G56" s="24">
-        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
+        <f t="shared" si="3"/>
         <v>44805</v>
       </c>
       <c r="H56" s="22" t="s">
@@ -3122,7 +3122,7 @@
         <v>158</v>
       </c>
       <c r="G57" s="24">
-        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <f t="shared" si="3"/>
         <v>44805</v>
       </c>
       <c r="H57" s="22" t="s">
@@ -3149,7 +3149,7 @@
         <v>158</v>
       </c>
       <c r="G58" s="24">
-        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <f t="shared" si="3"/>
         <v>44805</v>
       </c>
       <c r="H58" s="22" t="s">
@@ -3176,7 +3176,7 @@
         <v>158</v>
       </c>
       <c r="G59" s="24">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <f t="shared" si="3"/>
         <v>44805</v>
       </c>
       <c r="H59" s="22" t="s">
@@ -3203,7 +3203,7 @@
         <v>158</v>
       </c>
       <c r="G60" s="24">
-        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <f t="shared" si="3"/>
         <v>44866</v>
       </c>
       <c r="H60" s="22" t="s">
@@ -3230,7 +3230,7 @@
         <v>158</v>
       </c>
       <c r="G61" s="24">
-        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
+        <f t="shared" si="3"/>
         <v>44866</v>
       </c>
       <c r="H61" s="22" t="s">
@@ -3245,7 +3245,7 @@
         <v>36</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>138</v>
@@ -3257,7 +3257,7 @@
         <v>158</v>
       </c>
       <c r="G62" s="24">
-        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <f t="shared" si="3"/>
         <v>44896</v>
       </c>
       <c r="H62" s="22" t="s">
@@ -3284,7 +3284,7 @@
         <v>158</v>
       </c>
       <c r="G63" s="24">
-        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <f t="shared" si="3"/>
         <v>44896</v>
       </c>
       <c r="H63" s="22" t="s">
@@ -3311,7 +3311,7 @@
         <v>158</v>
       </c>
       <c r="G64" s="24">
-        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
+        <f t="shared" si="3"/>
         <v>44896</v>
       </c>
       <c r="H64" s="22" t="s">
@@ -3338,7 +3338,7 @@
         <v>158</v>
       </c>
       <c r="G65" s="24">
-        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <f t="shared" si="3"/>
         <v>44896</v>
       </c>
       <c r="H65" s="22" t="s">
@@ -3365,7 +3365,7 @@
         <v>158</v>
       </c>
       <c r="G66" s="24">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <f t="shared" si="3"/>
         <v>44896</v>
       </c>
       <c r="H66" s="22" t="s">
@@ -3392,7 +3392,7 @@
         <v>158</v>
       </c>
       <c r="G67" s="24">
-        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
+        <f t="shared" si="3"/>
         <v>44927</v>
       </c>
       <c r="H67" s="22" t="s">
@@ -3544,10 +3544,10 @@
         <v>76</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E74" s="24">
         <v>44256</v>
@@ -3595,7 +3595,7 @@
         <v>207</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E76" s="11">
         <v>44044</v>
@@ -3919,11 +3919,12 @@
     <hyperlink ref="C28" r:id="rId98" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
     <hyperlink ref="C20" r:id="rId99" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
     <hyperlink ref="C4" r:id="rId100" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C9" r:id="rId101" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId101"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId102"/>
   <tableParts count="1">
-    <tablePart r:id="rId102"/>
+    <tablePart r:id="rId103"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0875F3-FB44-4C93-83BC-C09C4F3AB6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018BF762-B680-47E5-85A9-6DFE9A433534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -940,13 +940,13 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043397/table_252.xlsx</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1047733/Headline_HEE_tables_20_JANUARY_2022.xlsx</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-december-2021-annual-edition</t>
   </si>
   <si>
     <t>https://www.electralink.co.uk/2022/01/2021-smart-installations-increase-2020/</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1056549/Headline_HEE_tables_24_February_2022.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1599,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1705,14 +1705,14 @@
         <v>139</v>
       </c>
       <c r="E4" s="24">
-        <v>44531</v>
+        <v>44228</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>159</v>
       </c>
       <c r="G4" s="24">
         <f>DATE(YEAR(E4),MONTH(E4)+1,DAY(E4))</f>
-        <v>44562</v>
+        <v>44256</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>220</v>
@@ -1799,43 +1799,43 @@
     </row>
     <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>263</v>
+        <v>71</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>172</v>
       </c>
       <c r="E8" s="24">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>159</v>
       </c>
       <c r="G8" s="24">
         <f>DATE(YEAR(E8),MONTH(E8)+1,DAY(E8))</f>
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>172</v>
+        <v>52</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="E9" s="24">
         <v>44562</v>
@@ -1848,30 +1848,30 @@
         <v>44593</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>143</v>
+        <v>182</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="E10" s="24">
-        <v>44562</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>159</v>
+        <v>44228</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="G10" s="24">
-        <f>DATE(YEAR(E10),MONTH(E10)+1,DAY(E10))</f>
+        <f>DATE(YEAR(E10)+1,MONTH(E10),DAY(E10))</f>
         <v>44593</v>
       </c>
       <c r="H10" s="22" t="s">
@@ -1880,25 +1880,25 @@
     </row>
     <row r="11" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>170</v>
+        <v>50</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="E11" s="24">
-        <v>44228</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>158</v>
+        <v>44501</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="G11" s="24">
-        <f>DATE(YEAR(E11)+1,MONTH(E11),DAY(E11))</f>
+        <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
         <v>44593</v>
       </c>
       <c r="H11" s="22" t="s">
@@ -1906,52 +1906,52 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="24">
+      <c r="A12" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="32">
         <v>44501</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="32">
         <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
         <v>44593</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>220</v>
+      <c r="H12" s="30" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="E13" s="32">
+      <c r="A13" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="24">
         <v>44501</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="24">
         <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
         <v>44593</v>
       </c>
@@ -1961,83 +1961,83 @@
     </row>
     <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="E14" s="24">
-        <v>44501</v>
+        <v>44409</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="G14" s="24">
-        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
+        <f>DATE(YEAR(E14),MONTH(E14)+6,DAY(E14))</f>
         <v>44593</v>
       </c>
-      <c r="H14" s="30" t="s">
-        <v>222</v>
+      <c r="H14" s="22" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>249</v>
+        <v>118</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>261</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="E15" s="24">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>288</v>
+        <v>157</v>
       </c>
       <c r="G15" s="24">
-        <f>DATE(YEAR(E15),MONTH(E15)+6,DAY(E15))</f>
+        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
         <v>44593</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>261</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>263</v>
       </c>
       <c r="E16" s="24">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G16" s="24">
-        <f t="shared" ref="G16:G34" si="0">DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
-        <v>44593</v>
+        <f>DATE(YEAR(E16),MONTH(E16)+1,DAY(E16))</f>
+        <v>44621</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -2060,7 +2060,7 @@
         <v>157</v>
       </c>
       <c r="G17" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
         <v>44621</v>
       </c>
       <c r="H17" s="22" t="s">
@@ -2087,7 +2087,7 @@
         <v>157</v>
       </c>
       <c r="G18" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
         <v>44621</v>
       </c>
       <c r="H18" s="22" t="s">
@@ -2114,7 +2114,7 @@
         <v>157</v>
       </c>
       <c r="G19" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
         <v>44621</v>
       </c>
       <c r="H19" s="22" t="s">
@@ -2141,7 +2141,7 @@
         <v>157</v>
       </c>
       <c r="G20" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
         <v>44621</v>
       </c>
       <c r="H20" s="22" t="s">
@@ -2168,7 +2168,7 @@
         <v>157</v>
       </c>
       <c r="G21" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
         <v>44621</v>
       </c>
       <c r="H21" s="22" t="s">
@@ -2195,7 +2195,7 @@
         <v>157</v>
       </c>
       <c r="G22" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
         <v>44621</v>
       </c>
       <c r="H22" s="22" t="s">
@@ -2222,7 +2222,7 @@
         <v>157</v>
       </c>
       <c r="G23" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
         <v>44621</v>
       </c>
       <c r="H23" s="22" t="s">
@@ -2249,7 +2249,7 @@
         <v>157</v>
       </c>
       <c r="G24" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
         <v>44621</v>
       </c>
       <c r="H24" s="22" t="s">
@@ -2276,7 +2276,7 @@
         <v>157</v>
       </c>
       <c r="G25" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
         <v>44621</v>
       </c>
       <c r="H25" s="22" t="s">
@@ -2303,7 +2303,7 @@
         <v>157</v>
       </c>
       <c r="G26" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
         <v>44621</v>
       </c>
       <c r="H26" s="22" t="s">
@@ -2330,7 +2330,7 @@
         <v>157</v>
       </c>
       <c r="G27" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
         <v>44621</v>
       </c>
       <c r="H27" s="22" t="s">
@@ -2357,7 +2357,7 @@
         <v>157</v>
       </c>
       <c r="G28" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
         <v>44621</v>
       </c>
       <c r="H28" s="22" t="s">
@@ -2384,7 +2384,7 @@
         <v>157</v>
       </c>
       <c r="G29" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
         <v>44621</v>
       </c>
       <c r="H29" s="22" t="s">
@@ -2411,7 +2411,7 @@
         <v>157</v>
       </c>
       <c r="G30" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
         <v>44621</v>
       </c>
       <c r="H30" s="22" t="s">
@@ -2436,7 +2436,7 @@
         <v>157</v>
       </c>
       <c r="G31" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
         <v>44621</v>
       </c>
       <c r="H31" s="22" t="s">
@@ -2461,7 +2461,7 @@
         <v>157</v>
       </c>
       <c r="G32" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
         <v>44621</v>
       </c>
       <c r="H32" s="22" t="s">
@@ -2486,7 +2486,7 @@
         <v>157</v>
       </c>
       <c r="G33" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
         <v>44621</v>
       </c>
       <c r="H33" s="22" t="s">
@@ -2511,7 +2511,7 @@
         <v>157</v>
       </c>
       <c r="G34" s="24">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
         <v>44621</v>
       </c>
       <c r="H34" s="22" t="s">
@@ -2589,7 +2589,7 @@
         <v>158</v>
       </c>
       <c r="G37" s="24">
-        <f t="shared" ref="G37:G45" si="1">DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
+        <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
         <v>44652</v>
       </c>
       <c r="H37" s="22" t="s">
@@ -2616,7 +2616,7 @@
         <v>158</v>
       </c>
       <c r="G38" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
         <v>44652</v>
       </c>
       <c r="H38" s="22" t="s">
@@ -2643,7 +2643,7 @@
         <v>158</v>
       </c>
       <c r="G39" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
         <v>44652</v>
       </c>
       <c r="H39" s="22" t="s">
@@ -2670,7 +2670,7 @@
         <v>158</v>
       </c>
       <c r="G40" s="32">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
         <v>44652</v>
       </c>
       <c r="H40" s="30" t="s">
@@ -2697,7 +2697,7 @@
         <v>158</v>
       </c>
       <c r="G41" s="32">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
         <v>44713</v>
       </c>
       <c r="H41" s="30" t="s">
@@ -2724,7 +2724,7 @@
         <v>158</v>
       </c>
       <c r="G42" s="32">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
         <v>44713</v>
       </c>
       <c r="H42" s="30" t="s">
@@ -2749,7 +2749,7 @@
         <v>158</v>
       </c>
       <c r="G43" s="29">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
         <v>44713</v>
       </c>
       <c r="H43" s="28" t="s">
@@ -2776,7 +2776,7 @@
         <v>158</v>
       </c>
       <c r="G44" s="29">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
         <v>44713</v>
       </c>
       <c r="H44" s="28" t="s">
@@ -2803,7 +2803,7 @@
         <v>158</v>
       </c>
       <c r="G45" s="24">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
         <v>44713</v>
       </c>
       <c r="H45" s="28" t="s">
@@ -2880,7 +2880,7 @@
         <v>158</v>
       </c>
       <c r="G48" s="24">
-        <f t="shared" ref="G48:G53" si="2">DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
+        <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
         <v>44743</v>
       </c>
       <c r="H48" s="22" t="s">
@@ -2907,7 +2907,7 @@
         <v>158</v>
       </c>
       <c r="G49" s="24">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
         <v>44743</v>
       </c>
       <c r="H49" s="22" t="s">
@@ -2934,7 +2934,7 @@
         <v>158</v>
       </c>
       <c r="G50" s="24">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
         <v>44743</v>
       </c>
       <c r="H50" s="22" t="s">
@@ -2961,7 +2961,7 @@
         <v>158</v>
       </c>
       <c r="G51" s="24">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
         <v>44743</v>
       </c>
       <c r="H51" s="22" t="s">
@@ -2988,7 +2988,7 @@
         <v>158</v>
       </c>
       <c r="G52" s="24">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
         <v>44743</v>
       </c>
       <c r="H52" s="22" t="s">
@@ -3015,7 +3015,7 @@
         <v>158</v>
       </c>
       <c r="G53" s="24">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
         <v>44774</v>
       </c>
       <c r="H53" s="22" t="s">
@@ -3068,7 +3068,7 @@
         <v>158</v>
       </c>
       <c r="G55" s="24">
-        <f t="shared" ref="G55:G67" si="3">DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
         <v>44805</v>
       </c>
       <c r="H55" s="22" t="s">
@@ -3095,7 +3095,7 @@
         <v>158</v>
       </c>
       <c r="G56" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
         <v>44805</v>
       </c>
       <c r="H56" s="22" t="s">
@@ -3122,7 +3122,7 @@
         <v>158</v>
       </c>
       <c r="G57" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
         <v>44805</v>
       </c>
       <c r="H57" s="22" t="s">
@@ -3149,7 +3149,7 @@
         <v>158</v>
       </c>
       <c r="G58" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
         <v>44805</v>
       </c>
       <c r="H58" s="22" t="s">
@@ -3176,7 +3176,7 @@
         <v>158</v>
       </c>
       <c r="G59" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
         <v>44805</v>
       </c>
       <c r="H59" s="22" t="s">
@@ -3203,7 +3203,7 @@
         <v>158</v>
       </c>
       <c r="G60" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
         <v>44866</v>
       </c>
       <c r="H60" s="22" t="s">
@@ -3230,7 +3230,7 @@
         <v>158</v>
       </c>
       <c r="G61" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
         <v>44866</v>
       </c>
       <c r="H61" s="22" t="s">
@@ -3257,7 +3257,7 @@
         <v>158</v>
       </c>
       <c r="G62" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
         <v>44896</v>
       </c>
       <c r="H62" s="22" t="s">
@@ -3284,7 +3284,7 @@
         <v>158</v>
       </c>
       <c r="G63" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
         <v>44896</v>
       </c>
       <c r="H63" s="22" t="s">
@@ -3311,7 +3311,7 @@
         <v>158</v>
       </c>
       <c r="G64" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
         <v>44896</v>
       </c>
       <c r="H64" s="22" t="s">
@@ -3338,7 +3338,7 @@
         <v>158</v>
       </c>
       <c r="G65" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
         <v>44896</v>
       </c>
       <c r="H65" s="22" t="s">
@@ -3365,7 +3365,7 @@
         <v>158</v>
       </c>
       <c r="G66" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
         <v>44896</v>
       </c>
       <c r="H66" s="22" t="s">
@@ -3392,7 +3392,7 @@
         <v>158</v>
       </c>
       <c r="G67" s="24">
-        <f t="shared" si="3"/>
+        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
         <v>44927</v>
       </c>
       <c r="H67" s="22" t="s">
@@ -3841,7 +3841,7 @@
     <hyperlink ref="D52" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="D62" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="D30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D12" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D11" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="D65" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="D58" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="D59" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
@@ -3865,8 +3865,8 @@
     <hyperlink ref="D51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
     <hyperlink ref="C24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="D4" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D14" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D9" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D13" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D8" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C68" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
     <hyperlink ref="D67" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="D42" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
@@ -3875,7 +3875,7 @@
     <hyperlink ref="D35" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C70" r:id="rId55" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C73" r:id="rId56" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D11" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="D10" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
     <hyperlink ref="C34" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D83" r:id="rId59" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C83" r:id="rId60" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
@@ -3884,47 +3884,48 @@
     <hyperlink ref="C82" r:id="rId63" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
     <hyperlink ref="D57" r:id="rId64" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
     <hyperlink ref="D56" r:id="rId65" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D15" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="D14" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C76" r:id="rId67" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
     <hyperlink ref="C48" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
     <hyperlink ref="D29" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
     <hyperlink ref="D18" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
     <hyperlink ref="C54" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="C6" r:id="rId72" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="D10" r:id="rId73" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C35" r:id="rId74" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
-    <hyperlink ref="C59" r:id="rId75" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D8" r:id="rId76" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
-    <hyperlink ref="C85" r:id="rId77" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="C30" r:id="rId78" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
-    <hyperlink ref="D64" r:id="rId79" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C23" r:id="rId80" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="C63" r:id="rId81" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
-    <hyperlink ref="D61" r:id="rId82" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
-    <hyperlink ref="C2" r:id="rId83" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D36" r:id="rId84" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
-    <hyperlink ref="C53" r:id="rId85" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
-    <hyperlink ref="D76" r:id="rId86" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
-    <hyperlink ref="D3" r:id="rId87" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
-    <hyperlink ref="C3" r:id="rId88" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
-    <hyperlink ref="D81" r:id="rId89" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
-    <hyperlink ref="D85" r:id="rId90" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
-    <hyperlink ref="C74" r:id="rId91" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C36" r:id="rId92" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
-    <hyperlink ref="C55" r:id="rId93" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
-    <hyperlink ref="C62" r:id="rId94" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D25" r:id="rId95" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D26" r:id="rId96" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C25" r:id="rId97" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C28" r:id="rId98" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C20" r:id="rId99" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C4" r:id="rId100" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C9" r:id="rId101" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
+    <hyperlink ref="D9" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C35" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
+    <hyperlink ref="C59" r:id="rId74" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
+    <hyperlink ref="D16" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="C85" r:id="rId76" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
+    <hyperlink ref="C30" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
+    <hyperlink ref="D64" r:id="rId78" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
+    <hyperlink ref="C23" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C63" r:id="rId80" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
+    <hyperlink ref="D61" r:id="rId81" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
+    <hyperlink ref="C2" r:id="rId82" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
+    <hyperlink ref="D36" r:id="rId83" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="C53" r:id="rId84" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
+    <hyperlink ref="D76" r:id="rId85" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
+    <hyperlink ref="D3" r:id="rId86" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
+    <hyperlink ref="C3" r:id="rId87" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
+    <hyperlink ref="D81" r:id="rId88" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
+    <hyperlink ref="D85" r:id="rId89" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
+    <hyperlink ref="C74" r:id="rId90" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
+    <hyperlink ref="C36" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
+    <hyperlink ref="C55" r:id="rId92" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
+    <hyperlink ref="C62" r:id="rId93" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D25" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D26" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C25" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C28" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C20" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C4" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C8" r:id="rId100" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
+    <hyperlink ref="C6" r:id="rId101" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="C16" r:id="rId102" xr:uid="{E035FF6A-D6FD-4586-B36D-13C716E1E0D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId102"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId103"/>
   <tableParts count="1">
-    <tablePart r:id="rId103"/>
+    <tablePart r:id="rId104"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018BF762-B680-47E5-85A9-6DFE9A433534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B49930-760E-4C4C-A7BE-BEF7A9E977B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,9 +778,6 @@
     <t>https://mip-prd-web.azurewebsites.net/DataItemExplorer/Index</t>
   </si>
   <si>
-    <t>https://www.ofgem.gov.uk/sites/default/files/2021-08/Default_tariff_cap_level_v1.9.xlsx</t>
-  </si>
-  <si>
     <t>https://www.nrscotland.gov.uk/statistics-and-data/statistics/statistics-by-theme/households/household-estimates/2020</t>
   </si>
   <si>
@@ -940,13 +937,16 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043397/table_252.xlsx</t>
   </si>
   <si>
-    <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-december-2021-annual-edition</t>
-  </si>
-  <si>
     <t>https://www.electralink.co.uk/2022/01/2021-smart-installations-increase-2020/</t>
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1056549/Headline_HEE_tables_24_February_2022.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-january-2022</t>
+  </si>
+  <si>
+    <t>https://www.ofgem.gov.uk/sites/default/files/2022-02/Default_tarif_cap_level_v1.10.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1071,13 +1071,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1118,6 +1117,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1599,7 +1602,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1646,17 +1649,17 @@
       <c r="B2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="21">
+      <c r="D2" s="38"/>
+      <c r="E2" s="20">
         <v>43862</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="21">
+      <c r="F2" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="20">
         <f>DATE(YEAR(E2)+1,MONTH(E2),DAY(E2))</f>
         <v>44228</v>
       </c>
@@ -1671,19 +1674,19 @@
       <c r="B3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="39">
         <v>43891</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <f>DATE(YEAR(E3)+1,MONTH(E3),DAY(E3))</f>
         <v>44256</v>
       </c>
@@ -1691,2062 +1694,2062 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>44228</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <f>DATE(YEAR(E4),MONTH(E4)+1,DAY(E4))</f>
         <v>44256</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>44440</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>44562</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>44440</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>44562</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <v>44197</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="24">
+      <c r="F7" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="23">
         <f>DATE(YEAR(E7)+1,MONTH(E7),DAY(E7))</f>
         <v>44562</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="24">
+    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="23">
+        <v>44501</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="23">
+        <f>DATE(YEAR(E8),MONTH(E8)+3,DAY(E8))</f>
         <v>44593</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="24">
-        <f>DATE(YEAR(E8),MONTH(E8)+1,DAY(E8))</f>
-        <v>44621</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="24">
-        <v>44562</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="24">
-        <f>DATE(YEAR(E9),MONTH(E9)+1,DAY(E9))</f>
+      <c r="H8" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="31">
+        <v>44501</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="31">
+        <f>DATE(YEAR(E9),MONTH(E9)+3,DAY(E9))</f>
         <v>44593</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="24">
-        <v>44228</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="24">
-        <f>DATE(YEAR(E10)+1,MONTH(E10),DAY(E10))</f>
+      <c r="H9" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="23">
+        <v>44501</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="23">
+        <f>DATE(YEAR(E10),MONTH(E10)+3,DAY(E10))</f>
         <v>44593</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="24">
+      <c r="H10" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="23">
         <v>44501</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
         <v>44593</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="23">
+        <v>44593</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="23">
+        <f>DATE(YEAR(E12),MONTH(E12)+1,DAY(E12))</f>
+        <v>44621</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="23">
+        <v>44593</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="23">
+        <f>DATE(YEAR(E13),MONTH(E13)+1,DAY(E13))</f>
+        <v>44621</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="E12" s="32">
-        <v>44501</v>
-      </c>
-      <c r="F12" s="30" t="s">
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="23">
+        <v>44593</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="23">
+        <f>DATE(YEAR(E14),MONTH(E14)+1,DAY(E14))</f>
+        <v>44621</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="23">
+        <v>44531</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="32">
-        <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
-        <v>44593</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="24">
-        <v>44501</v>
-      </c>
-      <c r="F13" s="25" t="s">
+      <c r="G15" s="23">
+        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
+        <v>44621</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="23">
+        <v>44531</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="24">
-        <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
-        <v>44593</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" s="24">
-        <v>44409</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="G14" s="24">
-        <f>DATE(YEAR(E14),MONTH(E14)+6,DAY(E14))</f>
-        <v>44593</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="E15" s="24">
-        <v>44501</v>
-      </c>
-      <c r="F15" s="25" t="s">
+      <c r="G16" s="23">
+        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
+        <v>44621</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="4">
+        <v>44531</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G15" s="24">
-        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
-        <v>44593</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="E16" s="24">
-        <v>44593</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="24">
-        <f>DATE(YEAR(E16),MONTH(E16)+1,DAY(E16))</f>
-        <v>44621</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E17" s="24">
-        <v>44531</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="24">
+      <c r="G17" s="23">
         <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
         <v>44621</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18" s="23" t="s">
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="4">
         <v>44531</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
         <v>44621</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="4">
+    <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="23">
         <v>44531</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="23">
         <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
         <v>44621</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="4">
+    <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="23">
         <v>44531</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="23">
         <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
         <v>44621</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="D21" s="23" t="s">
+    <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>44531</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
         <v>44621</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="D22" s="23" t="s">
+    <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>44531</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
         <v>44621</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="D23" s="23" t="s">
+    <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <v>44531</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
         <v>44621</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="D24" s="23" t="s">
+    <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="23">
         <v>44531</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="23">
         <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
         <v>44621</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="24">
+    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="23">
         <v>44531</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="23">
         <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
         <v>44621</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="24">
+    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="23">
         <v>44531</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="23">
         <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
         <v>44621</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="24">
+    <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="23">
         <v>44531</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="23">
         <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
         <v>44621</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="24">
+    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="23">
         <v>44531</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="23">
         <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
         <v>44621</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="24">
+    <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="23">
         <v>44531</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="23">
         <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
         <v>44621</v>
       </c>
-      <c r="H29" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="24">
+      <c r="H29" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="23">
         <v>44531</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="23">
         <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
         <v>44621</v>
       </c>
-      <c r="H30" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="24">
+      <c r="H30" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="23">
         <v>44531</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="23">
         <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
         <v>44621</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="21" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="24">
+    <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="31">
         <v>44531</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="23">
         <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
         <v>44621</v>
       </c>
-      <c r="H32" s="22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="24">
+      <c r="H32" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" s="23">
+        <v>44256</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="23">
+        <v>44621</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="23">
         <v>44531</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F34" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="24">
-        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
-        <v>44621</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="32">
-        <v>44531</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="24">
-        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
-        <v>44621</v>
-      </c>
-      <c r="H34" s="22" t="s">
+      <c r="G34" s="23">
+        <f>DATE(YEAR(E34),MONTH(E34)+4,DAY(E34))</f>
+        <v>44652</v>
+      </c>
+      <c r="H34" s="21" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="E35" s="24">
-        <v>44256</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G35" s="24">
-        <v>44621</v>
-      </c>
-      <c r="H35" s="22" t="s">
+    <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="23">
+        <v>44287</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35" s="23">
+        <f>DATE(YEAR(E35)+1,MONTH(E35),DAY(E35))</f>
+        <v>44652</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="23">
+        <v>44287</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="23">
+        <f>DATE(YEAR(E36)+1,MONTH(E36),DAY(E36))</f>
+        <v>44652</v>
+      </c>
+      <c r="H36" s="21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="E36" s="24">
-        <v>44531</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="24">
-        <f>DATE(YEAR(E36),MONTH(E36)+4,DAY(E36))</f>
-        <v>44652</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="24">
+    <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="23">
         <v>44287</v>
       </c>
-      <c r="F37" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G37" s="24">
+      <c r="F37" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="23">
         <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
         <v>44652</v>
       </c>
-      <c r="H37" s="22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="23" t="s">
+      <c r="H37" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="31">
         <v>44287</v>
       </c>
-      <c r="F38" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G38" s="24">
+      <c r="F38" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="31">
         <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
         <v>44652</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="29" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E39" s="24">
-        <v>44287</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="24">
+    <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="31">
+        <v>44348</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="31">
         <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
-        <v>44652</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" s="32">
-        <v>44287</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="G40" s="32">
+        <v>44713</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="31">
+        <v>44348</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="31">
         <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
-        <v>44652</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E41" s="32">
+        <v>44713</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="31">
         <v>44348</v>
       </c>
-      <c r="F41" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="G41" s="32">
+      <c r="F41" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="31">
         <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
         <v>44713</v>
       </c>
-      <c r="H41" s="30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="32">
+      <c r="H41" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" s="31">
         <v>44348</v>
       </c>
-      <c r="F42" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="G42" s="32">
+      <c r="F42" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" s="31">
         <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
         <v>44713</v>
       </c>
-      <c r="H42" s="30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="29">
+      <c r="H42" s="29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" s="28">
         <v>44348</v>
       </c>
-      <c r="F43" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="G43" s="29">
+      <c r="F43" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" s="28">
         <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
         <v>44713</v>
       </c>
-      <c r="H43" s="28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="E44" s="24">
+      <c r="H43" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E44" s="23">
         <v>44348</v>
       </c>
-      <c r="F44" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="G44" s="29">
-        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
+      <c r="F44" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="28">
         <v>44713</v>
       </c>
-      <c r="H44" s="28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="E45" s="24">
-        <v>44348</v>
-      </c>
-      <c r="F45" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="G45" s="24">
-        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
-        <v>44713</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="E46" s="24">
-        <v>44348</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="G46" s="24">
-        <v>44713</v>
-      </c>
-      <c r="H46" s="28" t="s">
+      <c r="H44" s="27" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+    <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B45" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C45" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D45" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E45" s="4">
         <v>44646</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F45" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G45" s="4">
         <v>44738</v>
       </c>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
+      <c r="H45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B46" s="27" t="s">
         <v>11</v>
       </c>
+      <c r="C46" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="23">
+        <v>44378</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" s="23">
+        <f>DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
+        <v>44743</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="23">
+        <v>44378</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="23">
+        <f>DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
+        <v>44743</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="C48" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="D48" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="23">
         <v>44378</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G48" s="24">
+      <c r="F48" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="23">
         <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
         <v>44743</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="D49" s="23" t="s">
+    <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="23">
         <v>44378</v>
       </c>
-      <c r="F49" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G49" s="24">
+      <c r="F49" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="23">
         <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
         <v>44743</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="24">
+    <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E50" s="23">
         <v>44378</v>
       </c>
-      <c r="F50" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G50" s="24">
+      <c r="F50" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G50" s="23">
         <f>DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
         <v>44743</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="24">
-        <v>44378</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G51" s="24">
-        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
-        <v>44743</v>
-      </c>
-      <c r="H51" s="22" t="s">
+    <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="23">
+        <v>44593</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="G51" s="23">
+        <f>DATE(YEAR(E51),MONTH(E51)+6,DAY(E51))</f>
+        <v>44774</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="23">
+        <v>44409</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G52" s="23">
+        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
+        <v>44774</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="23">
+        <v>44287</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="23">
+        <v>44774</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G54" s="23">
+        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <v>44805</v>
+      </c>
+      <c r="H54" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E52" s="24">
-        <v>44378</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G52" s="24">
-        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
-        <v>44743</v>
-      </c>
-      <c r="H52" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E53" s="24">
-        <v>44409</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G53" s="24">
-        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
-        <v>44774</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" s="24">
-        <v>44287</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="G54" s="24">
-        <v>44774</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="E55" s="32">
+    <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" s="31">
         <v>44440</v>
       </c>
-      <c r="F55" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="G55" s="24">
+      <c r="F55" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G55" s="23">
         <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
         <v>44805</v>
       </c>
-      <c r="H55" s="22" t="s">
+      <c r="H55" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="D56" s="31" t="s">
+    <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="31">
         <v>44440</v>
       </c>
-      <c r="F56" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="G56" s="24">
+      <c r="F56" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" s="23">
         <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
         <v>44805</v>
       </c>
-      <c r="H56" s="22" t="s">
+      <c r="H56" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" s="32">
+    <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="31">
         <v>44440</v>
       </c>
-      <c r="F57" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="G57" s="24">
+      <c r="F57" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" s="23">
         <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
         <v>44805</v>
       </c>
-      <c r="H57" s="22" t="s">
+      <c r="H57" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="45" t="s">
+    <row r="58" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="D58" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" s="29">
+      <c r="D58" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="28">
         <v>44440</v>
       </c>
-      <c r="F58" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="G58" s="24">
+      <c r="F58" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G58" s="23">
         <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
         <v>44805</v>
       </c>
-      <c r="H58" s="22" t="s">
+      <c r="H58" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59" s="24">
-        <v>44440</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G59" s="24">
+    <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="23">
+        <v>44501</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" s="23">
         <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
-        <v>44805</v>
-      </c>
-      <c r="H59" s="22" t="s">
+        <v>44866</v>
+      </c>
+      <c r="H59" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" s="24">
+    <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="E60" s="23">
         <v>44501</v>
       </c>
-      <c r="F60" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G60" s="24">
+      <c r="F60" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G60" s="23">
         <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
         <v>44866</v>
       </c>
-      <c r="H60" s="22" t="s">
+      <c r="H60" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="23">
+        <v>44531</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G61" s="23">
+        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
+        <v>44896</v>
+      </c>
+      <c r="H61" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="E61" s="24">
-        <v>44501</v>
-      </c>
-      <c r="F61" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G61" s="24">
-        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
-        <v>44866</v>
-      </c>
-      <c r="H61" s="22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" s="24">
+    <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="23">
         <v>44531</v>
       </c>
-      <c r="F62" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G62" s="24">
+      <c r="F62" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G62" s="23">
         <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
         <v>44896</v>
       </c>
-      <c r="H62" s="22" t="s">
+      <c r="H62" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" s="24">
+    <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="23">
         <v>44531</v>
       </c>
-      <c r="F63" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" s="24">
+      <c r="F63" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G63" s="23">
         <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
         <v>44896</v>
       </c>
-      <c r="H63" s="22" t="s">
+      <c r="H63" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E64" s="24">
+    <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" s="23">
         <v>44531</v>
       </c>
-      <c r="F64" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G64" s="24">
+      <c r="F64" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G64" s="23">
         <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
         <v>44896</v>
       </c>
-      <c r="H64" s="22" t="s">
+      <c r="H64" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="27" t="s">
+    <row r="65" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="D65" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E65" s="24">
+      <c r="D65" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" s="23">
         <v>44531</v>
       </c>
-      <c r="F65" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G65" s="24">
+      <c r="F65" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G65" s="23">
         <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
         <v>44896</v>
       </c>
-      <c r="H65" s="22" t="s">
+      <c r="H65" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E66" s="24">
-        <v>44531</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G66" s="24">
+    <row r="66" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="23">
+        <v>44562</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G66" s="23">
         <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
-        <v>44896</v>
-      </c>
-      <c r="H66" s="22" t="s">
+        <v>44927</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="23">
+        <v>44562</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G67" s="23">
+        <f>DATE(YEAR(E67),MONTH(E67)+12,DAY(E67))</f>
+        <v>44927</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" s="23">
+        <v>44593</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G68" s="23">
+        <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
+        <v>44958</v>
+      </c>
+      <c r="H68" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="E67" s="24">
-        <v>44562</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G67" s="24">
-        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
-        <v>44927</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E68" s="24">
-        <v>44562</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G68" s="24">
-        <f>DATE(YEAR(E68),MONTH(E68)+12,DAY(E68))</f>
-        <v>44927</v>
-      </c>
-      <c r="H68" s="22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E69" s="20">
         <v>43831</v>
       </c>
-      <c r="F69" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="G69" s="21"/>
+      <c r="F69" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G69" s="20"/>
       <c r="H69" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="10">
         <v>44166</v>
       </c>
-      <c r="F70" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="7" t="s">
+      <c r="F70" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G70" s="10"/>
+      <c r="H70" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="11">
+      <c r="D71" s="6"/>
+      <c r="E71" s="10">
         <v>43916</v>
       </c>
-      <c r="F71" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="7" t="s">
+      <c r="F71" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G71" s="10"/>
+      <c r="H71" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
+    <row r="72" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="11">
+      <c r="D72" s="12"/>
+      <c r="E72" s="10">
         <v>43466</v>
       </c>
-      <c r="F72" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="7" t="s">
+      <c r="F72" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="H72" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
+    <row r="73" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="7" t="s">
+      <c r="D73" s="9"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="22" t="s">
+    <row r="74" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="E74" s="24">
+      <c r="C74" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="E74" s="23">
         <v>44256</v>
       </c>
-      <c r="F74" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G74" s="24"/>
-      <c r="H74" s="22" t="s">
+      <c r="F74" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G74" s="23"/>
+      <c r="H74" s="21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="22" t="s">
+    <row r="75" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E75" s="24">
+      <c r="E75" s="23">
         <v>43831</v>
       </c>
-      <c r="F75" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G75" s="24"/>
-      <c r="H75" s="22" t="s">
+      <c r="F75" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G75" s="23"/>
+      <c r="H75" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
+    <row r="76" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D76" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="E76" s="11">
+      <c r="D76" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E76" s="10">
         <v>44044</v>
       </c>
-      <c r="F76" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G76" s="11"/>
-      <c r="H76" s="7" t="s">
+      <c r="F76" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
+    <row r="77" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="10">
         <v>44256</v>
       </c>
-      <c r="F77" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G77" s="11"/>
-      <c r="H77" s="7" t="s">
+      <c r="F77" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G77" s="10"/>
+      <c r="H77" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="22" t="s">
+    <row r="78" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E78" s="24">
+      <c r="E78" s="23">
         <v>43435</v>
       </c>
-      <c r="F78" s="24" t="s">
+      <c r="F78" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="G78" s="24"/>
-      <c r="H78" s="22" t="s">
+      <c r="G78" s="23"/>
+      <c r="H78" s="21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
+    <row r="79" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E79" s="24">
+      <c r="E79" s="23">
         <v>43447</v>
       </c>
-      <c r="F79" s="24" t="s">
+      <c r="F79" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="G79" s="24"/>
-      <c r="H79" s="22" t="s">
+      <c r="G79" s="23"/>
+      <c r="H79" s="21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="22" t="s">
+    <row r="80" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="24">
+      <c r="D80" s="25"/>
+      <c r="E80" s="23">
         <v>43950</v>
       </c>
-      <c r="F80" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G80" s="24"/>
-      <c r="H80" s="22" t="s">
+      <c r="F80" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G80" s="23"/>
+      <c r="H80" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="22" t="s">
+    <row r="81" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="E81" s="24">
+      <c r="E81" s="23">
         <v>44166</v>
       </c>
-      <c r="F81" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G81" s="24"/>
-      <c r="H81" s="22" t="s">
+      <c r="F81" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G81" s="23"/>
+      <c r="H81" s="21" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="E82" s="24">
+      <c r="E82" s="23">
         <v>43950</v>
       </c>
-      <c r="F82" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G82" s="24"/>
-      <c r="H82" s="22" t="s">
+      <c r="F82" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G82" s="23"/>
+      <c r="H82" s="21" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3757,24 +3760,24 @@
       <c r="B83" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="20">
         <v>43908</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G83" s="21"/>
+      <c r="G83" s="20"/>
       <c r="H83" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>204</v>
       </c>
@@ -3784,148 +3787,149 @@
       <c r="C84" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="20"/>
-      <c r="E84" s="21"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="20"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="21"/>
+      <c r="G84" s="20"/>
       <c r="H84" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
+    <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="C85" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="E85" s="10">
+        <v>44256</v>
+      </c>
+      <c r="G85" s="10"/>
+      <c r="H85" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="E85" s="11">
-        <v>44256</v>
-      </c>
-      <c r="G85" s="11"/>
-      <c r="H85" s="7" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E90" s="8"/>
-      <c r="G90" s="9"/>
+      <c r="E90" s="7"/>
+      <c r="G90" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C41" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D68" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C67" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C31" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C32" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C43" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D67" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C66" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C29" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C30" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C41" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C79" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C40" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C38" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C81" r:id="rId10" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D75" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C38" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D24" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D55" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D48" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C36" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D46" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D10:D12" r:id="rId17" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D41" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D52" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D62" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D11" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D65" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D58" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D59" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D66" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D60" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D21" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D22" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D39" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D50" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D61" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D64" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D57" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D65" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D59" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D19" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D20" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="D5" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="D6" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D77" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D79" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D17" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D63" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D28" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D53" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D15" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D62" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D26" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D82" r:id="rId40" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D78" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C78" r:id="rId42" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C22" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="D4" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D13" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D8" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C68" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D67" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D42" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D38" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D35" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D10" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D12" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D66" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D40" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D36" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D53" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D33" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C70" r:id="rId55" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C73" r:id="rId56" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D10" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C34" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D68" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C32" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D83" r:id="rId59" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C83" r:id="rId60" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
     <hyperlink ref="D69" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="C69" r:id="rId62" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
     <hyperlink ref="C82" r:id="rId63" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D57" r:id="rId64" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D56" r:id="rId65" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D14" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="D56" r:id="rId64" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D55" r:id="rId65" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="D51" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C76" r:id="rId67" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C48" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D29" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D18" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C54" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="D9" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C35" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
-    <hyperlink ref="C59" r:id="rId74" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D16" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="C46" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="D27" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D16" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="C53" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
+    <hyperlink ref="D13" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C33" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
+    <hyperlink ref="C58" r:id="rId74" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
+    <hyperlink ref="D14" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C85" r:id="rId76" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="C30" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
-    <hyperlink ref="D64" r:id="rId78" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C23" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="C63" r:id="rId80" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
-    <hyperlink ref="D61" r:id="rId81" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
+    <hyperlink ref="C28" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
+    <hyperlink ref="D63" r:id="rId78" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
+    <hyperlink ref="C21" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C62" r:id="rId80" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
+    <hyperlink ref="D60" r:id="rId81" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId82" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D36" r:id="rId83" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
-    <hyperlink ref="C53" r:id="rId84" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
+    <hyperlink ref="D34" r:id="rId83" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="C52" r:id="rId84" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
     <hyperlink ref="D76" r:id="rId85" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
     <hyperlink ref="D3" r:id="rId86" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
     <hyperlink ref="C3" r:id="rId87" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
     <hyperlink ref="D81" r:id="rId88" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
     <hyperlink ref="D85" r:id="rId89" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
     <hyperlink ref="C74" r:id="rId90" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C36" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
-    <hyperlink ref="C55" r:id="rId92" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
-    <hyperlink ref="C62" r:id="rId93" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D25" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D26" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C25" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C28" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C20" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C34" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
+    <hyperlink ref="C54" r:id="rId92" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
+    <hyperlink ref="C61" r:id="rId93" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D23" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D24" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C23" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C26" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C18" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
     <hyperlink ref="C4" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C8" r:id="rId100" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
+    <hyperlink ref="C12" r:id="rId100" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
     <hyperlink ref="C6" r:id="rId101" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C16" r:id="rId102" xr:uid="{E035FF6A-D6FD-4586-B36D-13C716E1E0D1}"/>
+    <hyperlink ref="C14" r:id="rId102" xr:uid="{E035FF6A-D6FD-4586-B36D-13C716E1E0D1}"/>
+    <hyperlink ref="C68" r:id="rId103" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId103"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId104"/>
   <tableParts count="1">
-    <tablePart r:id="rId104"/>
+    <tablePart r:id="rId105"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B49930-760E-4C4C-A7BE-BEF7A9E977B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5324E67F-4A37-459D-A96B-6421E3C346B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="307">
   <si>
     <t>Code</t>
   </si>
@@ -811,9 +811,6 @@
     <t>https://www.gov.uk/government/statistics/renewable-fuel-statistics-2020-final-report</t>
   </si>
   <si>
-    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/11/gdp-quarterly-national-accounts-2021-q2/documents/quarterly-national-accounts-2021-quarter-2---other-summary-tables/quarterly-national-accounts-2021-quarter-2---other-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2021%2BQ2%2B-%2BOther%2BSummary%2BTables.xlsx</t>
-  </si>
-  <si>
     <t>https://energysavingtrust.org.uk/wp-content/uploads/2021/10/Renewable-heat-in-Scotland-2020-report-version-2.pdf</t>
   </si>
   <si>
@@ -937,9 +934,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043397/table_252.xlsx</t>
   </si>
   <si>
-    <t>https://www.electralink.co.uk/2022/01/2021-smart-installations-increase-2020/</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1056549/Headline_HEE_tables_24_February_2022.xlsx</t>
   </si>
   <si>
@@ -947,6 +941,15 @@
   </si>
   <si>
     <t>https://www.ofgem.gov.uk/sites/default/files/2022-02/Default_tarif_cap_level_v1.10.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.electralink.co.uk/2022/02/jan-smart-installs-increase-24-pc-yoy/</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/collections/economy-statistics/#quarterlygrossdomesticproduct(gdp)</t>
   </si>
 </sst>
 </file>
@@ -1702,20 +1705,20 @@
         <v>38</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>139</v>
       </c>
       <c r="E4" s="23">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>159</v>
       </c>
       <c r="G4" s="23">
         <f>DATE(YEAR(E4),MONTH(E4)+1,DAY(E4))</f>
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>220</v>
@@ -1808,7 +1811,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>142</v>
@@ -1835,10 +1838,10 @@
         <v>213</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E9" s="31">
         <v>44501</v>
@@ -1888,21 +1891,21 @@
       <c r="B11" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>260</v>
+      <c r="C11" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>306</v>
       </c>
       <c r="E11" s="23">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G11" s="23">
         <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
-        <v>44593</v>
+        <v>44682</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>223</v>
@@ -1916,7 +1919,7 @@
         <v>71</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>172</v>
@@ -1943,7 +1946,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>143</v>
@@ -1970,10 +1973,10 @@
         <v>28</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E14" s="23">
         <v>44593</v>
@@ -1997,7 +2000,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>156</v>
@@ -2009,7 +2012,7 @@
         <v>157</v>
       </c>
       <c r="G15" s="23">
-        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
+        <f t="shared" ref="G15:G32" si="0">DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
         <v>44621</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -2024,7 +2027,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>140</v>
@@ -2036,7 +2039,7 @@
         <v>157</v>
       </c>
       <c r="G16" s="23">
-        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -2045,13 +2048,13 @@
     </row>
     <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>140</v>
@@ -2063,7 +2066,7 @@
         <v>157</v>
       </c>
       <c r="G17" s="23">
-        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H17" s="21" t="s">
@@ -2072,13 +2075,13 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>140</v>
@@ -2090,7 +2093,7 @@
         <v>157</v>
       </c>
       <c r="G18" s="23">
-        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H18" s="21" t="s">
@@ -2105,7 +2108,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>133</v>
@@ -2117,7 +2120,7 @@
         <v>157</v>
       </c>
       <c r="G19" s="23">
-        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H19" s="21" t="s">
@@ -2132,7 +2135,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>133</v>
@@ -2144,7 +2147,7 @@
         <v>157</v>
       </c>
       <c r="G20" s="23">
-        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H20" s="21" t="s">
@@ -2159,7 +2162,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>133</v>
@@ -2171,7 +2174,7 @@
         <v>157</v>
       </c>
       <c r="G21" s="23">
-        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H21" s="21" t="s">
@@ -2186,7 +2189,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>133</v>
@@ -2198,7 +2201,7 @@
         <v>157</v>
       </c>
       <c r="G22" s="23">
-        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H22" s="21" t="s">
@@ -2207,13 +2210,13 @@
     </row>
     <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>293</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>133</v>
@@ -2225,7 +2228,7 @@
         <v>157</v>
       </c>
       <c r="G23" s="23">
-        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H23" s="21" t="s">
@@ -2234,13 +2237,13 @@
     </row>
     <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>133</v>
@@ -2252,7 +2255,7 @@
         <v>157</v>
       </c>
       <c r="G24" s="23">
-        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H24" s="21" t="s">
@@ -2267,7 +2270,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>136</v>
@@ -2279,7 +2282,7 @@
         <v>157</v>
       </c>
       <c r="G25" s="23">
-        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H25" s="21" t="s">
@@ -2294,7 +2297,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>140</v>
@@ -2306,7 +2309,7 @@
         <v>157</v>
       </c>
       <c r="G26" s="23">
-        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H26" s="21" t="s">
@@ -2333,7 +2336,7 @@
         <v>157</v>
       </c>
       <c r="G27" s="23">
-        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H27" s="21" t="s">
@@ -2348,7 +2351,7 @@
         <v>48</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>141</v>
@@ -2360,7 +2363,7 @@
         <v>157</v>
       </c>
       <c r="G28" s="23">
-        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -2385,7 +2388,7 @@
         <v>157</v>
       </c>
       <c r="G29" s="23">
-        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H29" s="21" t="s">
@@ -2410,7 +2413,7 @@
         <v>157</v>
       </c>
       <c r="G30" s="23">
-        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H30" s="21" t="s">
@@ -2435,7 +2438,7 @@
         <v>157</v>
       </c>
       <c r="G31" s="23">
-        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H31" s="21" t="s">
@@ -2460,7 +2463,7 @@
         <v>157</v>
       </c>
       <c r="G32" s="23">
-        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H32" s="21" t="s">
@@ -2501,10 +2504,10 @@
         <v>210</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E34" s="23">
         <v>44531</v>
@@ -2538,7 +2541,7 @@
         <v>158</v>
       </c>
       <c r="G35" s="23">
-        <f>DATE(YEAR(E35)+1,MONTH(E35),DAY(E35))</f>
+        <f t="shared" ref="G35:G43" si="1">DATE(YEAR(E35)+1,MONTH(E35),DAY(E35))</f>
         <v>44652</v>
       </c>
       <c r="H35" s="21" t="s">
@@ -2565,7 +2568,7 @@
         <v>158</v>
       </c>
       <c r="G36" s="23">
-        <f>DATE(YEAR(E36)+1,MONTH(E36),DAY(E36))</f>
+        <f t="shared" si="1"/>
         <v>44652</v>
       </c>
       <c r="H36" s="21" t="s">
@@ -2592,7 +2595,7 @@
         <v>158</v>
       </c>
       <c r="G37" s="23">
-        <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
+        <f t="shared" si="1"/>
         <v>44652</v>
       </c>
       <c r="H37" s="21" t="s">
@@ -2619,7 +2622,7 @@
         <v>158</v>
       </c>
       <c r="G38" s="31">
-        <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
+        <f t="shared" si="1"/>
         <v>44652</v>
       </c>
       <c r="H38" s="29" t="s">
@@ -2646,7 +2649,7 @@
         <v>158</v>
       </c>
       <c r="G39" s="31">
-        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H39" s="29" t="s">
@@ -2673,7 +2676,7 @@
         <v>158</v>
       </c>
       <c r="G40" s="31">
-        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H40" s="29" t="s">
@@ -2698,7 +2701,7 @@
         <v>158</v>
       </c>
       <c r="G41" s="31">
-        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H41" s="29" t="s">
@@ -2725,7 +2728,7 @@
         <v>158</v>
       </c>
       <c r="G42" s="31">
-        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H42" s="29" t="s">
@@ -2752,7 +2755,7 @@
         <v>158</v>
       </c>
       <c r="G43" s="28">
-        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
+        <f t="shared" si="1"/>
         <v>44713</v>
       </c>
       <c r="H43" s="27" t="s">
@@ -2952,7 +2955,7 @@
         <v>202</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>203</v>
@@ -2961,7 +2964,7 @@
         <v>44593</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G51" s="23">
         <f>DATE(YEAR(E51),MONTH(E51)+6,DAY(E51))</f>
@@ -2979,7 +2982,7 @@
         <v>98</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>160</v>
@@ -3035,7 +3038,7 @@
         <v>255</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E54" s="31">
         <v>44440</v>
@@ -3044,7 +3047,7 @@
         <v>158</v>
       </c>
       <c r="G54" s="23">
-        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <f t="shared" ref="G54:G66" si="2">DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
         <v>44805</v>
       </c>
       <c r="H54" s="21" t="s">
@@ -3071,7 +3074,7 @@
         <v>158</v>
       </c>
       <c r="G55" s="23">
-        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <f t="shared" si="2"/>
         <v>44805</v>
       </c>
       <c r="H55" s="21" t="s">
@@ -3098,7 +3101,7 @@
         <v>158</v>
       </c>
       <c r="G56" s="23">
-        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
+        <f t="shared" si="2"/>
         <v>44805</v>
       </c>
       <c r="H56" s="21" t="s">
@@ -3125,7 +3128,7 @@
         <v>158</v>
       </c>
       <c r="G57" s="23">
-        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <f t="shared" si="2"/>
         <v>44805</v>
       </c>
       <c r="H57" s="21" t="s">
@@ -3152,7 +3155,7 @@
         <v>158</v>
       </c>
       <c r="G58" s="23">
-        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <f t="shared" si="2"/>
         <v>44805</v>
       </c>
       <c r="H58" s="21" t="s">
@@ -3167,7 +3170,7 @@
         <v>62</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>148</v>
@@ -3179,7 +3182,7 @@
         <v>158</v>
       </c>
       <c r="G59" s="23">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <f t="shared" si="2"/>
         <v>44866</v>
       </c>
       <c r="H59" s="21" t="s">
@@ -3194,10 +3197,10 @@
         <v>78</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E60" s="23">
         <v>44501</v>
@@ -3206,7 +3209,7 @@
         <v>158</v>
       </c>
       <c r="G60" s="23">
-        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <f t="shared" si="2"/>
         <v>44866</v>
       </c>
       <c r="H60" s="21" t="s">
@@ -3221,7 +3224,7 @@
         <v>36</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>138</v>
@@ -3233,7 +3236,7 @@
         <v>158</v>
       </c>
       <c r="G61" s="23">
-        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
+        <f t="shared" si="2"/>
         <v>44896</v>
       </c>
       <c r="H61" s="21" t="s">
@@ -3248,7 +3251,7 @@
         <v>19</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>135</v>
@@ -3260,7 +3263,7 @@
         <v>158</v>
       </c>
       <c r="G62" s="23">
-        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <f t="shared" si="2"/>
         <v>44896</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -3275,7 +3278,7 @@
         <v>24</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>147</v>
@@ -3287,7 +3290,7 @@
         <v>158</v>
       </c>
       <c r="G63" s="23">
-        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <f t="shared" si="2"/>
         <v>44896</v>
       </c>
       <c r="H63" s="21" t="s">
@@ -3302,7 +3305,7 @@
         <v>54</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>144</v>
@@ -3314,7 +3317,7 @@
         <v>158</v>
       </c>
       <c r="G64" s="23">
-        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
+        <f t="shared" si="2"/>
         <v>44896</v>
       </c>
       <c r="H64" s="21" t="s">
@@ -3329,7 +3332,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>147</v>
@@ -3341,7 +3344,7 @@
         <v>158</v>
       </c>
       <c r="G65" s="23">
-        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <f t="shared" si="2"/>
         <v>44896</v>
       </c>
       <c r="H65" s="21" t="s">
@@ -3368,7 +3371,7 @@
         <v>158</v>
       </c>
       <c r="G66" s="23">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <f t="shared" si="2"/>
         <v>44927</v>
       </c>
       <c r="H66" s="21" t="s">
@@ -3547,10 +3550,10 @@
         <v>76</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E74" s="23">
         <v>44256</v>
@@ -3598,7 +3601,7 @@
         <v>207</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E76" s="10">
         <v>44044</v>
@@ -3797,23 +3800,23 @@
     </row>
     <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="C85" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="E85" s="10">
         <v>44256</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3925,11 +3928,13 @@
     <hyperlink ref="C6" r:id="rId101" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
     <hyperlink ref="C14" r:id="rId102" xr:uid="{E035FF6A-D6FD-4586-B36D-13C716E1E0D1}"/>
     <hyperlink ref="C68" r:id="rId103" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
+    <hyperlink ref="C11" r:id="rId104" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
+    <hyperlink ref="D11" r:id="rId105" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId104"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>
   <tableParts count="1">
-    <tablePart r:id="rId105"/>
+    <tablePart r:id="rId107"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5324E67F-4A37-459D-A96B-6421E3C346B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EFE4D7-40BE-4388-833D-34F96BF040F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="306">
   <si>
     <t>Code</t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>DFTLicenced</t>
-  </si>
-  <si>
-    <t>Department for Transport: Licensed vehicles</t>
   </si>
   <si>
     <t>DFTULEVs</t>
@@ -1074,7 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1124,6 +1121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1604,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,10 +1625,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -1639,411 +1637,413 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C2" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="20">
         <v>43862</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G2" s="20">
         <f>DATE(YEAR(E2)+1,MONTH(E2),DAY(E2))</f>
         <v>44228</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C3" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>243</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>244</v>
       </c>
       <c r="E3" s="39">
         <v>43891</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G3" s="20">
         <f>DATE(YEAR(E3)+1,MONTH(E3),DAY(E3))</f>
         <v>44256</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="16">
+        <v>44562</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="23">
+        <f>DATE(YEAR(E4),MONTH(E4)+3,DAY(E4))</f>
+        <v>44652</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="23">
-        <f>DATE(YEAR(E4),MONTH(E4)+1,DAY(E4))</f>
-        <v>44621</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="16">
+        <v>44562</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="23">
+        <f>DATE(YEAR(E5),MONTH(E5)+3,DAY(E5))</f>
+        <v>44652</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="33">
+        <v>44197</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="23">
+        <f>DATE(YEAR(E6)+1,MONTH(E6),DAY(E6))</f>
+        <v>44562</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="23">
+        <v>44501</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="23">
+        <f>DATE(YEAR(E7),MONTH(E7)+3,DAY(E7))</f>
+        <v>44593</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" s="31">
+        <v>44593</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="31">
+        <f>DATE(YEAR(E8),MONTH(E8)+3,DAY(E8))</f>
+        <v>44682</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="16">
-        <v>44440</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="16">
-        <v>44562</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="16">
-        <v>44440</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="10">
-        <v>44562</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="33">
-        <v>44197</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="23">
-        <f>DATE(YEAR(E7)+1,MONTH(E7),DAY(E7))</f>
-        <v>44562</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D9" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="23">
         <v>44501</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="23">
-        <f>DATE(YEAR(E8),MONTH(E8)+3,DAY(E8))</f>
-        <v>44593</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="E9" s="31">
-        <v>44501</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="31">
+      <c r="F9" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="23">
         <f>DATE(YEAR(E9),MONTH(E9)+3,DAY(E9))</f>
         <v>44593</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>171</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="E10" s="23">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G10" s="23">
-        <f>DATE(YEAR(E10),MONTH(E10)+3,DAY(E10))</f>
-        <v>44593</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>222</v>
+        <f>DATE(YEAR(E10),MONTH(E10)+1,DAY(E10))</f>
+        <v>44621</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="E11" s="23">
         <v>44593</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G11" s="23">
-        <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
-        <v>44682</v>
+        <f>DATE(YEAR(E11),MONTH(E11)+1,DAY(E11))</f>
+        <v>44621</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>172</v>
+        <v>52</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="E12" s="23">
         <v>44593</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G12" s="23">
         <f>DATE(YEAR(E12),MONTH(E12)+1,DAY(E12))</f>
         <v>44621</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>143</v>
+        <v>28</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>260</v>
       </c>
       <c r="E13" s="23">
         <v>44593</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G13" s="23">
         <f>DATE(YEAR(E13),MONTH(E13)+1,DAY(E13))</f>
         <v>44621</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>261</v>
+        <v>44</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="E14" s="23">
-        <v>44593</v>
+        <v>44531</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G14" s="23">
-        <f>DATE(YEAR(E14),MONTH(E14)+1,DAY(E14))</f>
+        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
         <v>44621</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>279</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E15" s="23">
         <v>44531</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G15" s="23">
-        <f t="shared" ref="G15:G32" si="0">DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
+        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
         <v>44621</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="23">
+        <v>297</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="4">
         <v>44531</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G16" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
         <v>44621</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2051,280 +2051,280 @@
         <v>298</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>297</v>
+        <v>42</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>299</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" s="4">
         <v>44531</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G17" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
         <v>44621</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="4">
+        <v>63</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="23">
         <v>44531</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G18" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
         <v>44621</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>282</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="23">
         <v>44531</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G19" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
         <v>44621</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="23">
         <v>44531</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G20" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
         <v>44621</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>274</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="23">
         <v>44531</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G21" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
         <v>44621</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>6</v>
+        <v>291</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="23">
         <v>44531</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G22" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
         <v>44621</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>293</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="23">
         <v>44531</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G23" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
         <v>44621</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>291</v>
+        <v>29</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>294</v>
+        <v>30</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E24" s="23">
         <v>44531</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G24" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
         <v>44621</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>273</v>
+        <v>40</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>296</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E25" s="23">
         <v>44531</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G25" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
         <v>44621</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E26" s="23">
         <v>44531</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G26" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
         <v>44621</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>140</v>
@@ -2333,112 +2333,110 @@
         <v>44531</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G27" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
         <v>44621</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>141</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="26"/>
       <c r="E28" s="23">
         <v>44531</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G28" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
         <v>44621</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>247</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="23">
         <v>44531</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G29" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
         <v>44621</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B30" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>88</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>248</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="23">
         <v>44531</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G30" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
         <v>44621</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="23">
+      <c r="A31" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="31">
         <v>44531</v>
       </c>
-      <c r="F31" s="24" t="s">
-        <v>157</v>
+      <c r="F31" s="29" t="s">
+        <v>156</v>
       </c>
       <c r="G31" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
         <v>44621</v>
       </c>
       <c r="H31" s="21" t="s">
@@ -2446,187 +2444,189 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="31">
-        <v>44531</v>
-      </c>
-      <c r="F32" s="29" t="s">
+      <c r="A32" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E32" s="23">
+        <v>44256</v>
+      </c>
+      <c r="F32" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G32" s="23">
-        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>246</v>
+        <v>209</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>287</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="E33" s="23">
-        <v>44256</v>
+        <v>44531</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G33" s="23">
-        <v>44621</v>
+        <f>DATE(YEAR(E33),MONTH(E33)+4,DAY(E33))</f>
+        <v>44652</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>287</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D34" s="25"/>
       <c r="E34" s="23">
-        <v>44531</v>
+        <v>44287</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G34" s="23">
-        <f>DATE(YEAR(E34),MONTH(E34)+4,DAY(E34))</f>
+        <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
         <v>44652</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="25"/>
+        <v>111</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>152</v>
+      </c>
       <c r="E35" s="23">
         <v>44287</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G35" s="23">
-        <f t="shared" ref="G35:G43" si="1">DATE(YEAR(E35)+1,MONTH(E35),DAY(E35))</f>
+        <f>DATE(YEAR(E35)+1,MONTH(E35),DAY(E35))</f>
         <v>44652</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>153</v>
+        <v>230</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>151</v>
       </c>
       <c r="E36" s="23">
         <v>44287</v>
       </c>
-      <c r="F36" s="24" t="s">
-        <v>158</v>
+      <c r="F36" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="G36" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E36)+1,MONTH(E36),DAY(E36))</f>
         <v>44652</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="D37" s="25" t="s">
+      <c r="A37" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="31">
         <v>44287</v>
       </c>
-      <c r="F37" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G37" s="23">
-        <f t="shared" si="1"/>
+      <c r="F37" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="31">
+        <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
         <v>44652</v>
       </c>
-      <c r="H37" s="21" t="s">
-        <v>223</v>
+      <c r="H37" s="29" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E38" s="31">
-        <v>44287</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="G38" s="31">
-        <f t="shared" si="1"/>
-        <v>44652</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>223</v>
+      <c r="A38" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="E38" s="23">
+        <v>44593</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="23">
+        <f>DATE(YEAR(E38),MONTH(E38)+3,DAY(E38))</f>
+        <v>44682</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2637,175 +2637,175 @@
         <v>32</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E39" s="31">
         <v>44348</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G39" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
         <v>44713</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="29" t="s">
-        <v>93</v>
-      </c>
       <c r="C40" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E40" s="31">
         <v>44348</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G40" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
         <v>44713</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="C41" s="26" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>96</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="31">
         <v>44348</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G41" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
         <v>44713</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="29" t="s">
-        <v>102</v>
-      </c>
       <c r="C42" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" s="22" t="s">
         <v>233</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>234</v>
       </c>
       <c r="E42" s="31">
         <v>44348</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G42" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
         <v>44713</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>104</v>
-      </c>
       <c r="C43" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="34" t="s">
         <v>233</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>234</v>
       </c>
       <c r="E43" s="28">
         <v>44348</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G43" s="28">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
         <v>44713</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B44" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="C44" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="D44" s="30" t="s">
         <v>237</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>238</v>
       </c>
       <c r="E44" s="23">
         <v>44348</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G44" s="28">
         <v>44713</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E45" s="4">
         <v>44646</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G45" s="4">
         <v>44738</v>
@@ -2820,23 +2820,23 @@
         <v>11</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" s="23">
         <v>44378</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G46" s="23">
         <f>DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
         <v>44743</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2847,23 +2847,23 @@
         <v>13</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" s="23">
         <v>44378</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G47" s="23">
         <f>DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
         <v>44743</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2874,23 +2874,23 @@
         <v>15</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E48" s="23">
         <v>44378</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G48" s="23">
         <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
         <v>44743</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2901,23 +2901,23 @@
         <v>17</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E49" s="23">
         <v>44378</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G49" s="23">
         <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
         <v>44743</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2928,103 +2928,103 @@
         <v>34</v>
       </c>
       <c r="C50" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" s="22" t="s">
         <v>240</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>241</v>
       </c>
       <c r="E50" s="23">
         <v>44378</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G50" s="23">
         <f>DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
         <v>44743</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="C51" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" s="25" t="s">
         <v>202</v>
-      </c>
-      <c r="C51" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>203</v>
       </c>
       <c r="E51" s="23">
         <v>44593</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G51" s="23">
         <f>DATE(YEAR(E51),MONTH(E51)+6,DAY(E51))</f>
         <v>44774</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="C52" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E52" s="23">
         <v>44409</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G52" s="23">
         <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
         <v>44774</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="21" t="s">
-        <v>106</v>
-      </c>
       <c r="C53" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E53" s="23">
         <v>44287</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G53" s="23">
         <v>44774</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3035,77 +3035,77 @@
         <v>9</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E54" s="31">
         <v>44440</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G54" s="23">
-        <f t="shared" ref="G54:G66" si="2">DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
         <v>44805</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B55" s="29" t="s">
-        <v>200</v>
-      </c>
       <c r="C55" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E55" s="31">
         <v>44440</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G55" s="23">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
         <v>44805</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="30" t="s">
         <v>196</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>197</v>
       </c>
       <c r="E56" s="31">
         <v>44440</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G56" s="23">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
         <v>44805</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3116,23 +3116,23 @@
         <v>56</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E57" s="31">
         <v>44440</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G57" s="23">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
         <v>44805</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3143,23 +3143,23 @@
         <v>58</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E58" s="28">
         <v>44440</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G58" s="23">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
         <v>44805</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3170,50 +3170,50 @@
         <v>62</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E59" s="23">
         <v>44501</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G59" s="23">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
         <v>44866</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="21" t="s">
-        <v>78</v>
-      </c>
       <c r="C60" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E60" s="23">
         <v>44501</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G60" s="23">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
         <v>44866</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3224,23 +3224,23 @@
         <v>36</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E61" s="23">
         <v>44531</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G61" s="23">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
         <v>44896</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3251,23 +3251,23 @@
         <v>19</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E62" s="23">
         <v>44531</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G62" s="23">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
         <v>44896</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3278,23 +3278,23 @@
         <v>24</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E63" s="23">
         <v>44531</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G63" s="23">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
         <v>44896</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3305,23 +3305,23 @@
         <v>54</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64" s="23">
         <v>44531</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G64" s="23">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
         <v>44896</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3332,152 +3332,152 @@
         <v>60</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E65" s="23">
         <v>44531</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G65" s="23">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
         <v>44896</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="C66" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>81</v>
-      </c>
       <c r="D66" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E66" s="23">
         <v>44562</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G66" s="23">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
         <v>44927</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="C67" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="26" t="s">
         <v>73</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>74</v>
       </c>
       <c r="E67" s="23">
         <v>44562</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G67" s="23">
         <f>DATE(YEAR(E67),MONTH(E67)+12,DAY(E67))</f>
         <v>44927</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="B68" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C68" s="45" t="s">
-        <v>184</v>
-      </c>
       <c r="D68" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E68" s="23">
         <v>44593</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G68" s="23">
         <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
         <v>44958</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C69" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E69" s="20">
         <v>43831</v>
       </c>
       <c r="F69" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>170</v>
-      </c>
       <c r="D70" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E70" s="10">
         <v>44166</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3495,7 +3495,7 @@
         <v>43916</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="6" t="s">
@@ -3517,7 +3517,7 @@
         <v>43466</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="6" t="s">
@@ -3526,64 +3526,64 @@
     </row>
     <row r="73" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="10"/>
       <c r="F73" s="6"/>
       <c r="G73" s="10"/>
       <c r="H73" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="21" t="s">
-        <v>76</v>
-      </c>
       <c r="C74" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E74" s="23">
         <v>44256</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G74" s="23"/>
       <c r="H74" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C75" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E75" s="23">
         <v>43831</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G75" s="23"/>
       <c r="H75" s="21" t="s">
@@ -3592,106 +3592,106 @@
     </row>
     <row r="76" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="C76" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>207</v>
-      </c>
       <c r="D76" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E76" s="10">
         <v>44044</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="C77" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E77" s="10">
         <v>44256</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="25" t="s">
         <v>161</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>162</v>
       </c>
       <c r="E78" s="23">
         <v>43435</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G78" s="23"/>
       <c r="H78" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="C79" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="26" t="s">
-        <v>109</v>
-      </c>
       <c r="D79" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E79" s="23">
         <v>43447</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G79" s="23"/>
       <c r="H79" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>120</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>22</v>
@@ -3701,7 +3701,7 @@
         <v>43950</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G80" s="23"/>
       <c r="H80" s="21" t="s">
@@ -3710,82 +3710,82 @@
     </row>
     <row r="81" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="21" t="s">
-        <v>122</v>
-      </c>
       <c r="C81" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E81" s="23">
         <v>44166</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G81" s="23"/>
       <c r="H81" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="C82" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E82" s="23">
         <v>43950</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G82" s="23"/>
       <c r="H82" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" s="19" t="s">
         <v>190</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>191</v>
       </c>
       <c r="E83" s="20">
         <v>43908</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>22</v>
@@ -3800,23 +3800,23 @@
     </row>
     <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="C85" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>266</v>
       </c>
       <c r="E85" s="10">
         <v>44256</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3828,61 +3828,61 @@
     <hyperlink ref="C39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="D67" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="C66" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C29" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C30" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C29" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C30" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="C41" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C79" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C38" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C37" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C81" r:id="rId10" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D75" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C36" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="D54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="D46" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D10:D12" r:id="rId17" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="D39" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="D50" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="D61" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="D64" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="D57" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="D65" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="D59" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D19" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D20" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D5" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D6" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D19" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D4" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D5" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D77" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D79" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D15" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D14" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="D62" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D26" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D25" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="D52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D82" r:id="rId40" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D78" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C78" r:id="rId42" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
     <hyperlink ref="D48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="D49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C22" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D4" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D10" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D12" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C21" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D10" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D9" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D11" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
     <hyperlink ref="D66" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="D40" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D36" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D35" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
     <hyperlink ref="D53" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D33" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D32" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C70" r:id="rId55" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C73" r:id="rId56" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
     <hyperlink ref="D68" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C32" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="C31" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D83" r:id="rId59" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C83" r:id="rId60" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
     <hyperlink ref="D69" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
@@ -3893,21 +3893,21 @@
     <hyperlink ref="D51" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C76" r:id="rId67" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
     <hyperlink ref="C46" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D27" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D16" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="D26" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D15" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
     <hyperlink ref="C53" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="D13" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C33" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
+    <hyperlink ref="D12" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C32" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
     <hyperlink ref="C58" r:id="rId74" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D14" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="D13" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C85" r:id="rId76" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="C28" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
+    <hyperlink ref="C27" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
     <hyperlink ref="D63" r:id="rId78" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C21" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C20" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
     <hyperlink ref="C62" r:id="rId80" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
     <hyperlink ref="D60" r:id="rId81" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId82" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D34" r:id="rId83" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="D33" r:id="rId83" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
     <hyperlink ref="C52" r:id="rId84" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
     <hyperlink ref="D76" r:id="rId85" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
     <hyperlink ref="D3" r:id="rId86" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
@@ -3915,26 +3915,27 @@
     <hyperlink ref="D81" r:id="rId88" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
     <hyperlink ref="D85" r:id="rId89" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
     <hyperlink ref="C74" r:id="rId90" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C34" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
+    <hyperlink ref="C33" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
     <hyperlink ref="C54" r:id="rId92" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
     <hyperlink ref="C61" r:id="rId93" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D23" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D24" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C23" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C26" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C18" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C4" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C12" r:id="rId100" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
-    <hyperlink ref="C6" r:id="rId101" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C14" r:id="rId102" xr:uid="{E035FF6A-D6FD-4586-B36D-13C716E1E0D1}"/>
+    <hyperlink ref="D22" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D23" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C22" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C25" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C17" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C10" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C11" r:id="rId100" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
+    <hyperlink ref="C5" r:id="rId101" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="C13" r:id="rId102" xr:uid="{E035FF6A-D6FD-4586-B36D-13C716E1E0D1}"/>
     <hyperlink ref="C68" r:id="rId103" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="C11" r:id="rId104" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
-    <hyperlink ref="D11" r:id="rId105" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C38" r:id="rId104" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
+    <hyperlink ref="D38" r:id="rId105" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C8" r:id="rId106" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId107"/>
   <tableParts count="1">
-    <tablePart r:id="rId107"/>
+    <tablePart r:id="rId108"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EFE4D7-40BE-4388-833D-34F96BF040F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD156B-995F-4210-986B-FF1176E3999A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,9 +817,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1021845/2021_End_use_tables.xlsx</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1027050/electric-vehicle-charging-device-statistics-october-2021.ods</t>
-  </si>
-  <si>
     <t>ONSHouseholds</t>
   </si>
   <si>
@@ -880,9 +877,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043388/table_234.xlsx</t>
   </si>
   <si>
-    <t>https://www.gov.uk/government/statistics/electric-vehicle-charging-device-statistics-october-2021</t>
-  </si>
-  <si>
     <t>https://energysavingtrust.org.uk/wp-content/uploads/2021/03/Community-and-locally-owned-renewable-energy-in-Scotland-2020-report.pdf</t>
   </si>
   <si>
@@ -947,6 +941,12 @@
   </si>
   <si>
     <t>https://www.gov.scot/collections/economy-statistics/#quarterlygrossdomesticproduct(gdp)</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/electric-vehicle-charging-device-statistics-january-2022</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1048354/electric-vehicle-charging-device-statistics-january-2022.ods</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1696,179 +1696,179 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="A4" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="33">
+        <v>44197</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="23">
+        <f>DATE(YEAR(E4)+1,MONTH(E4),DAY(E4))</f>
         <v>44562</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="23">
-        <f>DATE(YEAR(E4),MONTH(E4)+3,DAY(E4))</f>
-        <v>44652</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>221</v>
+      <c r="H4" s="21" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="16">
-        <v>44562</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="A5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="23">
+        <v>44501</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G5" s="23">
         <f>DATE(YEAR(E5),MONTH(E5)+3,DAY(E5))</f>
-        <v>44652</v>
-      </c>
-      <c r="H5" s="13" t="s">
+        <v>44593</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="23">
+        <v>44501</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="23">
+        <f>DATE(YEAR(E6),MONTH(E6)+3,DAY(E6))</f>
+        <v>44593</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="33">
-        <v>44197</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="23">
-        <f>DATE(YEAR(E6)+1,MONTH(E6),DAY(E6))</f>
-        <v>44562</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>141</v>
+        <v>38</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="E7" s="23">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G7" s="23">
-        <f>DATE(YEAR(E7),MONTH(E7)+3,DAY(E7))</f>
-        <v>44593</v>
+        <f>DATE(YEAR(E7),MONTH(E7)+1,DAY(E7))</f>
+        <v>44621</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="E8" s="31">
+      <c r="A8" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="23">
         <v>44593</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="31">
-        <f>DATE(YEAR(E8),MONTH(E8)+3,DAY(E8))</f>
-        <v>44682</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>221</v>
+      <c r="F8" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="23">
+        <f>DATE(YEAR(E8),MONTH(E8)+1,DAY(E8))</f>
+        <v>44621</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>170</v>
+        <v>52</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="E9" s="23">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G9" s="23">
-        <f>DATE(YEAR(E9),MONTH(E9)+3,DAY(E9))</f>
-        <v>44593</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>221</v>
+        <f>DATE(YEAR(E9),MONTH(E9)+1,DAY(E9))</f>
+        <v>44621</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>138</v>
+        <v>260</v>
       </c>
       <c r="E10" s="23">
         <v>44593</v>
@@ -1886,52 +1886,52 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>171</v>
+        <v>44</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="E11" s="23">
-        <v>44593</v>
+        <v>44531</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G11" s="23">
-        <f>DATE(YEAR(E11),MONTH(E11)+1,DAY(E11))</f>
+        <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
         <v>44621</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E12" s="23">
-        <v>44593</v>
+        <v>44531</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G12" s="23">
-        <f>DATE(YEAR(E12),MONTH(E12)+1,DAY(E12))</f>
+        <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
         <v>44621</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -1940,25 +1940,25 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="E13" s="23">
-        <v>44593</v>
+        <v>295</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="4">
+        <v>44531</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G13" s="23">
-        <f>DATE(YEAR(E13),MONTH(E13)+1,DAY(E13))</f>
+        <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
         <v>44621</v>
       </c>
       <c r="H13" s="21" t="s">
@@ -1967,18 +1967,18 @@
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="23">
+        <v>296</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="4">
         <v>44531</v>
       </c>
       <c r="F14" s="24" t="s">
@@ -1994,16 +1994,16 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E15" s="23">
         <v>44531</v>
@@ -2021,18 +2021,18 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="4">
+        <v>65</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="23">
         <v>44531</v>
       </c>
       <c r="F16" s="24" t="s">
@@ -2048,18 +2048,18 @@
     </row>
     <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="23">
         <v>44531</v>
       </c>
       <c r="F17" s="24" t="s">
@@ -2075,13 +2075,13 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>132</v>
@@ -2102,13 +2102,13 @@
     </row>
     <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>65</v>
+        <v>289</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>66</v>
+        <v>293</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>132</v>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>5</v>
+        <v>292</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>132</v>
@@ -2156,16 +2156,16 @@
     </row>
     <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>274</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>271</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E21" s="23">
         <v>44531</v>
@@ -2183,16 +2183,16 @@
     </row>
     <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>295</v>
+        <v>40</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E22" s="23">
         <v>44531</v>
@@ -2210,16 +2210,16 @@
     </row>
     <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E23" s="23">
         <v>44531</v>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>272</v>
+        <v>48</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>267</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E24" s="23">
         <v>44531</v>
@@ -2264,17 +2264,15 @@
     </row>
     <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>139</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="26"/>
       <c r="E25" s="23">
         <v>44531</v>
       </c>
@@ -2286,22 +2284,20 @@
         <v>44621</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>139</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D26" s="26"/>
       <c r="E26" s="23">
         <v>44531</v>
       </c>
@@ -2313,22 +2309,20 @@
         <v>44621</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>140</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="26"/>
       <c r="E27" s="23">
         <v>44531</v>
       </c>
@@ -2340,24 +2334,24 @@
         <v>44621</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="23">
+      <c r="A28" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="31">
         <v>44531</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G28" s="23">
@@ -2365,148 +2359,154 @@
         <v>44621</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D29" s="26"/>
+        <v>245</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>246</v>
+      </c>
       <c r="E29" s="23">
-        <v>44531</v>
+        <v>44256</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G29" s="23">
-        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
         <v>44621</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="23">
-        <v>44531</v>
-      </c>
-      <c r="F30" s="24" t="s">
+      <c r="A30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="16">
+        <v>44562</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>156</v>
       </c>
       <c r="G30" s="23">
         <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
-        <v>44621</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>223</v>
+        <v>44652</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="31">
-        <v>44531</v>
-      </c>
-      <c r="F31" s="29" t="s">
+      <c r="A31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="16">
+        <v>44562</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>156</v>
       </c>
       <c r="G31" s="23">
         <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
-        <v>44621</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>224</v>
+        <v>44652</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>245</v>
+        <v>209</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>285</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="E32" s="23">
-        <v>44256</v>
+        <v>44531</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G32" s="23">
-        <v>44621</v>
+        <f>DATE(YEAR(E32),MONTH(E32)+4,DAY(E32))</f>
+        <v>44652</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>286</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D33" s="25"/>
       <c r="E33" s="23">
-        <v>44531</v>
+        <v>44287</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G33" s="23">
-        <f>DATE(YEAR(E33),MONTH(E33)+4,DAY(E33))</f>
+        <f>DATE(YEAR(E33)+1,MONTH(E33),DAY(E33))</f>
         <v>44652</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="25"/>
+        <v>111</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>152</v>
+      </c>
       <c r="E34" s="23">
         <v>44287</v>
       </c>
@@ -2518,26 +2518,26 @@
         <v>44652</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>152</v>
+        <v>230</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>151</v>
       </c>
       <c r="E35" s="23">
         <v>44287</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="21" t="s">
         <v>157</v>
       </c>
       <c r="G35" s="23">
@@ -2549,57 +2549,57 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="23">
+      <c r="A36" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="31">
         <v>44287</v>
       </c>
-      <c r="F36" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="23">
+      <c r="F36" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="31">
         <f>DATE(YEAR(E36)+1,MONTH(E36),DAY(E36))</f>
         <v>44652</v>
       </c>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="29" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>152</v>
+        <v>212</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>304</v>
       </c>
       <c r="E37" s="31">
-        <v>44287</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>157</v>
+        <v>44593</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>156</v>
       </c>
       <c r="G37" s="31">
-        <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
-        <v>44652</v>
+        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
+        <v>44682</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2610,10 +2610,10 @@
         <v>117</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E38" s="23">
         <v>44593</v>
@@ -2955,7 +2955,7 @@
         <v>201</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>202</v>
@@ -2964,7 +2964,7 @@
         <v>44593</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G51" s="23">
         <f>DATE(YEAR(E51),MONTH(E51)+6,DAY(E51))</f>
@@ -2982,7 +2982,7 @@
         <v>97</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>159</v>
@@ -3038,7 +3038,7 @@
         <v>254</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E54" s="31">
         <v>44440</v>
@@ -3224,7 +3224,7 @@
         <v>36</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>137</v>
@@ -3251,7 +3251,7 @@
         <v>19</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>134</v>
@@ -3278,7 +3278,7 @@
         <v>24</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>146</v>
@@ -3305,7 +3305,7 @@
         <v>54</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>143</v>
@@ -3332,7 +3332,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>146</v>
@@ -3550,10 +3550,10 @@
         <v>75</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E74" s="23">
         <v>44256</v>
@@ -3601,7 +3601,7 @@
         <v>206</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E76" s="10">
         <v>44044</v>
@@ -3800,23 +3800,23 @@
     </row>
     <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="C85" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="E85" s="10">
         <v>44256</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3828,61 +3828,61 @@
     <hyperlink ref="C39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="D67" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="C66" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C29" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C30" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C25" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C27" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="C41" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C79" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C37" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C36" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C81" r:id="rId10" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D75" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C34" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="D54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="D46" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D10:D12" r:id="rId17" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="D39" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="D50" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="D61" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D5" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="D64" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="D57" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="D65" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="D59" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D19" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D4" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D5" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D15" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D30" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D31" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D77" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D79" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D14" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D11" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="D62" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D25" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="D52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D82" r:id="rId40" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D78" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C78" r:id="rId42" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
     <hyperlink ref="D48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="D49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C21" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D10" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D9" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D11" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C18" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D7" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D6" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D8" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
     <hyperlink ref="D66" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="D40" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D35" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D34" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
     <hyperlink ref="D53" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D32" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D29" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C70" r:id="rId55" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C73" r:id="rId56" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
     <hyperlink ref="D68" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C31" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="C28" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D83" r:id="rId59" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C83" r:id="rId60" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
     <hyperlink ref="D69" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
@@ -3893,21 +3893,21 @@
     <hyperlink ref="D51" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C76" r:id="rId67" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
     <hyperlink ref="C46" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D26" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D15" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="D23" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D12" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
     <hyperlink ref="C53" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="D12" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C32" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
+    <hyperlink ref="D9" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C29" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
     <hyperlink ref="C58" r:id="rId74" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D13" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="D10" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C85" r:id="rId76" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="C27" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
+    <hyperlink ref="C24" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
     <hyperlink ref="D63" r:id="rId78" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C20" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C17" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
     <hyperlink ref="C62" r:id="rId80" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
     <hyperlink ref="D60" r:id="rId81" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId82" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D33" r:id="rId83" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="D32" r:id="rId83" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
     <hyperlink ref="C52" r:id="rId84" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
     <hyperlink ref="D76" r:id="rId85" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
     <hyperlink ref="D3" r:id="rId86" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
@@ -3915,27 +3915,28 @@
     <hyperlink ref="D81" r:id="rId88" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
     <hyperlink ref="D85" r:id="rId89" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
     <hyperlink ref="C74" r:id="rId90" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C33" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
+    <hyperlink ref="C32" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
     <hyperlink ref="C54" r:id="rId92" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
     <hyperlink ref="C61" r:id="rId93" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D22" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D23" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C22" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C25" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C17" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C10" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C11" r:id="rId100" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
-    <hyperlink ref="C5" r:id="rId101" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C13" r:id="rId102" xr:uid="{E035FF6A-D6FD-4586-B36D-13C716E1E0D1}"/>
+    <hyperlink ref="D19" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D20" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C19" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C22" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C14" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C7" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C8" r:id="rId100" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
+    <hyperlink ref="C31" r:id="rId101" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="C10" r:id="rId102" xr:uid="{E035FF6A-D6FD-4586-B36D-13C716E1E0D1}"/>
     <hyperlink ref="C68" r:id="rId103" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
     <hyperlink ref="C38" r:id="rId104" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
     <hyperlink ref="D38" r:id="rId105" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C8" r:id="rId106" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="C37" r:id="rId106" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="D37" r:id="rId107" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId107"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId108"/>
   <tableParts count="1">
-    <tablePart r:id="rId108"/>
+    <tablePart r:id="rId109"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD156B-995F-4210-986B-FF1176E3999A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC45E69C-024A-4595-98D8-3575A8DE17DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1729,21 +1729,21 @@
       <c r="B5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="40" t="s">
         <v>279</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>141</v>
       </c>
       <c r="E5" s="23">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G5" s="23">
         <f>DATE(YEAR(E5),MONTH(E5)+3,DAY(E5))</f>
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>219</v>
@@ -1756,21 +1756,21 @@
       <c r="B6" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="45" t="s">
         <v>258</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>170</v>
       </c>
       <c r="E6" s="23">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G6" s="23">
         <f>DATE(YEAR(E6),MONTH(E6)+3,DAY(E6))</f>
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H6" s="29" t="s">
         <v>221</v>
@@ -1904,7 +1904,7 @@
         <v>156</v>
       </c>
       <c r="G11" s="23">
-        <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
+        <f t="shared" ref="G11:G28" si="0">DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
         <v>44621</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -1931,7 +1931,7 @@
         <v>156</v>
       </c>
       <c r="G12" s="23">
-        <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -1958,7 +1958,7 @@
         <v>156</v>
       </c>
       <c r="G13" s="23">
-        <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H13" s="21" t="s">
@@ -1985,7 +1985,7 @@
         <v>156</v>
       </c>
       <c r="G14" s="23">
-        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -2012,7 +2012,7 @@
         <v>156</v>
       </c>
       <c r="G15" s="23">
-        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -2039,7 +2039,7 @@
         <v>156</v>
       </c>
       <c r="G16" s="23">
-        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -2066,7 +2066,7 @@
         <v>156</v>
       </c>
       <c r="G17" s="23">
-        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H17" s="21" t="s">
@@ -2093,7 +2093,7 @@
         <v>156</v>
       </c>
       <c r="G18" s="23">
-        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H18" s="21" t="s">
@@ -2120,7 +2120,7 @@
         <v>156</v>
       </c>
       <c r="G19" s="23">
-        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H19" s="21" t="s">
@@ -2147,7 +2147,7 @@
         <v>156</v>
       </c>
       <c r="G20" s="23">
-        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H20" s="21" t="s">
@@ -2174,7 +2174,7 @@
         <v>156</v>
       </c>
       <c r="G21" s="23">
-        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H21" s="21" t="s">
@@ -2201,7 +2201,7 @@
         <v>156</v>
       </c>
       <c r="G22" s="23">
-        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H22" s="21" t="s">
@@ -2228,7 +2228,7 @@
         <v>156</v>
       </c>
       <c r="G23" s="23">
-        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H23" s="21" t="s">
@@ -2255,7 +2255,7 @@
         <v>156</v>
       </c>
       <c r="G24" s="23">
-        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H24" s="21" t="s">
@@ -2280,7 +2280,7 @@
         <v>156</v>
       </c>
       <c r="G25" s="23">
-        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H25" s="21" t="s">
@@ -2305,7 +2305,7 @@
         <v>156</v>
       </c>
       <c r="G26" s="23">
-        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H26" s="21" t="s">
@@ -2330,7 +2330,7 @@
         <v>156</v>
       </c>
       <c r="G27" s="23">
-        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H27" s="21" t="s">
@@ -2355,7 +2355,7 @@
         <v>156</v>
       </c>
       <c r="G28" s="23">
-        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -3047,7 +3047,7 @@
         <v>157</v>
       </c>
       <c r="G54" s="23">
-        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <f t="shared" ref="G54:G66" si="1">DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
         <v>44805</v>
       </c>
       <c r="H54" s="21" t="s">
@@ -3074,7 +3074,7 @@
         <v>157</v>
       </c>
       <c r="G55" s="23">
-        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <f t="shared" si="1"/>
         <v>44805</v>
       </c>
       <c r="H55" s="21" t="s">
@@ -3101,7 +3101,7 @@
         <v>157</v>
       </c>
       <c r="G56" s="23">
-        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
+        <f t="shared" si="1"/>
         <v>44805</v>
       </c>
       <c r="H56" s="21" t="s">
@@ -3128,7 +3128,7 @@
         <v>157</v>
       </c>
       <c r="G57" s="23">
-        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <f t="shared" si="1"/>
         <v>44805</v>
       </c>
       <c r="H57" s="21" t="s">
@@ -3155,7 +3155,7 @@
         <v>157</v>
       </c>
       <c r="G58" s="23">
-        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <f t="shared" si="1"/>
         <v>44805</v>
       </c>
       <c r="H58" s="21" t="s">
@@ -3182,7 +3182,7 @@
         <v>157</v>
       </c>
       <c r="G59" s="23">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <f t="shared" si="1"/>
         <v>44866</v>
       </c>
       <c r="H59" s="21" t="s">
@@ -3209,7 +3209,7 @@
         <v>157</v>
       </c>
       <c r="G60" s="23">
-        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <f t="shared" si="1"/>
         <v>44866</v>
       </c>
       <c r="H60" s="21" t="s">
@@ -3236,7 +3236,7 @@
         <v>157</v>
       </c>
       <c r="G61" s="23">
-        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H61" s="21" t="s">
@@ -3263,7 +3263,7 @@
         <v>157</v>
       </c>
       <c r="G62" s="23">
-        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -3290,7 +3290,7 @@
         <v>157</v>
       </c>
       <c r="G63" s="23">
-        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H63" s="21" t="s">
@@ -3317,7 +3317,7 @@
         <v>157</v>
       </c>
       <c r="G64" s="23">
-        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H64" s="21" t="s">
@@ -3344,7 +3344,7 @@
         <v>157</v>
       </c>
       <c r="G65" s="23">
-        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H65" s="21" t="s">
@@ -3371,7 +3371,7 @@
         <v>157</v>
       </c>
       <c r="G66" s="23">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <f t="shared" si="1"/>
         <v>44927</v>
       </c>
       <c r="H66" s="21" t="s">
@@ -3932,11 +3932,13 @@
     <hyperlink ref="D38" r:id="rId105" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
     <hyperlink ref="C37" r:id="rId106" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
     <hyperlink ref="D37" r:id="rId107" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
+    <hyperlink ref="C5" r:id="rId108" xr:uid="{35F9E5E1-F98D-43CC-994E-2C1F79B3EBBC}"/>
+    <hyperlink ref="C6" r:id="rId109" xr:uid="{6826AFEE-F349-411C-9BBD-D6717F6FB1C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId108"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId110"/>
   <tableParts count="1">
-    <tablePart r:id="rId109"/>
+    <tablePart r:id="rId111"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC45E69C-024A-4595-98D8-3575A8DE17DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D142FC-4021-46E4-B4D9-E82E9B16B482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1724,70 +1724,70 @@
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>141</v>
+        <v>127</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>170</v>
       </c>
       <c r="E5" s="23">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G5" s="23">
         <f>DATE(YEAR(E5),MONTH(E5)+3,DAY(E5))</f>
-        <v>44652</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>219</v>
+        <v>44621</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>170</v>
+        <v>38</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="E6" s="23">
-        <v>44531</v>
+        <v>44593</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G6" s="23">
-        <f>DATE(YEAR(E6),MONTH(E6)+3,DAY(E6))</f>
+        <f>DATE(YEAR(E6),MONTH(E6)+1,DAY(E6))</f>
         <v>44621</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>221</v>
+      <c r="H6" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>138</v>
+        <v>301</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="E7" s="23">
         <v>44593</v>
@@ -1800,21 +1800,21 @@
         <v>44621</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>171</v>
+        <v>52</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="E8" s="23">
         <v>44593</v>
@@ -1827,21 +1827,21 @@
         <v>44621</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>142</v>
+        <v>28</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>260</v>
       </c>
       <c r="E9" s="23">
         <v>44593</v>
@@ -1859,25 +1859,25 @@
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>260</v>
+        <v>44</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="E10" s="23">
-        <v>44593</v>
+        <v>44531</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G10" s="23">
-        <f>DATE(YEAR(E10),MONTH(E10)+1,DAY(E10))</f>
+        <f>DATE(YEAR(E10),MONTH(E10)+3,DAY(E10))</f>
         <v>44621</v>
       </c>
       <c r="H10" s="21" t="s">
@@ -1886,16 +1886,16 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E11" s="23">
         <v>44531</v>
@@ -1904,7 +1904,7 @@
         <v>156</v>
       </c>
       <c r="G11" s="23">
-        <f t="shared" ref="G11:G28" si="0">DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
+        <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
         <v>44621</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -1913,25 +1913,25 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="4">
         <v>44531</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G12" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
         <v>44621</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -1940,13 +1940,13 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>294</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>297</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>139</v>
@@ -1958,7 +1958,7 @@
         <v>156</v>
       </c>
       <c r="G13" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
         <v>44621</v>
       </c>
       <c r="H13" s="21" t="s">
@@ -1967,25 +1967,25 @@
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="4">
+        <v>63</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="23">
         <v>44531</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G14" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
         <v>44621</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -1994,13 +1994,13 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>132</v>
@@ -2012,7 +2012,7 @@
         <v>156</v>
       </c>
       <c r="G15" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
         <v>44621</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -2021,13 +2021,13 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>132</v>
@@ -2039,7 +2039,7 @@
         <v>156</v>
       </c>
       <c r="G16" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
         <v>44621</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -2048,13 +2048,13 @@
     </row>
     <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>132</v>
@@ -2066,7 +2066,7 @@
         <v>156</v>
       </c>
       <c r="G17" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
         <v>44621</v>
       </c>
       <c r="H17" s="21" t="s">
@@ -2075,13 +2075,13 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>6</v>
+        <v>289</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>7</v>
+        <v>293</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>132</v>
@@ -2093,7 +2093,7 @@
         <v>156</v>
       </c>
       <c r="G18" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
         <v>44621</v>
       </c>
       <c r="H18" s="21" t="s">
@@ -2102,13 +2102,13 @@
     </row>
     <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>132</v>
@@ -2120,7 +2120,7 @@
         <v>156</v>
       </c>
       <c r="G19" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
         <v>44621</v>
       </c>
       <c r="H19" s="21" t="s">
@@ -2129,16 +2129,16 @@
     </row>
     <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>288</v>
+        <v>29</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>291</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>271</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E20" s="23">
         <v>44531</v>
@@ -2147,7 +2147,7 @@
         <v>156</v>
       </c>
       <c r="G20" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
         <v>44621</v>
       </c>
       <c r="H20" s="21" t="s">
@@ -2156,16 +2156,16 @@
     </row>
     <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>271</v>
+        <v>40</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E21" s="23">
         <v>44531</v>
@@ -2174,7 +2174,7 @@
         <v>156</v>
       </c>
       <c r="G21" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
         <v>44621</v>
       </c>
       <c r="H21" s="21" t="s">
@@ -2183,13 +2183,13 @@
     </row>
     <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>139</v>
@@ -2201,7 +2201,7 @@
         <v>156</v>
       </c>
       <c r="G22" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
         <v>44621</v>
       </c>
       <c r="H22" s="21" t="s">
@@ -2210,16 +2210,16 @@
     </row>
     <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E23" s="23">
         <v>44531</v>
@@ -2228,7 +2228,7 @@
         <v>156</v>
       </c>
       <c r="G23" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
         <v>44621</v>
       </c>
       <c r="H23" s="21" t="s">
@@ -2237,17 +2237,15 @@
     </row>
     <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>140</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="26"/>
       <c r="E24" s="23">
         <v>44531</v>
       </c>
@@ -2255,22 +2253,22 @@
         <v>156</v>
       </c>
       <c r="G24" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
         <v>44621</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>247</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="23">
@@ -2280,7 +2278,7 @@
         <v>156</v>
       </c>
       <c r="G25" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
         <v>44621</v>
       </c>
       <c r="H25" s="21" t="s">
@@ -2289,13 +2287,13 @@
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>247</v>
+        <v>90</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="23">
@@ -2305,7 +2303,7 @@
         <v>156</v>
       </c>
       <c r="G26" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
         <v>44621</v>
       </c>
       <c r="H26" s="21" t="s">
@@ -2313,79 +2311,81 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="23">
+      <c r="A27" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="31">
         <v>44531</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G27" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
         <v>44621</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="31">
-        <v>44531</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>156</v>
+      <c r="A28" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="23">
+        <v>44256</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="G28" s="23">
-        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>246</v>
+        <v>50</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="E29" s="23">
-        <v>44256</v>
+        <v>44562</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G29" s="23">
-        <v>44621</v>
+        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
+        <v>44652</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3047,7 +3047,7 @@
         <v>157</v>
       </c>
       <c r="G54" s="23">
-        <f t="shared" ref="G54:G66" si="1">DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
         <v>44805</v>
       </c>
       <c r="H54" s="21" t="s">
@@ -3074,7 +3074,7 @@
         <v>157</v>
       </c>
       <c r="G55" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
         <v>44805</v>
       </c>
       <c r="H55" s="21" t="s">
@@ -3101,7 +3101,7 @@
         <v>157</v>
       </c>
       <c r="G56" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
         <v>44805</v>
       </c>
       <c r="H56" s="21" t="s">
@@ -3128,7 +3128,7 @@
         <v>157</v>
       </c>
       <c r="G57" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
         <v>44805</v>
       </c>
       <c r="H57" s="21" t="s">
@@ -3155,7 +3155,7 @@
         <v>157</v>
       </c>
       <c r="G58" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
         <v>44805</v>
       </c>
       <c r="H58" s="21" t="s">
@@ -3182,7 +3182,7 @@
         <v>157</v>
       </c>
       <c r="G59" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
         <v>44866</v>
       </c>
       <c r="H59" s="21" t="s">
@@ -3209,7 +3209,7 @@
         <v>157</v>
       </c>
       <c r="G60" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
         <v>44866</v>
       </c>
       <c r="H60" s="21" t="s">
@@ -3236,7 +3236,7 @@
         <v>157</v>
       </c>
       <c r="G61" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
         <v>44896</v>
       </c>
       <c r="H61" s="21" t="s">
@@ -3263,7 +3263,7 @@
         <v>157</v>
       </c>
       <c r="G62" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
         <v>44896</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -3290,7 +3290,7 @@
         <v>157</v>
       </c>
       <c r="G63" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
         <v>44896</v>
       </c>
       <c r="H63" s="21" t="s">
@@ -3317,7 +3317,7 @@
         <v>157</v>
       </c>
       <c r="G64" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
         <v>44896</v>
       </c>
       <c r="H64" s="21" t="s">
@@ -3344,7 +3344,7 @@
         <v>157</v>
       </c>
       <c r="G65" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
         <v>44896</v>
       </c>
       <c r="H65" s="21" t="s">
@@ -3371,7 +3371,7 @@
         <v>157</v>
       </c>
       <c r="G66" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
         <v>44927</v>
       </c>
       <c r="H66" s="21" t="s">
@@ -3828,61 +3828,61 @@
     <hyperlink ref="C39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="D67" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="C66" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C25" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C27" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="C41" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C79" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="C36" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C81" r:id="rId10" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D75" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="C34" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="D54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="D46" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D10:D12" r:id="rId17" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="D39" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="D50" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="D61" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D5" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="D64" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="D57" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="D65" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="D59" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D15" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="D30" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="D31" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D77" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D79" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D11" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D10" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="D62" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="D52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D82" r:id="rId40" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D78" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C78" r:id="rId42" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
     <hyperlink ref="D48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="D49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C18" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D7" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D6" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D8" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C17" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D6" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D5" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D7" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
     <hyperlink ref="D66" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="D40" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
     <hyperlink ref="D34" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
     <hyperlink ref="D53" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D29" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C70" r:id="rId55" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C73" r:id="rId56" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
     <hyperlink ref="D68" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C28" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="C27" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D83" r:id="rId59" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C83" r:id="rId60" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
     <hyperlink ref="D69" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
@@ -3893,17 +3893,17 @@
     <hyperlink ref="D51" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C76" r:id="rId67" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
     <hyperlink ref="C46" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D23" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D12" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="D22" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D11" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
     <hyperlink ref="C53" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="D9" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C29" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
+    <hyperlink ref="D8" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C28" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
     <hyperlink ref="C58" r:id="rId74" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D10" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="D9" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C85" r:id="rId76" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="C24" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
+    <hyperlink ref="C23" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
     <hyperlink ref="D63" r:id="rId78" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C17" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C16" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
     <hyperlink ref="C62" r:id="rId80" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
     <hyperlink ref="D60" r:id="rId81" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId82" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
@@ -3918,22 +3918,22 @@
     <hyperlink ref="C32" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
     <hyperlink ref="C54" r:id="rId92" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
     <hyperlink ref="C61" r:id="rId93" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D19" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D20" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C19" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C22" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C14" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C7" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C8" r:id="rId100" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
+    <hyperlink ref="D18" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D19" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C18" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C21" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C13" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C6" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C7" r:id="rId100" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
     <hyperlink ref="C31" r:id="rId101" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C10" r:id="rId102" xr:uid="{E035FF6A-D6FD-4586-B36D-13C716E1E0D1}"/>
+    <hyperlink ref="C9" r:id="rId102" xr:uid="{E035FF6A-D6FD-4586-B36D-13C716E1E0D1}"/>
     <hyperlink ref="C68" r:id="rId103" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
     <hyperlink ref="C38" r:id="rId104" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
     <hyperlink ref="D38" r:id="rId105" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
     <hyperlink ref="C37" r:id="rId106" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
     <hyperlink ref="D37" r:id="rId107" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
-    <hyperlink ref="C5" r:id="rId108" xr:uid="{35F9E5E1-F98D-43CC-994E-2C1F79B3EBBC}"/>
-    <hyperlink ref="C6" r:id="rId109" xr:uid="{6826AFEE-F349-411C-9BBD-D6717F6FB1C2}"/>
+    <hyperlink ref="C29" r:id="rId108" xr:uid="{35F9E5E1-F98D-43CC-994E-2C1F79B3EBBC}"/>
+    <hyperlink ref="C5" r:id="rId109" xr:uid="{6826AFEE-F349-411C-9BBD-D6717F6FB1C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId110"/>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D142FC-4021-46E4-B4D9-E82E9B16B482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CAAD53-E836-4B1E-82B7-384149EC9F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1817,14 +1817,14 @@
         <v>142</v>
       </c>
       <c r="E8" s="23">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>158</v>
       </c>
       <c r="G8" s="23">
         <f>DATE(YEAR(E8),MONTH(E8)+1,DAY(E8))</f>
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>219</v>
@@ -1877,7 +1877,7 @@
         <v>156</v>
       </c>
       <c r="G10" s="23">
-        <f>DATE(YEAR(E10),MONTH(E10)+3,DAY(E10))</f>
+        <f t="shared" ref="G10:G27" si="0">DATE(YEAR(E10),MONTH(E10)+3,DAY(E10))</f>
         <v>44621</v>
       </c>
       <c r="H10" s="21" t="s">
@@ -1904,7 +1904,7 @@
         <v>156</v>
       </c>
       <c r="G11" s="23">
-        <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -1931,7 +1931,7 @@
         <v>156</v>
       </c>
       <c r="G12" s="23">
-        <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -1958,7 +1958,7 @@
         <v>156</v>
       </c>
       <c r="G13" s="23">
-        <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H13" s="21" t="s">
@@ -1985,7 +1985,7 @@
         <v>156</v>
       </c>
       <c r="G14" s="23">
-        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -2012,7 +2012,7 @@
         <v>156</v>
       </c>
       <c r="G15" s="23">
-        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -2039,7 +2039,7 @@
         <v>156</v>
       </c>
       <c r="G16" s="23">
-        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -2066,7 +2066,7 @@
         <v>156</v>
       </c>
       <c r="G17" s="23">
-        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H17" s="21" t="s">
@@ -2093,7 +2093,7 @@
         <v>156</v>
       </c>
       <c r="G18" s="23">
-        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H18" s="21" t="s">
@@ -2120,7 +2120,7 @@
         <v>156</v>
       </c>
       <c r="G19" s="23">
-        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H19" s="21" t="s">
@@ -2147,7 +2147,7 @@
         <v>156</v>
       </c>
       <c r="G20" s="23">
-        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H20" s="21" t="s">
@@ -2174,7 +2174,7 @@
         <v>156</v>
       </c>
       <c r="G21" s="23">
-        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H21" s="21" t="s">
@@ -2201,7 +2201,7 @@
         <v>156</v>
       </c>
       <c r="G22" s="23">
-        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H22" s="21" t="s">
@@ -2228,7 +2228,7 @@
         <v>156</v>
       </c>
       <c r="G23" s="23">
-        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H23" s="21" t="s">
@@ -2253,7 +2253,7 @@
         <v>156</v>
       </c>
       <c r="G24" s="23">
-        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H24" s="21" t="s">
@@ -2278,7 +2278,7 @@
         <v>156</v>
       </c>
       <c r="G25" s="23">
-        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H25" s="21" t="s">
@@ -2303,7 +2303,7 @@
         <v>156</v>
       </c>
       <c r="G26" s="23">
-        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H26" s="21" t="s">
@@ -2328,7 +2328,7 @@
         <v>156</v>
       </c>
       <c r="G27" s="23">
-        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H27" s="21" t="s">
@@ -3047,7 +3047,7 @@
         <v>157</v>
       </c>
       <c r="G54" s="23">
-        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <f t="shared" ref="G54:G66" si="1">DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
         <v>44805</v>
       </c>
       <c r="H54" s="21" t="s">
@@ -3074,7 +3074,7 @@
         <v>157</v>
       </c>
       <c r="G55" s="23">
-        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <f t="shared" si="1"/>
         <v>44805</v>
       </c>
       <c r="H55" s="21" t="s">
@@ -3101,7 +3101,7 @@
         <v>157</v>
       </c>
       <c r="G56" s="23">
-        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
+        <f t="shared" si="1"/>
         <v>44805</v>
       </c>
       <c r="H56" s="21" t="s">
@@ -3128,7 +3128,7 @@
         <v>157</v>
       </c>
       <c r="G57" s="23">
-        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <f t="shared" si="1"/>
         <v>44805</v>
       </c>
       <c r="H57" s="21" t="s">
@@ -3155,7 +3155,7 @@
         <v>157</v>
       </c>
       <c r="G58" s="23">
-        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <f t="shared" si="1"/>
         <v>44805</v>
       </c>
       <c r="H58" s="21" t="s">
@@ -3182,7 +3182,7 @@
         <v>157</v>
       </c>
       <c r="G59" s="23">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <f t="shared" si="1"/>
         <v>44866</v>
       </c>
       <c r="H59" s="21" t="s">
@@ -3209,7 +3209,7 @@
         <v>157</v>
       </c>
       <c r="G60" s="23">
-        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <f t="shared" si="1"/>
         <v>44866</v>
       </c>
       <c r="H60" s="21" t="s">
@@ -3236,7 +3236,7 @@
         <v>157</v>
       </c>
       <c r="G61" s="23">
-        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H61" s="21" t="s">
@@ -3263,7 +3263,7 @@
         <v>157</v>
       </c>
       <c r="G62" s="23">
-        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -3290,7 +3290,7 @@
         <v>157</v>
       </c>
       <c r="G63" s="23">
-        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H63" s="21" t="s">
@@ -3317,7 +3317,7 @@
         <v>157</v>
       </c>
       <c r="G64" s="23">
-        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H64" s="21" t="s">
@@ -3344,7 +3344,7 @@
         <v>157</v>
       </c>
       <c r="G65" s="23">
-        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H65" s="21" t="s">
@@ -3371,7 +3371,7 @@
         <v>157</v>
       </c>
       <c r="G66" s="23">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <f t="shared" si="1"/>
         <v>44927</v>
       </c>
       <c r="H66" s="21" t="s">

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CAAD53-E836-4B1E-82B7-384149EC9F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5C28EF-6EC9-4BB1-AD1B-004EF654C93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -868,9 +868,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043396/table_251.xlsx</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1031152/renewable-energy-planning-database-q3-september-2021.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043383/table_224.xlsx</t>
   </si>
   <si>
@@ -947,6 +944,9 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1048354/electric-vehicle-charging-device-statistics-january-2022.ods</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1051570/renewable-energy-planning-database-q4-december-2021.csv</t>
   </si>
 </sst>
 </file>
@@ -1116,12 +1116,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1722,136 +1722,135 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="23">
-        <v>44531</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="23">
-        <f>DATE(YEAR(E5),MONTH(E5)+3,DAY(E5))</f>
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="16">
+        <v>44256</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="16">
         <v>44621</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>221</v>
+      <c r="H5" s="13" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>170</v>
       </c>
       <c r="E6" s="23">
-        <v>44593</v>
+        <v>44256</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="23">
-        <f>DATE(YEAR(E6),MONTH(E6)+1,DAY(E6))</f>
-        <v>44621</v>
-      </c>
-      <c r="H6" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="31">
+        <f>DATE(YEAR(E6),MONTH(E6)+3,DAY(E6))</f>
+        <v>44348</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="23">
+        <v>44256</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="23">
+        <f>DATE(YEAR(E7),MONTH(E7)+3,DAY(E7))</f>
+        <v>44348</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="23">
-        <f>DATE(YEAR(E7),MONTH(E7)+1,DAY(E7))</f>
-        <v>44621</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
     <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>52</v>
+      <c r="A8" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E8" s="23">
-        <v>44621</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>158</v>
+        <v>44256</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>156</v>
       </c>
       <c r="G8" s="23">
-        <f>DATE(YEAR(E8),MONTH(E8)+1,DAY(E8))</f>
-        <v>44652</v>
-      </c>
-      <c r="H8" s="21" t="s">
+        <f>DATE(YEAR(E8),MONTH(E8)+3,DAY(E8))</f>
+        <v>44348</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>298</v>
+        <v>294</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>293</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="23">
-        <v>44593</v>
+        <v>139</v>
+      </c>
+      <c r="E9" s="4">
+        <v>44256</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G9" s="23">
-        <f>DATE(YEAR(E9),MONTH(E9)+1,DAY(E9))</f>
-        <v>44621</v>
+        <f>DATE(YEAR(E9),MONTH(E9)+3,DAY(E9))</f>
+        <v>44348</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>219</v>
@@ -1859,26 +1858,26 @@
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="23">
-        <v>44531</v>
+        <v>295</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="4">
+        <v>44256</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G10" s="23">
-        <f t="shared" ref="G10:G27" si="0">DATE(YEAR(E10),MONTH(E10)+3,DAY(E10))</f>
-        <v>44621</v>
+        <f>DATE(YEAR(E10),MONTH(E10)+3,DAY(E10))</f>
+        <v>44348</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>219</v>
@@ -1886,16 +1885,16 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E11" s="23">
         <v>44531</v>
@@ -1904,7 +1903,7 @@
         <v>156</v>
       </c>
       <c r="G11" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
         <v>44621</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -1913,25 +1912,25 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="4">
+        <v>65</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="23">
         <v>44531</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G12" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
         <v>44621</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -1940,25 +1939,25 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="23">
         <v>44531</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G13" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
         <v>44621</v>
       </c>
       <c r="H13" s="21" t="s">
@@ -1967,13 +1966,13 @@
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>132</v>
@@ -1985,7 +1984,7 @@
         <v>156</v>
       </c>
       <c r="G14" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
         <v>44621</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -1994,13 +1993,13 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>65</v>
+        <v>288</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>132</v>
@@ -2012,7 +2011,7 @@
         <v>156</v>
       </c>
       <c r="G15" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
         <v>44621</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -2021,13 +2020,13 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>4</v>
+        <v>287</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>5</v>
+        <v>291</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>132</v>
@@ -2039,7 +2038,7 @@
         <v>156</v>
       </c>
       <c r="G16" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
         <v>44621</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -2048,16 +2047,16 @@
     </row>
     <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>273</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>271</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E17" s="23">
         <v>44531</v>
@@ -2066,7 +2065,7 @@
         <v>156</v>
       </c>
       <c r="G17" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
         <v>44621</v>
       </c>
       <c r="H17" s="21" t="s">
@@ -2075,16 +2074,16 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>289</v>
+        <v>39</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>290</v>
-      </c>
       <c r="D18" s="22" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E18" s="23">
         <v>44531</v>
@@ -2093,7 +2092,7 @@
         <v>156</v>
       </c>
       <c r="G18" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
         <v>44621</v>
       </c>
       <c r="H18" s="21" t="s">
@@ -2101,26 +2100,26 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>292</v>
+      <c r="A19" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="23">
+        <v>139</v>
+      </c>
+      <c r="E19" s="31">
         <v>44531</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="43" t="s">
         <v>156</v>
       </c>
       <c r="G19" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
         <v>44621</v>
       </c>
       <c r="H19" s="21" t="s">
@@ -2129,17 +2128,15 @@
     </row>
     <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>135</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="26"/>
       <c r="E20" s="23">
         <v>44531</v>
       </c>
@@ -2147,26 +2144,24 @@
         <v>156</v>
       </c>
       <c r="G20" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
         <v>44621</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>139</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="26"/>
       <c r="E21" s="23">
         <v>44531</v>
       </c>
@@ -2174,61 +2169,59 @@
         <v>156</v>
       </c>
       <c r="G21" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
         <v>44621</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="23">
+      <c r="A22" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="31">
         <v>44531</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G22" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
         <v>44621</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>140</v>
+        <v>38</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="E23" s="23">
-        <v>44531</v>
+        <v>44593</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G23" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E23),MONTH(E23)+1,DAY(E23))</f>
         <v>44621</v>
       </c>
       <c r="H23" s="21" t="s">
@@ -2237,193 +2230,200 @@
     </row>
     <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="26"/>
+        <v>70</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>171</v>
+      </c>
       <c r="E24" s="23">
-        <v>44531</v>
+        <v>44593</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G24" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E24),MONTH(E24)+1,DAY(E24))</f>
         <v>44621</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D25" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>260</v>
+      </c>
       <c r="E25" s="23">
-        <v>44531</v>
+        <v>44593</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G25" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E25),MONTH(E25)+1,DAY(E25))</f>
         <v>44621</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="26"/>
+        <v>164</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="25"/>
       <c r="E26" s="23">
-        <v>44531</v>
+        <v>44287</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G26" s="23">
-        <f t="shared" si="0"/>
-        <v>44621</v>
+        <f>DATE(YEAR(E26)+1,MONTH(E26),DAY(E26))</f>
+        <v>44652</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="31">
-        <v>44531</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>156</v>
+      <c r="A27" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="23">
+        <v>44287</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="G27" s="23">
-        <f t="shared" si="0"/>
-        <v>44621</v>
+        <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
+        <v>44652</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>245</v>
+        <v>229</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="E28" s="23">
-        <v>44256</v>
-      </c>
-      <c r="F28" s="24" t="s">
+        <v>44287</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>157</v>
       </c>
       <c r="G28" s="23">
-        <v>44621</v>
+        <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
+        <v>44652</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>279</v>
+      <c r="A29" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="23">
-        <v>44562</v>
-      </c>
-      <c r="F29" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="31">
+        <v>44287</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" s="31">
+        <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
+        <v>44652</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="E30" s="23">
+        <v>44531</v>
+      </c>
+      <c r="F30" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="23">
-        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
+      <c r="G30" s="23">
+        <f>DATE(YEAR(E30),MONTH(E30)+4,DAY(E30))</f>
         <v>44652</v>
       </c>
-      <c r="H29" s="21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="16">
-        <v>44562</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="23">
-        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
-        <v>44652</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>221</v>
+      <c r="H30" s="21" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>225</v>
+        <v>67</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>148</v>
@@ -2443,106 +2443,108 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="E32" s="23">
-        <v>44531</v>
-      </c>
-      <c r="F32" s="24" t="s">
+      <c r="A32" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="16">
+        <v>44562</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>156</v>
       </c>
       <c r="G32" s="23">
-        <f>DATE(YEAR(E32),MONTH(E32)+4,DAY(E32))</f>
+        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
         <v>44652</v>
       </c>
-      <c r="H32" s="21" t="s">
-        <v>224</v>
+      <c r="H32" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>142</v>
+      </c>
       <c r="E33" s="23">
-        <v>44287</v>
+        <v>44621</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G33" s="23">
-        <f>DATE(YEAR(E33)+1,MONTH(E33),DAY(E33))</f>
+        <f>DATE(YEAR(E33),MONTH(E33)+1,DAY(E33))</f>
         <v>44652</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="23">
-        <v>44287</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="23">
-        <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
-        <v>44652</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>222</v>
+      <c r="A34" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="E34" s="31">
+        <v>44593</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" s="31">
+        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
+        <v>44682</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>151</v>
+        <v>117</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>302</v>
       </c>
       <c r="E35" s="23">
-        <v>44287</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>157</v>
+        <v>44593</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="G35" s="23">
-        <f>DATE(YEAR(E35)+1,MONTH(E35),DAY(E35))</f>
-        <v>44652</v>
+        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
+        <v>44682</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>222</v>
@@ -2550,97 +2552,95 @@
     </row>
     <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E36" s="31">
-        <v>44287</v>
+        <v>44348</v>
       </c>
       <c r="F36" s="43" t="s">
         <v>157</v>
       </c>
       <c r="G36" s="31">
         <f>DATE(YEAR(E36)+1,MONTH(E36),DAY(E36))</f>
-        <v>44652</v>
+        <v>44713</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>305</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>304</v>
+        <v>92</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>174</v>
       </c>
       <c r="E37" s="31">
-        <v>44593</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>156</v>
+        <v>44348</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>157</v>
       </c>
       <c r="G37" s="31">
-        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
-        <v>44682</v>
+        <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
+        <v>44713</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="E38" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G38" s="23">
-        <f>DATE(YEAR(E38),MONTH(E38)+3,DAY(E38))</f>
-        <v>44682</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>222</v>
+      <c r="A38" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="31">
+        <v>44348</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="31">
+        <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
+        <v>44713</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="E39" s="31">
         <v>44348</v>
@@ -2653,21 +2653,21 @@
         <v>44713</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>174</v>
+        <v>103</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="E40" s="31">
         <v>44348</v>
@@ -2680,20 +2680,22 @@
         <v>44713</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="26"/>
+        <v>235</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>237</v>
+      </c>
       <c r="E41" s="31">
         <v>44348</v>
       </c>
@@ -2701,116 +2703,114 @@
         <v>157</v>
       </c>
       <c r="G41" s="31">
-        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
         <v>44713</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E42" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G42" s="31">
-        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
-        <v>44713</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>222</v>
-      </c>
+      <c r="A42" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="4">
+        <v>44646</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="48">
+        <v>44738</v>
+      </c>
+      <c r="H42" s="45"/>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>232</v>
+        <v>48</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>267</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="E43" s="28">
-        <v>44348</v>
+        <v>44652</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G43" s="28">
-        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
-        <v>44713</v>
+        <f>DATE(YEAR(E43),MONTH(E43)+3,DAY(E43))</f>
+        <v>44743</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>237</v>
-      </c>
+      <c r="A44" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="26"/>
       <c r="E44" s="23">
-        <v>44348</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>157</v>
+        <v>44652</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="G44" s="28">
-        <v>44713</v>
+        <f>DATE(YEAR(E44),MONTH(E44)+3,DAY(E44))</f>
+        <v>44743</v>
       </c>
       <c r="H44" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="23">
+        <v>44652</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" s="23">
+        <f>DATE(YEAR(E45),MONTH(E45)+3,DAY(E45))</f>
+        <v>44743</v>
+      </c>
+      <c r="H45" s="27" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B45" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="E45" s="4">
-        <v>44646</v>
-      </c>
-      <c r="F45" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="G45" s="4">
-        <v>44738</v>
-      </c>
-      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
@@ -2949,29 +2949,28 @@
     </row>
     <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C51" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>202</v>
+        <v>105</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="E51" s="23">
-        <v>44593</v>
+        <v>44287</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="G51" s="23">
-        <f>DATE(YEAR(E51),MONTH(E51)+6,DAY(E51))</f>
         <v>44774</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2982,7 +2981,7 @@
         <v>97</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>159</v>
@@ -3003,28 +3002,29 @@
     </row>
     <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>151</v>
+        <v>201</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>202</v>
       </c>
       <c r="E53" s="23">
-        <v>44287</v>
+        <v>44593</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="G53" s="23">
+        <f>DATE(YEAR(E53),MONTH(E53)+6,DAY(E53))</f>
         <v>44774</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3047,7 +3047,7 @@
         <v>157</v>
       </c>
       <c r="G54" s="23">
-        <f t="shared" ref="G54:G66" si="1">DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
         <v>44805</v>
       </c>
       <c r="H54" s="21" t="s">
@@ -3074,7 +3074,7 @@
         <v>157</v>
       </c>
       <c r="G55" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
         <v>44805</v>
       </c>
       <c r="H55" s="21" t="s">
@@ -3101,7 +3101,7 @@
         <v>157</v>
       </c>
       <c r="G56" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
         <v>44805</v>
       </c>
       <c r="H56" s="21" t="s">
@@ -3128,7 +3128,7 @@
         <v>157</v>
       </c>
       <c r="G57" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
         <v>44805</v>
       </c>
       <c r="H57" s="21" t="s">
@@ -3155,7 +3155,7 @@
         <v>157</v>
       </c>
       <c r="G58" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
         <v>44805</v>
       </c>
       <c r="H58" s="21" t="s">
@@ -3163,10 +3163,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="29" t="s">
         <v>62</v>
       </c>
       <c r="C59" s="22" t="s">
@@ -3175,17 +3175,17 @@
       <c r="D59" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="31">
         <v>44501</v>
       </c>
-      <c r="F59" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G59" s="23">
-        <f t="shared" si="1"/>
+      <c r="F59" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" s="31">
+        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
         <v>44866</v>
       </c>
-      <c r="H59" s="21" t="s">
+      <c r="H59" s="29" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3208,11 +3208,11 @@
       <c r="F60" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G60" s="23">
-        <f t="shared" si="1"/>
+      <c r="G60" s="31">
+        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
         <v>44866</v>
       </c>
-      <c r="H60" s="21" t="s">
+      <c r="H60" s="29" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
         <v>157</v>
       </c>
       <c r="G61" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
         <v>44896</v>
       </c>
       <c r="H61" s="21" t="s">
@@ -3263,7 +3263,7 @@
         <v>157</v>
       </c>
       <c r="G62" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
         <v>44896</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -3290,7 +3290,7 @@
         <v>157</v>
       </c>
       <c r="G63" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
         <v>44896</v>
       </c>
       <c r="H63" s="21" t="s">
@@ -3317,7 +3317,7 @@
         <v>157</v>
       </c>
       <c r="G64" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
         <v>44896</v>
       </c>
       <c r="H64" s="21" t="s">
@@ -3344,7 +3344,7 @@
         <v>157</v>
       </c>
       <c r="G65" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
         <v>44896</v>
       </c>
       <c r="H65" s="21" t="s">
@@ -3371,7 +3371,7 @@
         <v>157</v>
       </c>
       <c r="G66" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
         <v>44927</v>
       </c>
       <c r="H66" s="21" t="s">
@@ -3412,7 +3412,7 @@
       <c r="B68" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="44" t="s">
         <v>183</v>
       </c>
       <c r="D68" s="25" t="s">
@@ -3433,66 +3433,66 @@
       </c>
     </row>
     <row r="69" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E69" s="20">
-        <v>43831</v>
-      </c>
-      <c r="F69" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="2" t="s">
+      <c r="A69" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="23">
+        <v>43435</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G69" s="23"/>
+      <c r="H69" s="21" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E70" s="10">
-        <v>44166</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="6" t="s">
-        <v>219</v>
+      <c r="A70" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" s="23">
+        <v>43447</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G70" s="23"/>
+      <c r="H70" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71" s="12"/>
       <c r="E71" s="10">
-        <v>43916</v>
+        <v>43466</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>157</v>
@@ -3503,320 +3503,321 @@
       </c>
     </row>
     <row r="72" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C72" s="12" t="s">
+      <c r="A72" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" s="20">
+        <v>43831</v>
+      </c>
+      <c r="F72" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="G72" s="20"/>
+      <c r="H72" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="10">
-        <v>43466</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G72" s="10"/>
-      <c r="H72" s="6" t="s">
+      <c r="D73" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="23">
+        <v>43831</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G73" s="23"/>
+      <c r="H73" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="6" t="s">
+    <row r="74" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="20">
+        <v>43908</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G74" s="20"/>
+      <c r="H74" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="10">
+        <v>43916</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G75" s="10"/>
+      <c r="H75" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="25"/>
+      <c r="E76" s="23">
+        <v>43950</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G76" s="23"/>
+      <c r="H76" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="23">
+        <v>43950</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G77" s="23"/>
+      <c r="H77" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E78" s="10">
+        <v>44044</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="E74" s="23">
-        <v>44256</v>
-      </c>
-      <c r="F74" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G74" s="23"/>
-      <c r="H74" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E75" s="23">
-        <v>43831</v>
-      </c>
-      <c r="F75" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G75" s="23"/>
-      <c r="H75" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E76" s="10">
-        <v>44044</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G76" s="10"/>
-      <c r="H76" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E77" s="10">
-        <v>44256</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G77" s="10"/>
-      <c r="H77" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E78" s="23">
-        <v>43435</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="G78" s="23"/>
-      <c r="H78" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
     <row r="79" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E79" s="23">
-        <v>43447</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="G79" s="23"/>
-      <c r="H79" s="21" t="s">
-        <v>222</v>
+      <c r="A79" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" s="10">
+        <v>44166</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="6" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="25"/>
+        <v>121</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>213</v>
+      </c>
       <c r="E80" s="23">
-        <v>43950</v>
+        <v>44166</v>
       </c>
       <c r="F80" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G80" s="23"/>
       <c r="H80" s="21" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>213</v>
+        <v>281</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>281</v>
       </c>
       <c r="E81" s="23">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="F81" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G81" s="23"/>
       <c r="H81" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="E82" s="23">
-        <v>43950</v>
-      </c>
-      <c r="F82" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G82" s="23"/>
-      <c r="H82" s="21" t="s">
-        <v>222</v>
+      <c r="A82" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E82" s="10">
+        <v>44256</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G82" s="10"/>
+      <c r="H82" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E83" s="20">
-        <v>43908</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G83" s="20"/>
-      <c r="H83" s="2" t="s">
-        <v>222</v>
+      <c r="A83" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E83" s="10">
+        <v>44256</v>
+      </c>
+      <c r="F83" s="6"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="6" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="19"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="2" t="s">
+      <c r="D85" s="19"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E85" s="10">
-        <v>44256</v>
-      </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="6" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3825,120 +3826,121 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="D67" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="C66" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C41" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C79" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C36" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C81" r:id="rId10" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D75" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C34" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C44" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C20" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C38" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C70" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C29" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C80" r:id="rId10" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D73" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="D54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="D46" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D10:D12" r:id="rId17" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D39" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D36" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="D50" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="D61" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D43" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D45" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="D64" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="D57" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="D65" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="D59" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D30" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D31" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D77" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D79" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D10" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D11" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D12" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D31" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D32" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D82" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D70" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D29" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D7" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="D62" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D18" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="D52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D82" r:id="rId40" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D78" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C78" r:id="rId42" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D77" r:id="rId40" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D69" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C69" r:id="rId42" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
     <hyperlink ref="D48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="D49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C17" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D6" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D5" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D7" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C14" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D23" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D6" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D24" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
     <hyperlink ref="D66" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D40" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D34" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D53" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C70" r:id="rId55" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="C73" r:id="rId56" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D37" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D51" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D5" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C79" r:id="rId55" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="C84" r:id="rId56" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
     <hyperlink ref="D68" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C27" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D83" r:id="rId59" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C83" r:id="rId60" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D69" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C69" r:id="rId62" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C82" r:id="rId63" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="C22" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D74" r:id="rId59" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C74" r:id="rId60" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D72" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C72" r:id="rId62" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C77" r:id="rId63" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
     <hyperlink ref="D56" r:id="rId64" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
     <hyperlink ref="D55" r:id="rId65" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D51" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C76" r:id="rId67" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="D53" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C78" r:id="rId67" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
     <hyperlink ref="C46" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D22" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D11" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C53" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="D8" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C28" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
+    <hyperlink ref="D19" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D8" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="C51" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
+    <hyperlink ref="D33" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C5" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
     <hyperlink ref="C58" r:id="rId74" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D9" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
-    <hyperlink ref="C85" r:id="rId76" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="C23" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
+    <hyperlink ref="D25" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="C83" r:id="rId76" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
+    <hyperlink ref="C43" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
     <hyperlink ref="D63" r:id="rId78" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C16" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C13" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
     <hyperlink ref="C62" r:id="rId80" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
     <hyperlink ref="D60" r:id="rId81" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId82" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D32" r:id="rId83" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="D30" r:id="rId83" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
     <hyperlink ref="C52" r:id="rId84" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
-    <hyperlink ref="D76" r:id="rId85" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
+    <hyperlink ref="D78" r:id="rId85" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
     <hyperlink ref="D3" r:id="rId86" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
     <hyperlink ref="C3" r:id="rId87" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
-    <hyperlink ref="D81" r:id="rId88" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
-    <hyperlink ref="D85" r:id="rId89" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
-    <hyperlink ref="C74" r:id="rId90" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C32" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
+    <hyperlink ref="D80" r:id="rId88" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
+    <hyperlink ref="D83" r:id="rId89" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
+    <hyperlink ref="C81" r:id="rId90" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
+    <hyperlink ref="C30" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
     <hyperlink ref="C54" r:id="rId92" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
     <hyperlink ref="C61" r:id="rId93" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D18" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D19" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C18" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C21" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C13" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C6" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C7" r:id="rId100" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
-    <hyperlink ref="C31" r:id="rId101" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C9" r:id="rId102" xr:uid="{E035FF6A-D6FD-4586-B36D-13C716E1E0D1}"/>
+    <hyperlink ref="D15" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D16" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C15" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C18" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C10" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C23" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C24" r:id="rId100" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
+    <hyperlink ref="C32" r:id="rId101" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="C25" r:id="rId102" xr:uid="{E035FF6A-D6FD-4586-B36D-13C716E1E0D1}"/>
     <hyperlink ref="C68" r:id="rId103" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="C38" r:id="rId104" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
-    <hyperlink ref="D38" r:id="rId105" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C37" r:id="rId106" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D37" r:id="rId107" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
-    <hyperlink ref="C29" r:id="rId108" xr:uid="{35F9E5E1-F98D-43CC-994E-2C1F79B3EBBC}"/>
-    <hyperlink ref="C5" r:id="rId109" xr:uid="{6826AFEE-F349-411C-9BBD-D6717F6FB1C2}"/>
+    <hyperlink ref="C35" r:id="rId104" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
+    <hyperlink ref="D35" r:id="rId105" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C34" r:id="rId106" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="D34" r:id="rId107" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
+    <hyperlink ref="C45" r:id="rId108" xr:uid="{35F9E5E1-F98D-43CC-994E-2C1F79B3EBBC}"/>
+    <hyperlink ref="C6" r:id="rId109" xr:uid="{6826AFEE-F349-411C-9BBD-D6717F6FB1C2}"/>
+    <hyperlink ref="D9" r:id="rId110" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId110"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId111"/>
   <tableParts count="1">
-    <tablePart r:id="rId111"/>
+    <tablePart r:id="rId112"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5C28EF-6EC9-4BB1-AD1B-004EF654C93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3B7611-C118-4F86-B537-8A3FC844CE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1768,7 +1768,7 @@
         <v>156</v>
       </c>
       <c r="G6" s="31">
-        <f>DATE(YEAR(E6),MONTH(E6)+3,DAY(E6))</f>
+        <f t="shared" ref="G6:G22" si="0">DATE(YEAR(E6),MONTH(E6)+3,DAY(E6))</f>
         <v>44348</v>
       </c>
       <c r="H6" s="29" t="s">
@@ -1795,7 +1795,7 @@
         <v>156</v>
       </c>
       <c r="G7" s="23">
-        <f>DATE(YEAR(E7),MONTH(E7)+3,DAY(E7))</f>
+        <f t="shared" si="0"/>
         <v>44348</v>
       </c>
       <c r="H7" s="29" t="s">
@@ -1822,7 +1822,7 @@
         <v>156</v>
       </c>
       <c r="G8" s="23">
-        <f>DATE(YEAR(E8),MONTH(E8)+3,DAY(E8))</f>
+        <f t="shared" si="0"/>
         <v>44348</v>
       </c>
       <c r="H8" s="29" t="s">
@@ -1849,7 +1849,7 @@
         <v>156</v>
       </c>
       <c r="G9" s="23">
-        <f>DATE(YEAR(E9),MONTH(E9)+3,DAY(E9))</f>
+        <f t="shared" si="0"/>
         <v>44348</v>
       </c>
       <c r="H9" s="21" t="s">
@@ -1876,7 +1876,7 @@
         <v>156</v>
       </c>
       <c r="G10" s="23">
-        <f>DATE(YEAR(E10),MONTH(E10)+3,DAY(E10))</f>
+        <f t="shared" si="0"/>
         <v>44348</v>
       </c>
       <c r="H10" s="21" t="s">
@@ -1903,7 +1903,7 @@
         <v>156</v>
       </c>
       <c r="G11" s="23">
-        <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -1930,7 +1930,7 @@
         <v>156</v>
       </c>
       <c r="G12" s="23">
-        <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -1957,7 +1957,7 @@
         <v>156</v>
       </c>
       <c r="G13" s="23">
-        <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H13" s="21" t="s">
@@ -1984,7 +1984,7 @@
         <v>156</v>
       </c>
       <c r="G14" s="23">
-        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -2011,7 +2011,7 @@
         <v>156</v>
       </c>
       <c r="G15" s="23">
-        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -2038,7 +2038,7 @@
         <v>156</v>
       </c>
       <c r="G16" s="23">
-        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -2065,7 +2065,7 @@
         <v>156</v>
       </c>
       <c r="G17" s="23">
-        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H17" s="21" t="s">
@@ -2092,7 +2092,7 @@
         <v>156</v>
       </c>
       <c r="G18" s="23">
-        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H18" s="21" t="s">
@@ -2119,7 +2119,7 @@
         <v>156</v>
       </c>
       <c r="G19" s="23">
-        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H19" s="21" t="s">
@@ -2138,14 +2138,14 @@
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="23">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G20" s="23">
-        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
-        <v>44621</v>
+        <f t="shared" si="0"/>
+        <v>44713</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>223</v>
@@ -2163,14 +2163,14 @@
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="23">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G21" s="23">
-        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
-        <v>44621</v>
+        <f t="shared" si="0"/>
+        <v>44713</v>
       </c>
       <c r="H21" s="21" t="s">
         <v>223</v>
@@ -2194,7 +2194,7 @@
         <v>156</v>
       </c>
       <c r="G22" s="23">
-        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H22" s="21" t="s">
@@ -2215,14 +2215,14 @@
         <v>138</v>
       </c>
       <c r="E23" s="23">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>158</v>
       </c>
       <c r="G23" s="23">
         <f>DATE(YEAR(E23),MONTH(E23)+1,DAY(E23))</f>
-        <v>44621</v>
+        <v>44682</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>219</v>
@@ -3047,7 +3047,7 @@
         <v>157</v>
       </c>
       <c r="G54" s="23">
-        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <f t="shared" ref="G54:G66" si="1">DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
         <v>44805</v>
       </c>
       <c r="H54" s="21" t="s">
@@ -3074,7 +3074,7 @@
         <v>157</v>
       </c>
       <c r="G55" s="23">
-        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <f t="shared" si="1"/>
         <v>44805</v>
       </c>
       <c r="H55" s="21" t="s">
@@ -3101,7 +3101,7 @@
         <v>157</v>
       </c>
       <c r="G56" s="23">
-        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
+        <f t="shared" si="1"/>
         <v>44805</v>
       </c>
       <c r="H56" s="21" t="s">
@@ -3128,7 +3128,7 @@
         <v>157</v>
       </c>
       <c r="G57" s="23">
-        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <f t="shared" si="1"/>
         <v>44805</v>
       </c>
       <c r="H57" s="21" t="s">
@@ -3155,7 +3155,7 @@
         <v>157</v>
       </c>
       <c r="G58" s="23">
-        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <f t="shared" si="1"/>
         <v>44805</v>
       </c>
       <c r="H58" s="21" t="s">
@@ -3182,7 +3182,7 @@
         <v>157</v>
       </c>
       <c r="G59" s="31">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <f t="shared" si="1"/>
         <v>44866</v>
       </c>
       <c r="H59" s="29" t="s">
@@ -3209,7 +3209,7 @@
         <v>157</v>
       </c>
       <c r="G60" s="31">
-        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <f t="shared" si="1"/>
         <v>44866</v>
       </c>
       <c r="H60" s="29" t="s">
@@ -3236,7 +3236,7 @@
         <v>157</v>
       </c>
       <c r="G61" s="23">
-        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H61" s="21" t="s">
@@ -3263,7 +3263,7 @@
         <v>157</v>
       </c>
       <c r="G62" s="23">
-        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -3290,7 +3290,7 @@
         <v>157</v>
       </c>
       <c r="G63" s="23">
-        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H63" s="21" t="s">
@@ -3317,7 +3317,7 @@
         <v>157</v>
       </c>
       <c r="G64" s="23">
-        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H64" s="21" t="s">
@@ -3344,7 +3344,7 @@
         <v>157</v>
       </c>
       <c r="G65" s="23">
-        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H65" s="21" t="s">
@@ -3371,7 +3371,7 @@
         <v>157</v>
       </c>
       <c r="G66" s="23">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <f t="shared" si="1"/>
         <v>44927</v>
       </c>
       <c r="H66" s="21" t="s">

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3B7611-C118-4F86-B537-8A3FC844CE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577529BC-9CD5-409F-9CAC-95FBBF3D4DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1696,161 +1696,159 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="31">
+        <v>44256</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="23">
+        <f>DATE(YEAR(E4),MONTH(E4)+3,DAY(E4))</f>
+        <v>44348</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B5" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C5" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E5" s="33">
         <v>44197</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="23">
-        <f>DATE(YEAR(E4)+1,MONTH(E4),DAY(E4))</f>
+      <c r="F5" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="23">
+        <f>DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
         <v>44562</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H5" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B6" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E6" s="16">
         <v>44256</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="16">
+      <c r="F6" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="16">
         <v>44621</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="23">
-        <v>44256</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="31">
-        <f t="shared" ref="G6:G22" si="0">DATE(YEAR(E6),MONTH(E6)+3,DAY(E6))</f>
-        <v>44348</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>221</v>
-      </c>
-    </row>
     <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>277</v>
+      <c r="A7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>271</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E7" s="23">
         <v>44256</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G7" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E7),MONTH(E7)+3,DAY(E7))</f>
         <v>44348</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>139</v>
+      <c r="A8" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="E8" s="23">
-        <v>44256</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>156</v>
+        <v>44593</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>158</v>
       </c>
       <c r="G8" s="23">
-        <f t="shared" si="0"/>
-        <v>44348</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>219</v>
+        <f>DATE(YEAR(E8),MONTH(E8)+1,DAY(E8))</f>
+        <v>44621</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>293</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>297</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="4">
-        <v>44256</v>
+        <v>260</v>
+      </c>
+      <c r="E9" s="23">
+        <v>44593</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G9" s="23">
-        <f t="shared" si="0"/>
-        <v>44348</v>
+        <f>DATE(YEAR(E9),MONTH(E9)+1,DAY(E9))</f>
+        <v>44621</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>219</v>
@@ -1858,124 +1856,122 @@
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="4">
-        <v>44256</v>
+        <v>163</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="23">
+        <v>44287</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G10" s="23">
-        <f t="shared" si="0"/>
-        <v>44348</v>
+        <f>DATE(YEAR(E10)+1,MONTH(E10),DAY(E10))</f>
+        <v>44652</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>279</v>
+        <v>129</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E11" s="23">
-        <v>44531</v>
+        <v>44287</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G11" s="23">
-        <f t="shared" si="0"/>
-        <v>44621</v>
+        <f>DATE(YEAR(E11)+1,MONTH(E11),DAY(E11))</f>
+        <v>44652</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>132</v>
+        <v>229</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>151</v>
       </c>
       <c r="E12" s="23">
-        <v>44531</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>156</v>
+        <v>44287</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="G12" s="23">
-        <f t="shared" si="0"/>
-        <v>44621</v>
+        <f>DATE(YEAR(E12)+1,MONTH(E12),DAY(E12))</f>
+        <v>44652</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>5</v>
+      <c r="A13" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>110</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="23">
-        <v>44531</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="23">
-        <f t="shared" si="0"/>
-        <v>44621</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>219</v>
+        <v>152</v>
+      </c>
+      <c r="E13" s="31">
+        <v>44287</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="31">
+        <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
+        <v>44652</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>132</v>
+        <v>209</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>283</v>
       </c>
       <c r="E14" s="23">
         <v>44531</v>
@@ -1984,89 +1980,89 @@
         <v>156</v>
       </c>
       <c r="G14" s="23">
-        <f t="shared" si="0"/>
-        <v>44621</v>
+        <f>DATE(YEAR(E14),MONTH(E14)+4,DAY(E14))</f>
+        <v>44652</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="23">
-        <v>44531</v>
-      </c>
-      <c r="F15" s="24" t="s">
+      <c r="A15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="16">
+        <v>44562</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>156</v>
       </c>
       <c r="G15" s="23">
-        <f t="shared" si="0"/>
-        <v>44621</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>219</v>
+        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
+        <v>44652</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="23">
-        <v>44531</v>
-      </c>
-      <c r="F16" s="24" t="s">
+      <c r="A16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="16">
+        <v>44562</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>156</v>
       </c>
       <c r="G16" s="23">
-        <f t="shared" si="0"/>
-        <v>44621</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>219</v>
+        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
+        <v>44652</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>271</v>
+        <v>52</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E17" s="23">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G17" s="23">
-        <f t="shared" si="0"/>
-        <v>44621</v>
+        <f>DATE(YEAR(E17),MONTH(E17)+1,DAY(E17))</f>
+        <v>44652</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>219</v>
@@ -2074,26 +2070,26 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>139</v>
+        <v>38</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="E18" s="23">
-        <v>44531</v>
+        <v>44652</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G18" s="23">
-        <f t="shared" si="0"/>
-        <v>44621</v>
+        <f>DATE(YEAR(E18),MONTH(E18)+1,DAY(E18))</f>
+        <v>44682</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>219</v>
@@ -2101,182 +2097,188 @@
     </row>
     <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>139</v>
+        <v>212</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>303</v>
       </c>
       <c r="E19" s="31">
-        <v>44531</v>
-      </c>
-      <c r="F19" s="43" t="s">
+        <v>44593</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="23">
-        <f t="shared" si="0"/>
-        <v>44621</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>219</v>
+      <c r="G19" s="31">
+        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
+        <v>44682</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D20" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>302</v>
+      </c>
       <c r="E20" s="23">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G20" s="23">
-        <f t="shared" si="0"/>
-        <v>44713</v>
+        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
+        <v>44682</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="23">
+        <v>295</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="4">
         <v>44621</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G21" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
         <v>44713</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="31">
-        <v>44531</v>
-      </c>
-      <c r="F22" s="29" t="s">
+      <c r="A22" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="23">
+        <v>44621</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="23">
-        <f t="shared" si="0"/>
+      <c r="G22" s="31">
+        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+        <v>44713</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="23">
         <v>44621</v>
       </c>
-      <c r="H22" s="21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="23">
-        <v>44652</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>158</v>
+      <c r="F23" s="43" t="s">
+        <v>156</v>
       </c>
       <c r="G23" s="23">
-        <f>DATE(YEAR(E23),MONTH(E23)+1,DAY(E23))</f>
-        <v>44682</v>
-      </c>
-      <c r="H23" s="21" t="s">
+        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
+        <v>44713</v>
+      </c>
+      <c r="H23" s="29" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>171</v>
+      <c r="A24" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="E24" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>158</v>
+        <v>44621</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>156</v>
       </c>
       <c r="G24" s="23">
-        <f>DATE(YEAR(E24),MONTH(E24)+1,DAY(E24))</f>
-        <v>44621</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>220</v>
+        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
+        <v>44713</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>293</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="E25" s="23">
-        <v>44593</v>
+        <v>139</v>
+      </c>
+      <c r="E25" s="4">
+        <v>44621</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G25" s="23">
-        <f>DATE(YEAR(E25),MONTH(E25)+1,DAY(E25))</f>
-        <v>44621</v>
+        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
+        <v>44713</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>219</v>
@@ -2284,428 +2286,426 @@
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="25"/>
+        <v>87</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D26" s="26"/>
       <c r="E26" s="23">
-        <v>44287</v>
+        <v>44621</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G26" s="23">
-        <f>DATE(YEAR(E26)+1,MONTH(E26),DAY(E26))</f>
-        <v>44652</v>
+        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <v>44713</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>152</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="26"/>
       <c r="E27" s="23">
-        <v>44287</v>
+        <v>44621</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G27" s="23">
-        <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
-        <v>44652</v>
+        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
+        <v>44713</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="23">
-        <v>44287</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="23">
+      <c r="A28" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="31">
+        <v>44348</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="31">
         <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
-        <v>44652</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>222</v>
+        <v>44713</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>152</v>
+        <v>248</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>174</v>
       </c>
       <c r="E29" s="31">
-        <v>44287</v>
+        <v>44348</v>
       </c>
       <c r="F29" s="43" t="s">
         <v>157</v>
       </c>
       <c r="G29" s="31">
         <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
-        <v>44652</v>
+        <v>44713</v>
       </c>
       <c r="H29" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="31">
+        <v>44348</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="31">
+        <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
+        <v>44713</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="31">
+        <v>44348</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="31">
+        <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
+        <v>44713</v>
+      </c>
+      <c r="H31" s="29" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="E30" s="23">
-        <v>44531</v>
-      </c>
-      <c r="F30" s="24" t="s">
+    <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="31">
+        <v>44348</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="31">
+        <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
+        <v>44713</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" s="31">
+        <v>44348</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" s="31">
+        <v>44713</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="4">
+        <v>44622</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G30" s="23">
-        <f>DATE(YEAR(E30),MONTH(E30)+4,DAY(E30))</f>
-        <v>44652</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="16">
-        <v>44562</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G31" s="23">
-        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
-        <v>44652</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="16">
-        <v>44562</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G32" s="23">
-        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
-        <v>44652</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="23">
-        <v>44621</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G33" s="23">
-        <f>DATE(YEAR(E33),MONTH(E33)+1,DAY(E33))</f>
-        <v>44652</v>
-      </c>
-      <c r="H33" s="21" t="s">
+      <c r="G34" s="23">
+        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
+        <v>44714</v>
+      </c>
+      <c r="H34" s="21" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="E34" s="31">
-        <v>44593</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G34" s="31">
-        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
-        <v>44682</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="E35" s="23">
-        <v>44593</v>
+        <v>66</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="4">
+        <v>44623</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G35" s="23">
         <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
-        <v>44682</v>
+        <v>44715</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>32</v>
+      <c r="A36" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="31">
-        <f>DATE(YEAR(E36)+1,MONTH(E36),DAY(E36))</f>
-        <v>44713</v>
-      </c>
-      <c r="H36" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="4">
+        <v>44624</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="23">
+        <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
+        <v>44716</v>
+      </c>
+      <c r="H36" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>92</v>
+      <c r="A37" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37" s="31">
-        <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
-        <v>44713</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>220</v>
+        <v>293</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="4">
+        <v>44625</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="23">
+        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
+        <v>44717</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G38" s="31">
-        <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
-        <v>44713</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>224</v>
+        <v>42</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="4">
+        <v>44626</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="23">
+        <f>DATE(YEAR(E38),MONTH(E38)+3,DAY(E38))</f>
+        <v>44718</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>101</v>
+      <c r="A39" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E39" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="31">
-        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
-        <v>44713</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>222</v>
+        <v>132</v>
+      </c>
+      <c r="E39" s="4">
+        <v>44627</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" s="23">
+        <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
+        <v>44719</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>232</v>
+      <c r="A40" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E40" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G40" s="31">
-        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
-        <v>44713</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>222</v>
+        <v>132</v>
+      </c>
+      <c r="E40" s="4">
+        <v>44628</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="23">
+        <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
+        <v>44720</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="E41" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41" s="31">
-        <v>44713</v>
-      </c>
-      <c r="H41" s="29" t="s">
+      <c r="A41" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="4">
+        <v>44629</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="23">
+        <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
+        <v>44721</v>
+      </c>
+      <c r="H41" s="21" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
         <v>157</v>
       </c>
       <c r="G54" s="23">
-        <f t="shared" ref="G54:G66" si="1">DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
         <v>44805</v>
       </c>
       <c r="H54" s="21" t="s">
@@ -3074,7 +3074,7 @@
         <v>157</v>
       </c>
       <c r="G55" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
         <v>44805</v>
       </c>
       <c r="H55" s="21" t="s">
@@ -3101,7 +3101,7 @@
         <v>157</v>
       </c>
       <c r="G56" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
         <v>44805</v>
       </c>
       <c r="H56" s="21" t="s">
@@ -3128,7 +3128,7 @@
         <v>157</v>
       </c>
       <c r="G57" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
         <v>44805</v>
       </c>
       <c r="H57" s="21" t="s">
@@ -3155,7 +3155,7 @@
         <v>157</v>
       </c>
       <c r="G58" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
         <v>44805</v>
       </c>
       <c r="H58" s="21" t="s">
@@ -3182,7 +3182,7 @@
         <v>157</v>
       </c>
       <c r="G59" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
         <v>44866</v>
       </c>
       <c r="H59" s="29" t="s">
@@ -3209,7 +3209,7 @@
         <v>157</v>
       </c>
       <c r="G60" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
         <v>44866</v>
       </c>
       <c r="H60" s="29" t="s">
@@ -3236,7 +3236,7 @@
         <v>157</v>
       </c>
       <c r="G61" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
         <v>44896</v>
       </c>
       <c r="H61" s="21" t="s">
@@ -3263,7 +3263,7 @@
         <v>157</v>
       </c>
       <c r="G62" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
         <v>44896</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -3290,7 +3290,7 @@
         <v>157</v>
       </c>
       <c r="G63" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
         <v>44896</v>
       </c>
       <c r="H63" s="21" t="s">
@@ -3317,7 +3317,7 @@
         <v>157</v>
       </c>
       <c r="G64" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
         <v>44896</v>
       </c>
       <c r="H64" s="21" t="s">
@@ -3344,7 +3344,7 @@
         <v>157</v>
       </c>
       <c r="G65" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
         <v>44896</v>
       </c>
       <c r="H65" s="21" t="s">
@@ -3371,7 +3371,7 @@
         <v>157</v>
       </c>
       <c r="G66" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
         <v>44927</v>
       </c>
       <c r="H66" s="21" t="s">
@@ -3826,25 +3826,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="D67" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="C66" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="C44" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C20" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C38" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C27" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C70" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C29" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C13" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C80" r:id="rId10" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D73" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D36" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D39" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="D54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="D46" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D10:D12" r:id="rId17" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D36" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="D50" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="D61" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="D43" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
@@ -3854,36 +3854,36 @@
     <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="D65" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="D59" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D11" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D12" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D31" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D32" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D15" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D82" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D70" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D29" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D7" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D13" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D23" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="D62" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D18" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D37" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="D52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D77" r:id="rId40" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D69" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C69" r:id="rId42" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
     <hyperlink ref="D48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="D49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C14" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D23" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D6" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D24" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C39" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D18" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D22" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D8" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
     <hyperlink ref="D66" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D37" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D11" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
     <hyperlink ref="D51" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D5" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D6" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C79" r:id="rId55" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C84" r:id="rId56" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
     <hyperlink ref="D68" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C22" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="C4" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D74" r:id="rId59" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C74" r:id="rId60" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
     <hyperlink ref="D72" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
@@ -3894,21 +3894,21 @@
     <hyperlink ref="D53" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C78" r:id="rId67" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
     <hyperlink ref="C46" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D19" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D8" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="D38" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D24" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
     <hyperlink ref="C51" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="D33" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C5" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
+    <hyperlink ref="D17" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C6" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
     <hyperlink ref="C58" r:id="rId74" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D25" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="D9" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C83" r:id="rId76" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
     <hyperlink ref="C43" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
     <hyperlink ref="D63" r:id="rId78" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C13" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C36" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
     <hyperlink ref="C62" r:id="rId80" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
     <hyperlink ref="D60" r:id="rId81" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId82" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D30" r:id="rId83" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="D14" r:id="rId83" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
     <hyperlink ref="C52" r:id="rId84" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
     <hyperlink ref="D78" r:id="rId85" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
     <hyperlink ref="D3" r:id="rId86" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
@@ -3916,31 +3916,34 @@
     <hyperlink ref="D80" r:id="rId88" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
     <hyperlink ref="D83" r:id="rId89" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
     <hyperlink ref="C81" r:id="rId90" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C30" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
+    <hyperlink ref="C14" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
     <hyperlink ref="C54" r:id="rId92" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
     <hyperlink ref="C61" r:id="rId93" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D15" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D16" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C15" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C18" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C10" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C23" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C24" r:id="rId100" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
-    <hyperlink ref="C32" r:id="rId101" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C25" r:id="rId102" xr:uid="{E035FF6A-D6FD-4586-B36D-13C716E1E0D1}"/>
+    <hyperlink ref="D40" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D41" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C40" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C37" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C21" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C18" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C8" r:id="rId100" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
+    <hyperlink ref="C16" r:id="rId101" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="C9" r:id="rId102" xr:uid="{E035FF6A-D6FD-4586-B36D-13C716E1E0D1}"/>
     <hyperlink ref="C68" r:id="rId103" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="C35" r:id="rId104" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
-    <hyperlink ref="D35" r:id="rId105" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C34" r:id="rId106" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D34" r:id="rId107" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
+    <hyperlink ref="C20" r:id="rId104" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
+    <hyperlink ref="D20" r:id="rId105" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C19" r:id="rId106" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="D19" r:id="rId107" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
     <hyperlink ref="C45" r:id="rId108" xr:uid="{35F9E5E1-F98D-43CC-994E-2C1F79B3EBBC}"/>
-    <hyperlink ref="C6" r:id="rId109" xr:uid="{6826AFEE-F349-411C-9BBD-D6717F6FB1C2}"/>
-    <hyperlink ref="D9" r:id="rId110" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C22" r:id="rId109" xr:uid="{6826AFEE-F349-411C-9BBD-D6717F6FB1C2}"/>
+    <hyperlink ref="D25" r:id="rId110" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C38" r:id="rId111" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C34" r:id="rId112" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C7" r:id="rId113" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId111"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId114"/>
   <tableParts count="1">
-    <tablePart r:id="rId112"/>
+    <tablePart r:id="rId115"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577529BC-9CD5-409F-9CAC-95FBBF3D4DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154EAA07-3005-495F-9C50-3DE4CCFCAD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1721,83 +1721,83 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="23">
+        <v>44256</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="23">
+        <f>DATE(YEAR(E5),MONTH(E5)+3,DAY(E5))</f>
+        <v>44348</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B6" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C6" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D6" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E6" s="33">
         <v>44197</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="23">
-        <f>DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
+      <c r="F6" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="23">
+        <f>DATE(YEAR(E6)+1,MONTH(E6),DAY(E6))</f>
         <v>44562</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H6" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E7" s="16">
         <v>44256</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="F7" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="16">
         <v>44621</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="23">
-        <v>44256</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="23">
-        <f>DATE(YEAR(E7),MONTH(E7)+3,DAY(E7))</f>
-        <v>44348</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3843,7 +3843,7 @@
     <hyperlink ref="D54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="D46" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D10:D12" r:id="rId17" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D5" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="D28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="D50" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="D61" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
@@ -3879,7 +3879,7 @@
     <hyperlink ref="D29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
     <hyperlink ref="D11" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
     <hyperlink ref="D51" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D6" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D7" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C79" r:id="rId55" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C84" r:id="rId56" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
     <hyperlink ref="D68" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
@@ -3898,7 +3898,7 @@
     <hyperlink ref="D24" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
     <hyperlink ref="C51" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
     <hyperlink ref="D17" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C6" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
+    <hyperlink ref="C7" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
     <hyperlink ref="C58" r:id="rId74" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
     <hyperlink ref="D9" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C83" r:id="rId76" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
@@ -3938,7 +3938,7 @@
     <hyperlink ref="D25" r:id="rId110" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
     <hyperlink ref="C38" r:id="rId111" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
     <hyperlink ref="C34" r:id="rId112" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C7" r:id="rId113" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="C5" r:id="rId113" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId114"/>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154EAA07-3005-495F-9C50-3DE4CCFCAD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ABD095-6D0B-4082-B01D-755B9B008046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -922,18 +922,12 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043397/table_252.xlsx</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1056549/Headline_HEE_tables_24_February_2022.xlsx</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-january-2022</t>
   </si>
   <si>
     <t>https://www.ofgem.gov.uk/sites/default/files/2022-02/Default_tarif_cap_level_v1.10.xlsx</t>
   </si>
   <si>
-    <t>https://www.electralink.co.uk/2022/02/jan-smart-installs-increase-24-pc-yoy/</t>
-  </si>
-  <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx</t>
   </si>
   <si>
@@ -947,6 +941,12 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1051570/renewable-energy-planning-database-q4-december-2021.csv</t>
+  </si>
+  <si>
+    <t>https://www.electralink.co.uk/2022/06/may-smart-installs-increase-11pc/</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/household-energy-efficiency-statistics-headline-release-june-2022</t>
   </si>
 </sst>
 </file>
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1696,373 +1696,373 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>185</v>
+      <c r="A4" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="31">
+        <v>217</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="33">
+        <v>44197</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="23">
+        <f>DATE(YEAR(E4)+1,MONTH(E4),DAY(E4))</f>
+        <v>44562</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="16">
         <v>44256</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="23">
-        <f>DATE(YEAR(E4),MONTH(E4)+3,DAY(E4))</f>
-        <v>44348</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="23">
-        <v>44256</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="23">
-        <f>DATE(YEAR(E5),MONTH(E5)+3,DAY(E5))</f>
-        <v>44348</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>219</v>
+      <c r="F5" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="16">
+        <v>44621</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="33">
-        <v>44197</v>
-      </c>
-      <c r="F6" s="32" t="s">
+      <c r="A6" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="23">
+        <v>44287</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G6" s="23">
         <f>DATE(YEAR(E6)+1,MONTH(E6),DAY(E6))</f>
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" s="16">
-        <v>44256</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="16">
-        <v>44621</v>
-      </c>
-      <c r="H7" s="13" t="s">
+      <c r="A7" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="23">
+        <v>44287</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="23">
+        <f>DATE(YEAR(E7)+1,MONTH(E7),DAY(E7))</f>
+        <v>44652</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>300</v>
+        <v>229</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E8" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>158</v>
+        <v>44287</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="G8" s="23">
-        <f>DATE(YEAR(E8),MONTH(E8)+1,DAY(E8))</f>
-        <v>44621</v>
+        <f>DATE(YEAR(E8)+1,MONTH(E8),DAY(E8))</f>
+        <v>44652</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="23">
-        <f>DATE(YEAR(E9),MONTH(E9)+1,DAY(E9))</f>
-        <v>44621</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>219</v>
+      <c r="A9" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="31">
+        <v>44287</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="31">
+        <f>DATE(YEAR(E9)+1,MONTH(E9),DAY(E9))</f>
+        <v>44652</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="25"/>
+        <v>284</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>283</v>
+      </c>
       <c r="E10" s="23">
-        <v>44287</v>
+        <v>44531</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" s="23">
-        <f>DATE(YEAR(E10)+1,MONTH(E10),DAY(E10))</f>
+        <f>DATE(YEAR(E10),MONTH(E10)+4,DAY(E10))</f>
         <v>44652</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="23">
-        <v>44287</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>157</v>
+      <c r="A11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="16">
+        <v>44562</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="G11" s="23">
-        <f>DATE(YEAR(E11)+1,MONTH(E11),DAY(E11))</f>
+        <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
         <v>44652</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="16">
+        <v>44562</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="23">
+        <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
+        <v>44652</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="23">
+        <v>44621</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="23">
+        <f>DATE(YEAR(E13),MONTH(E13)+1,DAY(E13))</f>
+        <v>44652</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="31">
+        <v>44593</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="31">
+        <f t="shared" ref="G14:G24" si="0">DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
+        <v>44682</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="23">
+        <v>44593</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="23">
+        <f t="shared" si="0"/>
+        <v>44682</v>
+      </c>
+      <c r="H15" s="21" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="23">
-        <v>44287</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="23">
-        <f>DATE(YEAR(E12)+1,MONTH(E12),DAY(E12))</f>
-        <v>44652</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="31">
-        <v>44287</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="31">
-        <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
-        <v>44652</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="E14" s="23">
-        <v>44531</v>
-      </c>
-      <c r="F14" s="24" t="s">
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="31">
+        <v>44621</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="23">
-        <f>DATE(YEAR(E14),MONTH(E14)+4,DAY(E14))</f>
-        <v>44652</v>
-      </c>
-      <c r="H14" s="21" t="s">
+      <c r="G16" s="23">
+        <f t="shared" si="0"/>
+        <v>44713</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="16">
-        <v>44562</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="23">
-        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
-        <v>44652</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="16">
-        <v>44562</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="23">
-        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
-        <v>44652</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>298</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>271</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E17" s="23">
         <v>44621</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G17" s="23">
-        <f>DATE(YEAR(E17),MONTH(E17)+1,DAY(E17))</f>
-        <v>44652</v>
+        <f t="shared" si="0"/>
+        <v>44713</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>219</v>
@@ -2070,282 +2070,280 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>38</v>
+        <v>295</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="23">
-        <v>44652</v>
+        <v>296</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="4">
+        <v>44621</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G18" s="23">
-        <f>DATE(YEAR(E18),MONTH(E18)+1,DAY(E18))</f>
-        <v>44682</v>
+        <f t="shared" si="0"/>
+        <v>44713</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="E19" s="31">
-        <v>44593</v>
-      </c>
-      <c r="F19" s="29" t="s">
+      <c r="A19" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="23">
+        <v>44621</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G19" s="31">
-        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
-        <v>44682</v>
+        <f t="shared" si="0"/>
+        <v>44713</v>
       </c>
       <c r="H19" s="29" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>302</v>
+      <c r="A20" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="E20" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F20" s="24" t="s">
+        <v>44621</v>
+      </c>
+      <c r="F20" s="43" t="s">
         <v>156</v>
       </c>
       <c r="G20" s="23">
-        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
-        <v>44682</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>222</v>
+        <f t="shared" si="0"/>
+        <v>44713</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="D21" s="41" t="s">
+      <c r="A21" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="23">
         <v>44621</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="43" t="s">
         <v>156</v>
       </c>
       <c r="G21" s="23">
-        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
+        <f t="shared" si="0"/>
         <v>44713</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="29" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="23">
+        <v>294</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="4">
         <v>44621</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="31">
-        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+      <c r="G22" s="23">
+        <f t="shared" si="0"/>
         <v>44713</v>
       </c>
-      <c r="H22" s="29" t="s">
-        <v>221</v>
+      <c r="H22" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>44</v>
+      <c r="A23" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>155</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D23" s="26"/>
       <c r="E23" s="23">
         <v>44621</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G23" s="23">
-        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
+        <f t="shared" si="0"/>
         <v>44713</v>
       </c>
-      <c r="H23" s="29" t="s">
-        <v>219</v>
+      <c r="H23" s="21" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>139</v>
-      </c>
+      <c r="A24" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="26"/>
       <c r="E24" s="23">
         <v>44621</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G24" s="23">
-        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
+        <f t="shared" si="0"/>
         <v>44713</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="31">
+        <v>44348</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="31">
+        <f>DATE(YEAR(E25)+1,MONTH(E25),DAY(E25))</f>
+        <v>44713</v>
+      </c>
+      <c r="H25" s="29" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="4">
-        <v>44621</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="23">
-        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
+    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="31">
+        <v>44348</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="31">
+        <f>DATE(YEAR(E26)+1,MONTH(E26),DAY(E26))</f>
         <v>44713</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="23">
-        <v>44621</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="23">
-        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+      <c r="H26" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="31">
+        <v>44348</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="31">
+        <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
         <v>44713</v>
       </c>
-      <c r="H26" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="23">
-        <v>44621</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G27" s="23">
-        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
-        <v>44713</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>223</v>
+      <c r="H27" s="29" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="E28" s="31">
         <v>44348</v>
@@ -2358,21 +2356,21 @@
         <v>44713</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>174</v>
+        <v>103</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="E29" s="31">
         <v>44348</v>
@@ -2385,20 +2383,22 @@
         <v>44713</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="26"/>
+        <v>235</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>237</v>
+      </c>
       <c r="E30" s="31">
         <v>44348</v>
       </c>
@@ -2406,142 +2406,142 @@
         <v>157</v>
       </c>
       <c r="G30" s="31">
-        <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
         <v>44713</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>232</v>
+      <c r="A31" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>279</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E31" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F31" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="31">
-        <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
-        <v>44713</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>222</v>
+        <v>132</v>
+      </c>
+      <c r="E31" s="4">
+        <v>44622</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="23">
+        <f t="shared" ref="G31:G38" si="1">DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
+        <v>44714</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>232</v>
+      <c r="A32" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>280</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E32" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="31">
-        <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
-        <v>44713</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>222</v>
+        <v>132</v>
+      </c>
+      <c r="E32" s="4">
+        <v>44623</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="23">
+        <f t="shared" si="1"/>
+        <v>44715</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="E33" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="31">
-        <v>44713</v>
-      </c>
-      <c r="H33" s="29" t="s">
+      <c r="A33" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="4">
+        <v>44624</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="23">
+        <f t="shared" si="1"/>
+        <v>44716</v>
+      </c>
+      <c r="H33" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>279</v>
+        <v>40</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>293</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E34" s="4">
-        <v>44622</v>
+        <v>44625</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G34" s="23">
-        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
-        <v>44714</v>
+        <f t="shared" si="1"/>
+        <v>44717</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>280</v>
+      <c r="A35" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>255</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E35" s="4">
-        <v>44623</v>
-      </c>
-      <c r="F35" s="24" t="s">
+        <v>44626</v>
+      </c>
+      <c r="F35" s="43" t="s">
         <v>156</v>
       </c>
       <c r="G35" s="23">
-        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
-        <v>44715</v>
+        <f t="shared" si="1"/>
+        <v>44718</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>219</v>
@@ -2549,26 +2549,26 @@
     </row>
     <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>132</v>
       </c>
       <c r="E36" s="4">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G36" s="23">
-        <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
-        <v>44716</v>
+        <f t="shared" si="1"/>
+        <v>44719</v>
       </c>
       <c r="H36" s="21" t="s">
         <v>219</v>
@@ -2576,162 +2576,162 @@
     </row>
     <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E37" s="4">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G37" s="23">
-        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
-        <v>44717</v>
+        <f t="shared" si="1"/>
+        <v>44720</v>
       </c>
       <c r="H37" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>255</v>
+      <c r="A38" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>290</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E38" s="4">
-        <v>44626</v>
-      </c>
-      <c r="F38" s="43" t="s">
+        <v>44629</v>
+      </c>
+      <c r="F38" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G38" s="23">
-        <f>DATE(YEAR(E38),MONTH(E38)+3,DAY(E38))</f>
-        <v>44718</v>
+        <f t="shared" si="1"/>
+        <v>44721</v>
       </c>
       <c r="H38" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>132</v>
+      <c r="A39" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>187</v>
       </c>
       <c r="E39" s="4">
-        <v>44627</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G39" s="23">
-        <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
-        <v>44719</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>219</v>
-      </c>
+        <v>44646</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="G39" s="48">
+        <v>44738</v>
+      </c>
+      <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
-        <v>288</v>
+        <v>69</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="4">
-        <v>44628</v>
+        <v>70</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="23">
+        <v>44713</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G40" s="23">
-        <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
-        <v>44720</v>
+        <f>DATE(YEAR(E40),MONTH(E40)+1,DAY(E40))</f>
+        <v>44743</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
-        <v>287</v>
+        <v>27</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="4">
-        <v>44629</v>
+        <v>28</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" s="23">
+        <v>44713</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G41" s="23">
-        <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
-        <v>44721</v>
+        <f>DATE(YEAR(E41),MONTH(E41)+1,DAY(E41))</f>
+        <v>44743</v>
       </c>
       <c r="H41" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="4">
-        <v>44646</v>
-      </c>
-      <c r="F42" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42" s="48">
-        <v>44738</v>
-      </c>
-      <c r="H42" s="45"/>
+      <c r="A42" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="23">
+        <v>44713</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" s="23">
+        <f>DATE(YEAR(E42),MONTH(E42)+1,DAY(E42))</f>
+        <v>44743</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
@@ -2793,7 +2793,7 @@
         <v>50</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>141</v>
@@ -3008,7 +3008,7 @@
         <v>201</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>202</v>
@@ -3047,7 +3047,7 @@
         <v>157</v>
       </c>
       <c r="G54" s="23">
-        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <f t="shared" ref="G54:G66" si="2">DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
         <v>44805</v>
       </c>
       <c r="H54" s="21" t="s">
@@ -3074,7 +3074,7 @@
         <v>157</v>
       </c>
       <c r="G55" s="23">
-        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <f t="shared" si="2"/>
         <v>44805</v>
       </c>
       <c r="H55" s="21" t="s">
@@ -3101,7 +3101,7 @@
         <v>157</v>
       </c>
       <c r="G56" s="23">
-        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
+        <f t="shared" si="2"/>
         <v>44805</v>
       </c>
       <c r="H56" s="21" t="s">
@@ -3128,7 +3128,7 @@
         <v>157</v>
       </c>
       <c r="G57" s="23">
-        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <f t="shared" si="2"/>
         <v>44805</v>
       </c>
       <c r="H57" s="21" t="s">
@@ -3155,7 +3155,7 @@
         <v>157</v>
       </c>
       <c r="G58" s="23">
-        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <f t="shared" si="2"/>
         <v>44805</v>
       </c>
       <c r="H58" s="21" t="s">
@@ -3182,7 +3182,7 @@
         <v>157</v>
       </c>
       <c r="G59" s="31">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <f t="shared" si="2"/>
         <v>44866</v>
       </c>
       <c r="H59" s="29" t="s">
@@ -3209,7 +3209,7 @@
         <v>157</v>
       </c>
       <c r="G60" s="31">
-        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <f t="shared" si="2"/>
         <v>44866</v>
       </c>
       <c r="H60" s="29" t="s">
@@ -3236,7 +3236,7 @@
         <v>157</v>
       </c>
       <c r="G61" s="23">
-        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
+        <f t="shared" si="2"/>
         <v>44896</v>
       </c>
       <c r="H61" s="21" t="s">
@@ -3263,7 +3263,7 @@
         <v>157</v>
       </c>
       <c r="G62" s="23">
-        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <f t="shared" si="2"/>
         <v>44896</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -3290,7 +3290,7 @@
         <v>157</v>
       </c>
       <c r="G63" s="23">
-        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <f t="shared" si="2"/>
         <v>44896</v>
       </c>
       <c r="H63" s="21" t="s">
@@ -3317,7 +3317,7 @@
         <v>157</v>
       </c>
       <c r="G64" s="23">
-        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
+        <f t="shared" si="2"/>
         <v>44896</v>
       </c>
       <c r="H64" s="21" t="s">
@@ -3344,7 +3344,7 @@
         <v>157</v>
       </c>
       <c r="G65" s="23">
-        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <f t="shared" si="2"/>
         <v>44896</v>
       </c>
       <c r="H65" s="21" t="s">
@@ -3371,7 +3371,7 @@
         <v>157</v>
       </c>
       <c r="G66" s="23">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <f t="shared" si="2"/>
         <v>44927</v>
       </c>
       <c r="H66" s="21" t="s">
@@ -3826,25 +3826,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="D67" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="C66" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="C44" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C27" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C30" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C70" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C13" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C9" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C80" r:id="rId10" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D73" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D36" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D39" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D33" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D36" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="D54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="D46" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D10:D12" r:id="rId17" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D5" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="D50" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="D61" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="D43" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
@@ -3854,36 +3854,36 @@
     <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="D65" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="D59" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D15" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D11" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D12" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D82" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D70" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D13" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D23" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="D62" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D37" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D34" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="D52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D77" r:id="rId40" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D69" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C69" r:id="rId42" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
     <hyperlink ref="D48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="D49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C39" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D18" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D22" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D8" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C36" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D42" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D19" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D40" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
     <hyperlink ref="D66" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D11" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D26" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D7" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
     <hyperlink ref="D51" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D7" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D5" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C79" r:id="rId55" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C84" r:id="rId56" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
     <hyperlink ref="D68" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C4" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="C16" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D74" r:id="rId59" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C74" r:id="rId60" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
     <hyperlink ref="D72" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
@@ -3894,21 +3894,21 @@
     <hyperlink ref="D53" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C78" r:id="rId67" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
     <hyperlink ref="C46" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D38" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D24" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="D35" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D21" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
     <hyperlink ref="C51" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="D17" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C7" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
+    <hyperlink ref="D13" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C5" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
     <hyperlink ref="C58" r:id="rId74" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D9" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="D41" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C83" r:id="rId76" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
     <hyperlink ref="C43" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
     <hyperlink ref="D63" r:id="rId78" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C36" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C33" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
     <hyperlink ref="C62" r:id="rId80" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
     <hyperlink ref="D60" r:id="rId81" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId82" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D14" r:id="rId83" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="D10" r:id="rId83" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
     <hyperlink ref="C52" r:id="rId84" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
     <hyperlink ref="D78" r:id="rId85" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
     <hyperlink ref="D3" r:id="rId86" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
@@ -3916,34 +3916,32 @@
     <hyperlink ref="D80" r:id="rId88" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
     <hyperlink ref="D83" r:id="rId89" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
     <hyperlink ref="C81" r:id="rId90" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C14" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
+    <hyperlink ref="C10" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
     <hyperlink ref="C54" r:id="rId92" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
     <hyperlink ref="C61" r:id="rId93" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D40" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D41" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C40" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C37" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C21" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C18" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C8" r:id="rId100" xr:uid="{83E17A80-470B-4ECF-8B23-E05D4B48DAFC}"/>
-    <hyperlink ref="C16" r:id="rId101" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C9" r:id="rId102" xr:uid="{E035FF6A-D6FD-4586-B36D-13C716E1E0D1}"/>
-    <hyperlink ref="C68" r:id="rId103" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="C20" r:id="rId104" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
-    <hyperlink ref="D20" r:id="rId105" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C19" r:id="rId106" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D19" r:id="rId107" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
-    <hyperlink ref="C45" r:id="rId108" xr:uid="{35F9E5E1-F98D-43CC-994E-2C1F79B3EBBC}"/>
-    <hyperlink ref="C22" r:id="rId109" xr:uid="{6826AFEE-F349-411C-9BBD-D6717F6FB1C2}"/>
-    <hyperlink ref="D25" r:id="rId110" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C38" r:id="rId111" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C34" r:id="rId112" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C5" r:id="rId113" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="D37" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D38" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C37" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C34" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C18" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C42" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C12" r:id="rId100" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="C68" r:id="rId101" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
+    <hyperlink ref="C15" r:id="rId102" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
+    <hyperlink ref="D15" r:id="rId103" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C14" r:id="rId104" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="D14" r:id="rId105" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
+    <hyperlink ref="C45" r:id="rId106" xr:uid="{35F9E5E1-F98D-43CC-994E-2C1F79B3EBBC}"/>
+    <hyperlink ref="C19" r:id="rId107" xr:uid="{6826AFEE-F349-411C-9BBD-D6717F6FB1C2}"/>
+    <hyperlink ref="D22" r:id="rId108" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C35" r:id="rId109" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C31" r:id="rId110" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C17" r:id="rId111" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId114"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId112"/>
   <tableParts count="1">
-    <tablePart r:id="rId115"/>
+    <tablePart r:id="rId113"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ABD095-6D0B-4082-B01D-755B9B008046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1002BE8B-CDEC-4A82-857B-72343297749D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -727,24 +727,12 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/985631/veh0132.ods</t>
   </si>
   <si>
-    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/06/scottish-greenhouse-gas-statistics-1990-2019/documents/greenhouse-gas-tables-charts/greenhouse-gas-tables-charts/govscot%3Adocument/greenhouse-gas-tables-charts.xlsx</t>
-  </si>
-  <si>
-    <t>https://www.gov.scot/publications/scottish-greenhouse-gas-statistics-1990-2019/</t>
-  </si>
-  <si>
     <t>BEISEmissions</t>
   </si>
   <si>
     <t>BEIS: Final UK greenhouse gas emissions national statistics</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/972606/final-greenhouse-gas-emissions-tables-2019.xlsx</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/statistics/final-uk-greenhouse-gas-emissions-national-statistics-1990-to-2019</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/996101/Road_Transport_fuel_consumption_tables_2005-2019.xlsx</t>
   </si>
   <si>
@@ -947,6 +935,18 @@
   </si>
   <si>
     <t>https://www.gov.uk/government/statistics/household-energy-efficiency-statistics-headline-release-june-2022</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/final-uk-greenhouse-gas-emissions-national-statistics-1990-to-2020</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1064949/final-greenhouse-gas-emissions-tables-2020.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/publications/scottish-greenhouse-gas-statistics-2020/documents/</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/06/scottish-greenhouse-gas-statistics-2020/documents/greenhouse-gas-tables-charts/greenhouse-gas-tables-charts/govscot%3Adocument/greenhouse-gas-tables-charts.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1676,10 +1676,10 @@
         <v>177</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E3" s="39">
         <v>43891</v>
@@ -1730,10 +1730,10 @@
         <v>113</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E5" s="16">
         <v>44256</v>
@@ -1862,10 +1862,10 @@
         <v>209</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E10" s="23">
         <v>44531</v>
@@ -1889,7 +1889,7 @@
         <v>177</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>148</v>
@@ -1943,7 +1943,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>142</v>
@@ -1970,10 +1970,10 @@
         <v>212</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E14" s="31">
         <v>44593</v>
@@ -1982,7 +1982,7 @@
         <v>156</v>
       </c>
       <c r="G14" s="31">
-        <f t="shared" ref="G14:G24" si="0">DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
+        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
         <v>44682</v>
       </c>
       <c r="H14" s="29" t="s">
@@ -1997,10 +1997,10 @@
         <v>117</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E15" s="23">
         <v>44593</v>
@@ -2009,7 +2009,7 @@
         <v>156</v>
       </c>
       <c r="G15" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
         <v>44682</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -2034,7 +2034,7 @@
         <v>156</v>
       </c>
       <c r="G16" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
         <v>44713</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -2049,7 +2049,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>135</v>
@@ -2061,7 +2061,7 @@
         <v>156</v>
       </c>
       <c r="G17" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
         <v>44713</v>
       </c>
       <c r="H17" s="21" t="s">
@@ -2070,13 +2070,13 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>139</v>
@@ -2088,7 +2088,7 @@
         <v>156</v>
       </c>
       <c r="G18" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
         <v>44713</v>
       </c>
       <c r="H18" s="21" t="s">
@@ -2103,7 +2103,7 @@
         <v>127</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>170</v>
@@ -2115,7 +2115,7 @@
         <v>156</v>
       </c>
       <c r="G19" s="31">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
         <v>44713</v>
       </c>
       <c r="H19" s="29" t="s">
@@ -2130,7 +2130,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>155</v>
@@ -2142,7 +2142,7 @@
         <v>156</v>
       </c>
       <c r="G20" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
         <v>44713</v>
       </c>
       <c r="H20" s="29" t="s">
@@ -2157,7 +2157,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>139</v>
@@ -2169,7 +2169,7 @@
         <v>156</v>
       </c>
       <c r="G21" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
         <v>44713</v>
       </c>
       <c r="H21" s="29" t="s">
@@ -2178,13 +2178,13 @@
     </row>
     <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>139</v>
@@ -2196,7 +2196,7 @@
         <v>156</v>
       </c>
       <c r="G22" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
         <v>44713</v>
       </c>
       <c r="H22" s="21" t="s">
@@ -2211,7 +2211,7 @@
         <v>87</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="23">
@@ -2221,7 +2221,7 @@
         <v>156</v>
       </c>
       <c r="G23" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
         <v>44713</v>
       </c>
       <c r="H23" s="21" t="s">
@@ -2246,7 +2246,7 @@
         <v>156</v>
       </c>
       <c r="G24" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
         <v>44713</v>
       </c>
       <c r="H24" s="21" t="s">
@@ -2261,7 +2261,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>136</v>
@@ -2288,7 +2288,7 @@
         <v>92</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>174</v>
@@ -2333,134 +2333,135 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>232</v>
+      <c r="A28" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>275</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E28" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="31">
-        <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
-        <v>44713</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>222</v>
+        <v>132</v>
+      </c>
+      <c r="E28" s="4">
+        <v>44622</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="23">
+        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
+        <v>44714</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>232</v>
+      <c r="A29" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>276</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E29" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="31">
-        <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
-        <v>44713</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>222</v>
+        <v>132</v>
+      </c>
+      <c r="E29" s="4">
+        <v>44623</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="23">
+        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
+        <v>44715</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="E30" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="31">
-        <v>44713</v>
-      </c>
-      <c r="H30" s="29" t="s">
+      <c r="A30" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="4">
+        <v>44624</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="23">
+        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
+        <v>44716</v>
+      </c>
+      <c r="H30" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>279</v>
+        <v>40</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E31" s="4">
-        <v>44622</v>
+        <v>44625</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G31" s="23">
-        <f t="shared" ref="G31:G38" si="1">DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
-        <v>44714</v>
+        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
+        <v>44717</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>280</v>
+      <c r="A32" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>251</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E32" s="4">
-        <v>44623</v>
-      </c>
-      <c r="F32" s="24" t="s">
+        <v>44626</v>
+      </c>
+      <c r="F32" s="43" t="s">
         <v>156</v>
       </c>
       <c r="G32" s="23">
-        <f t="shared" si="1"/>
-        <v>44715</v>
+        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
+        <v>44718</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>219</v>
@@ -2468,26 +2469,26 @@
     </row>
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>132</v>
       </c>
       <c r="E33" s="4">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G33" s="23">
-        <f t="shared" si="1"/>
-        <v>44716</v>
+        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
+        <v>44719</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>219</v>
@@ -2495,265 +2496,263 @@
     </row>
     <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E34" s="4">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G34" s="23">
-        <f t="shared" si="1"/>
-        <v>44717</v>
+        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
+        <v>44720</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>255</v>
+      <c r="A35" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>286</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E35" s="4">
-        <v>44626</v>
-      </c>
-      <c r="F35" s="43" t="s">
+        <v>44629</v>
+      </c>
+      <c r="F35" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G35" s="23">
-        <f t="shared" si="1"/>
-        <v>44718</v>
+        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
+        <v>44721</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>132</v>
+      <c r="A36" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>187</v>
       </c>
       <c r="E36" s="4">
-        <v>44627</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="23">
-        <f t="shared" si="1"/>
-        <v>44719</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>219</v>
-      </c>
+        <v>44646</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="48">
+        <v>44738</v>
+      </c>
+      <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>288</v>
+        <v>69</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="4">
-        <v>44628</v>
+        <v>70</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" s="23">
+        <v>44713</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G37" s="23">
-        <f t="shared" si="1"/>
-        <v>44720</v>
+        <f>DATE(YEAR(E37),MONTH(E37)+1,DAY(E37))</f>
+        <v>44743</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
-        <v>287</v>
+        <v>27</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="4">
-        <v>44629</v>
+        <v>28</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E38" s="23">
+        <v>44713</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G38" s="23">
-        <f t="shared" si="1"/>
-        <v>44721</v>
+        <f>DATE(YEAR(E38),MONTH(E38)+1,DAY(E38))</f>
+        <v>44743</v>
       </c>
       <c r="H38" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="E39" s="4">
-        <v>44646</v>
-      </c>
-      <c r="F39" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="G39" s="48">
-        <v>44738</v>
-      </c>
-      <c r="H39" s="45"/>
+      <c r="A39" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="23">
+        <v>44713</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="23">
+        <f>DATE(YEAR(E39),MONTH(E39)+1,DAY(E39))</f>
+        <v>44743</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E40" s="23">
-        <v>44713</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G40" s="23">
-        <f>DATE(YEAR(E40),MONTH(E40)+1,DAY(E40))</f>
+      <c r="A40" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="31">
+        <v>44652</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="31">
+        <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
         <v>44743</v>
       </c>
-      <c r="H40" s="21" t="s">
-        <v>220</v>
+      <c r="H40" s="29" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>260</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="26"/>
       <c r="E41" s="23">
-        <v>44713</v>
+        <v>44652</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G41" s="23">
-        <f>DATE(YEAR(E41),MONTH(E41)+1,DAY(E41))</f>
+        <v>156</v>
+      </c>
+      <c r="G41" s="31">
+        <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
         <v>44743</v>
       </c>
-      <c r="H41" s="21" t="s">
-        <v>219</v>
+      <c r="H41" s="29" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>138</v>
+        <v>299</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="E42" s="23">
-        <v>44713</v>
+        <v>44652</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G42" s="23">
-        <f>DATE(YEAR(E42),MONTH(E42)+1,DAY(E42))</f>
+        <f>DATE(YEAR(E42),MONTH(E42)+3,DAY(E42))</f>
         <v>44743</v>
       </c>
-      <c r="H42" s="21" t="s">
+      <c r="H42" s="29" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>267</v>
+        <v>11</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>245</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E43" s="28">
-        <v>44652</v>
+        <v>44378</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G43" s="28">
-        <f>DATE(YEAR(E43),MONTH(E43)+3,DAY(E43))</f>
+        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
         <v>44743</v>
       </c>
       <c r="H43" s="27" t="s">
@@ -2762,50 +2761,52 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="26"/>
+        <v>13</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>133</v>
+      </c>
       <c r="E44" s="23">
-        <v>44652</v>
+        <v>44378</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G44" s="28">
-        <f>DATE(YEAR(E44),MONTH(E44)+3,DAY(E44))</f>
+        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
         <v>44743</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>303</v>
+        <v>15</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>247</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E45" s="23">
-        <v>44652</v>
+        <v>44378</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G45" s="23">
-        <f>DATE(YEAR(E45),MONTH(E45)+3,DAY(E45))</f>
+        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
         <v>44743</v>
       </c>
       <c r="H45" s="27" t="s">
@@ -2814,13 +2815,13 @@
     </row>
     <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>249</v>
+        <v>17</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>237</v>
       </c>
       <c r="D46" s="34" t="s">
         <v>133</v>
@@ -2841,16 +2842,16 @@
     </row>
     <row r="47" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>250</v>
+        <v>34</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>235</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="E47" s="23">
         <v>44378</v>
@@ -2868,177 +2869,177 @@
     </row>
     <row r="48" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>251</v>
+        <v>105</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E48" s="23">
-        <v>44378</v>
+        <v>44287</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="G48" s="23">
-        <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="E49" s="23">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G49" s="23">
         <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>240</v>
+        <v>201</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>202</v>
       </c>
       <c r="E50" s="23">
-        <v>44378</v>
+        <v>44593</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>157</v>
+        <v>278</v>
       </c>
       <c r="G50" s="23">
-        <f>DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
-        <v>44743</v>
+        <f>DATE(YEAR(E50),MONTH(E50)+6,DAY(E50))</f>
+        <v>44774</v>
       </c>
       <c r="H50" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="E51" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51" s="23">
+        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
+        <v>44805</v>
+      </c>
+      <c r="H51" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="23">
-        <v>44287</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="G51" s="23">
-        <v>44774</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
     <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E52" s="23">
-        <v>44409</v>
-      </c>
-      <c r="F52" s="24" t="s">
+      <c r="A52" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F52" s="29" t="s">
         <v>157</v>
       </c>
       <c r="G52" s="23">
         <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E53" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>282</v>
+      <c r="A53" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="G53" s="23">
-        <f>DATE(YEAR(E53),MONTH(E53)+6,DAY(E53))</f>
-        <v>44774</v>
+        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
+        <v>44805</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>254</v>
+        <v>56</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>248</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="E54" s="31">
         <v>44440</v>
@@ -3047,7 +3048,7 @@
         <v>157</v>
       </c>
       <c r="G54" s="23">
-        <f t="shared" ref="G54:G66" si="2">DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
         <v>44805</v>
       </c>
       <c r="H54" s="21" t="s">
@@ -3056,25 +3057,25 @@
     </row>
     <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>196</v>
+        <v>58</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="E55" s="31">
         <v>44440</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="43" t="s">
         <v>157</v>
       </c>
       <c r="G55" s="23">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
         <v>44805</v>
       </c>
       <c r="H55" s="21" t="s">
@@ -3083,151 +3084,151 @@
     </row>
     <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>196</v>
+        <v>62</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="E56" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="23">
-        <f t="shared" si="2"/>
-        <v>44805</v>
-      </c>
-      <c r="H56" s="21" t="s">
+        <v>44501</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G56" s="31">
+        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
+        <v>44866</v>
+      </c>
+      <c r="H56" s="29" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>56</v>
+      <c r="A57" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G57" s="23">
-        <f t="shared" si="2"/>
-        <v>44805</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>219</v>
+        <v>255</v>
+      </c>
+      <c r="E57" s="23">
+        <v>44501</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57" s="31">
+        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <v>44866</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E58" s="28">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="F58" s="35" t="s">
         <v>157</v>
       </c>
       <c r="G58" s="23">
-        <f t="shared" si="2"/>
-        <v>44805</v>
+        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <v>44896</v>
       </c>
       <c r="H58" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>62</v>
+      <c r="A59" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59" s="31">
-        <v>44501</v>
-      </c>
-      <c r="F59" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G59" s="31">
-        <f t="shared" si="2"/>
-        <v>44866</v>
-      </c>
-      <c r="H59" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="23">
+        <v>44531</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" s="23">
+        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <v>44896</v>
+      </c>
+      <c r="H59" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>259</v>
+        <v>146</v>
       </c>
       <c r="E60" s="23">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="F60" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G60" s="31">
-        <f t="shared" si="2"/>
-        <v>44866</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>220</v>
+      <c r="G60" s="23">
+        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <v>44896</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>275</v>
+        <v>54</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>264</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E61" s="23">
         <v>44531</v>
@@ -3236,7 +3237,7 @@
         <v>157</v>
       </c>
       <c r="G61" s="23">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
         <v>44896</v>
       </c>
       <c r="H61" s="21" t="s">
@@ -3245,16 +3246,16 @@
     </row>
     <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>270</v>
+        <v>60</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>265</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E62" s="23">
         <v>44531</v>
@@ -3263,7 +3264,7 @@
         <v>157</v>
       </c>
       <c r="G62" s="23">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
         <v>44896</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -3272,163 +3273,163 @@
     </row>
     <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>146</v>
+        <v>80</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>173</v>
       </c>
       <c r="E63" s="23">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="F63" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G63" s="23">
-        <f t="shared" si="2"/>
-        <v>44896</v>
+        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <v>44927</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>143</v>
+        <v>72</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="E64" s="23">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="F64" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G64" s="23">
-        <f t="shared" si="2"/>
-        <v>44896</v>
+        <f>DATE(YEAR(E64),MONTH(E64)+12,DAY(E64))</f>
+        <v>44927</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>146</v>
+        <v>181</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="E65" s="23">
-        <v>44531</v>
-      </c>
-      <c r="F65" s="24" t="s">
+        <v>44593</v>
+      </c>
+      <c r="F65" s="21" t="s">
         <v>157</v>
       </c>
       <c r="G65" s="23">
-        <f t="shared" si="2"/>
-        <v>44896</v>
+        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <v>44958</v>
       </c>
       <c r="H65" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="E66" s="23">
-        <v>44562</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G66" s="23">
-        <f t="shared" si="2"/>
-        <v>44927</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>220</v>
+      <c r="A66" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="E66" s="31">
+        <v>44713</v>
+      </c>
+      <c r="F66" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66" s="31">
+        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <v>45078</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67" s="23">
-        <v>44562</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G67" s="23">
-        <f>DATE(YEAR(E67),MONTH(E67)+12,DAY(E67))</f>
-        <v>44927</v>
-      </c>
-      <c r="H67" s="21" t="s">
-        <v>220</v>
+      <c r="A67" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="E67" s="31">
+        <v>44713</v>
+      </c>
+      <c r="F67" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G67" s="31">
+        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
+        <v>45078</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C68" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G68" s="23">
+      <c r="A68" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="E68" s="31">
+        <v>44713</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68" s="31">
         <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
-        <v>44958</v>
-      </c>
-      <c r="H68" s="21" t="s">
+        <v>45078</v>
+      </c>
+      <c r="H68" s="29" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3653,7 +3654,7 @@
         <v>206</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E78" s="10">
         <v>44044</v>
@@ -3722,10 +3723,10 @@
         <v>75</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E81" s="23">
         <v>44256</v>
@@ -3746,7 +3747,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>149</v>
@@ -3764,16 +3765,16 @@
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E83" s="10">
         <v>44256</v>
@@ -3781,7 +3782,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="10"/>
       <c r="H83" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3827,9 +3828,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C25" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D67" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C66" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C44" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D64" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C63" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="C23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="C24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="C27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
@@ -3838,78 +3839,78 @@
     <hyperlink ref="C80" r:id="rId10" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D73" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="C7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D33" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D36" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D46" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D30" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D51" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D43" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D10:D12" r:id="rId17" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="D17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="D25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D50" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D61" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D43" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D45" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D64" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D57" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D65" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D59" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D47" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D58" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D40" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D42" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D61" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D54" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D55" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D62" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D56" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="D11" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="D12" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D82" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D70" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="D9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
     <hyperlink ref="D20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D62" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D34" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D59" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D77" r:id="rId40" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D69" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C69" r:id="rId42" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C36" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D42" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C33" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D39" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
     <hyperlink ref="D19" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D40" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D66" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D37" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D63" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="D26" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
     <hyperlink ref="D7" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D51" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D48" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
     <hyperlink ref="D5" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C79" r:id="rId55" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C84" r:id="rId56" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D68" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="D65" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
     <hyperlink ref="C16" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D74" r:id="rId59" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C74" r:id="rId60" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
     <hyperlink ref="D72" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="C72" r:id="rId62" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
     <hyperlink ref="C77" r:id="rId63" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D56" r:id="rId64" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D55" r:id="rId65" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D53" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="D53" r:id="rId64" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D52" r:id="rId65" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="D50" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C78" r:id="rId67" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C46" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D35" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="C43" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="D32" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
     <hyperlink ref="D21" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C51" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
+    <hyperlink ref="C48" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
     <hyperlink ref="D13" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
     <hyperlink ref="C5" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
-    <hyperlink ref="C58" r:id="rId74" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D41" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="C55" r:id="rId74" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
+    <hyperlink ref="D38" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C83" r:id="rId76" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="C43" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
-    <hyperlink ref="D63" r:id="rId78" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C33" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="C62" r:id="rId80" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
-    <hyperlink ref="D60" r:id="rId81" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
+    <hyperlink ref="C40" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
+    <hyperlink ref="D60" r:id="rId78" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
+    <hyperlink ref="C30" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C59" r:id="rId80" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
+    <hyperlink ref="D57" r:id="rId81" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId82" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
     <hyperlink ref="D10" r:id="rId83" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
-    <hyperlink ref="C52" r:id="rId84" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
+    <hyperlink ref="C49" r:id="rId84" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
     <hyperlink ref="D78" r:id="rId85" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
     <hyperlink ref="D3" r:id="rId86" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
     <hyperlink ref="C3" r:id="rId87" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
@@ -3917,31 +3918,34 @@
     <hyperlink ref="D83" r:id="rId89" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
     <hyperlink ref="C81" r:id="rId90" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
     <hyperlink ref="C10" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
-    <hyperlink ref="C54" r:id="rId92" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
-    <hyperlink ref="C61" r:id="rId93" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D37" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D38" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C37" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C34" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C51" r:id="rId92" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
+    <hyperlink ref="C58" r:id="rId93" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D34" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D35" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C34" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C31" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
     <hyperlink ref="C18" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C42" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C39" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
     <hyperlink ref="C12" r:id="rId100" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C68" r:id="rId101" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
+    <hyperlink ref="C65" r:id="rId101" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
     <hyperlink ref="C15" r:id="rId102" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
     <hyperlink ref="D15" r:id="rId103" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
     <hyperlink ref="C14" r:id="rId104" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
     <hyperlink ref="D14" r:id="rId105" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
-    <hyperlink ref="C45" r:id="rId106" xr:uid="{35F9E5E1-F98D-43CC-994E-2C1F79B3EBBC}"/>
+    <hyperlink ref="C42" r:id="rId106" xr:uid="{35F9E5E1-F98D-43CC-994E-2C1F79B3EBBC}"/>
     <hyperlink ref="C19" r:id="rId107" xr:uid="{6826AFEE-F349-411C-9BBD-D6717F6FB1C2}"/>
     <hyperlink ref="D22" r:id="rId108" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C35" r:id="rId109" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C31" r:id="rId110" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C32" r:id="rId109" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C28" r:id="rId110" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
     <hyperlink ref="C17" r:id="rId111" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="D68" r:id="rId112" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
+    <hyperlink ref="C68" r:id="rId113" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
+    <hyperlink ref="C66" r:id="rId114" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId112"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId115"/>
   <tableParts count="1">
-    <tablePart r:id="rId113"/>
+    <tablePart r:id="rId116"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1002BE8B-CDEC-4A82-857B-72343297749D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6365EC34-DB46-441F-AF05-5CD1FD1833B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="305">
   <si>
     <t>Code</t>
   </si>
@@ -439,9 +439,6 @@
     <t>https://www.gov.uk/government/statistics/electricity-section-5-energy-trends</t>
   </si>
   <si>
-    <t>https://www.gov.uk/government/statistical-data-sets/road-transport-energy-consumption-at-regional-and-local-authority-level</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/statistics/sub-national-estimates-of-households-not-connected-to-the-gas-network</t>
   </si>
   <si>
@@ -592,9 +589,6 @@
     <t>https://www.ofgem.gov.uk/data-portal/retail-market-indicators#thumbchart-c23042756505310535-n95432</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>TransportScotland13</t>
   </si>
   <si>
@@ -733,9 +727,6 @@
     <t>BEIS: Final UK greenhouse gas emissions national statistics</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/996101/Road_Transport_fuel_consumption_tables_2005-2019.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/995629/Impact_of_measures_headline_Scotland_2018.xlsx</t>
   </si>
   <si>
@@ -820,9 +811,6 @@
     <t>ONS</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043312/ET_6.1_DEC_21.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043467/subnational_electricity_consumption_statistics_2005-2020.xlsx</t>
   </si>
   <si>
@@ -928,9 +916,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1048354/electric-vehicle-charging-device-statistics-january-2022.ods</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1051570/renewable-energy-planning-database-q4-december-2021.csv</t>
-  </si>
-  <si>
     <t>https://www.electralink.co.uk/2022/06/may-smart-installs-increase-11pc/</t>
   </si>
   <si>
@@ -947,6 +932,18 @@
   </si>
   <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/06/scottish-greenhouse-gas-statistics-2020/documents/greenhouse-gas-tables-charts/greenhouse-gas-tables-charts/govscot%3Adocument/greenhouse-gas-tables-charts.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1086802/ET_6.1_JUN_22.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1075289/renewable-energy-planning-database-q1-april-2022-v2.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/uk-road-transport-energy-consumption-at-regional-and-local-authority-level-2005-to-2020</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1086684/sub-national-road-transport-fuel-consumption-statistics-2005-2020.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1111,6 @@
     <xf numFmtId="15" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1122,6 +1118,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1602,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1637,10 +1634,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1651,75 +1648,75 @@
         <v>82</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="20">
         <v>43862</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" s="20">
         <f>DATE(YEAR(E2)+1,MONTH(E2),DAY(E2))</f>
         <v>44228</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C3" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E3" s="39">
         <v>43891</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G3" s="20">
         <f>DATE(YEAR(E3)+1,MONTH(E3),DAY(E3))</f>
         <v>44256</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>217</v>
-      </c>
       <c r="D4" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E4" s="33">
         <v>44197</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" s="23">
         <f>DATE(YEAR(E4)+1,MONTH(E4),DAY(E4))</f>
         <v>44562</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1730,47 +1727,47 @@
         <v>113</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E5" s="16">
         <v>44256</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>157</v>
+      <c r="F5" s="48" t="s">
+        <v>156</v>
       </c>
       <c r="G5" s="16">
         <v>44621</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>165</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="23">
         <v>44287</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G6" s="23">
         <f>DATE(YEAR(E6)+1,MONTH(E6),DAY(E6))</f>
         <v>44652</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1784,47 +1781,47 @@
         <v>111</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" s="23">
         <v>44287</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" s="23">
         <f>DATE(YEAR(E7)+1,MONTH(E7),DAY(E7))</f>
         <v>44652</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>230</v>
-      </c>
       <c r="D8" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E8" s="23">
         <v>44287</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G8" s="23">
         <f>DATE(YEAR(E8)+1,MONTH(E8),DAY(E8))</f>
         <v>44652</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1835,50 +1832,50 @@
         <v>110</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E9" s="31">
         <v>44287</v>
       </c>
-      <c r="F9" s="43" t="s">
-        <v>157</v>
+      <c r="F9" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="G9" s="31">
         <f>DATE(YEAR(E9)+1,MONTH(E9),DAY(E9))</f>
         <v>44652</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E10" s="23">
         <v>44531</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G10" s="23">
         <f>DATE(YEAR(E10),MONTH(E10)+4,DAY(E10))</f>
         <v>44652</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1886,26 +1883,26 @@
         <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11" s="16">
         <v>44562</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G11" s="23">
         <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
         <v>44652</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1913,26 +1910,26 @@
         <v>68</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12" s="16">
         <v>44562</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G12" s="23">
         <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
         <v>44652</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1943,50 +1940,50 @@
         <v>52</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="23">
         <v>44621</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G13" s="23">
         <f>DATE(YEAR(E13),MONTH(E13)+1,DAY(E13))</f>
         <v>44652</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>297</v>
+        <v>210</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>293</v>
       </c>
       <c r="E14" s="31">
         <v>44593</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G14" s="31">
         <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
         <v>44682</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1997,153 +1994,151 @@
         <v>117</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>296</v>
+        <v>291</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>292</v>
       </c>
       <c r="E15" s="23">
         <v>44593</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G15" s="23">
         <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
         <v>44682</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="31">
+        <v>44348</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="31">
+        <f>DATE(YEAR(E16)+1,MONTH(E16),DAY(E16))</f>
+        <v>44713</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="C17" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="31">
-        <v>44621</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="23">
-        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
-        <v>44713</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="23">
-        <v>44621</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>156</v>
+      <c r="D17" s="22"/>
+      <c r="E17" s="31">
+        <v>44652</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>155</v>
       </c>
       <c r="G17" s="23">
-        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
-        <v>44713</v>
+        <f t="shared" ref="G17:G33" si="0">DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
+        <v>44743</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="4">
-        <v>44621</v>
+        <v>263</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="31">
+        <v>44652</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G18" s="23">
-        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
-        <v>44713</v>
+        <f t="shared" si="0"/>
+        <v>44743</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="31">
+        <v>44652</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="23">
+        <f t="shared" si="0"/>
+        <v>44743</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B20" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="23">
-        <v>44621</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" s="31">
-        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
-        <v>44713</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="31">
+        <v>44652</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="23">
-        <v>44621</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" s="23">
-        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
-        <v>44713</v>
+      <c r="G20" s="31">
+        <f t="shared" si="0"/>
+        <v>44743</v>
       </c>
       <c r="H20" s="29" t="s">
         <v>219</v>
@@ -2151,1310 +2146,1298 @@
     </row>
     <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="31">
+        <v>44652</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="23">
+        <f t="shared" si="0"/>
+        <v>44743</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B22" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="23">
-        <v>44621</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="G21" s="23">
-        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
-        <v>44713</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="4">
-        <v>44621</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>156</v>
+      <c r="C22" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="31">
+        <v>44652</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>155</v>
       </c>
       <c r="G22" s="23">
-        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
-        <v>44713</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>219</v>
+        <f t="shared" si="0"/>
+        <v>44743</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="23">
-        <v>44621</v>
+        <v>286</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="31">
+        <v>44652</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G23" s="23">
-        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
-        <v>44713</v>
+        <f t="shared" si="0"/>
+        <v>44743</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="31">
+        <v>44652</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="23">
+        <f t="shared" si="0"/>
+        <v>44743</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B25" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C25" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="23">
-        <v>44621</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="23">
-        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
-        <v>44713</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="D25" s="26"/>
       <c r="E25" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="31">
-        <f>DATE(YEAR(E25)+1,MONTH(E25),DAY(E25))</f>
-        <v>44713</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>219</v>
+        <v>44652</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="23">
+        <f t="shared" si="0"/>
+        <v>44743</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="E26" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="31">
-        <f>DATE(YEAR(E26)+1,MONTH(E26),DAY(E26))</f>
-        <v>44713</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>220</v>
+      <c r="A26" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="4">
+        <v>44652</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="23">
+        <f t="shared" si="0"/>
+        <v>44743</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" s="31">
-        <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
-        <v>44713</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>224</v>
+      <c r="A27" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="4">
+        <v>44652</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="23">
+        <f t="shared" si="0"/>
+        <v>44743</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>275</v>
+        <v>5</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>264</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>132</v>
       </c>
       <c r="E28" s="4">
-        <v>44622</v>
+        <v>44652</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G28" s="23">
-        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
-        <v>44714</v>
+        <f t="shared" si="0"/>
+        <v>44743</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E29" s="4">
-        <v>44623</v>
+        <v>44652</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G29" s="23">
-        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
-        <v>44715</v>
+        <f t="shared" si="0"/>
+        <v>44743</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>268</v>
+      <c r="A30" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>248</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E30" s="4">
-        <v>44624</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>156</v>
+        <v>44652</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>155</v>
       </c>
       <c r="G30" s="23">
-        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
-        <v>44716</v>
+        <f t="shared" si="0"/>
+        <v>44743</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E31" s="4">
-        <v>44625</v>
+        <v>44652</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G31" s="23">
-        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
-        <v>44717</v>
+        <f t="shared" si="0"/>
+        <v>44743</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>251</v>
+      <c r="A32" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>281</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E32" s="4">
-        <v>44626</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>156</v>
+        <v>44652</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="G32" s="23">
-        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
-        <v>44718</v>
+        <f t="shared" si="0"/>
+        <v>44743</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>6</v>
+        <v>279</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>132</v>
       </c>
       <c r="E33" s="4">
-        <v>44627</v>
+        <v>44652</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G33" s="23">
-        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
-        <v>44719</v>
+        <f t="shared" si="0"/>
+        <v>44743</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>284</v>
+        <v>69</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="4">
-        <v>44628</v>
+        <v>70</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="23">
+        <v>44713</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G34" s="23">
-        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
-        <v>44720</v>
+        <f>DATE(YEAR(E34),MONTH(E34)+1,DAY(E34))</f>
+        <v>44743</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>283</v>
+        <v>27</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="4">
-        <v>44629</v>
+        <v>28</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="23">
+        <v>44713</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G35" s="23">
-        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
-        <v>44721</v>
+        <f>DATE(YEAR(E35),MONTH(E35)+1,DAY(E35))</f>
+        <v>44743</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="E36" s="4">
-        <v>44646</v>
-      </c>
-      <c r="F36" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36" s="48">
-        <v>44738</v>
-      </c>
-      <c r="H36" s="45"/>
+      <c r="A36" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="23">
+        <v>44713</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="23">
+        <f>DATE(YEAR(E36),MONTH(E36)+1,DAY(E36))</f>
+        <v>44743</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>171</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="26"/>
       <c r="E37" s="23">
-        <v>44713</v>
+        <v>44652</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G37" s="23">
-        <f>DATE(YEAR(E37),MONTH(E37)+1,DAY(E37))</f>
+        <v>155</v>
+      </c>
+      <c r="G37" s="31">
+        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
         <v>44743</v>
       </c>
-      <c r="H37" s="21" t="s">
-        <v>220</v>
+      <c r="H37" s="29" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="E38" s="23">
-        <v>44713</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G38" s="23">
-        <f>DATE(YEAR(E38),MONTH(E38)+1,DAY(E38))</f>
+      <c r="A38" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="31">
+        <v>44378</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="31">
+        <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
         <v>44743</v>
       </c>
-      <c r="H38" s="21" t="s">
-        <v>219</v>
+      <c r="H38" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>138</v>
+        <v>13</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="E39" s="23">
-        <v>44713</v>
+        <v>44378</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="23">
-        <f>DATE(YEAR(E39),MONTH(E39)+1,DAY(E39))</f>
+        <v>156</v>
+      </c>
+      <c r="G39" s="31">
+        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
         <v>44743</v>
       </c>
-      <c r="H39" s="21" t="s">
-        <v>219</v>
+      <c r="H39" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>263</v>
+      <c r="A40" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>244</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="31">
-        <v>44652</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="G40" s="31">
-        <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
+        <v>133</v>
+      </c>
+      <c r="E40" s="23">
+        <v>44378</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="23">
+        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
         <v>44743</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="26"/>
+      <c r="A41" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>133</v>
+      </c>
       <c r="E41" s="23">
-        <v>44652</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="31">
-        <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
+        <v>44378</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="23">
+        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
         <v>44743</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>299</v>
+      <c r="A42" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>232</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E42" s="23">
-        <v>44652</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" s="23">
-        <f>DATE(YEAR(E42),MONTH(E42)+3,DAY(E42))</f>
+        <v>233</v>
+      </c>
+      <c r="E42" s="31">
+        <v>44378</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="31">
+        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
         <v>44743</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>245</v>
+        <v>105</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>224</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E43" s="28">
-        <v>44378</v>
+        <v>44287</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="G43" s="28">
-        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="E44" s="23">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G44" s="28">
         <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>133</v>
+      <c r="A45" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>200</v>
       </c>
       <c r="E45" s="23">
-        <v>44378</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>157</v>
+        <v>44593</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>274</v>
       </c>
       <c r="G45" s="23">
-        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
-        <v>44743</v>
+        <f>DATE(YEAR(E45),MONTH(E45)+6,DAY(E45))</f>
+        <v>44774</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="23">
-        <v>44378</v>
+        <v>266</v>
+      </c>
+      <c r="E46" s="31">
+        <v>44440</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G46" s="23">
         <f>DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E47" s="23">
-        <v>44378</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>157</v>
+      <c r="A47" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>156</v>
       </c>
       <c r="G47" s="23">
         <f>DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" s="23">
-        <v>44287</v>
-      </c>
-      <c r="F48" s="24" t="s">
+      <c r="A48" s="29" t="s">
         <v>193</v>
       </c>
+      <c r="B48" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>156</v>
+      </c>
       <c r="G48" s="23">
-        <v>44774</v>
+        <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
+        <v>44805</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>281</v>
+      <c r="A49" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>245</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E49" s="23">
-        <v>44409</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>157</v>
+        <v>143</v>
+      </c>
+      <c r="E49" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="G49" s="23">
         <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E50" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>278</v>
+      <c r="A50" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="G50" s="23">
-        <f>DATE(YEAR(E50),MONTH(E50)+6,DAY(E50))</f>
-        <v>44774</v>
+        <f>DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
+        <v>44805</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>270</v>
+        <v>139</v>
       </c>
       <c r="E51" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F51" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G51" s="23">
-        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
-        <v>44805</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>219</v>
+        <v>44743</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" s="31">
+        <f>DATE(YEAR(E51),MONTH(E51)+3,DAY(E51))</f>
+        <v>44835</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>157</v>
+      <c r="A52" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="23">
+        <v>44743</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="G52" s="23">
-        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
-        <v>44805</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>219</v>
+        <f>DATE(YEAR(E52),MONTH(E52)+3,DAY(E52))</f>
+        <v>44835</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>196</v>
+        <v>62</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="E53" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" s="23">
-        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
-        <v>44805</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>219</v>
+        <v>44501</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="31">
+        <f t="shared" ref="G53:G60" si="1">DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
+        <v>44866</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>56</v>
+      <c r="A54" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F54" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G54" s="23">
-        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
-        <v>44805</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>219</v>
+        <v>252</v>
+      </c>
+      <c r="E54" s="23">
+        <v>44501</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="31">
+        <f t="shared" si="1"/>
+        <v>44866</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D55" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="31">
+        <v>44531</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="23">
+        <f t="shared" si="1"/>
+        <v>44896</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="23">
+        <v>44531</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="23">
+        <f t="shared" si="1"/>
+        <v>44896</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D57" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E55" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G55" s="23">
-        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
-        <v>44805</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E56" s="31">
-        <v>44501</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="31">
-        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
-        <v>44866</v>
-      </c>
-      <c r="H56" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="E57" s="23">
-        <v>44501</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G57" s="31">
-        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
-        <v>44866</v>
-      </c>
-      <c r="H57" s="29" t="s">
-        <v>220</v>
+      <c r="E57" s="31">
+        <v>44531</v>
+      </c>
+      <c r="F57" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G57" s="23">
+        <f t="shared" si="1"/>
+        <v>44896</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>271</v>
+        <v>54</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>260</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E58" s="28">
         <v>44531</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G58" s="23">
-        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>266</v>
+        <v>60</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>261</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E59" s="23">
         <v>44531</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G59" s="23">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <f t="shared" si="1"/>
         <v>44896</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>146</v>
+        <v>80</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="E60" s="23">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G60" s="23">
-        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
-        <v>44896</v>
+        <f t="shared" si="1"/>
+        <v>44927</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>143</v>
+        <v>72</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="E61" s="23">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G61" s="23">
-        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E61),MONTH(E61)+12,DAY(E61))</f>
+        <v>44927</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>146</v>
+        <v>180</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="E62" s="23">
-        <v>44531</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>157</v>
+        <v>44593</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="G62" s="23">
-        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
-        <v>44896</v>
+        <f t="shared" ref="G62:G67" si="2">DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <v>44958</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="25" t="s">
+      <c r="A63" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="E63" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F63" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" s="31">
+        <f t="shared" si="2"/>
+        <v>44805</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="E63" s="23">
-        <v>44562</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G63" s="23">
-        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
-        <v>44927</v>
-      </c>
-      <c r="H63" s="21" t="s">
+      <c r="E64" s="31">
+        <v>44713</v>
+      </c>
+      <c r="F64" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G64" s="31">
+        <f t="shared" si="2"/>
+        <v>45078</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="E65" s="31">
+        <v>44713</v>
+      </c>
+      <c r="F65" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="31">
+        <f t="shared" si="2"/>
+        <v>45078</v>
+      </c>
+      <c r="H65" s="29" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" s="23">
-        <v>44562</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G64" s="23">
-        <f>DATE(YEAR(E64),MONTH(E64)+12,DAY(E64))</f>
-        <v>44927</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E65" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G65" s="23">
-        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
-        <v>44958</v>
-      </c>
-      <c r="H65" s="21" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>305</v>
+        <v>103</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>300</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E66" s="31">
         <v>44713</v>
       </c>
-      <c r="F66" s="43" t="s">
-        <v>157</v>
+      <c r="F66" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="G66" s="31">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <f t="shared" si="2"/>
         <v>45078</v>
       </c>
       <c r="H66" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="29" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>304</v>
+        <v>231</v>
+      </c>
+      <c r="C67" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>297</v>
       </c>
       <c r="E67" s="31">
         <v>44713</v>
       </c>
-      <c r="F67" s="43" t="s">
-        <v>157</v>
+      <c r="F67" s="29" t="s">
+        <v>156</v>
       </c>
       <c r="G67" s="31">
-        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
+        <f t="shared" si="2"/>
         <v>45078</v>
       </c>
       <c r="H67" s="29" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="C68" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="D68" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="E68" s="31">
-        <v>44713</v>
-      </c>
-      <c r="F68" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G68" s="31">
-        <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
-        <v>45078</v>
-      </c>
-      <c r="H68" s="29" t="s">
-        <v>219</v>
-      </c>
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="44"/>
     </row>
     <row r="69" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>107</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E69" s="23">
         <v>43435</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G69" s="23"/>
       <c r="H69" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3468,17 +3451,17 @@
         <v>108</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E70" s="23">
         <v>43447</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G70" s="23"/>
       <c r="H70" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3496,7 +3479,7 @@
         <v>43466</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="6" t="s">
@@ -3511,20 +3494,20 @@
         <v>115</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E72" s="20">
         <v>43831</v>
       </c>
       <c r="F72" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3544,7 +3527,7 @@
         <v>43831</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G73" s="23"/>
       <c r="H73" s="21" t="s">
@@ -3553,26 +3536,26 @@
     </row>
     <row r="74" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="19" t="s">
         <v>188</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="E74" s="20">
         <v>43908</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3590,7 +3573,7 @@
         <v>43916</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="6" t="s">
@@ -3612,7 +3595,7 @@
         <v>43950</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G76" s="23"/>
       <c r="H76" s="21" t="s">
@@ -3627,68 +3610,68 @@
         <v>123</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E77" s="23">
         <v>43950</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G77" s="23"/>
       <c r="H77" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>206</v>
-      </c>
       <c r="D78" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E78" s="10">
         <v>44044</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>169</v>
-      </c>
       <c r="D79" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E79" s="10">
         <v>44166</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3699,20 +3682,20 @@
         <v>121</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E80" s="23">
         <v>44166</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G80" s="23"/>
       <c r="H80" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3723,20 +3706,20 @@
         <v>75</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E81" s="23">
         <v>44256</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G81" s="23"/>
       <c r="H81" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3747,34 +3730,34 @@
         <v>99</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E82" s="10">
         <v>44256</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>261</v>
-      </c>
       <c r="D83" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E83" s="10">
         <v>44256</v>
@@ -3782,33 +3765,33 @@
       <c r="F83" s="6"/>
       <c r="G83" s="10"/>
       <c r="H83" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="10"/>
       <c r="F84" s="6"/>
       <c r="G84" s="10"/>
       <c r="H84" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>22</v>
@@ -3827,125 +3810,121 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D64" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C63" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C70" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C9" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C80" r:id="rId10" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D73" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D30" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D51" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D43" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D10:D12" r:id="rId17" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D47" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D58" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D40" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D42" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D61" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D54" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D55" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D62" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D56" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D11" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D12" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D82" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D70" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D59" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D77" r:id="rId40" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D69" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C69" r:id="rId42" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C33" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D39" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D19" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D37" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D63" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D26" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D7" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D48" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D5" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C79" r:id="rId55" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="C84" r:id="rId56" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D65" r:id="rId57" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C16" r:id="rId58" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D74" r:id="rId59" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C74" r:id="rId60" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D72" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C72" r:id="rId62" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C77" r:id="rId63" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D53" r:id="rId64" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D52" r:id="rId65" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D50" r:id="rId66" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C78" r:id="rId67" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C43" r:id="rId68" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D32" r:id="rId69" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D21" r:id="rId70" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C48" r:id="rId71" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="D13" r:id="rId72" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C5" r:id="rId73" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
-    <hyperlink ref="C55" r:id="rId74" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D38" r:id="rId75" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
-    <hyperlink ref="C83" r:id="rId76" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="C40" r:id="rId77" xr:uid="{2CD20F64-59CA-40E1-BDC9-2AE5808A14A7}"/>
-    <hyperlink ref="D60" r:id="rId78" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C30" r:id="rId79" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="C59" r:id="rId80" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
-    <hyperlink ref="D57" r:id="rId81" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
-    <hyperlink ref="C2" r:id="rId82" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D10" r:id="rId83" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
-    <hyperlink ref="C49" r:id="rId84" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
-    <hyperlink ref="D78" r:id="rId85" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
-    <hyperlink ref="D3" r:id="rId86" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
-    <hyperlink ref="C3" r:id="rId87" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
-    <hyperlink ref="D80" r:id="rId88" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
-    <hyperlink ref="D83" r:id="rId89" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
-    <hyperlink ref="C81" r:id="rId90" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C10" r:id="rId91" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
-    <hyperlink ref="C51" r:id="rId92" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
-    <hyperlink ref="C58" r:id="rId93" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D34" r:id="rId94" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D35" r:id="rId95" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C34" r:id="rId96" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C31" r:id="rId97" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C18" r:id="rId98" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C39" r:id="rId99" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C12" r:id="rId100" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C65" r:id="rId101" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="C15" r:id="rId102" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
-    <hyperlink ref="D15" r:id="rId103" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C14" r:id="rId104" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D14" r:id="rId105" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
-    <hyperlink ref="C42" r:id="rId106" xr:uid="{35F9E5E1-F98D-43CC-994E-2C1F79B3EBBC}"/>
-    <hyperlink ref="C19" r:id="rId107" xr:uid="{6826AFEE-F349-411C-9BBD-D6717F6FB1C2}"/>
-    <hyperlink ref="D22" r:id="rId108" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C32" r:id="rId109" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C28" r:id="rId110" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C17" r:id="rId111" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
-    <hyperlink ref="D68" r:id="rId112" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
-    <hyperlink ref="C68" r:id="rId113" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
-    <hyperlink ref="C66" r:id="rId114" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
+    <hyperlink ref="D61" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C60" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C37" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C70" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C80" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D73" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D31" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D46" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D38" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D10:D12" r:id="rId16" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D42" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D55" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D51" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D52" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D58" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D49" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D50" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D59" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D53" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D11" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D12" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D82" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D70" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D9" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D21" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D56" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D29" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D77" r:id="rId38" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D69" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C69" r:id="rId40" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D40" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D41" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C31" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D36" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D20" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D34" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C61" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D60" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D7" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D43" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D5" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C79" r:id="rId53" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="C84" r:id="rId54" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D62" r:id="rId55" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C17" r:id="rId56" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D74" r:id="rId57" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C74" r:id="rId58" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D72" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C72" r:id="rId60" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C77" r:id="rId61" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D48" r:id="rId62" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D47" r:id="rId63" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="D45" r:id="rId64" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C78" r:id="rId65" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C38" r:id="rId66" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="D30" r:id="rId67" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D22" r:id="rId68" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="C43" r:id="rId69" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
+    <hyperlink ref="D13" r:id="rId70" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C5" r:id="rId71" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
+    <hyperlink ref="C50" r:id="rId72" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
+    <hyperlink ref="D35" r:id="rId73" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="C83" r:id="rId74" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
+    <hyperlink ref="D57" r:id="rId75" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
+    <hyperlink ref="C28" r:id="rId76" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C56" r:id="rId77" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
+    <hyperlink ref="D54" r:id="rId78" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
+    <hyperlink ref="C2" r:id="rId79" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
+    <hyperlink ref="D10" r:id="rId80" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="C44" r:id="rId81" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
+    <hyperlink ref="D78" r:id="rId82" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
+    <hyperlink ref="D3" r:id="rId83" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
+    <hyperlink ref="C3" r:id="rId84" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
+    <hyperlink ref="D80" r:id="rId85" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
+    <hyperlink ref="D83" r:id="rId86" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
+    <hyperlink ref="C81" r:id="rId87" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
+    <hyperlink ref="C10" r:id="rId88" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
+    <hyperlink ref="C46" r:id="rId89" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
+    <hyperlink ref="C55" r:id="rId90" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D32" r:id="rId91" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D33" r:id="rId92" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C32" r:id="rId93" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C29" r:id="rId94" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C19" r:id="rId95" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C36" r:id="rId96" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C12" r:id="rId97" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="C62" r:id="rId98" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
+    <hyperlink ref="C15" r:id="rId99" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
+    <hyperlink ref="D15" r:id="rId100" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C14" r:id="rId101" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="D14" r:id="rId102" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
+    <hyperlink ref="C20" r:id="rId103" xr:uid="{6826AFEE-F349-411C-9BBD-D6717F6FB1C2}"/>
+    <hyperlink ref="D23" r:id="rId104" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C30" r:id="rId105" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C26" r:id="rId106" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C18" r:id="rId107" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="D67" r:id="rId108" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
+    <hyperlink ref="C67" r:id="rId109" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
+    <hyperlink ref="C65" r:id="rId110" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId115"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId111"/>
   <tableParts count="1">
-    <tablePart r:id="rId116"/>
+    <tablePart r:id="rId112"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6365EC34-DB46-441F-AF05-5CD1FD1833B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785DC2BB-4A2B-4060-9C61-A3A64E111999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1600,7 +1600,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3736,7 +3736,7 @@
         <v>148</v>
       </c>
       <c r="E82" s="10">
-        <v>44256</v>
+        <v>44593</v>
       </c>
       <c r="F82" s="11" t="s">
         <v>156</v>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785DC2BB-4A2B-4060-9C61-A3A64E111999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBE2A8B-65D6-428A-A2B5-A4AA5AD63464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,9 +742,6 @@
     <t>https://www.gov.scot/publications/scottish-natural-capital-accounts-2021/documents/</t>
   </si>
   <si>
-    <t>https://www.ons.gov.uk/file?uri=%2feconomy%2fenvironmentalaccounts%2fdatasets%2flowcarbonandrenewableenergyeconomyfirstestimatesdataset%2fcurrent/lcreedataset2019.xlsx</t>
-  </si>
-  <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true</t>
   </si>
   <si>
@@ -944,6 +941,9 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1086684/sub-national-road-transport-fuel-consumption-statistics-2005-2020.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/file?uri=/economy/environmentalaccounts/datasets/lowcarbonandrenewableenergyeconomyfirstestimatesdataset/current/lcreedataset202016022022143552.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1600,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1727,10 +1727,10 @@
         <v>113</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="E5" s="16">
         <v>44256</v>
@@ -1859,10 +1859,10 @@
         <v>207</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="23">
         <v>44531</v>
@@ -1886,7 +1886,7 @@
         <v>176</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>147</v>
@@ -1940,7 +1940,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>141</v>
@@ -1967,10 +1967,10 @@
         <v>210</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E14" s="31">
         <v>44593</v>
@@ -1994,10 +1994,10 @@
         <v>117</v>
       </c>
       <c r="C15" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>291</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>292</v>
       </c>
       <c r="E15" s="23">
         <v>44593</v>
@@ -2071,7 +2071,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>135</v>
@@ -2092,13 +2092,13 @@
     </row>
     <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>138</v>
@@ -2125,7 +2125,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>169</v>
@@ -2152,7 +2152,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>154</v>
@@ -2179,7 +2179,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>138</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>138</v>
@@ -2233,7 +2233,7 @@
         <v>87</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="31">
@@ -2283,7 +2283,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>132</v>
@@ -2310,7 +2310,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>132</v>
@@ -2337,7 +2337,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>132</v>
@@ -2364,7 +2364,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>138</v>
@@ -2391,7 +2391,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>138</v>
@@ -2418,7 +2418,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>132</v>
@@ -2439,13 +2439,13 @@
     </row>
     <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>280</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>281</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>132</v>
@@ -2466,13 +2466,13 @@
     </row>
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>132</v>
@@ -2499,7 +2499,7 @@
         <v>70</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>170</v>
@@ -2526,10 +2526,10 @@
         <v>28</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E35" s="23">
         <v>44713</v>
@@ -2553,7 +2553,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>137</v>
@@ -2605,7 +2605,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>133</v>
@@ -2632,7 +2632,7 @@
         <v>13</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>133</v>
@@ -2659,7 +2659,7 @@
         <v>15</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>133</v>
@@ -2766,7 +2766,7 @@
         <v>97</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>158</v>
@@ -2793,7 +2793,7 @@
         <v>199</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D45" s="30" t="s">
         <v>200</v>
@@ -2802,7 +2802,7 @@
         <v>44593</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G45" s="23">
         <f>DATE(YEAR(E45),MONTH(E45)+6,DAY(E45))</f>
@@ -2820,10 +2820,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E46" s="31">
         <v>44440</v>
@@ -2847,7 +2847,7 @@
         <v>197</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>194</v>
@@ -2901,7 +2901,7 @@
         <v>56</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>143</v>
@@ -2928,7 +2928,7 @@
         <v>58</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>144</v>
@@ -2955,7 +2955,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>139</v>
@@ -2982,7 +2982,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>140</v>
@@ -3009,7 +3009,7 @@
         <v>62</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>146</v>
@@ -3036,10 +3036,10 @@
         <v>77</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E54" s="23">
         <v>44501</v>
@@ -3063,7 +3063,7 @@
         <v>36</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>136</v>
@@ -3090,7 +3090,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>134</v>
@@ -3117,7 +3117,7 @@
         <v>24</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>145</v>
@@ -3144,7 +3144,7 @@
         <v>54</v>
       </c>
       <c r="C58" s="49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D58" s="34" t="s">
         <v>142</v>
@@ -3171,7 +3171,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>145</v>
@@ -3279,10 +3279,10 @@
         <v>32</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E63" s="31">
         <v>44440</v>
@@ -3306,7 +3306,7 @@
         <v>92</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D64" s="30" t="s">
         <v>173</v>
@@ -3333,10 +3333,10 @@
         <v>101</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E65" s="31">
         <v>44713</v>
@@ -3360,10 +3360,10 @@
         <v>103</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E66" s="31">
         <v>44713</v>
@@ -3387,10 +3387,10 @@
         <v>231</v>
       </c>
       <c r="C67" s="46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D67" s="46" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E67" s="31">
         <v>44713</v>
@@ -3637,7 +3637,7 @@
         <v>204</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E78" s="10">
         <v>44044</v>
@@ -3706,10 +3706,10 @@
         <v>75</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E81" s="23">
         <v>44256</v>
@@ -3730,7 +3730,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>237</v>
+        <v>304</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>148</v>
@@ -3748,16 +3748,16 @@
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="C83" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>256</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>257</v>
       </c>
       <c r="E83" s="10">
         <v>44256</v>
@@ -3765,7 +3765,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="10"/>
       <c r="H83" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBE2A8B-65D6-428A-A2B5-A4AA5AD63464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F7A7D2-959B-4E8F-BA8F-8B819943D3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,9 +781,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1021007/veh0104.ods</t>
   </si>
   <si>
-    <t>https://www.gov.uk/government/statistics/renewable-fuel-statistics-2020-final-report</t>
-  </si>
-  <si>
     <t>https://energysavingtrust.org.uk/wp-content/uploads/2021/10/Renewable-heat-in-Scotland-2020-report-version-2.pdf</t>
   </si>
   <si>
@@ -856,9 +853,6 @@
     <t>https://www.ofgem.gov.uk/environmental-and-social-schemes/domestic-renewable-heat-incentive-domestic-rhi</t>
   </si>
   <si>
-    <t>https://www.ofgem.gov.uk/sites/default/files/2021-11/DRHI_Quarterly_Report_Issue_30_Nov21%20.pdf</t>
-  </si>
-  <si>
     <t>https://oguk.org.uk/wp-content/uploads/woocommerce_uploads/2021/08/OGUK_Workforce-Employment-Insight-2021-z07os0.pdf</t>
   </si>
   <si>
@@ -895,9 +889,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043397/table_252.xlsx</t>
   </si>
   <si>
-    <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-january-2022</t>
-  </si>
-  <si>
     <t>https://www.ofgem.gov.uk/sites/default/files/2022-02/Default_tarif_cap_level_v1.10.xlsx</t>
   </si>
   <si>
@@ -944,6 +935,15 @@
   </si>
   <si>
     <t>https://www.ons.gov.uk/file?uri=/economy/environmentalaccounts/datasets/lowcarbonandrenewableenergyeconomyfirstestimatesdataset/current/lcreedataset202016022022143552.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-may-2022</t>
+  </si>
+  <si>
+    <t>https://www.ofgem.gov.uk/sites/default/files/2022-05/DRHI%20Quarterly%20Report%20Issue%2032%20May%202022.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/renewable-fuel-statistics-2021-fourth-provisional-report</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1119,6 +1119,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1599,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1852,41 +1855,41 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="E10" s="23">
-        <v>44531</v>
-      </c>
-      <c r="F10" s="24" t="s">
+      <c r="A10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="16">
+        <v>44562</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>155</v>
       </c>
       <c r="G10" s="23">
-        <f>DATE(YEAR(E10),MONTH(E10)+4,DAY(E10))</f>
+        <f>DATE(YEAR(E10),MONTH(E10)+3,DAY(E10))</f>
         <v>44652</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>222</v>
+      <c r="H10" s="13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>176</v>
+        <v>68</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>223</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>147</v>
@@ -1906,176 +1909,172 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="16">
-        <v>44562</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="A12" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="31">
+        <v>44593</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="31">
         <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
-        <v>44652</v>
-      </c>
-      <c r="H12" s="13" t="s">
+        <v>44682</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>141</v>
-      </c>
       <c r="E13" s="23">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G13" s="23">
-        <f>DATE(YEAR(E13),MONTH(E13)+1,DAY(E13))</f>
-        <v>44652</v>
+        <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
+        <v>44682</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>292</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="26"/>
       <c r="E14" s="31">
-        <v>44593</v>
+        <v>44348</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G14" s="31">
-        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
-        <v>44682</v>
+        <f>DATE(YEAR(E14)+1,MONTH(E14),DAY(E14))</f>
+        <v>44713</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>291</v>
+        <v>302</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="E15" s="23">
-        <v>44593</v>
+        <v>44713</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G15" s="23">
-        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
-        <v>44682</v>
+        <f>DATE(YEAR(E15),MONTH(E15)+1,DAY(E15))</f>
+        <v>44743</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="26"/>
+        <v>184</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="22"/>
       <c r="E16" s="31">
-        <v>44348</v>
+        <v>44652</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="31">
-        <f>DATE(YEAR(E16)+1,MONTH(E16),DAY(E16))</f>
-        <v>44713</v>
-      </c>
-      <c r="H16" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="23">
+        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
+        <v>44743</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="22"/>
+      <c r="A17" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="26"/>
       <c r="E17" s="31">
         <v>44652</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G17" s="23">
-        <f t="shared" ref="G17:G33" si="0">DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
+        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
         <v>44743</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>135</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="26"/>
       <c r="E18" s="31">
         <v>44652</v>
       </c>
@@ -2083,650 +2082,653 @@
         <v>155</v>
       </c>
       <c r="G18" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
         <v>44743</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>69</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="31">
-        <v>44652</v>
+        <v>291</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="23">
+        <v>44713</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G19" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E19),MONTH(E19)+1,DAY(E19))</f>
         <v>44743</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="31">
+        <v>28</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="E20" s="23">
+        <v>44713</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="23">
+        <f>DATE(YEAR(E20),MONTH(E20)+1,DAY(E20))</f>
+        <v>44743</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="23">
+        <v>44713</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="23">
+        <f>DATE(YEAR(E21),MONTH(E21)+1,DAY(E21))</f>
+        <v>44743</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="23">
         <v>44652</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F22" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="31">
-        <f t="shared" si="0"/>
+      <c r="G22" s="31">
+        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
         <v>44743</v>
       </c>
-      <c r="H20" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="31">
-        <v>44652</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="23">
-        <f t="shared" si="0"/>
+      <c r="H22" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="31">
+        <v>44378</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="31">
+        <f>DATE(YEAR(E23)+1,MONTH(E23),DAY(E23))</f>
         <v>44743</v>
       </c>
-      <c r="H21" s="29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="31">
-        <v>44652</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="23">
-        <f t="shared" si="0"/>
-        <v>44743</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="31">
-        <v>44652</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="23">
-        <f t="shared" si="0"/>
-        <v>44743</v>
-      </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="29" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="31">
-        <v>44652</v>
+        <v>242</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="23">
+        <v>44378</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="23">
-        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="G24" s="31">
+        <f>DATE(YEAR(E24)+1,MONTH(E24),DAY(E24))</f>
         <v>44743</v>
       </c>
-      <c r="H24" s="21" t="s">
-        <v>221</v>
+      <c r="H24" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="31">
-        <v>44652</v>
+        <v>243</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="23">
+        <v>44378</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G25" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E25)+1,MONTH(E25),DAY(E25))</f>
         <v>44743</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>221</v>
+      <c r="H25" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>270</v>
+      <c r="A26" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>234</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="4">
-        <v>44652</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>155</v>
+        <v>133</v>
+      </c>
+      <c r="E26" s="23">
+        <v>44378</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="G26" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E26)+1,MONTH(E26),DAY(E26))</f>
         <v>44743</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="29" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>271</v>
+      <c r="A27" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>232</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="4">
-        <v>44652</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="23">
-        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="E27" s="31">
+        <v>44378</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="31">
+        <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
         <v>44743</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="29" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="4">
+        <v>207</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28" s="23">
         <v>44652</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G28" s="23">
-        <f t="shared" si="0"/>
-        <v>44743</v>
+        <f>DATE(YEAR(E28),MONTH(E28)+4,DAY(E28))</f>
+        <v>44774</v>
       </c>
       <c r="H28" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="31">
+        <v>44287</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="31">
+        <v>44774</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="23">
+        <v>44409</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="31">
+        <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
+        <v>44774</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="23">
+        <v>44593</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" s="23">
+        <f>DATE(YEAR(E31),MONTH(E31)+6,DAY(E31))</f>
+        <v>44774</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="23">
+        <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
+        <v>44805</v>
+      </c>
+      <c r="H32" s="29" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="4">
-        <v>44652</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="23">
-        <f t="shared" si="0"/>
-        <v>44743</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="4">
-        <v>44652</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="23">
-        <f t="shared" si="0"/>
-        <v>44743</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="4">
-        <v>44652</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="23">
-        <f t="shared" si="0"/>
-        <v>44743</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="4">
-        <v>44652</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G32" s="23">
-        <f t="shared" si="0"/>
-        <v>44743</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="4">
-        <v>44652</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>155</v>
+      <c r="A33" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>156</v>
       </c>
       <c r="G33" s="23">
-        <f t="shared" si="0"/>
-        <v>44743</v>
+        <f>DATE(YEAR(E33)+1,MONTH(E33),DAY(E33))</f>
+        <v>44805</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" s="23">
-        <v>44713</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>157</v>
+      <c r="A34" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>156</v>
       </c>
       <c r="G34" s="23">
-        <f>DATE(YEAR(E34),MONTH(E34)+1,DAY(E34))</f>
+        <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
+        <v>44805</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" s="31">
+        <f>DATE(YEAR(E35)+1,MONTH(E35),DAY(E35))</f>
+        <v>44805</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="31">
+        <f>DATE(YEAR(E36)+1,MONTH(E36),DAY(E36))</f>
+        <v>44805</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="31">
+        <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
+        <v>44805</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="4">
         <v>44743</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="E35" s="23">
-        <v>44713</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="23">
-        <f>DATE(YEAR(E35),MONTH(E35)+1,DAY(E35))</f>
-        <v>44743</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="E36" s="23">
-        <v>44713</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="23">
-        <f>DATE(YEAR(E36),MONTH(E36)+1,DAY(E36))</f>
-        <v>44743</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="23">
-        <v>44652</v>
-      </c>
-      <c r="F37" s="24" t="s">
+      <c r="F38" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="31">
-        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
-        <v>44743</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="31">
-        <v>44378</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G38" s="31">
-        <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
-        <v>44743</v>
-      </c>
-      <c r="H38" s="29" t="s">
+      <c r="G38" s="23">
+        <f>DATE(YEAR(E38),MONTH(E38)+3,DAY(E38))</f>
+        <v>44835</v>
+      </c>
+      <c r="H38" s="21" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="23">
-        <v>44378</v>
+        <v>132</v>
+      </c>
+      <c r="E39" s="4">
+        <v>44743</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G39" s="31">
-        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
-        <v>44743</v>
-      </c>
-      <c r="H39" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="23">
+        <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
+        <v>44835</v>
+      </c>
+      <c r="H39" s="21" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>243</v>
+        <v>40</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>282</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" s="23">
-        <v>44378</v>
+        <v>138</v>
+      </c>
+      <c r="E40" s="4">
+        <v>44743</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G40" s="23">
-        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
-        <v>44743</v>
-      </c>
-      <c r="H40" s="29" t="s">
+        <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
+        <v>44835</v>
+      </c>
+      <c r="H40" s="21" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>234</v>
+        <v>42</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>247</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="23">
-        <v>44378</v>
+        <v>138</v>
+      </c>
+      <c r="E41" s="4">
+        <v>44743</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G41" s="23">
-        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
-        <v>44743</v>
-      </c>
-      <c r="H41" s="29" t="s">
+        <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
+        <v>44835</v>
+      </c>
+      <c r="H41" s="21" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>232</v>
+        <v>44</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>267</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="E42" s="31">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" s="31">
-        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
-        <v>44743</v>
+        <v>155</v>
+      </c>
+      <c r="G42" s="23">
+        <f>DATE(YEAR(E42),MONTH(E42)+3,DAY(E42))</f>
+        <v>44835</v>
       </c>
       <c r="H42" s="29" t="s">
         <v>217</v>
@@ -2734,266 +2736,267 @@
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E43" s="28">
-        <v>44287</v>
+        <v>44743</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="G43" s="28">
-        <v>44774</v>
+        <f>DATE(YEAR(E43),MONTH(E43)+3,DAY(E43))</f>
+        <v>44835</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>276</v>
+        <v>30</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>261</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="23">
-        <v>44409</v>
+        <v>135</v>
+      </c>
+      <c r="E44" s="31">
+        <v>44743</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G44" s="28">
-        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
-        <v>44774</v>
+        <f>DATE(YEAR(E44),MONTH(E44)+3,DAY(E44))</f>
+        <v>44835</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="E45" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="G45" s="23">
-        <f>DATE(YEAR(E45),MONTH(E45)+6,DAY(E45))</f>
-        <v>44774</v>
+      <c r="A45" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="31">
+        <v>44743</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="31">
+        <f>DATE(YEAR(E45),MONTH(E45)+3,DAY(E45))</f>
+        <v>44835</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>265</v>
+        <v>284</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>138</v>
       </c>
       <c r="E46" s="31">
-        <v>44440</v>
+        <v>44743</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G46" s="23">
-        <f>DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
-        <v>44805</v>
+        <f>DATE(YEAR(E46),MONTH(E46)+3,DAY(E46))</f>
+        <v>44835</v>
       </c>
       <c r="H46" s="27" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>194</v>
+      <c r="A47" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="E47" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>156</v>
+        <v>44743</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="G47" s="23">
-        <f>DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
-        <v>44805</v>
+        <f>DATE(YEAR(E47),MONTH(E47)+3,DAY(E47))</f>
+        <v>44835</v>
       </c>
       <c r="H47" s="21" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="E48" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>156</v>
+      <c r="A48" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="4">
+        <v>44743</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="G48" s="23">
-        <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
-        <v>44805</v>
+        <f>DATE(YEAR(E48),MONTH(E48)+3,DAY(E48))</f>
+        <v>44835</v>
       </c>
       <c r="H48" s="21" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>244</v>
+      <c r="A49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>263</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E49" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F49" s="42" t="s">
-        <v>156</v>
+        <v>132</v>
+      </c>
+      <c r="E49" s="4">
+        <v>44743</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="G49" s="23">
-        <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
-        <v>44805</v>
+        <f>DATE(YEAR(E49),MONTH(E49)+3,DAY(E49))</f>
+        <v>44835</v>
       </c>
       <c r="H49" s="21" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>58</v>
+      <c r="A50" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>281</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F50" s="42" t="s">
-        <v>156</v>
+        <v>132</v>
+      </c>
+      <c r="E50" s="4">
+        <v>44743</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="G50" s="23">
-        <f>DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
-        <v>44805</v>
+        <f>DATE(YEAR(E50),MONTH(E50)+3,DAY(E50))</f>
+        <v>44835</v>
       </c>
       <c r="H50" s="21" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>48</v>
+      <c r="A51" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>280</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="31">
+        <v>132</v>
+      </c>
+      <c r="E51" s="4">
         <v>44743</v>
       </c>
-      <c r="F51" s="42" t="s">
+      <c r="F51" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G51" s="31">
+      <c r="G51" s="23">
         <f>DATE(YEAR(E51),MONTH(E51)+3,DAY(E51))</f>
         <v>44835</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H51" s="21" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>301</v>
+      <c r="A52" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>297</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" s="23">
+        <v>139</v>
+      </c>
+      <c r="E52" s="31">
         <v>44743</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="31">
         <f>DATE(YEAR(E52),MONTH(E52)+3,DAY(E52))</f>
         <v>44835</v>
       </c>
@@ -3002,107 +3005,107 @@
       </c>
     </row>
     <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>253</v>
+      <c r="A53" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>298</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E53" s="31">
-        <v>44501</v>
-      </c>
-      <c r="F53" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G53" s="31">
-        <f t="shared" ref="G53:G60" si="1">DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
-        <v>44866</v>
+        <v>140</v>
+      </c>
+      <c r="E53" s="23">
+        <v>44743</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" s="23">
+        <f>DATE(YEAR(E53),MONTH(E53)+3,DAY(E53))</f>
+        <v>44835</v>
       </c>
       <c r="H53" s="29" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" s="31">
+        <v>44501</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="31">
+        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <v>44866</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B55" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="E54" s="23">
+      <c r="C55" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="E55" s="23">
         <v>44501</v>
       </c>
-      <c r="F54" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G54" s="31">
-        <f t="shared" si="1"/>
+      <c r="F55" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="31">
+        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
         <v>44866</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="H55" s="29" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
+    <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B56" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D55" s="22" t="s">
+      <c r="C56" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E56" s="31">
         <v>44531</v>
       </c>
-      <c r="F55" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G55" s="23">
-        <f t="shared" si="1"/>
-        <v>44896</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="23">
-        <v>44531</v>
-      </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G56" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
         <v>44896</v>
       </c>
       <c r="H56" s="21" t="s">
@@ -3110,26 +3113,26 @@
       </c>
     </row>
     <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="26" t="s">
+      <c r="A57" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>260</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" s="31">
+        <v>134</v>
+      </c>
+      <c r="E57" s="23">
         <v>44531</v>
       </c>
-      <c r="F57" s="42" t="s">
+      <c r="F57" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G57" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
         <v>44896</v>
       </c>
       <c r="H57" s="21" t="s">
@@ -3138,16 +3141,16 @@
     </row>
     <row r="58" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C58" s="49" t="s">
         <v>259</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E58" s="28">
         <v>44531</v>
@@ -3156,7 +3159,7 @@
         <v>156</v>
       </c>
       <c r="G58" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
         <v>44896</v>
       </c>
       <c r="H58" s="21" t="s">
@@ -3164,26 +3167,26 @@
       </c>
     </row>
     <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>60</v>
+      <c r="A59" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E59" s="23">
+        <v>142</v>
+      </c>
+      <c r="E59" s="31">
         <v>44531</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G59" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
         <v>44896</v>
       </c>
       <c r="H59" s="21" t="s">
@@ -3192,43 +3195,43 @@
     </row>
     <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>172</v>
+        <v>259</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="E60" s="23">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="F60" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G60" s="23">
-        <f t="shared" si="1"/>
-        <v>44927</v>
+        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <v>44896</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="E61" s="23">
         <v>44562</v>
@@ -3237,7 +3240,7 @@
         <v>156</v>
       </c>
       <c r="G61" s="23">
-        <f>DATE(YEAR(E61),MONTH(E61)+12,DAY(E61))</f>
+        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
         <v>44927</v>
       </c>
       <c r="H61" s="21" t="s">
@@ -3246,55 +3249,55 @@
     </row>
     <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="23">
+        <v>44562</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="23">
+        <f>DATE(YEAR(E62),MONTH(E62)+12,DAY(E62))</f>
+        <v>44927</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B63" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C63" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D63" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E63" s="23">
         <v>44593</v>
       </c>
-      <c r="F62" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G62" s="23">
-        <f t="shared" ref="G62:G67" si="2">DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+      <c r="F63" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" s="23">
+        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
         <v>44958</v>
       </c>
-      <c r="H62" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="E63" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F63" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G63" s="31">
-        <f t="shared" si="2"/>
-        <v>44805</v>
-      </c>
-      <c r="H63" s="29" t="s">
+      <c r="H63" s="21" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3318,7 +3321,7 @@
         <v>156</v>
       </c>
       <c r="G64" s="31">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
         <v>45078</v>
       </c>
       <c r="H64" s="29" t="s">
@@ -3333,10 +3336,10 @@
         <v>101</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E65" s="31">
         <v>44713</v>
@@ -3345,7 +3348,7 @@
         <v>156</v>
       </c>
       <c r="G65" s="31">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
         <v>45078</v>
       </c>
       <c r="H65" s="29" t="s">
@@ -3360,10 +3363,10 @@
         <v>103</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E66" s="31">
         <v>44713</v>
@@ -3372,7 +3375,7 @@
         <v>156</v>
       </c>
       <c r="G66" s="31">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
         <v>45078</v>
       </c>
       <c r="H66" s="29" t="s">
@@ -3387,10 +3390,10 @@
         <v>231</v>
       </c>
       <c r="C67" s="46" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D67" s="46" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E67" s="31">
         <v>44713</v>
@@ -3399,7 +3402,7 @@
         <v>156</v>
       </c>
       <c r="G67" s="31">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
         <v>45078</v>
       </c>
       <c r="H67" s="29" t="s">
@@ -3637,7 +3640,7 @@
         <v>204</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E78" s="10">
         <v>44044</v>
@@ -3706,10 +3709,10 @@
         <v>75</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E81" s="23">
         <v>44256</v>
@@ -3730,7 +3733,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>148</v>
@@ -3748,16 +3751,16 @@
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="C83" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>255</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="E83" s="10">
         <v>44256</v>
@@ -3765,7 +3768,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="10"/>
       <c r="H83" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3810,121 +3813,120 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D61" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C60" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C37" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D62" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C61" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C70" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="C9" r:id="rId8" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C80" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D73" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D31" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D46" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D38" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D48" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D49" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D32" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D10:D12" r:id="rId16" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D42" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D55" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D51" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D52" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D58" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D49" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D50" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D59" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D53" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D11" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D12" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D44" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D56" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D52" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D53" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D59" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D60" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D54" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D10" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D82" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D70" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="D9" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D21" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D56" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D29" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D42" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D57" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D30" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D77" r:id="rId38" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D69" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C69" r:id="rId40" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D40" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D41" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C31" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D36" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D20" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D34" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C61" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D60" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D25" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D26" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D21" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D19" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C62" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D61" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="D64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
     <hyperlink ref="D7" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D43" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
     <hyperlink ref="D5" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C79" r:id="rId53" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C84" r:id="rId54" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D62" r:id="rId55" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C17" r:id="rId56" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D63" r:id="rId55" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C16" r:id="rId56" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D74" r:id="rId57" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C74" r:id="rId58" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
     <hyperlink ref="D72" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="C72" r:id="rId60" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
     <hyperlink ref="C77" r:id="rId61" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D48" r:id="rId62" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D47" r:id="rId63" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D45" r:id="rId64" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="D34" r:id="rId62" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D33" r:id="rId63" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="D31" r:id="rId64" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C78" r:id="rId65" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C38" r:id="rId66" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D30" r:id="rId67" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D22" r:id="rId68" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C43" r:id="rId69" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="D13" r:id="rId70" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C23" r:id="rId66" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="D41" r:id="rId67" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D43" r:id="rId68" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="C29" r:id="rId69" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
+    <hyperlink ref="D15" r:id="rId70" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
     <hyperlink ref="C5" r:id="rId71" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
-    <hyperlink ref="C50" r:id="rId72" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D35" r:id="rId73" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="C36" r:id="rId72" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
+    <hyperlink ref="D20" r:id="rId73" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C83" r:id="rId74" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="D57" r:id="rId75" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C28" r:id="rId76" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="C56" r:id="rId77" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
-    <hyperlink ref="D54" r:id="rId78" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
+    <hyperlink ref="D58" r:id="rId75" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
+    <hyperlink ref="C48" r:id="rId76" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C57" r:id="rId77" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
+    <hyperlink ref="D55" r:id="rId78" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId79" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D10" r:id="rId80" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
-    <hyperlink ref="C44" r:id="rId81" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
+    <hyperlink ref="D28" r:id="rId80" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="C30" r:id="rId81" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
     <hyperlink ref="D78" r:id="rId82" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
     <hyperlink ref="D3" r:id="rId83" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
     <hyperlink ref="C3" r:id="rId84" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
     <hyperlink ref="D80" r:id="rId85" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
     <hyperlink ref="D83" r:id="rId86" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
     <hyperlink ref="C81" r:id="rId87" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C10" r:id="rId88" xr:uid="{E2847BE0-806F-44DF-8C46-A67DFFC9BC0F}"/>
-    <hyperlink ref="C46" r:id="rId89" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
-    <hyperlink ref="C55" r:id="rId90" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D32" r:id="rId91" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D33" r:id="rId92" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C32" r:id="rId93" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C29" r:id="rId94" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C19" r:id="rId95" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C36" r:id="rId96" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C12" r:id="rId97" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C62" r:id="rId98" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="C15" r:id="rId99" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
-    <hyperlink ref="D15" r:id="rId100" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C14" r:id="rId101" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D14" r:id="rId102" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
-    <hyperlink ref="C20" r:id="rId103" xr:uid="{6826AFEE-F349-411C-9BBD-D6717F6FB1C2}"/>
-    <hyperlink ref="D23" r:id="rId104" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C30" r:id="rId105" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C26" r:id="rId106" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C18" r:id="rId107" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
-    <hyperlink ref="D67" r:id="rId108" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
-    <hyperlink ref="C67" r:id="rId109" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
-    <hyperlink ref="C65" r:id="rId110" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
+    <hyperlink ref="C32" r:id="rId88" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
+    <hyperlink ref="C56" r:id="rId89" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D50" r:id="rId90" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D51" r:id="rId91" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C50" r:id="rId92" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C40" r:id="rId93" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C46" r:id="rId94" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C21" r:id="rId95" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C11" r:id="rId96" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="C63" r:id="rId97" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
+    <hyperlink ref="C13" r:id="rId98" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
+    <hyperlink ref="D13" r:id="rId99" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C12" r:id="rId100" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="D12" r:id="rId101" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
+    <hyperlink ref="D47" r:id="rId102" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C41" r:id="rId103" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C38" r:id="rId104" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C44" r:id="rId105" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="D67" r:id="rId106" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
+    <hyperlink ref="C67" r:id="rId107" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
+    <hyperlink ref="C65" r:id="rId108" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
+    <hyperlink ref="C15" r:id="rId109" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId111"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId110"/>
   <tableParts count="1">
-    <tablePart r:id="rId112"/>
+    <tablePart r:id="rId111"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F7A7D2-959B-4E8F-BA8F-8B819943D3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DBD82D-69FF-4854-B0C3-423076E7E1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DBD82D-69FF-4854-B0C3-423076E7E1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEAB4F6-4FF1-4DA7-8541-45A3A00EF9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="304">
   <si>
     <t>Code</t>
   </si>
@@ -602,9 +603,6 @@
   </si>
   <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx</t>
-  </si>
-  <si>
-    <t>Annually</t>
   </si>
   <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx</t>
@@ -1603,7 +1601,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1640,7 +1638,7 @@
         <v>165</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1651,7 +1649,7 @@
         <v>82</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="20">
@@ -1665,7 +1663,7 @@
         <v>44228</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1676,10 +1674,10 @@
         <v>176</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>236</v>
       </c>
       <c r="E3" s="39">
         <v>43891</v>
@@ -1692,21 +1690,21 @@
         <v>44256</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>215</v>
-      </c>
       <c r="D4" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E4" s="33">
         <v>44197</v>
@@ -1719,7 +1717,7 @@
         <v>44562</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1730,10 +1728,10 @@
         <v>113</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>238</v>
       </c>
       <c r="E5" s="16">
         <v>44256</v>
@@ -1745,7 +1743,7 @@
         <v>44621</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1770,7 +1768,7 @@
         <v>44652</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1797,72 +1795,72 @@
         <v>44652</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="A8" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="31">
         <v>44287</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="F8" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="31">
         <f>DATE(YEAR(E8)+1,MONTH(E8),DAY(E8))</f>
         <v>44652</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>220</v>
+      <c r="H8" s="29" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="31">
-        <v>44287</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="31">
-        <f>DATE(YEAR(E9)+1,MONTH(E9),DAY(E9))</f>
+      <c r="A9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="16">
+        <v>44562</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="23">
+        <f>DATE(YEAR(E9),MONTH(E9)+3,DAY(E9))</f>
         <v>44652</v>
       </c>
-      <c r="H9" s="29" t="s">
-        <v>220</v>
+      <c r="H9" s="13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>176</v>
+        <v>68</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>222</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>147</v>
@@ -1878,359 +1876,359 @@
         <v>44652</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="16">
-        <v>44562</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="A11" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="31">
+        <v>44593</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="31">
         <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
-        <v>44652</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>219</v>
+        <v>44682</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>289</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="26"/>
       <c r="E12" s="31">
-        <v>44593</v>
+        <v>44348</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G12" s="31">
-        <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
-        <v>44682</v>
+        <f>DATE(YEAR(E12)+1,MONTH(E12),DAY(E12))</f>
+        <v>44713</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>288</v>
+        <v>301</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="E13" s="23">
-        <v>44593</v>
+        <v>44713</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G13" s="23">
-        <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
-        <v>44682</v>
+        <f>DATE(YEAR(E13),MONTH(E13)+1,DAY(E13))</f>
+        <v>44743</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="26"/>
+        <v>184</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="22"/>
       <c r="E14" s="31">
-        <v>44348</v>
+        <v>44652</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="31">
-        <f>DATE(YEAR(E14)+1,MONTH(E14),DAY(E14))</f>
-        <v>44713</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>222</v>
+        <v>155</v>
+      </c>
+      <c r="G14" s="23">
+        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
+        <v>44743</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="23">
-        <v>44713</v>
+        <v>87</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="31">
+        <v>44743</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G15" s="23">
-        <f>DATE(YEAR(E15),MONTH(E15)+1,DAY(E15))</f>
+        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
+        <v>44835</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="31">
         <v>44743</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="31">
-        <v>44652</v>
-      </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G16" s="23">
         <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="31">
-        <v>44652</v>
+        <v>70</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="23">
+        <v>44713</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G17" s="23">
-        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
+        <f>DATE(YEAR(E17),MONTH(E17)+1,DAY(E17))</f>
         <v>44743</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="31">
-        <v>44652</v>
+        <v>28</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="23">
+        <v>44713</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G18" s="23">
-        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
+        <f>DATE(YEAR(E18),MONTH(E18)+1,DAY(E18))</f>
         <v>44743</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>170</v>
+        <v>265</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>137</v>
       </c>
       <c r="E19" s="23">
-        <v>44713</v>
+        <v>44774</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G19" s="23">
         <f>DATE(YEAR(E19),MONTH(E19)+1,DAY(E19))</f>
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>251</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="26"/>
       <c r="E20" s="23">
-        <v>44713</v>
+        <v>44652</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" s="23">
-        <f>DATE(YEAR(E20),MONTH(E20)+1,DAY(E20))</f>
+        <v>155</v>
+      </c>
+      <c r="G20" s="31">
+        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
         <v>44743</v>
       </c>
-      <c r="H20" s="21" t="s">
-        <v>217</v>
+      <c r="H20" s="29" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="23">
-        <v>44713</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="23">
-        <f>DATE(YEAR(E21),MONTH(E21)+1,DAY(E21))</f>
+      <c r="A21" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="31">
+        <v>44378</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="31">
+        <f>DATE(YEAR(E21)+1,MONTH(E21),DAY(E21))</f>
         <v>44743</v>
       </c>
-      <c r="H21" s="21" t="s">
-        <v>217</v>
+      <c r="H21" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="26"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>133</v>
+      </c>
       <c r="E22" s="23">
-        <v>44652</v>
+        <v>44378</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G22" s="31">
-        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+        <f>DATE(YEAR(E22)+1,MONTH(E22),DAY(E22))</f>
         <v>44743</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>241</v>
+      <c r="A23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>242</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="23">
         <v>44378</v>
       </c>
-      <c r="F23" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="31">
+      <c r="F23" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="23">
         <f>DATE(YEAR(E23)+1,MONTH(E23),DAY(E23))</f>
         <v>44743</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>13</v>
+      <c r="A24" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>133</v>
@@ -2238,217 +2236,218 @@
       <c r="E24" s="23">
         <v>44378</v>
       </c>
-      <c r="F24" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="31">
+      <c r="F24" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="23">
         <f>DATE(YEAR(E24)+1,MONTH(E24),DAY(E24))</f>
         <v>44743</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>15</v>
+      <c r="A25" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="23">
+        <v>232</v>
+      </c>
+      <c r="E25" s="31">
         <v>44378</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="23">
+      <c r="F25" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="31">
         <f>DATE(YEAR(E25)+1,MONTH(E25),DAY(E25))</f>
         <v>44743</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>133</v>
+      <c r="A26" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>272</v>
       </c>
       <c r="E26" s="23">
-        <v>44378</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>156</v>
+        <v>44652</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="G26" s="23">
-        <f>DATE(YEAR(E26)+1,MONTH(E26),DAY(E26))</f>
-        <v>44743</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>217</v>
+        <f>DATE(YEAR(E26),MONTH(E26)+4,DAY(E26))</f>
+        <v>44774</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>232</v>
+      <c r="A27" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>273</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E27" s="31">
-        <v>44378</v>
-      </c>
-      <c r="F27" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="23">
+        <v>44409</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G27" s="31">
         <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>273</v>
+      <c r="A28" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>199</v>
       </c>
       <c r="E28" s="23">
-        <v>44652</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>155</v>
+        <v>44593</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>271</v>
       </c>
       <c r="G28" s="23">
-        <f>DATE(YEAR(E28),MONTH(E28)+4,DAY(E28))</f>
+        <f>DATE(YEAR(E28),MONTH(E28)+6,DAY(E28))</f>
         <v>44774</v>
       </c>
-      <c r="H28" s="21" t="s">
-        <v>222</v>
+      <c r="H28" s="29" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="E29" s="31">
-        <v>44287</v>
+        <v>44440</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" s="31">
-        <v>44774</v>
+        <v>156</v>
+      </c>
+      <c r="G29" s="23">
+        <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
+        <v>44805</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="23">
-        <v>44409</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="31">
+      <c r="A30" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="23">
         <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
-        <v>44774</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>218</v>
+        <v>44805</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>286</v>
+        <v>194</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>204</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="E31" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>272</v>
+        <v>193</v>
+      </c>
+      <c r="E31" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>156</v>
       </c>
       <c r="G31" s="23">
-        <f>DATE(YEAR(E31),MONTH(E31)+6,DAY(E31))</f>
-        <v>44774</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>222</v>
+        <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
+        <v>44805</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>246</v>
+        <v>56</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>243</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="E32" s="31">
         <v>44440</v>
@@ -2456,166 +2455,166 @@
       <c r="F32" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="31">
         <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
         <v>44805</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>194</v>
+        <v>58</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="E33" s="31">
         <v>44440</v>
       </c>
-      <c r="F33" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" s="23">
+      <c r="F33" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="31">
         <f>DATE(YEAR(E33)+1,MONTH(E33),DAY(E33))</f>
         <v>44805</v>
       </c>
-      <c r="H33" s="21" t="s">
-        <v>217</v>
+      <c r="H33" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>194</v>
+        <v>32</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="E34" s="31">
         <v>44440</v>
       </c>
-      <c r="F34" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G34" s="23">
+      <c r="F34" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" s="31">
         <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
         <v>44805</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>217</v>
+      <c r="H34" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>244</v>
+      <c r="A35" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>268</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="31">
-        <f>DATE(YEAR(E35)+1,MONTH(E35),DAY(E35))</f>
-        <v>44805</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>217</v>
+        <v>132</v>
+      </c>
+      <c r="E35" s="4">
+        <v>44743</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="23">
+        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
+        <v>44835</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>58</v>
+      <c r="A36" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="31">
-        <f>DATE(YEAR(E36)+1,MONTH(E36),DAY(E36))</f>
-        <v>44805</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>217</v>
+        <v>132</v>
+      </c>
+      <c r="E36" s="4">
+        <v>44743</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="23">
+        <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
+        <v>44835</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>32</v>
+      <c r="A37" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="E37" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37" s="31">
-        <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
-        <v>44805</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>217</v>
+        <v>138</v>
+      </c>
+      <c r="E37" s="4">
+        <v>44743</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="23">
+        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
+        <v>44835</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>64</v>
+      <c r="A38" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E38" s="4">
         <v>44743</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="42" t="s">
         <v>155</v>
       </c>
       <c r="G38" s="23">
@@ -2623,128 +2622,128 @@
         <v>44835</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>66</v>
+      <c r="A39" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="4">
+        <v>154</v>
+      </c>
+      <c r="E39" s="31">
         <v>44743</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="42" t="s">
         <v>155</v>
       </c>
       <c r="G39" s="23">
         <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
         <v>44835</v>
       </c>
-      <c r="H39" s="21" t="s">
-        <v>217</v>
+      <c r="H39" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>40</v>
+      <c r="A40" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="31">
         <v>44743</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="31">
         <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
         <v>44835</v>
       </c>
-      <c r="H40" s="21" t="s">
-        <v>217</v>
+      <c r="H40" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>42</v>
+      <c r="A41" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="4">
+        <v>135</v>
+      </c>
+      <c r="E41" s="31">
         <v>44743</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="31">
         <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
         <v>44835</v>
       </c>
-      <c r="H41" s="21" t="s">
-        <v>217</v>
+      <c r="H41" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>154</v>
+      <c r="A42" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="E42" s="31">
         <v>44743</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="F42" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="31">
         <f>DATE(YEAR(E42),MONTH(E42)+3,DAY(E42))</f>
         <v>44835</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="D43" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="52" t="s">
         <v>138</v>
       </c>
       <c r="E43" s="28">
@@ -2758,21 +2757,21 @@
         <v>44835</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>135</v>
+        <v>282</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="E44" s="31">
         <v>44743</v>
@@ -2785,50 +2784,50 @@
         <v>44835</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E45" s="31">
+        <v>5</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="4">
         <v>44743</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G45" s="31">
+      <c r="G45" s="23">
         <f>DATE(YEAR(E45),MONTH(E45)+3,DAY(E45))</f>
         <v>44835</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" s="31">
+        <v>6</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="4">
         <v>44743</v>
       </c>
       <c r="F46" s="35" t="s">
@@ -2839,23 +2838,23 @@
         <v>44835</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="31">
+        <v>276</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="4">
         <v>44743</v>
       </c>
       <c r="F47" s="24" t="s">
@@ -2866,18 +2865,18 @@
         <v>44835</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
-        <v>4</v>
+        <v>275</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>132</v>
@@ -2893,50 +2892,50 @@
         <v>44835</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>7</v>
+      <c r="A49" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" s="4">
+        <v>139</v>
+      </c>
+      <c r="E49" s="31">
         <v>44743</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="31">
         <f>DATE(YEAR(E49),MONTH(E49)+3,DAY(E49))</f>
         <v>44835</v>
       </c>
-      <c r="H49" s="21" t="s">
-        <v>217</v>
+      <c r="H49" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
-        <v>277</v>
+        <v>49</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>278</v>
+        <v>50</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>297</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="4">
+        <v>140</v>
+      </c>
+      <c r="E50" s="23">
         <v>44743</v>
       </c>
       <c r="F50" s="24" t="s">
@@ -2946,86 +2945,86 @@
         <f>DATE(YEAR(E50),MONTH(E50)+3,DAY(E50))</f>
         <v>44835</v>
       </c>
-      <c r="H50" s="21" t="s">
-        <v>217</v>
+      <c r="H50" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
-        <v>276</v>
+        <v>116</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="4">
-        <v>44743</v>
+        <v>117</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="E51" s="23">
+        <v>44774</v>
       </c>
       <c r="F51" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G51" s="23">
         <f>DATE(YEAR(E51),MONTH(E51)+3,DAY(E51))</f>
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E52" s="31">
-        <v>44743</v>
+        <v>44501</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G52" s="31">
-        <f>DATE(YEAR(E52),MONTH(E52)+3,DAY(E52))</f>
-        <v>44835</v>
+        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
+        <v>44866</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>298</v>
+        <v>77</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>249</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="E53" s="23">
-        <v>44743</v>
+        <v>44501</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G53" s="23">
-        <f>DATE(YEAR(E53),MONTH(E53)+3,DAY(E53))</f>
-        <v>44835</v>
+        <v>156</v>
+      </c>
+      <c r="G53" s="31">
+        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
+        <v>44866</v>
       </c>
       <c r="H53" s="29" t="s">
         <v>217</v>
@@ -3033,70 +3032,70 @@
     </row>
     <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E54" s="31">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="F54" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G54" s="31">
+      <c r="G54" s="23">
         <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
-        <v>44866</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>217</v>
+        <v>44896</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>250</v>
+        <v>19</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>259</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="E55" s="23">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="F55" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G55" s="31">
+      <c r="G55" s="23">
         <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
-        <v>44866</v>
-      </c>
-      <c r="H55" s="29" t="s">
-        <v>218</v>
+        <v>44896</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>265</v>
+        <v>24</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E56" s="31">
         <v>44531</v>
@@ -3109,26 +3108,26 @@
         <v>44896</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>260</v>
+      <c r="A57" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>257</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="23">
+        <v>142</v>
+      </c>
+      <c r="E57" s="31">
         <v>44531</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G57" s="23">
@@ -3136,18 +3135,18 @@
         <v>44896</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C58" s="49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D58" s="34" t="s">
         <v>145</v>
@@ -3163,31 +3162,31 @@
         <v>44896</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>54</v>
+      <c r="A59" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E59" s="31">
-        <v>44531</v>
-      </c>
-      <c r="F59" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="23">
+        <v>44562</v>
+      </c>
+      <c r="F59" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G59" s="23">
         <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="H59" s="21" t="s">
         <v>217</v>
@@ -3195,26 +3194,26 @@
     </row>
     <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>145</v>
+        <v>72</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="E60" s="23">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="F60" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G60" s="23">
-        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E60),MONTH(E60)+12,DAY(E60))</f>
+        <v>44927</v>
       </c>
       <c r="H60" s="21" t="s">
         <v>217</v>
@@ -3222,83 +3221,83 @@
     </row>
     <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>80</v>
+        <v>180</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>182</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E61" s="23">
-        <v>44562</v>
-      </c>
-      <c r="F61" s="24" t="s">
+        <v>44593</v>
+      </c>
+      <c r="F61" s="21" t="s">
         <v>156</v>
       </c>
       <c r="G61" s="23">
         <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>73</v>
+        <v>227</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>150</v>
       </c>
       <c r="E62" s="23">
-        <v>44562</v>
-      </c>
-      <c r="F62" s="24" t="s">
+        <v>44652</v>
+      </c>
+      <c r="F62" s="21" t="s">
         <v>156</v>
       </c>
       <c r="G62" s="23">
-        <f>DATE(YEAR(E62),MONTH(E62)+12,DAY(E62))</f>
-        <v>44927</v>
+        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <v>45017</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E63" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G63" s="23">
+      <c r="A63" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="31">
+        <v>44652</v>
+      </c>
+      <c r="F63" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" s="31">
         <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
-        <v>44958</v>
-      </c>
-      <c r="H63" s="21" t="s">
-        <v>217</v>
+        <v>45017</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3309,7 +3308,7 @@
         <v>92</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D64" s="30" t="s">
         <v>173</v>
@@ -3325,7 +3324,7 @@
         <v>45078</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3336,10 +3335,10 @@
         <v>101</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E65" s="31">
         <v>44713</v>
@@ -3352,7 +3351,7 @@
         <v>45078</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3363,10 +3362,10 @@
         <v>103</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E66" s="31">
         <v>44713</v>
@@ -3379,21 +3378,21 @@
         <v>45078</v>
       </c>
       <c r="H66" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B67" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="B67" s="29" t="s">
-        <v>231</v>
-      </c>
       <c r="C67" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D67" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E67" s="31">
         <v>44713</v>
@@ -3406,7 +3405,7 @@
         <v>45078</v>
       </c>
       <c r="H67" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3440,7 +3439,7 @@
       </c>
       <c r="G69" s="23"/>
       <c r="H69" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3464,7 +3463,7 @@
       </c>
       <c r="G70" s="23"/>
       <c r="H70" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3510,7 +3509,7 @@
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3558,7 +3557,7 @@
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3613,7 +3612,7 @@
         <v>123</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D77" s="22" t="s">
         <v>153</v>
@@ -3626,21 +3625,21 @@
       </c>
       <c r="G77" s="23"/>
       <c r="H77" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="C78" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>204</v>
-      </c>
       <c r="D78" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E78" s="10">
         <v>44044</v>
@@ -3650,7 +3649,7 @@
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3674,7 +3673,7 @@
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3685,10 +3684,10 @@
         <v>121</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E80" s="23">
         <v>44166</v>
@@ -3698,7 +3697,7 @@
       </c>
       <c r="G80" s="23"/>
       <c r="H80" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3709,10 +3708,10 @@
         <v>75</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E81" s="23">
         <v>44256</v>
@@ -3722,7 +3721,7 @@
       </c>
       <c r="G81" s="23"/>
       <c r="H81" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3733,7 +3732,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>148</v>
@@ -3746,21 +3745,21 @@
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="C83" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="E83" s="10">
         <v>44256</v>
@@ -3768,7 +3767,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="10"/>
       <c r="H83" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3786,15 +3785,15 @@
       <c r="F84" s="6"/>
       <c r="G84" s="10"/>
       <c r="H84" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>22</v>
@@ -3813,115 +3812,115 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D62" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C61" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D60" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C59" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C70" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C9" r:id="rId8" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C8" r:id="rId8" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C80" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D73" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D48" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D49" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D32" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D45" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D46" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D10:D12" r:id="rId16" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D44" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D56" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D52" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D53" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D59" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D60" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D54" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D10" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D54" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D49" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D50" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D57" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D32" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D33" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D58" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D52" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D35" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D10" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D82" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D70" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D9" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D42" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D57" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D30" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D8" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D55" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D27" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D77" r:id="rId38" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D69" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C69" r:id="rId40" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D25" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D26" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D21" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D19" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C62" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D61" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D19" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D42" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D17" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C60" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D59" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="D64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
     <hyperlink ref="D7" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D63" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
     <hyperlink ref="D5" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C79" r:id="rId53" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C84" r:id="rId54" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D63" r:id="rId55" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C16" r:id="rId56" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D61" r:id="rId55" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C14" r:id="rId56" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D74" r:id="rId57" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C74" r:id="rId58" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
     <hyperlink ref="D72" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="C72" r:id="rId60" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
     <hyperlink ref="C77" r:id="rId61" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D34" r:id="rId62" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D33" r:id="rId63" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D31" r:id="rId64" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="D31" r:id="rId62" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D30" r:id="rId63" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="D28" r:id="rId64" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C78" r:id="rId65" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C23" r:id="rId66" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D41" r:id="rId67" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D43" r:id="rId68" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C29" r:id="rId69" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="D15" r:id="rId70" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C21" r:id="rId66" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="D38" r:id="rId67" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D40" r:id="rId68" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="C63" r:id="rId69" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
+    <hyperlink ref="D13" r:id="rId70" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
     <hyperlink ref="C5" r:id="rId71" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
-    <hyperlink ref="C36" r:id="rId72" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D20" r:id="rId73" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="C33" r:id="rId72" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
+    <hyperlink ref="D18" r:id="rId73" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C83" r:id="rId74" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="D58" r:id="rId75" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C48" r:id="rId76" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="C57" r:id="rId77" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
-    <hyperlink ref="D55" r:id="rId78" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
+    <hyperlink ref="D56" r:id="rId75" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
+    <hyperlink ref="C45" r:id="rId76" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C55" r:id="rId77" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
+    <hyperlink ref="D53" r:id="rId78" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId79" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D28" r:id="rId80" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
-    <hyperlink ref="C30" r:id="rId81" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
+    <hyperlink ref="D26" r:id="rId80" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="C27" r:id="rId81" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
     <hyperlink ref="D78" r:id="rId82" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
     <hyperlink ref="D3" r:id="rId83" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
     <hyperlink ref="C3" r:id="rId84" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
     <hyperlink ref="D80" r:id="rId85" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
     <hyperlink ref="D83" r:id="rId86" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
     <hyperlink ref="C81" r:id="rId87" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C32" r:id="rId88" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
-    <hyperlink ref="C56" r:id="rId89" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D50" r:id="rId90" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D51" r:id="rId91" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C50" r:id="rId92" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C40" r:id="rId93" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C46" r:id="rId94" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C21" r:id="rId95" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C11" r:id="rId96" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C63" r:id="rId97" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="C13" r:id="rId98" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
-    <hyperlink ref="D13" r:id="rId99" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C12" r:id="rId100" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D12" r:id="rId101" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
-    <hyperlink ref="D47" r:id="rId102" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C41" r:id="rId103" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C38" r:id="rId104" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C44" r:id="rId105" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="C29" r:id="rId88" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
+    <hyperlink ref="C54" r:id="rId89" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D47" r:id="rId90" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D48" r:id="rId91" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C47" r:id="rId92" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C37" r:id="rId93" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C43" r:id="rId94" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C19" r:id="rId95" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C10" r:id="rId96" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="C61" r:id="rId97" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
+    <hyperlink ref="C51" r:id="rId98" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
+    <hyperlink ref="D51" r:id="rId99" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C11" r:id="rId100" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="D11" r:id="rId101" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
+    <hyperlink ref="D44" r:id="rId102" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C38" r:id="rId103" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C35" r:id="rId104" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C41" r:id="rId105" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
     <hyperlink ref="D67" r:id="rId106" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
     <hyperlink ref="C67" r:id="rId107" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
     <hyperlink ref="C65" r:id="rId108" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
-    <hyperlink ref="C15" r:id="rId109" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
+    <hyperlink ref="C13" r:id="rId109" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId110"/>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEAB4F6-4FF1-4DA7-8541-45A3A00EF9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB2EFCC-6B35-4DFF-9EE0-143C5C63AD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -890,9 +889,6 @@
     <t>https://www.ofgem.gov.uk/sites/default/files/2022-02/Default_tarif_cap_level_v1.10.xlsx</t>
   </si>
   <si>
-    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx</t>
-  </si>
-  <si>
     <t>https://www.gov.scot/collections/economy-statistics/#quarterlygrossdomesticproduct(gdp)</t>
   </si>
   <si>
@@ -942,6 +938,9 @@
   </si>
   <si>
     <t>https://www.gov.uk/government/statistics/renewable-fuel-statistics-2021-fourth-provisional-report</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/07/gdp-quarterly-national-accounts-2022-q1/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BGDP%2BQNA%2B2022%2BQ1%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1600,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1887,10 +1886,10 @@
         <v>209</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E11" s="31">
         <v>44593</v>
@@ -1939,7 +1938,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>141</v>
@@ -1985,180 +1984,184 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="31">
+        <v>70</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="23">
+        <v>44713</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="23">
+        <f>DATE(YEAR(E15),MONTH(E15)+1,DAY(E15))</f>
         <v>44743</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="23">
-        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
-        <v>44835</v>
-      </c>
       <c r="H15" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="31">
+        <v>28</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" s="23">
+        <v>44713</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="23">
+        <f>DATE(YEAR(E16),MONTH(E16)+1,DAY(E16))</f>
         <v>44743</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="23">
-        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
-        <v>44835</v>
-      </c>
       <c r="H16" s="21" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>170</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="26"/>
       <c r="E17" s="23">
-        <v>44713</v>
+        <v>44652</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="23">
-        <f>DATE(YEAR(E17),MONTH(E17)+1,DAY(E17))</f>
+        <v>155</v>
+      </c>
+      <c r="G17" s="31">
+        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
         <v>44743</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>217</v>
+      <c r="H17" s="29" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="E18" s="23">
-        <v>44713</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="23">
-        <f>DATE(YEAR(E18),MONTH(E18)+1,DAY(E18))</f>
+      <c r="A18" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="31">
+        <v>44378</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="31">
+        <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
         <v>44743</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>137</v>
+        <v>13</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="E19" s="23">
-        <v>44774</v>
+        <v>44378</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="23">
-        <f>DATE(YEAR(E19),MONTH(E19)+1,DAY(E19))</f>
-        <v>44805</v>
-      </c>
-      <c r="H19" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="31">
+        <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
+        <v>44743</v>
+      </c>
+      <c r="H19" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="26"/>
+        <v>242</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>133</v>
+      </c>
       <c r="E20" s="23">
-        <v>44652</v>
+        <v>44378</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="31">
-        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
+        <v>156</v>
+      </c>
+      <c r="G20" s="23">
+        <f>DATE(YEAR(E20)+1,MONTH(E20),DAY(E20))</f>
         <v>44743</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>240</v>
+        <v>17</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="23">
         <v>44378</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="23">
         <f>DATE(YEAR(E21)+1,MONTH(E21),DAY(E21))</f>
         <v>44743</v>
       </c>
@@ -2167,22 +2170,22 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>241</v>
+      <c r="A22" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>231</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="23">
+        <v>232</v>
+      </c>
+      <c r="E22" s="31">
         <v>44378</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G22" s="31">
@@ -2195,259 +2198,259 @@
     </row>
     <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>133</v>
+        <v>206</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>272</v>
       </c>
       <c r="E23" s="23">
-        <v>44378</v>
+        <v>44652</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G23" s="23">
-        <f>DATE(YEAR(E23)+1,MONTH(E23),DAY(E23))</f>
-        <v>44743</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>216</v>
+        <f>DATE(YEAR(E23),MONTH(E23)+4,DAY(E23))</f>
+        <v>44774</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>17</v>
+      <c r="A24" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="E24" s="23">
-        <v>44378</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="23">
+        <v>44409</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="31">
         <f>DATE(YEAR(E24)+1,MONTH(E24),DAY(E24))</f>
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="E25" s="31">
-        <v>44378</v>
+        <v>198</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="23">
+        <v>44593</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="31">
-        <f>DATE(YEAR(E25)+1,MONTH(E25),DAY(E25))</f>
-        <v>44743</v>
+        <v>271</v>
+      </c>
+      <c r="G25" s="23">
+        <f>DATE(YEAR(E25),MONTH(E25)+6,DAY(E25))</f>
+        <v>44774</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>272</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>137</v>
       </c>
       <c r="E26" s="23">
-        <v>44652</v>
+        <v>44774</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G26" s="23">
-        <f>DATE(YEAR(E26),MONTH(E26)+4,DAY(E26))</f>
-        <v>44774</v>
+        <f>DATE(YEAR(E26),MONTH(E26)+1,DAY(E26))</f>
+        <v>44805</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>97</v>
+      <c r="A27" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" s="23">
-        <v>44409</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G27" s="31">
+        <v>263</v>
+      </c>
+      <c r="E27" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="23">
         <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>285</v>
+        <v>196</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>247</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="E28" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>271</v>
+        <v>193</v>
+      </c>
+      <c r="E28" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>156</v>
       </c>
       <c r="G28" s="23">
-        <f>DATE(YEAR(E28),MONTH(E28)+6,DAY(E28))</f>
-        <v>44774</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>221</v>
+        <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
+        <v>44805</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>263</v>
+        <v>194</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>193</v>
       </c>
       <c r="E29" s="31">
         <v>44440</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G29" s="23">
         <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
         <v>44805</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="21" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>193</v>
+        <v>56</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="E30" s="31">
         <v>44440</v>
       </c>
-      <c r="F30" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="23">
+      <c r="F30" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="31">
         <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
         <v>44805</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>193</v>
+        <v>58</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="E31" s="31">
         <v>44440</v>
       </c>
-      <c r="F31" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G31" s="23">
+      <c r="F31" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="31">
         <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
         <v>44805</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>243</v>
+        <v>32</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="E32" s="31">
         <v>44440</v>
@@ -2464,57 +2467,53 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>58</v>
+      <c r="A33" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>144</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D33" s="26"/>
       <c r="E33" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" s="31">
-        <f>DATE(YEAR(E33)+1,MONTH(E33),DAY(E33))</f>
-        <v>44805</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>216</v>
+        <v>44743</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="23">
+        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
+        <v>44835</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>298</v>
-      </c>
+      <c r="A34" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="26"/>
       <c r="E34" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G34" s="31">
-        <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
-        <v>44805</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>216</v>
+        <v>44743</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="23">
+        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
+        <v>44835</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2714,7 +2713,7 @@
         <v>127</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>169</v>
@@ -2903,7 +2902,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>139</v>
@@ -2930,7 +2929,7 @@
         <v>50</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>140</v>
@@ -2957,10 +2956,10 @@
         <v>117</v>
       </c>
       <c r="C51" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="D51" s="43" t="s">
         <v>286</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>287</v>
       </c>
       <c r="E51" s="23">
         <v>44774</v>
@@ -3335,10 +3334,10 @@
         <v>101</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E65" s="31">
         <v>44713</v>
@@ -3362,10 +3361,10 @@
         <v>103</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E66" s="31">
         <v>44713</v>
@@ -3389,10 +3388,10 @@
         <v>230</v>
       </c>
       <c r="C67" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D67" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E67" s="31">
         <v>44713</v>
@@ -3732,7 +3731,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>148</v>
@@ -3814,9 +3813,9 @@
   <hyperlinks>
     <hyperlink ref="D60" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="C59" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C33" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C34" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="C12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C70" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="C8" r:id="rId8" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
@@ -3825,17 +3824,17 @@
     <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="D45" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="D46" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D10:D12" r:id="rId16" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="D41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="D54" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="D49" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
     <hyperlink ref="D50" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="D57" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D32" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D33" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D30" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D31" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="D58" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="D52" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="D35" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
@@ -3848,16 +3847,16 @@
     <hyperlink ref="D39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="D55" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D27" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D24" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D77" r:id="rId38" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D69" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C69" r:id="rId40" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D20" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D21" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
     <hyperlink ref="C46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D19" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D26" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
     <hyperlink ref="D42" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D17" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D15" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C60" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
     <hyperlink ref="D59" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="D64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
@@ -3873,59 +3872,58 @@
     <hyperlink ref="D72" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="C72" r:id="rId60" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
     <hyperlink ref="C77" r:id="rId61" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D31" r:id="rId62" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D30" r:id="rId63" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D28" r:id="rId64" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="D29" r:id="rId62" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D28" r:id="rId63" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="D25" r:id="rId64" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C78" r:id="rId65" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C21" r:id="rId66" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="C18" r:id="rId66" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
     <hyperlink ref="D38" r:id="rId67" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
     <hyperlink ref="D40" r:id="rId68" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
     <hyperlink ref="C63" r:id="rId69" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
     <hyperlink ref="D13" r:id="rId70" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
     <hyperlink ref="C5" r:id="rId71" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
-    <hyperlink ref="C33" r:id="rId72" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D18" r:id="rId73" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="C31" r:id="rId72" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
+    <hyperlink ref="D16" r:id="rId73" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C83" r:id="rId74" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
     <hyperlink ref="D56" r:id="rId75" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
     <hyperlink ref="C45" r:id="rId76" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
     <hyperlink ref="C55" r:id="rId77" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
     <hyperlink ref="D53" r:id="rId78" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId79" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D26" r:id="rId80" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
-    <hyperlink ref="C27" r:id="rId81" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
+    <hyperlink ref="D23" r:id="rId80" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="C24" r:id="rId81" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
     <hyperlink ref="D78" r:id="rId82" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
     <hyperlink ref="D3" r:id="rId83" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
     <hyperlink ref="C3" r:id="rId84" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
     <hyperlink ref="D80" r:id="rId85" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
     <hyperlink ref="D83" r:id="rId86" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
     <hyperlink ref="C81" r:id="rId87" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C29" r:id="rId88" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
+    <hyperlink ref="C27" r:id="rId88" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
     <hyperlink ref="C54" r:id="rId89" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
     <hyperlink ref="D47" r:id="rId90" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
     <hyperlink ref="D48" r:id="rId91" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
     <hyperlink ref="C47" r:id="rId92" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
     <hyperlink ref="C37" r:id="rId93" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
     <hyperlink ref="C43" r:id="rId94" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C19" r:id="rId95" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C26" r:id="rId95" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
     <hyperlink ref="C10" r:id="rId96" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
     <hyperlink ref="C61" r:id="rId97" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="C51" r:id="rId98" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/02/gdp-quarterly-national-accounts-2021-q3/documents/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/gdp-quarterly-national-accounts-2021-q3---other-summary-tables/govscot%3Adocument/%25282%2529%2B-%2BQNAS%2B2021%2BQ3%2B-%2BOther%2BSummary%2BTables.xlsx" xr:uid="{759662E4-5376-4914-8A28-3408811A385D}"/>
-    <hyperlink ref="D51" r:id="rId99" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C11" r:id="rId100" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D11" r:id="rId101" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
-    <hyperlink ref="D44" r:id="rId102" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C38" r:id="rId103" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C35" r:id="rId104" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C41" r:id="rId105" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
-    <hyperlink ref="D67" r:id="rId106" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
-    <hyperlink ref="C67" r:id="rId107" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
-    <hyperlink ref="C65" r:id="rId108" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
-    <hyperlink ref="C13" r:id="rId109" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
+    <hyperlink ref="D51" r:id="rId98" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C11" r:id="rId99" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="D11" r:id="rId100" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
+    <hyperlink ref="D44" r:id="rId101" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C38" r:id="rId102" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C35" r:id="rId103" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C41" r:id="rId104" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="D67" r:id="rId105" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
+    <hyperlink ref="C67" r:id="rId106" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
+    <hyperlink ref="C65" r:id="rId107" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
+    <hyperlink ref="C13" r:id="rId108" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId110"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId109"/>
   <tableParts count="1">
-    <tablePart r:id="rId111"/>
+    <tablePart r:id="rId110"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB2EFCC-6B35-4DFF-9EE0-143C5C63AD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922954B1-BE6B-4814-9DB8-AD2E5E2A52C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -760,9 +760,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1006586/DUKES_2021_Chapter_2_Solid_fuels_and_derived_gases.pdf</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1021851/subnational_total_final_energy_consumption_2019.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1021610/residual_fuels_2005-19.xlsx</t>
   </si>
   <si>
@@ -772,9 +769,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1022006/table_252.xlsx</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1021775/Renewable_electricity_by_local_authority_2014_to_2020.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1021007/veh0104.ods</t>
   </si>
   <si>
@@ -941,6 +935,12 @@
   </si>
   <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/07/gdp-quarterly-national-accounts-2022-q1/documents/other-quarterly-national-accounts-summary-tables/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BGDP%2BQNA%2B2022%2BQ1%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1107328/Renewable_electricity_by_local_authority_2014_-_2021.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1106843/subnational_total_final_energy_consumption_2020.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1115,10 +1115,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1599,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1828,11 +1828,11 @@
       <c r="A9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="51" t="s">
         <v>176</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>147</v>
@@ -1843,7 +1843,7 @@
       <c r="F9" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="31">
         <f>DATE(YEAR(E9),MONTH(E9)+3,DAY(E9))</f>
         <v>44652</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="F10" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="31">
         <f>DATE(YEAR(E10),MONTH(E10)+3,DAY(E10))</f>
         <v>44652</v>
       </c>
@@ -1886,10 +1886,10 @@
         <v>209</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E11" s="31">
         <v>44593</v>
@@ -1938,7 +1938,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>141</v>
@@ -1990,7 +1990,7 @@
         <v>70</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>170</v>
@@ -2017,10 +2017,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E16" s="23">
         <v>44713</v>
@@ -2037,133 +2037,135 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="23">
+      <c r="A17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="31">
+        <v>44378</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="31">
+        <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
+        <v>44743</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="23">
         <v>44652</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F18" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G17" s="31">
-        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
-        <v>44743</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="31">
-        <v>44378</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="31">
-        <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
-        <v>44743</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>216</v>
+      <c r="G18" s="23">
+        <f>DATE(YEAR(E18),MONTH(E18)+4,DAY(E18))</f>
+        <v>44774</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="E19" s="23">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G19" s="31">
         <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>133</v>
+      <c r="A20" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>199</v>
       </c>
       <c r="E20" s="23">
-        <v>44378</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>156</v>
+        <v>44593</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>269</v>
       </c>
       <c r="G20" s="23">
-        <f>DATE(YEAR(E20)+1,MONTH(E20),DAY(E20))</f>
-        <v>44743</v>
+        <f>DATE(YEAR(E20),MONTH(E20)+6,DAY(E20))</f>
+        <v>44774</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="23">
-        <v>44378</v>
+        <v>261</v>
+      </c>
+      <c r="E21" s="31">
+        <v>44440</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G21" s="23">
         <f>DATE(YEAR(E21)+1,MONTH(E21),DAY(E21))</f>
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="H21" s="29" t="s">
         <v>216</v>
@@ -2171,134 +2173,134 @@
     </row>
     <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>232</v>
+        <v>194</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>193</v>
       </c>
       <c r="E22" s="31">
-        <v>44378</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="23">
         <f>DATE(YEAR(E22)+1,MONTH(E22),DAY(E22))</f>
-        <v>44743</v>
-      </c>
-      <c r="H22" s="29" t="s">
+        <v>44805</v>
+      </c>
+      <c r="H22" s="21" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="E23" s="23">
-        <v>44652</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="23">
-        <f>DATE(YEAR(E23),MONTH(E23)+4,DAY(E23))</f>
-        <v>44774</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>221</v>
+      <c r="A23" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="31">
+        <f>DATE(YEAR(E23)+1,MONTH(E23),DAY(E23))</f>
+        <v>44805</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>97</v>
+      <c r="A24" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E24" s="23">
-        <v>44409</v>
-      </c>
-      <c r="F24" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E24" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F24" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G24" s="31">
         <f>DATE(YEAR(E24)+1,MONTH(E24),DAY(E24))</f>
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>199</v>
+      <c r="A25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>137</v>
       </c>
       <c r="E25" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>271</v>
+        <v>44805</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="G25" s="23">
-        <f>DATE(YEAR(E25),MONTH(E25)+6,DAY(E25))</f>
-        <v>44774</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>221</v>
+        <f>DATE(YEAR(E25),MONTH(E25)+1,DAY(E25))</f>
+        <v>44835</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="23">
-        <v>44774</v>
+        <v>66</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="4">
+        <v>44743</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G26" s="23">
-        <f>DATE(YEAR(E26),MONTH(E26)+1,DAY(E26))</f>
-        <v>44805</v>
+        <f t="shared" ref="G26:G33" si="0">DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <v>44835</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>216</v>
@@ -2306,26 +2308,26 @@
     </row>
     <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="E27" s="31">
-        <v>44440</v>
+        <v>44743</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G27" s="23">
-        <f>DATE(YEAR(E27)+1,MONTH(E27),DAY(E27))</f>
-        <v>44805</v>
+        <f t="shared" si="0"/>
+        <v>44835</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>216</v>
@@ -2333,373 +2335,377 @@
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>193</v>
+        <v>46</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="E28" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G28" s="23">
-        <f>DATE(YEAR(E28)+1,MONTH(E28),DAY(E28))</f>
+        <v>44743</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="31">
+        <f t="shared" si="0"/>
+        <v>44835</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="31">
         <v>44805</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="F29" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="31">
+        <f t="shared" si="0"/>
+        <v>44896</v>
+      </c>
+      <c r="H29" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G29" s="23">
-        <f>DATE(YEAR(E29)+1,MONTH(E29),DAY(E29))</f>
-        <v>44805</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>216</v>
-      </c>
-    </row>
     <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>143</v>
+      <c r="A30" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="E30" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>156</v>
+        <v>44743</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="G30" s="31">
-        <f>DATE(YEAR(E30)+1,MONTH(E30),DAY(E30))</f>
-        <v>44805</v>
+        <f t="shared" si="0"/>
+        <v>44835</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E31" s="31">
-        <v>44440</v>
+        <v>44835</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G31" s="31">
-        <f>DATE(YEAR(E31)+1,MONTH(E31),DAY(E31))</f>
-        <v>44805</v>
+        <f t="shared" si="0"/>
+        <v>44927</v>
       </c>
       <c r="H31" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>298</v>
+      <c r="A32" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>294</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="E32" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G32" s="31">
-        <f>DATE(YEAR(E32)+1,MONTH(E32),DAY(E32))</f>
-        <v>44805</v>
+        <v>140</v>
+      </c>
+      <c r="E32" s="23">
+        <v>44835</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" s="23">
+        <f t="shared" si="0"/>
+        <v>44927</v>
       </c>
       <c r="H32" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="31">
-        <v>44743</v>
-      </c>
-      <c r="F33" s="24" t="s">
+      <c r="A33" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="E33" s="23">
+        <v>44835</v>
+      </c>
+      <c r="F33" s="42" t="s">
         <v>155</v>
       </c>
       <c r="G33" s="23">
-        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
-        <v>44835</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>220</v>
+        <f t="shared" si="0"/>
+        <v>44927</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="26"/>
+      <c r="A34" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>146</v>
+      </c>
       <c r="E34" s="31">
-        <v>44743</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="23">
-        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
-        <v>44835</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>220</v>
+        <v>44866</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" s="31">
+        <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
+        <v>45231</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>268</v>
+      <c r="A35" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>247</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="4">
-        <v>44743</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G35" s="23">
-        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
-        <v>44835</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>216</v>
+        <v>247</v>
+      </c>
+      <c r="E35" s="31">
+        <v>44501</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" s="31">
+        <f>DATE(YEAR(E35)+1,MONTH(E35),DAY(E35))</f>
+        <v>44866</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>66</v>
+      <c r="A36" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>132</v>
       </c>
       <c r="E36" s="4">
-        <v>44743</v>
-      </c>
-      <c r="F36" s="24" t="s">
+        <v>44805</v>
+      </c>
+      <c r="F36" s="42" t="s">
         <v>155</v>
       </c>
       <c r="G36" s="23">
-        <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
-        <v>44835</v>
-      </c>
-      <c r="H36" s="21" t="s">
+        <f t="shared" ref="G36:G47" si="1">DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
+        <v>44896</v>
+      </c>
+      <c r="H36" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>40</v>
+      <c r="A37" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>277</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="4">
-        <v>44743</v>
-      </c>
-      <c r="F37" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="47">
+        <v>44805</v>
+      </c>
+      <c r="F37" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="23">
-        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
-        <v>44835</v>
-      </c>
-      <c r="H37" s="21" t="s">
+      <c r="G37" s="31">
+        <f t="shared" si="1"/>
+        <v>44896</v>
+      </c>
+      <c r="H37" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="D38" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D38" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="4">
-        <v>44743</v>
+      <c r="E38" s="31">
+        <v>44805</v>
       </c>
       <c r="F38" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G38" s="23">
-        <f>DATE(YEAR(E38),MONTH(E38)+3,DAY(E38))</f>
-        <v>44835</v>
-      </c>
-      <c r="H38" s="21" t="s">
+      <c r="G38" s="31">
+        <f t="shared" si="1"/>
+        <v>44896</v>
+      </c>
+      <c r="H38" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>154</v>
+        <v>280</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="E39" s="31">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G39" s="23">
-        <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
-        <v>44835</v>
+      <c r="G39" s="31">
+        <f t="shared" si="1"/>
+        <v>44896</v>
       </c>
       <c r="H39" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>46</v>
+      <c r="A40" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="31">
-        <v>44743</v>
-      </c>
-      <c r="F40" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="4">
+        <v>44805</v>
+      </c>
+      <c r="F40" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G40" s="31">
-        <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
-        <v>44835</v>
+        <f t="shared" si="1"/>
+        <v>44896</v>
       </c>
       <c r="H40" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="40" t="s">
+      <c r="A41" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="22" t="s">
         <v>260</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="31">
-        <v>44743</v>
-      </c>
-      <c r="F41" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="4">
+        <v>44805</v>
+      </c>
+      <c r="F41" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="31">
-        <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
-        <v>44835</v>
+      <c r="G41" s="23">
+        <f t="shared" si="1"/>
+        <v>44896</v>
       </c>
       <c r="H41" s="29" t="s">
         <v>216</v>
@@ -2707,53 +2713,53 @@
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E42" s="31">
-        <v>44743</v>
+        <v>40</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="4">
+        <v>44805</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="31">
-        <f>DATE(YEAR(E42),MONTH(E42)+3,DAY(E42))</f>
-        <v>44835</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>218</v>
+      <c r="G42" s="23">
+        <f t="shared" si="1"/>
+        <v>44896</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="B43" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="D43" s="52" t="s">
+      <c r="C43" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="28">
-        <v>44743</v>
+      <c r="E43" s="52">
+        <v>44805</v>
       </c>
       <c r="F43" s="35" t="s">
         <v>155</v>
       </c>
       <c r="G43" s="28">
-        <f>DATE(YEAR(E43),MONTH(E43)+3,DAY(E43))</f>
-        <v>44835</v>
+        <f t="shared" si="1"/>
+        <v>44896</v>
       </c>
       <c r="H43" s="27" t="s">
         <v>216</v>
@@ -2761,80 +2767,76 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>138</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="26"/>
       <c r="E44" s="31">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="F44" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G44" s="28">
-        <f>DATE(YEAR(E44),MONTH(E44)+3,DAY(E44))</f>
-        <v>44835</v>
+        <f t="shared" si="1"/>
+        <v>44896</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="4">
-        <v>44743</v>
+        <v>90</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="31">
+        <v>44805</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G45" s="23">
-        <f>DATE(YEAR(E45),MONTH(E45)+3,DAY(E45))</f>
-        <v>44835</v>
+        <f t="shared" si="1"/>
+        <v>44896</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>262</v>
+        <v>64</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>266</v>
       </c>
       <c r="D46" s="34" t="s">
         <v>132</v>
       </c>
       <c r="E46" s="4">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="F46" s="35" t="s">
         <v>155</v>
       </c>
       <c r="G46" s="23">
-        <f>DATE(YEAR(E46),MONTH(E46)+3,DAY(E46))</f>
-        <v>44835</v>
+        <f t="shared" si="1"/>
+        <v>44896</v>
       </c>
       <c r="H46" s="27" t="s">
         <v>216</v>
@@ -2842,53 +2844,51 @@
     </row>
     <row r="47" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
-        <v>276</v>
+        <v>83</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="4">
-        <v>44743</v>
+        <v>84</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="23">
+        <v>44805</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G47" s="23">
-        <f>DATE(YEAR(E47),MONTH(E47)+3,DAY(E47))</f>
-        <v>44835</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>216</v>
+      <c r="G47" s="31">
+        <f t="shared" si="1"/>
+        <v>44896</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>279</v>
+      <c r="A48" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" s="4">
-        <v>44743</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>155</v>
+        <v>136</v>
+      </c>
+      <c r="E48" s="31">
+        <v>44531</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="G48" s="23">
-        <f>DATE(YEAR(E48),MONTH(E48)+3,DAY(E48))</f>
-        <v>44835</v>
+        <f t="shared" ref="G48:G53" si="2">DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
+        <v>44896</v>
       </c>
       <c r="H48" s="21" t="s">
         <v>216</v>
@@ -2896,107 +2896,107 @@
     </row>
     <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E49" s="31">
-        <v>44743</v>
+        <v>44531</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G49" s="31">
-        <f>DATE(YEAR(E49),MONTH(E49)+3,DAY(E49))</f>
-        <v>44835</v>
+        <f t="shared" si="2"/>
+        <v>44896</v>
       </c>
       <c r="H49" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>296</v>
+      <c r="A50" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>256</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" s="23">
-        <v>44743</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G50" s="23">
-        <f>DATE(YEAR(E50),MONTH(E50)+3,DAY(E50))</f>
-        <v>44835</v>
+        <v>145</v>
+      </c>
+      <c r="E50" s="31">
+        <v>44531</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" s="31">
+        <f t="shared" si="2"/>
+        <v>44896</v>
       </c>
       <c r="H50" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="E51" s="23">
-        <v>44774</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>155</v>
+      <c r="A51" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="31">
+        <v>44531</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="G51" s="23">
-        <f>DATE(YEAR(E51),MONTH(E51)+3,DAY(E51))</f>
-        <v>44866</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>219</v>
+        <f t="shared" si="2"/>
+        <v>44896</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>251</v>
+        <v>60</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>256</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E52" s="31">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="F52" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G52" s="31">
-        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
-        <v>44866</v>
+      <c r="G52" s="23">
+        <f t="shared" si="2"/>
+        <v>44896</v>
       </c>
       <c r="H52" s="29" t="s">
         <v>216</v>
@@ -3004,26 +3004,26 @@
     </row>
     <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>249</v>
+        <v>80</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="E53" s="23">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="F53" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="31">
-        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
-        <v>44866</v>
+      <c r="G53" s="23">
+        <f t="shared" si="2"/>
+        <v>44927</v>
       </c>
       <c r="H53" s="29" t="s">
         <v>217</v>
@@ -3031,53 +3031,53 @@
     </row>
     <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="31">
-        <v>44531</v>
+        <v>72</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="23">
+        <v>44562</v>
       </c>
       <c r="F54" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G54" s="23">
-        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
-        <v>44896</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>216</v>
+        <f>DATE(YEAR(E54),MONTH(E54)+12,DAY(E54))</f>
+        <v>44927</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>134</v>
+        <v>180</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="E55" s="23">
-        <v>44531</v>
-      </c>
-      <c r="F55" s="24" t="s">
+        <v>44593</v>
+      </c>
+      <c r="F55" s="21" t="s">
         <v>156</v>
       </c>
       <c r="G55" s="23">
-        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
-        <v>44896</v>
+        <f t="shared" ref="G55:G67" si="3">DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <v>44958</v>
       </c>
       <c r="H55" s="21" t="s">
         <v>216</v>
@@ -3085,323 +3085,323 @@
     </row>
     <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>145</v>
+        <v>226</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>150</v>
       </c>
       <c r="E56" s="31">
-        <v>44531</v>
-      </c>
-      <c r="F56" s="42" t="s">
+        <v>44652</v>
+      </c>
+      <c r="F56" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G56" s="23">
-        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
-        <v>44896</v>
+        <f t="shared" si="3"/>
+        <v>45017</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>257</v>
+        <v>105</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>223</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E57" s="31">
-        <v>44531</v>
+        <v>44652</v>
       </c>
       <c r="F57" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G57" s="23">
-        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
-        <v>44896</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>216</v>
+      <c r="G57" s="31">
+        <f t="shared" si="3"/>
+        <v>45017</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="49" t="s">
-        <v>258</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>145</v>
+        <v>92</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>173</v>
       </c>
       <c r="E58" s="28">
-        <v>44531</v>
+        <v>44713</v>
       </c>
       <c r="F58" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="G58" s="23">
-        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
-        <v>44896</v>
-      </c>
-      <c r="H58" s="21" t="s">
+      <c r="G58" s="31">
+        <f t="shared" si="3"/>
+        <v>45078</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E59" s="31">
+        <v>44713</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="31">
+        <f t="shared" si="3"/>
+        <v>45078</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E60" s="31">
+        <v>44713</v>
+      </c>
+      <c r="F60" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="31">
+        <f t="shared" si="3"/>
+        <v>45078</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="E61" s="31">
+        <v>44713</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="31">
+        <f t="shared" si="3"/>
+        <v>45078</v>
+      </c>
+      <c r="H61" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" s="23">
-        <v>44562</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G59" s="23">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
-        <v>44927</v>
-      </c>
-      <c r="H59" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" s="23">
-        <v>44562</v>
-      </c>
-      <c r="F60" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G60" s="23">
-        <f>DATE(YEAR(E60),MONTH(E60)+12,DAY(E60))</f>
-        <v>44927</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E61" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G61" s="23">
-        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
-        <v>44958</v>
-      </c>
-      <c r="H61" s="21" t="s">
+    <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E62" s="31">
+        <v>44743</v>
+      </c>
+      <c r="F62" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="31">
+        <f t="shared" si="3"/>
+        <v>45108</v>
+      </c>
+      <c r="H62" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E62" s="23">
-        <v>44652</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G62" s="23">
-        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
-        <v>45017</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>219</v>
-      </c>
-    </row>
     <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>105</v>
+      <c r="A63" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E63" s="31">
-        <v>44652</v>
-      </c>
-      <c r="F63" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="23">
+        <v>44743</v>
+      </c>
+      <c r="F63" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G63" s="31">
-        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
-        <v>45017</v>
+        <f t="shared" si="3"/>
+        <v>45108</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>173</v>
+        <v>15</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="E64" s="31">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="F64" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G64" s="31">
-        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
-        <v>45078</v>
+      <c r="G64" s="23">
+        <f t="shared" si="3"/>
+        <v>45108</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="29" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>294</v>
+        <v>17</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="E65" s="31">
-        <v>44713</v>
+        <v>133</v>
+      </c>
+      <c r="E65" s="23">
+        <v>44743</v>
       </c>
       <c r="F65" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G65" s="31">
-        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
-        <v>45078</v>
+      <c r="G65" s="23">
+        <f t="shared" si="3"/>
+        <v>45108</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>293</v>
+        <v>196</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>193</v>
       </c>
       <c r="E66" s="31">
-        <v>44713</v>
-      </c>
-      <c r="F66" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G66" s="31">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
-        <v>45078</v>
-      </c>
-      <c r="H66" s="29" t="s">
-        <v>219</v>
+        <v>44805</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="23">
+        <f t="shared" si="3"/>
+        <v>45170</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="29" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="C67" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="D67" s="46" t="s">
-        <v>291</v>
+        <v>56</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="E67" s="31">
-        <v>44713</v>
-      </c>
-      <c r="F67" s="29" t="s">
+        <v>45170</v>
+      </c>
+      <c r="F67" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G67" s="31">
-        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
-        <v>45078</v>
+        <f t="shared" si="3"/>
+        <v>45536</v>
       </c>
       <c r="H67" s="29" t="s">
         <v>216</v>
@@ -3638,7 +3638,7 @@
         <v>203</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E78" s="10">
         <v>44044</v>
@@ -3707,10 +3707,10 @@
         <v>75</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E81" s="23">
         <v>44256</v>
@@ -3731,7 +3731,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>148</v>
@@ -3749,16 +3749,16 @@
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>254</v>
       </c>
       <c r="E83" s="10">
         <v>44256</v>
@@ -3766,7 +3766,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="10"/>
       <c r="H83" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -3811,113 +3811,113 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D60" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C59" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C33" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C34" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D54" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C53" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C47" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C44" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C45" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="C12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C70" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="C8" r:id="rId8" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C80" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D73" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D45" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D46" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D40" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D41" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D10:D12" r:id="rId16" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D54" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D49" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D50" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D57" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D30" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D31" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D58" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D52" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D35" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D62" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D48" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D51" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D67" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D23" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D52" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D34" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D46" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D26" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="D9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="D10" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D82" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D70" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="D8" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D55" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D24" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D27" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D49" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D42" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D19" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D77" r:id="rId38" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D69" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C69" r:id="rId40" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D20" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D21" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D26" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D42" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D64" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D65" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C41" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D30" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="D15" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C60" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D59" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C54" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D53" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
     <hyperlink ref="D7" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D63" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
     <hyperlink ref="D5" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C79" r:id="rId53" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C84" r:id="rId54" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D61" r:id="rId55" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="D55" r:id="rId55" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
     <hyperlink ref="C14" r:id="rId56" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D74" r:id="rId57" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C74" r:id="rId58" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
     <hyperlink ref="D72" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="C72" r:id="rId60" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
     <hyperlink ref="C77" r:id="rId61" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D29" r:id="rId62" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D28" r:id="rId63" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D25" r:id="rId64" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="D22" r:id="rId62" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D66" r:id="rId63" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="D20" r:id="rId64" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C78" r:id="rId65" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C18" r:id="rId66" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D38" r:id="rId67" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D40" r:id="rId68" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C63" r:id="rId69" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
+    <hyperlink ref="C17" r:id="rId66" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="D43" r:id="rId67" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D28" r:id="rId68" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="C57" r:id="rId69" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
     <hyperlink ref="D13" r:id="rId70" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
     <hyperlink ref="C5" r:id="rId71" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
-    <hyperlink ref="C31" r:id="rId72" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
+    <hyperlink ref="C23" r:id="rId72" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
     <hyperlink ref="D16" r:id="rId73" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C83" r:id="rId74" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="D56" r:id="rId75" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C45" r:id="rId76" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="C55" r:id="rId77" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
-    <hyperlink ref="D53" r:id="rId78" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
+    <hyperlink ref="D50" r:id="rId75" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
+    <hyperlink ref="C40" r:id="rId76" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C49" r:id="rId77" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
+    <hyperlink ref="D35" r:id="rId78" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId79" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D23" r:id="rId80" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
-    <hyperlink ref="C24" r:id="rId81" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
+    <hyperlink ref="D18" r:id="rId80" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="C19" r:id="rId81" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
     <hyperlink ref="D78" r:id="rId82" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
     <hyperlink ref="D3" r:id="rId83" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
     <hyperlink ref="C3" r:id="rId84" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
     <hyperlink ref="D80" r:id="rId85" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
     <hyperlink ref="D83" r:id="rId86" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
     <hyperlink ref="C81" r:id="rId87" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C27" r:id="rId88" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
-    <hyperlink ref="C54" r:id="rId89" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D47" r:id="rId90" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D48" r:id="rId91" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C47" r:id="rId92" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C37" r:id="rId93" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C43" r:id="rId94" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C26" r:id="rId95" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C21" r:id="rId88" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
+    <hyperlink ref="C48" r:id="rId89" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D36" r:id="rId90" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D37" r:id="rId91" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C36" r:id="rId92" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C42" r:id="rId93" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C38" r:id="rId94" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C25" r:id="rId95" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
     <hyperlink ref="C10" r:id="rId96" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C61" r:id="rId97" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="D51" r:id="rId98" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C55" r:id="rId97" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
+    <hyperlink ref="D33" r:id="rId98" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
     <hyperlink ref="C11" r:id="rId99" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
     <hyperlink ref="D11" r:id="rId100" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
-    <hyperlink ref="D44" r:id="rId101" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C38" r:id="rId102" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C35" r:id="rId103" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C41" r:id="rId104" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
-    <hyperlink ref="D67" r:id="rId105" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
-    <hyperlink ref="C67" r:id="rId106" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
-    <hyperlink ref="C65" r:id="rId107" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
+    <hyperlink ref="D39" r:id="rId101" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C43" r:id="rId102" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C46" r:id="rId103" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C29" r:id="rId104" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="D61" r:id="rId105" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
+    <hyperlink ref="C61" r:id="rId106" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
+    <hyperlink ref="C59" r:id="rId107" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
     <hyperlink ref="C13" r:id="rId108" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922954B1-BE6B-4814-9DB8-AD2E5E2A52C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E95E7E9-58DD-415A-9407-6E5EDDEA0CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1599,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2212,14 +2212,14 @@
         <v>144</v>
       </c>
       <c r="E23" s="31">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G23" s="31">
         <f>DATE(YEAR(E23)+1,MONTH(E23),DAY(E23))</f>
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="H23" s="29" t="s">
         <v>216</v>
@@ -2239,14 +2239,14 @@
         <v>295</v>
       </c>
       <c r="E24" s="31">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G24" s="31">
         <f>DATE(YEAR(E24)+1,MONTH(E24),DAY(E24))</f>
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="H24" s="29" t="s">
         <v>216</v>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E95E7E9-58DD-415A-9407-6E5EDDEA0CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF90A677-FF11-4F7F-9BB6-CBF8C87E3B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,9 +763,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1021610/residual_fuels_2005-19.xlsx</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1021742/CHP_in_the_regions_2020_-_data_tables.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1022006/table_252.xlsx</t>
   </si>
   <si>
@@ -814,9 +811,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043386/table_232.xlsx</t>
   </si>
   <si>
-    <t>https://www.gov.uk/government/statistics/energy-trends-september-2021-special-feature-article-combined-heat-and-power-in-the-regions</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043485/subnational_estimates_of_properties_not_connected_to_the_gas_network_2015-2020.xlsx</t>
   </si>
   <si>
@@ -880,24 +874,12 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043397/table_252.xlsx</t>
   </si>
   <si>
-    <t>https://www.ofgem.gov.uk/sites/default/files/2022-02/Default_tarif_cap_level_v1.10.xlsx</t>
-  </si>
-  <si>
     <t>https://www.gov.scot/collections/economy-statistics/#quarterlygrossdomesticproduct(gdp)</t>
   </si>
   <si>
-    <t>https://www.gov.uk/government/statistics/electric-vehicle-charging-device-statistics-january-2022</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1048354/electric-vehicle-charging-device-statistics-january-2022.ods</t>
   </si>
   <si>
-    <t>https://www.electralink.co.uk/2022/06/may-smart-installs-increase-11pc/</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/statistics/household-energy-efficiency-statistics-headline-release-june-2022</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/statistics/final-uk-greenhouse-gas-emissions-national-statistics-1990-to-2020</t>
   </si>
   <si>
@@ -941,6 +923,24 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1106843/subnational_total_final_energy_consumption_2020.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/electric-vehicle-charging-device-statistics-july-2022</t>
+  </si>
+  <si>
+    <t>https://www.electralink.co.uk/2022/10/smart-meters-19mn-installations/</t>
+  </si>
+  <si>
+    <t>https://www.ofgem.gov.uk/sites/default/files/2022-08/Default_tariff_cap_level_v1.13.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1107320/Combined_Heat_and_Power_in_the_regions_2021_-_data_tables.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/energy-trends-september-2022-special-feature-article-combined-heat-and-power-in-the-regions</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/household-energy-efficiency-statistics-headline-release-september-2022</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1115,10 +1115,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1599,22 +1598,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" customWidth="1"/>
-    <col min="3" max="3" width="74.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="3" max="3" width="74.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1639,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>175</v>
       </c>
@@ -1692,7 +1691,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>212</v>
       </c>
@@ -1719,7 +1718,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>112</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>162</v>
       </c>
@@ -1770,7 +1769,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>128</v>
       </c>
@@ -1797,7 +1796,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>109</v>
       </c>
@@ -1824,15 +1823,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="49" t="s">
         <v>176</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>147</v>
@@ -1851,7 +1850,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>68</v>
       </c>
@@ -1878,508 +1877,508 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>285</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="26"/>
       <c r="E11" s="31">
-        <v>44593</v>
+        <v>44348</v>
       </c>
       <c r="F11" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="31">
+        <f>DATE(YEAR(E11)+1,MONTH(E11),DAY(E11))</f>
+        <v>44713</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="23">
+        <v>44713</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="23">
+        <f>DATE(YEAR(E12),MONTH(E12)+1,DAY(E12))</f>
+        <v>44743</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="31">
+        <v>44378</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="31">
+        <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
+        <v>44743</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="23">
+        <v>44652</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="31">
-        <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
-        <v>44682</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="31">
-        <v>44348</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="31">
-        <f>DATE(YEAR(E12)+1,MONTH(E12),DAY(E12))</f>
-        <v>44713</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="23">
-        <v>44713</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="23">
-        <f>DATE(YEAR(E13),MONTH(E13)+1,DAY(E13))</f>
-        <v>44743</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="31">
-        <v>44652</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>155</v>
-      </c>
       <c r="G14" s="23">
-        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
-        <v>44743</v>
+        <f>DATE(YEAR(E14),MONTH(E14)+4,DAY(E14))</f>
+        <v>44774</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>170</v>
+        <v>97</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="E15" s="23">
-        <v>44713</v>
+        <v>44409</v>
       </c>
       <c r="F15" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="31">
+        <f>DATE(YEAR(E15)+1,MONTH(E15),DAY(E15))</f>
+        <v>44774</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" s="31">
+        <v>44805</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="23">
+        <f>DATE(YEAR(E16)+1,MONTH(E16),DAY(E16))</f>
+        <v>45170</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="31">
+        <v>44440</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="23">
+        <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
+        <v>44805</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" s="31">
+        <v>44743</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="31">
+        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
+        <v>44835</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="23">
+        <v>44805</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="G15" s="23">
-        <f>DATE(YEAR(E15),MONTH(E15)+1,DAY(E15))</f>
+      <c r="G19" s="23">
+        <f>DATE(YEAR(E19),MONTH(E19)+1,DAY(E19))</f>
+        <v>44835</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="4">
         <v>44743</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="E16" s="23">
-        <v>44713</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="23">
-        <f>DATE(YEAR(E16),MONTH(E16)+1,DAY(E16))</f>
-        <v>44743</v>
-      </c>
-      <c r="H16" s="21" t="s">
+      <c r="F20" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="23">
+        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
+        <v>44835</v>
+      </c>
+      <c r="H20" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="31">
-        <v>44378</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="31">
-        <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
-        <v>44743</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="E18" s="23">
-        <v>44652</v>
-      </c>
-      <c r="F18" s="24" t="s">
+    <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="31">
+        <v>44805</v>
+      </c>
+      <c r="F21" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="23">
-        <f>DATE(YEAR(E18),MONTH(E18)+4,DAY(E18))</f>
-        <v>44774</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="23">
-        <v>44409</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" s="31">
-        <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
-        <v>44774</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="E20" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="G20" s="23">
-        <f>DATE(YEAR(E20),MONTH(E20)+6,DAY(E20))</f>
-        <v>44774</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="E21" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>156</v>
-      </c>
       <c r="G21" s="23">
-        <f>DATE(YEAR(E21)+1,MONTH(E21),DAY(E21))</f>
-        <v>44805</v>
+        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
+        <v>44896</v>
       </c>
       <c r="H21" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>193</v>
+        <v>46</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="E22" s="31">
-        <v>44440</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="23">
-        <f>DATE(YEAR(E22)+1,MONTH(E22),DAY(E22))</f>
         <v>44805</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="F22" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="31">
+        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+        <v>44896</v>
+      </c>
+      <c r="H22" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>144</v>
+    <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="E23" s="31">
-        <v>44805</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>156</v>
+        <v>44743</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="G23" s="31">
-        <f>DATE(YEAR(E23)+1,MONTH(E23),DAY(E23))</f>
-        <v>45170</v>
+        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
+        <v>44835</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="E24" s="31">
-        <v>44805</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="31">
-        <f>DATE(YEAR(E24)+1,MONTH(E24),DAY(E24))</f>
-        <v>45170</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="23">
+        <v>44835</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="23">
+        <f>DATE(YEAR(E24),MONTH(E24)+1,DAY(E24))</f>
+        <v>44866</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="E25" s="23">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>157</v>
       </c>
       <c r="G25" s="23">
         <f>DATE(YEAR(E25),MONTH(E25)+1,DAY(E25))</f>
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>267</v>
+    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>246</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="4">
-        <v>44743</v>
-      </c>
-      <c r="F26" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" s="31">
+        <v>44501</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="31">
+        <f>DATE(YEAR(E26)+1,MONTH(E26),DAY(E26))</f>
+        <v>44866</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="31">
+        <v>44805</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="G26" s="23">
-        <f t="shared" ref="G26:G33" si="0">DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
-        <v>44835</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="31">
-        <v>44743</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>155</v>
-      </c>
       <c r="G27" s="23">
-        <f t="shared" si="0"/>
-        <v>44835</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>265</v>
+        <f t="shared" ref="G27:G40" si="0">DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
+        <v>44896</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>257</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E28" s="31">
-        <v>44743</v>
-      </c>
-      <c r="F28" s="42" t="s">
+        <v>44805</v>
+      </c>
+      <c r="F28" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G28" s="31">
         <f t="shared" si="0"/>
-        <v>44835</v>
+        <v>44896</v>
       </c>
       <c r="H28" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>258</v>
+    <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>273</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="31">
+        <v>132</v>
+      </c>
+      <c r="E29" s="4">
         <v>44805</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="23">
         <f t="shared" si="0"/>
         <v>44896</v>
       </c>
@@ -2387,1000 +2386,1000 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="31">
-        <v>44743</v>
-      </c>
-      <c r="F30" s="24" t="s">
+    <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="47">
+        <v>44805</v>
+      </c>
+      <c r="F30" s="42" t="s">
         <v>155</v>
       </c>
       <c r="G30" s="31">
         <f t="shared" si="0"/>
-        <v>44835</v>
+        <v>44896</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>139</v>
+        <v>279</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>138</v>
       </c>
       <c r="E31" s="31">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>155</v>
       </c>
       <c r="G31" s="31">
         <f t="shared" si="0"/>
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="H31" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="23">
-        <v>44835</v>
-      </c>
-      <c r="F32" s="24" t="s">
+    <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="31">
+        <v>44805</v>
+      </c>
+      <c r="F32" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="31">
         <f t="shared" si="0"/>
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="H32" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="E33" s="23">
-        <v>44835</v>
-      </c>
-      <c r="F33" s="42" t="s">
+    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="4">
+        <v>44805</v>
+      </c>
+      <c r="F33" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="31">
         <f t="shared" si="0"/>
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="31">
-        <v>44866</v>
+        <v>132</v>
+      </c>
+      <c r="E34" s="4">
+        <v>44805</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G34" s="31">
-        <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
-        <v>45231</v>
+        <v>155</v>
+      </c>
+      <c r="G34" s="23">
+        <f t="shared" si="0"/>
+        <v>44896</v>
       </c>
       <c r="H34" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>247</v>
+    <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>277</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="E35" s="31">
-        <v>44501</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="31">
-        <f>DATE(YEAR(E35)+1,MONTH(E35),DAY(E35))</f>
-        <v>44866</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="E35" s="4">
+        <v>44805</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="23">
+        <f t="shared" si="0"/>
+        <v>44896</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>275</v>
+        <v>42</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>244</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="4">
+        <v>138</v>
+      </c>
+      <c r="E36" s="47">
         <v>44805</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G36" s="23">
-        <f t="shared" ref="G36:G47" si="1">DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
+      <c r="G36" s="31">
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H36" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>277</v>
+    <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="47">
+        <v>238</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="31">
         <v>44805</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G37" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>138</v>
-      </c>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="26"/>
       <c r="E38" s="31">
         <v>44805</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G38" s="31">
-        <f t="shared" si="1"/>
+      <c r="G38" s="23">
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="31">
+        <v>63</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="4">
         <v>44805</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G39" s="31">
-        <f t="shared" si="1"/>
+      <c r="G39" s="23">
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H39" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="4">
+        <v>84</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="23">
         <v>44805</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G40" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>260</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="4">
-        <v>44805</v>
+        <v>136</v>
+      </c>
+      <c r="E41" s="31">
+        <v>44531</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G41" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
         <v>44896</v>
       </c>
-      <c r="H41" s="29" t="s">
+      <c r="H41" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>40</v>
+    <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="4">
-        <v>44805</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G42" s="23">
-        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="E42" s="31">
+        <v>44531</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="31">
+        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
         <v>44896</v>
       </c>
-      <c r="H42" s="21" t="s">
+      <c r="H42" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>245</v>
+        <v>24</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>255</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="52">
-        <v>44805</v>
+        <v>145</v>
+      </c>
+      <c r="E43" s="28">
+        <v>44531</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G43" s="28">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
         <v>44896</v>
       </c>
       <c r="H43" s="27" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="D44" s="26"/>
+    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>142</v>
+      </c>
       <c r="E44" s="31">
-        <v>44805</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>155</v>
+        <v>44531</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="G44" s="28">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
         <v>44896</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>90</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="26"/>
+        <v>255</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>145</v>
+      </c>
       <c r="E45" s="31">
-        <v>44805</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>155</v>
+        <v>44531</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="G45" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
         <v>44896</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>266</v>
+        <v>48</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>287</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" s="4">
-        <v>44805</v>
+        <v>139</v>
+      </c>
+      <c r="E46" s="31">
+        <v>44835</v>
       </c>
       <c r="F46" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="23">
-        <f t="shared" si="1"/>
-        <v>44896</v>
+      <c r="G46" s="31">
+        <f>DATE(YEAR(E46),MONTH(E46)+3,DAY(E46))</f>
+        <v>44927</v>
       </c>
       <c r="H46" s="27" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>140</v>
+      </c>
       <c r="E47" s="23">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G47" s="31">
+      <c r="G47" s="23">
+        <f>DATE(YEAR(E47),MONTH(E47)+3,DAY(E47))</f>
+        <v>44927</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="E48" s="23">
+        <v>44835</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="23">
+        <f>DATE(YEAR(E48),MONTH(E48)+3,DAY(E48))</f>
+        <v>44927</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="23">
+        <v>44562</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G49" s="23">
+        <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
+        <v>44927</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="23">
+        <v>44562</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" s="23">
+        <f>DATE(YEAR(E50),MONTH(E50)+12,DAY(E50))</f>
+        <v>44927</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" s="23">
+        <v>44774</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="G51" s="23">
+        <f>DATE(YEAR(E51),MONTH(E51)+6,DAY(E51))</f>
+        <v>44958</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" s="23">
+        <v>44593</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G52" s="23">
+        <f t="shared" ref="G52:G67" si="1">DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
+        <v>44958</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="31">
+        <v>44652</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="23">
         <f t="shared" si="1"/>
-        <v>44896</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="31">
-        <v>44531</v>
-      </c>
-      <c r="F48" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G48" s="23">
-        <f t="shared" ref="G48:G53" si="2">DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
-        <v>44896</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="31">
-        <v>44531</v>
-      </c>
-      <c r="F49" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G49" s="31">
-        <f t="shared" si="2"/>
-        <v>44896</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" s="31">
-        <v>44531</v>
-      </c>
-      <c r="F50" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G50" s="31">
-        <f t="shared" si="2"/>
-        <v>44896</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="31">
-        <v>44531</v>
-      </c>
-      <c r="F51" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G51" s="23">
-        <f t="shared" si="2"/>
-        <v>44896</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="31">
-        <v>44531</v>
-      </c>
-      <c r="F52" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G52" s="23">
-        <f t="shared" si="2"/>
-        <v>44896</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E53" s="23">
-        <v>44562</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G53" s="23">
-        <f t="shared" si="2"/>
-        <v>44927</v>
-      </c>
-      <c r="H53" s="29" t="s">
+        <v>45017</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="31">
+        <v>44652</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="31">
+        <f t="shared" si="1"/>
+        <v>45017</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="31">
+        <v>44713</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="31">
+        <f t="shared" si="1"/>
+        <v>45078</v>
+      </c>
+      <c r="H55" s="29" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E54" s="23">
-        <v>44562</v>
-      </c>
-      <c r="F54" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G54" s="23">
-        <f>DATE(YEAR(E54),MONTH(E54)+12,DAY(E54))</f>
-        <v>44927</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E55" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G55" s="23">
-        <f t="shared" ref="G55:G67" si="3">DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
-        <v>44958</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>150</v>
+        <v>101</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="E56" s="31">
-        <v>44652</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G56" s="23">
-        <f t="shared" si="3"/>
-        <v>45017</v>
-      </c>
-      <c r="H56" s="21" t="s">
+        <v>44713</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="31">
+        <f t="shared" si="1"/>
+        <v>45078</v>
+      </c>
+      <c r="H56" s="29" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>223</v>
+        <v>103</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>286</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>150</v>
+        <v>285</v>
       </c>
       <c r="E57" s="31">
-        <v>44652</v>
+        <v>44713</v>
       </c>
       <c r="F57" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G57" s="31">
-        <f t="shared" si="3"/>
-        <v>45017</v>
+        <f t="shared" si="1"/>
+        <v>45078</v>
       </c>
       <c r="H57" s="29" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="D58" s="50" t="s">
-        <v>173</v>
+        <v>230</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>283</v>
       </c>
       <c r="E58" s="28">
         <v>44713</v>
       </c>
-      <c r="F58" s="35" t="s">
+      <c r="F58" s="27" t="s">
         <v>156</v>
       </c>
       <c r="G58" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45078</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>292</v>
+        <v>34</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>231</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="E59" s="31">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="F59" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G59" s="31">
-        <f t="shared" si="3"/>
-        <v>45078</v>
+        <f t="shared" si="1"/>
+        <v>45108</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>292</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="E60" s="31">
-        <v>44713</v>
-      </c>
-      <c r="F60" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" s="23">
+        <v>44743</v>
+      </c>
+      <c r="F60" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G60" s="31">
-        <f t="shared" si="3"/>
-        <v>45078</v>
+        <f t="shared" si="1"/>
+        <v>45108</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="C61" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="D61" s="46" t="s">
-        <v>289</v>
+        <v>15</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="E61" s="31">
-        <v>44713</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G61" s="31">
-        <f t="shared" si="3"/>
-        <v>45078</v>
+        <v>44743</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="23">
+        <f t="shared" si="1"/>
+        <v>45108</v>
       </c>
       <c r="H61" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>231</v>
+        <v>17</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="E62" s="31">
+        <v>133</v>
+      </c>
+      <c r="E62" s="23">
         <v>44743</v>
       </c>
       <c r="F62" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G62" s="31">
-        <f t="shared" si="3"/>
+      <c r="G62" s="23">
+        <f t="shared" si="1"/>
         <v>45108</v>
       </c>
       <c r="H62" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>13</v>
+    <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E63" s="23">
-        <v>44743</v>
-      </c>
-      <c r="F63" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="31">
+        <v>44805</v>
+      </c>
+      <c r="F63" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G63" s="31">
-        <f t="shared" si="3"/>
-        <v>45108</v>
+        <f t="shared" si="1"/>
+        <v>45170</v>
       </c>
       <c r="H63" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>242</v>
+        <v>32</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>290</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>133</v>
+        <v>289</v>
       </c>
       <c r="E64" s="31">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="F64" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G64" s="23">
-        <f t="shared" si="3"/>
-        <v>45108</v>
+      <c r="G64" s="31">
+        <f t="shared" si="1"/>
+        <v>45170</v>
       </c>
       <c r="H64" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" s="23">
-        <v>44743</v>
-      </c>
-      <c r="F65" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" s="31">
+        <v>44805</v>
+      </c>
+      <c r="F65" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G65" s="23">
-        <f t="shared" si="3"/>
-        <v>45108</v>
-      </c>
-      <c r="H65" s="29" t="s">
+        <f t="shared" si="1"/>
+        <v>45170</v>
+      </c>
+      <c r="H65" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>193</v>
+        <v>62</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="E66" s="31">
-        <v>44805</v>
-      </c>
-      <c r="F66" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G66" s="23">
-        <f t="shared" si="3"/>
-        <v>45170</v>
-      </c>
-      <c r="H66" s="21" t="s">
+        <v>44866</v>
+      </c>
+      <c r="F66" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="31">
+        <f t="shared" si="1"/>
+        <v>45231</v>
+      </c>
+      <c r="H66" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
         <v>55</v>
       </c>
@@ -3388,7 +3387,7 @@
         <v>56</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>143</v>
@@ -3400,14 +3399,14 @@
         <v>156</v>
       </c>
       <c r="G67" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45536</v>
       </c>
       <c r="H67" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="45"/>
@@ -3417,7 +3416,7 @@
       <c r="G68" s="47"/>
       <c r="H68" s="44"/>
     </row>
-    <row r="69" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>159</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
         <v>106</v>
       </c>
@@ -3465,7 +3464,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>25</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>114</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>124</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>186</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>20</v>
       </c>
@@ -3581,7 +3580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>118</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
         <v>122</v>
       </c>
@@ -3627,7 +3626,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>201</v>
       </c>
@@ -3638,7 +3637,7 @@
         <v>203</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E78" s="10">
         <v>44044</v>
@@ -3651,7 +3650,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>174</v>
       </c>
@@ -3675,7 +3674,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
         <v>120</v>
       </c>
@@ -3699,7 +3698,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
         <v>74</v>
       </c>
@@ -3707,10 +3706,10 @@
         <v>75</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E81" s="23">
         <v>44256</v>
@@ -3723,7 +3722,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>98</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>148</v>
@@ -3747,18 +3746,18 @@
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="C83" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="E83" s="10">
         <v>44256</v>
@@ -3766,10 +3765,10 @@
       <c r="F83" s="6"/>
       <c r="G83" s="10"/>
       <c r="H83" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>179</v>
       </c>
@@ -3787,7 +3786,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>200</v>
       </c>
@@ -3805,125 +3804,122 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E90" s="7"/>
       <c r="G90" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D54" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C53" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C47" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C44" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C45" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D50" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C49" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C40" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C37" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C70" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="C8" r:id="rId8" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C80" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D73" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D40" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D41" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D10:D12" r:id="rId16" display="https://www.gov.uk/government/statistics/electricity-chapter-5-digest-of-united-kingdom-energy-statistics-dukes" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D62" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D48" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D51" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D67" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D23" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D52" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D34" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D46" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D26" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D10" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D82" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D70" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D8" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D27" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D49" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D42" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D19" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D77" r:id="rId38" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D69" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C69" r:id="rId40" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D64" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D65" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C41" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D30" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D15" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C54" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D53" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D7" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D5" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C79" r:id="rId53" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="C84" r:id="rId54" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D55" r:id="rId55" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C14" r:id="rId56" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D74" r:id="rId57" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C74" r:id="rId58" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D72" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C72" r:id="rId60" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C77" r:id="rId61" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D22" r:id="rId62" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D66" r:id="rId63" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D20" r:id="rId64" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C78" r:id="rId65" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C17" r:id="rId66" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D43" r:id="rId67" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D28" r:id="rId68" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C57" r:id="rId69" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="D13" r:id="rId70" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C5" r:id="rId71" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
-    <hyperlink ref="C23" r:id="rId72" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D16" r:id="rId73" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
-    <hyperlink ref="C83" r:id="rId74" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="D50" r:id="rId75" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C40" r:id="rId76" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="C49" r:id="rId77" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
-    <hyperlink ref="D35" r:id="rId78" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
-    <hyperlink ref="C2" r:id="rId79" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D18" r:id="rId80" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
-    <hyperlink ref="C19" r:id="rId81" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
-    <hyperlink ref="D78" r:id="rId82" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
-    <hyperlink ref="D3" r:id="rId83" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
-    <hyperlink ref="C3" r:id="rId84" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
-    <hyperlink ref="D80" r:id="rId85" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
-    <hyperlink ref="D83" r:id="rId86" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
-    <hyperlink ref="C81" r:id="rId87" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C21" r:id="rId88" xr:uid="{2FE37BBE-E63B-4784-9429-160F41B36C00}"/>
-    <hyperlink ref="C48" r:id="rId89" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D36" r:id="rId90" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D37" r:id="rId91" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C36" r:id="rId92" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C42" r:id="rId93" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C38" r:id="rId94" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C25" r:id="rId95" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C10" r:id="rId96" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C55" r:id="rId97" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="D33" r:id="rId98" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C11" r:id="rId99" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D11" r:id="rId100" xr:uid="{B20BE8F8-D156-4954-A6ED-104711E66619}"/>
-    <hyperlink ref="D39" r:id="rId101" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C43" r:id="rId102" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C46" r:id="rId103" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C29" r:id="rId104" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
-    <hyperlink ref="D61" r:id="rId105" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
-    <hyperlink ref="C61" r:id="rId106" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
-    <hyperlink ref="C59" r:id="rId107" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
-    <hyperlink ref="C13" r:id="rId108" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
+    <hyperlink ref="D33" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D34" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D59" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D46" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D47" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D44" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D67" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D63" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D45" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D66" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D39" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D20" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D9" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D10" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D82" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D70" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D8" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D21" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D42" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D15" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D77" r:id="rId36" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D69" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C69" r:id="rId38" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D61" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D62" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C34" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D19" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C50" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D55" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D7" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D54" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D5" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C79" r:id="rId51" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="C84" r:id="rId52" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D52" r:id="rId53" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C27" r:id="rId54" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D74" r:id="rId55" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C74" r:id="rId56" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D72" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C72" r:id="rId58" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C77" r:id="rId59" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D17" r:id="rId60" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D65" r:id="rId61" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="D51" r:id="rId62" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C78" r:id="rId63" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C13" r:id="rId64" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="D36" r:id="rId65" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D22" r:id="rId66" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="C54" r:id="rId67" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
+    <hyperlink ref="D12" r:id="rId68" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C5" r:id="rId69" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
+    <hyperlink ref="C63" r:id="rId70" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
+    <hyperlink ref="D25" r:id="rId71" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="C83" r:id="rId72" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
+    <hyperlink ref="D43" r:id="rId73" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
+    <hyperlink ref="C33" r:id="rId74" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C42" r:id="rId75" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
+    <hyperlink ref="D26" r:id="rId76" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
+    <hyperlink ref="C2" r:id="rId77" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
+    <hyperlink ref="D14" r:id="rId78" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="C15" r:id="rId79" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
+    <hyperlink ref="D78" r:id="rId80" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
+    <hyperlink ref="D3" r:id="rId81" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
+    <hyperlink ref="C3" r:id="rId82" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
+    <hyperlink ref="D80" r:id="rId83" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
+    <hyperlink ref="D83" r:id="rId84" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
+    <hyperlink ref="C81" r:id="rId85" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
+    <hyperlink ref="C41" r:id="rId86" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D29" r:id="rId87" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D30" r:id="rId88" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C29" r:id="rId89" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C35" r:id="rId90" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C31" r:id="rId91" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C19" r:id="rId92" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C10" r:id="rId93" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="C52" r:id="rId94" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
+    <hyperlink ref="D48" r:id="rId95" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C18" r:id="rId96" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="D32" r:id="rId97" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C36" r:id="rId98" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C39" r:id="rId99" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C28" r:id="rId100" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="D58" r:id="rId101" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
+    <hyperlink ref="C58" r:id="rId102" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
+    <hyperlink ref="C56" r:id="rId103" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
+    <hyperlink ref="C12" r:id="rId104" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
+    <hyperlink ref="C25" r:id="rId105" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId109"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>
   <tableParts count="1">
-    <tablePart r:id="rId110"/>
+    <tablePart r:id="rId107"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF90A677-FF11-4F7F-9BB6-CBF8C87E3B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B2C31A-81DB-451F-BB3B-A889647F62DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1117,7 +1117,7 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1598,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,106 +2012,106 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>302</v>
+        <v>194</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>193</v>
       </c>
       <c r="E16" s="31">
-        <v>44805</v>
-      </c>
-      <c r="F16" s="42" t="s">
+        <v>44440</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G16" s="23">
         <f>DATE(YEAR(E16)+1,MONTH(E16),DAY(E16))</f>
-        <v>45170</v>
-      </c>
-      <c r="H16" s="29" t="s">
+        <v>44805</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>193</v>
+        <v>209</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>298</v>
       </c>
       <c r="E17" s="31">
-        <v>44440</v>
+        <v>44743</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="23">
-        <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
+        <v>155</v>
+      </c>
+      <c r="G17" s="31">
+        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
+        <v>44835</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="23">
         <v>44805</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="F18" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="23">
+        <f>DATE(YEAR(E18),MONTH(E18)+1,DAY(E18))</f>
+        <v>44835</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="E18" s="31">
-        <v>44743</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="31">
-        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
-        <v>44835</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="23">
-        <v>44805</v>
+        <v>66</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="4">
+        <v>44743</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G19" s="23">
-        <f>DATE(YEAR(E19),MONTH(E19)+1,DAY(E19))</f>
+        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
         <v>44835</v>
       </c>
       <c r="H19" s="21" t="s">
@@ -2120,239 +2120,239 @@
     </row>
     <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="4">
+        <v>127</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="31">
         <v>44743</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="31">
         <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
         <v>44835</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="23">
+        <v>44835</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="23">
+        <f>DATE(YEAR(E21),MONTH(E21)+1,DAY(E21))</f>
+        <v>44866</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" s="23">
+        <v>44835</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="23">
+        <f>DATE(YEAR(E22),MONTH(E22)+1,DAY(E22))</f>
+        <v>44866</v>
+      </c>
+      <c r="H22" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+    <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" s="31">
+        <v>44501</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="31">
+        <f>DATE(YEAR(E23)+1,MONTH(E23),DAY(E23))</f>
+        <v>44866</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B24" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C24" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D24" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E24" s="31">
         <v>44805</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F24" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="23">
-        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
+      <c r="G24" s="23">
+        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
         <v>44896</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H24" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B25" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C25" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D25" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E25" s="31">
         <v>44805</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F25" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="31">
-        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+      <c r="G25" s="31">
+        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
         <v>44896</v>
       </c>
-      <c r="H22" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="31">
-        <v>44743</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="31">
-        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
-        <v>44835</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="23">
-        <v>44835</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="23">
-        <f>DATE(YEAR(E24),MONTH(E24)+1,DAY(E24))</f>
-        <v>44866</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="E25" s="23">
-        <v>44835</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="23">
-        <f>DATE(YEAR(E25),MONTH(E25)+1,DAY(E25))</f>
-        <v>44866</v>
-      </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>246</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="22"/>
       <c r="E26" s="31">
-        <v>44501</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="31">
-        <f>DATE(YEAR(E26)+1,MONTH(E26),DAY(E26))</f>
-        <v>44866</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>217</v>
+        <v>44805</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="23">
+        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <v>44896</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" s="22"/>
+      <c r="A27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>135</v>
+      </c>
       <c r="E27" s="31">
         <v>44805</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="23">
-        <f t="shared" ref="G27:G40" si="0">DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
+      <c r="G27" s="31">
+        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
         <v>44896</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>221</v>
+      <c r="H27" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>257</v>
+      <c r="A28" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>273</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="31">
+        <v>132</v>
+      </c>
+      <c r="E28" s="4">
         <v>44805</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G28" s="31">
-        <f t="shared" si="0"/>
+      <c r="G28" s="23">
+        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
         <v>44896</v>
       </c>
       <c r="H28" s="29" t="s">
@@ -2361,25 +2361,25 @@
     </row>
     <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="47">
         <v>44805</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="23">
-        <f t="shared" si="0"/>
+      <c r="G29" s="31">
+        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
         <v>44896</v>
       </c>
       <c r="H29" s="29" t="s">
@@ -2388,25 +2388,25 @@
     </row>
     <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="47">
+        <v>279</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="31">
         <v>44805</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>155</v>
       </c>
       <c r="G30" s="31">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
         <v>44896</v>
       </c>
       <c r="H30" s="29" t="s">
@@ -2415,15 +2415,15 @@
     </row>
     <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="40" t="s">
         <v>138</v>
       </c>
       <c r="E31" s="31">
@@ -2433,7 +2433,7 @@
         <v>155</v>
       </c>
       <c r="G31" s="31">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
         <v>44896</v>
       </c>
       <c r="H31" s="29" t="s">
@@ -2441,26 +2441,26 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="31">
+      <c r="A32" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="4">
         <v>44805</v>
       </c>
-      <c r="F32" s="42" t="s">
+      <c r="F32" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G32" s="31">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
         <v>44896</v>
       </c>
       <c r="H32" s="29" t="s">
@@ -2468,14 +2468,14 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>5</v>
+      <c r="A33" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>7</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>132</v>
@@ -2483,11 +2483,11 @@
       <c r="E33" s="4">
         <v>44805</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G33" s="31">
-        <f t="shared" si="0"/>
+      <c r="G33" s="23">
+        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
         <v>44896</v>
       </c>
       <c r="H33" s="29" t="s">
@@ -2495,95 +2495,93 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>7</v>
+      <c r="A34" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E34" s="4">
         <v>44805</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G34" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
         <v>44896</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="21" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>277</v>
+      <c r="A35" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>244</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="47">
         <v>44805</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="23">
-        <f t="shared" si="0"/>
+      <c r="G35" s="31">
+        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
         <v>44896</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="47">
+      <c r="A36" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="31">
         <v>44805</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="F36" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G36" s="31">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
         <v>44896</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>238</v>
+        <v>90</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="31">
@@ -2592,8 +2590,8 @@
       <c r="F37" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="31">
-        <f t="shared" si="0"/>
+      <c r="G37" s="23">
+        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
         <v>44896</v>
       </c>
       <c r="H37" s="29" t="s">
@@ -2601,94 +2599,96 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="31">
+      <c r="A38" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="4">
         <v>44805</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="42" t="s">
         <v>155</v>
       </c>
       <c r="G38" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E38),MONTH(E38)+3,DAY(E38))</f>
         <v>44896</v>
       </c>
       <c r="H38" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="23">
+        <v>44805</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="31">
+        <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
+        <v>44896</v>
+      </c>
+      <c r="H39" s="29" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="4">
-        <v>44805</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="G39" s="23">
-        <f t="shared" si="0"/>
+    <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="31">
+        <v>44531</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="23">
+        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
         <v>44896</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H40" s="21" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="23">
-        <v>44805</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G40" s="31">
-        <f t="shared" si="0"/>
-        <v>44896</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E41" s="31">
         <v>44531</v>
@@ -2696,26 +2696,26 @@
       <c r="F41" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="31">
         <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
         <v>44896</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>256</v>
+        <v>24</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>255</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E42" s="31">
         <v>44531</v>
@@ -2733,16 +2733,16 @@
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E43" s="28">
         <v>44531</v>
@@ -2760,16 +2760,16 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E44" s="31">
         <v>44531</v>
@@ -2787,26 +2787,26 @@
     </row>
     <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>255</v>
+        <v>48</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E45" s="31">
-        <v>44531</v>
+        <v>44835</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G45" s="23">
-        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
-        <v>44896</v>
+        <v>155</v>
+      </c>
+      <c r="G45" s="31">
+        <f>DATE(YEAR(E45),MONTH(E45)+3,DAY(E45))</f>
+        <v>44927</v>
       </c>
       <c r="H45" s="27" t="s">
         <v>216</v>
@@ -2814,24 +2814,24 @@
     </row>
     <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>287</v>
+        <v>50</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>288</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="31">
+        <v>140</v>
+      </c>
+      <c r="E46" s="23">
         <v>44835</v>
       </c>
       <c r="F46" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="31">
+      <c r="G46" s="23">
         <f>DATE(YEAR(E46),MONTH(E46)+3,DAY(E46))</f>
         <v>44927</v>
       </c>
@@ -2840,22 +2840,22 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>50</v>
+      <c r="A47" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>140</v>
+        <v>295</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>281</v>
       </c>
       <c r="E47" s="23">
         <v>44835</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="42" t="s">
         <v>155</v>
       </c>
       <c r="G47" s="23">
@@ -2863,57 +2863,57 @@
         <v>44927</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>281</v>
+      <c r="A48" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="E48" s="23">
-        <v>44835</v>
-      </c>
-      <c r="F48" s="42" t="s">
-        <v>155</v>
+        <v>44562</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="G48" s="23">
-        <f>DATE(YEAR(E48),MONTH(E48)+3,DAY(E48))</f>
+        <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
         <v>44927</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>172</v>
+      <c r="A49" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="E49" s="23">
         <v>44562</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G49" s="23">
-        <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
+        <f>DATE(YEAR(E49),MONTH(E49)+12,DAY(E49))</f>
         <v>44927</v>
       </c>
       <c r="H49" s="29" t="s">
@@ -2922,151 +2922,151 @@
     </row>
     <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>73</v>
+        <v>198</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>199</v>
       </c>
       <c r="E50" s="23">
-        <v>44562</v>
+        <v>44774</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="G50" s="23">
-        <f>DATE(YEAR(E50),MONTH(E50)+12,DAY(E50))</f>
-        <v>44927</v>
+        <f>DATE(YEAR(E50),MONTH(E50)+6,DAY(E50))</f>
+        <v>44958</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>199</v>
+      <c r="A51" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="E51" s="23">
-        <v>44774</v>
-      </c>
-      <c r="F51" s="42" t="s">
-        <v>267</v>
+        <v>44593</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="G51" s="23">
-        <f>DATE(YEAR(E51),MONTH(E51)+6,DAY(E51))</f>
+        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
         <v>44958</v>
       </c>
-      <c r="H51" s="29" t="s">
-        <v>221</v>
+      <c r="H51" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E52" s="23">
-        <v>44593</v>
-      </c>
-      <c r="F52" s="21" t="s">
+      <c r="A52" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="31">
+        <v>44652</v>
+      </c>
+      <c r="F52" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G52" s="23">
-        <f t="shared" ref="G52:G67" si="1">DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
-        <v>44958</v>
+        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
+        <v>45017</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="D53" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="22" t="s">
         <v>150</v>
       </c>
       <c r="E53" s="31">
         <v>44652</v>
       </c>
-      <c r="F53" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G53" s="23">
-        <f t="shared" si="1"/>
+      <c r="F53" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="31">
+        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
         <v>45017</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="H53" s="29" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>150</v>
+        <v>239</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>173</v>
       </c>
       <c r="E54" s="31">
-        <v>44652</v>
+        <v>44713</v>
       </c>
       <c r="F54" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G54" s="31">
-        <f t="shared" si="1"/>
-        <v>45017</v>
+        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <v>45078</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>173</v>
+        <v>101</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="E55" s="31">
         <v>44713</v>
@@ -3075,21 +3075,21 @@
         <v>156</v>
       </c>
       <c r="G55" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
         <v>45078</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="26" t="s">
         <v>286</v>
       </c>
       <c r="D56" s="22" t="s">
@@ -3102,7 +3102,7 @@
         <v>156</v>
       </c>
       <c r="G56" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
         <v>45078</v>
       </c>
       <c r="H56" s="29" t="s">
@@ -3111,79 +3111,79 @@
     </row>
     <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>285</v>
+        <v>230</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>283</v>
       </c>
       <c r="E57" s="31">
         <v>44713</v>
       </c>
-      <c r="F57" s="42" t="s">
+      <c r="F57" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G57" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
         <v>45078</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="C58" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="D58" s="51" t="s">
-        <v>283</v>
+        <v>34</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="E58" s="28">
-        <v>44713</v>
-      </c>
-      <c r="F58" s="27" t="s">
+        <v>44743</v>
+      </c>
+      <c r="F58" s="35" t="s">
         <v>156</v>
       </c>
       <c r="G58" s="31">
-        <f t="shared" si="1"/>
-        <v>45078</v>
+        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <v>45108</v>
       </c>
       <c r="H58" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>231</v>
+      <c r="A59" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="E59" s="31">
+        <v>133</v>
+      </c>
+      <c r="E59" s="23">
         <v>44743</v>
       </c>
-      <c r="F59" s="42" t="s">
+      <c r="F59" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G59" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
         <v>45108</v>
       </c>
       <c r="H59" s="29" t="s">
@@ -3191,26 +3191,26 @@
       </c>
     </row>
     <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>241</v>
+      <c r="A60" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>242</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="31">
         <v>44743</v>
       </c>
-      <c r="F60" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G60" s="31">
-        <f t="shared" si="1"/>
+      <c r="F60" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="23">
+        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
         <v>45108</v>
       </c>
       <c r="H60" s="29" t="s">
@@ -3219,25 +3219,25 @@
     </row>
     <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>242</v>
+        <v>17</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E61" s="31">
+      <c r="E61" s="23">
         <v>44743</v>
       </c>
       <c r="F61" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G61" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
         <v>45108</v>
       </c>
       <c r="H61" s="29" t="s">
@@ -3246,26 +3246,26 @@
     </row>
     <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E62" s="23">
-        <v>44743</v>
+        <v>302</v>
+      </c>
+      <c r="E62" s="31">
+        <v>44805</v>
       </c>
       <c r="F62" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G62" s="23">
-        <f t="shared" si="1"/>
-        <v>45108</v>
+        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <v>45170</v>
       </c>
       <c r="H62" s="29" t="s">
         <v>216</v>
@@ -3291,7 +3291,7 @@
         <v>156</v>
       </c>
       <c r="G63" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
         <v>45170</v>
       </c>
       <c r="H63" s="29" t="s">
@@ -3318,7 +3318,7 @@
         <v>156</v>
       </c>
       <c r="G64" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
         <v>45170</v>
       </c>
       <c r="H64" s="29" t="s">
@@ -3345,7 +3345,7 @@
         <v>156</v>
       </c>
       <c r="G65" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
         <v>45170</v>
       </c>
       <c r="H65" s="21" t="s">
@@ -3372,7 +3372,7 @@
         <v>156</v>
       </c>
       <c r="G66" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
         <v>45231</v>
       </c>
       <c r="H66" s="29" t="s">
@@ -3399,7 +3399,7 @@
         <v>156</v>
       </c>
       <c r="G67" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
         <v>45536</v>
       </c>
       <c r="H67" s="29" t="s">
@@ -3810,82 +3810,82 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D50" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C49" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C40" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C37" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D49" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C48" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C39" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C37" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C70" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="C8" r:id="rId8" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C80" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D73" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D33" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D34" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D32" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D33" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="D13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D59" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D46" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D47" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D44" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D58" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D40" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D45" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D46" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D43" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="D67" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="D63" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D45" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D44" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="D66" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D39" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D20" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D38" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="D9" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="D10" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D82" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D70" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="D8" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D21" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D42" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D24" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D41" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="D15" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D77" r:id="rId36" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D69" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C69" r:id="rId38" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D61" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D62" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C34" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D19" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C50" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D55" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D60" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D61" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C33" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D18" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D20" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D21" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C49" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D54" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
     <hyperlink ref="D7" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D54" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D53" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
     <hyperlink ref="D5" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="C79" r:id="rId51" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C84" r:id="rId52" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D52" r:id="rId53" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C27" r:id="rId54" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D51" r:id="rId53" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C26" r:id="rId54" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D74" r:id="rId55" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C74" r:id="rId56" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
     <hyperlink ref="D72" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="C72" r:id="rId58" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
     <hyperlink ref="C77" r:id="rId59" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D17" r:id="rId60" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D16" r:id="rId60" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
     <hyperlink ref="D65" r:id="rId61" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D51" r:id="rId62" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="D50" r:id="rId62" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C78" r:id="rId63" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
     <hyperlink ref="C13" r:id="rId64" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D36" r:id="rId65" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D22" r:id="rId66" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C54" r:id="rId67" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
+    <hyperlink ref="D35" r:id="rId65" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D25" r:id="rId66" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="C53" r:id="rId67" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
     <hyperlink ref="D12" r:id="rId68" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
     <hyperlink ref="C5" r:id="rId69" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
     <hyperlink ref="C63" r:id="rId70" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D25" r:id="rId71" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="D22" r:id="rId71" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C83" r:id="rId72" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="D43" r:id="rId73" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C33" r:id="rId74" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="C42" r:id="rId75" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
-    <hyperlink ref="D26" r:id="rId76" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
+    <hyperlink ref="D42" r:id="rId73" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
+    <hyperlink ref="C32" r:id="rId74" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C41" r:id="rId75" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
+    <hyperlink ref="D23" r:id="rId76" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId77" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
     <hyperlink ref="D14" r:id="rId78" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
     <hyperlink ref="C15" r:id="rId79" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
@@ -3895,26 +3895,26 @@
     <hyperlink ref="D80" r:id="rId83" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
     <hyperlink ref="D83" r:id="rId84" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
     <hyperlink ref="C81" r:id="rId85" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C41" r:id="rId86" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D29" r:id="rId87" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D30" r:id="rId88" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C29" r:id="rId89" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C35" r:id="rId90" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C31" r:id="rId91" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C19" r:id="rId92" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C40" r:id="rId86" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D28" r:id="rId87" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D29" r:id="rId88" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C28" r:id="rId89" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C34" r:id="rId90" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C30" r:id="rId91" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C18" r:id="rId92" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
     <hyperlink ref="C10" r:id="rId93" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C52" r:id="rId94" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="D48" r:id="rId95" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C18" r:id="rId96" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D32" r:id="rId97" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C36" r:id="rId98" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C39" r:id="rId99" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C28" r:id="rId100" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
-    <hyperlink ref="D58" r:id="rId101" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
-    <hyperlink ref="C58" r:id="rId102" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
-    <hyperlink ref="C56" r:id="rId103" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
+    <hyperlink ref="C51" r:id="rId94" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
+    <hyperlink ref="D47" r:id="rId95" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C17" r:id="rId96" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="D31" r:id="rId97" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C35" r:id="rId98" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C38" r:id="rId99" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C27" r:id="rId100" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="D57" r:id="rId101" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
+    <hyperlink ref="C57" r:id="rId102" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
+    <hyperlink ref="C55" r:id="rId103" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
     <hyperlink ref="C12" r:id="rId104" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
-    <hyperlink ref="C25" r:id="rId105" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
+    <hyperlink ref="C22" r:id="rId105" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B2C31A-81DB-451F-BB3B-A889647F62DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9614C6F-393B-4A3F-AD61-A9A77AD3AEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1598,22 +1598,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
-    <col min="3" max="3" width="74.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="3" max="3" width="74.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>175</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>212</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>112</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>162</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>128</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>109</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>67</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>68</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>93</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>51</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>10</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>205</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>96</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>192</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>208</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>37</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>65</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>126</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>69</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>27</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>76</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>43</v>
       </c>
@@ -2246,14 +2246,14 @@
         <v>155</v>
       </c>
       <c r="G24" s="23">
-        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
+        <f t="shared" ref="G24:G39" si="0">DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
         <v>44896</v>
       </c>
       <c r="H24" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>45</v>
       </c>
@@ -2273,14 +2273,14 @@
         <v>155</v>
       </c>
       <c r="G25" s="31">
-        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H25" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>183</v>
       </c>
@@ -2298,14 +2298,14 @@
         <v>155</v>
       </c>
       <c r="G26" s="23">
-        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>29</v>
       </c>
@@ -2325,14 +2325,14 @@
         <v>155</v>
       </c>
       <c r="G27" s="31">
-        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>272</v>
       </c>
@@ -2352,14 +2352,14 @@
         <v>155</v>
       </c>
       <c r="G28" s="23">
-        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H28" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>271</v>
       </c>
@@ -2379,14 +2379,14 @@
         <v>155</v>
       </c>
       <c r="G29" s="31">
-        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H29" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>279</v>
       </c>
@@ -2406,14 +2406,14 @@
         <v>155</v>
       </c>
       <c r="G30" s="31">
-        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H30" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>278</v>
       </c>
@@ -2433,14 +2433,14 @@
         <v>155</v>
       </c>
       <c r="G31" s="31">
-        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H31" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>4</v>
       </c>
@@ -2460,14 +2460,14 @@
         <v>155</v>
       </c>
       <c r="G32" s="31">
-        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H32" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>6</v>
       </c>
@@ -2487,14 +2487,14 @@
         <v>155</v>
       </c>
       <c r="G33" s="23">
-        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H33" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>39</v>
       </c>
@@ -2514,14 +2514,14 @@
         <v>155</v>
       </c>
       <c r="G34" s="23">
-        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>41</v>
       </c>
@@ -2541,14 +2541,14 @@
         <v>155</v>
       </c>
       <c r="G35" s="31">
-        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H35" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
         <v>86</v>
       </c>
@@ -2566,14 +2566,14 @@
         <v>155</v>
       </c>
       <c r="G36" s="31">
-        <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H36" s="29" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
         <v>89</v>
       </c>
@@ -2591,14 +2591,14 @@
         <v>155</v>
       </c>
       <c r="G37" s="23">
-        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H37" s="29" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>63</v>
       </c>
@@ -2618,14 +2618,14 @@
         <v>155</v>
       </c>
       <c r="G38" s="23">
-        <f>DATE(YEAR(E38),MONTH(E38)+3,DAY(E38))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H38" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>83</v>
       </c>
@@ -2643,14 +2643,14 @@
         <v>155</v>
       </c>
       <c r="G39" s="31">
-        <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H39" s="29" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>35</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>18</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
         <v>23</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
         <v>53</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>59</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>47</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
         <v>49</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>116</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
         <v>78</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>71</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>197</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
         <v>181</v>
       </c>
@@ -2967,14 +2967,14 @@
         <v>156</v>
       </c>
       <c r="G51" s="23">
-        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
+        <f t="shared" ref="G51:G67" si="1">DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
         <v>44958</v>
       </c>
       <c r="H51" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>225</v>
       </c>
@@ -2994,14 +2994,14 @@
         <v>156</v>
       </c>
       <c r="G52" s="23">
-        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
+        <f t="shared" si="1"/>
         <v>45017</v>
       </c>
       <c r="H52" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
         <v>104</v>
       </c>
@@ -3021,14 +3021,14 @@
         <v>156</v>
       </c>
       <c r="G53" s="31">
-        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
+        <f t="shared" si="1"/>
         <v>45017</v>
       </c>
       <c r="H53" s="29" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
         <v>91</v>
       </c>
@@ -3048,14 +3048,14 @@
         <v>156</v>
       </c>
       <c r="G54" s="31">
-        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <f t="shared" si="1"/>
         <v>45078</v>
       </c>
       <c r="H54" s="29" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>100</v>
       </c>
@@ -3075,14 +3075,14 @@
         <v>156</v>
       </c>
       <c r="G55" s="31">
-        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <f t="shared" si="1"/>
         <v>45078</v>
       </c>
       <c r="H55" s="29" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>102</v>
       </c>
@@ -3102,14 +3102,14 @@
         <v>156</v>
       </c>
       <c r="G56" s="31">
-        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
+        <f t="shared" si="1"/>
         <v>45078</v>
       </c>
       <c r="H56" s="29" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>229</v>
       </c>
@@ -3129,14 +3129,14 @@
         <v>156</v>
       </c>
       <c r="G57" s="31">
-        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <f t="shared" si="1"/>
         <v>45078</v>
       </c>
       <c r="H57" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
         <v>33</v>
       </c>
@@ -3156,14 +3156,14 @@
         <v>156</v>
       </c>
       <c r="G58" s="31">
-        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <f t="shared" si="1"/>
         <v>45108</v>
       </c>
       <c r="H58" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
         <v>12</v>
       </c>
@@ -3183,14 +3183,14 @@
         <v>156</v>
       </c>
       <c r="G59" s="31">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <f t="shared" si="1"/>
         <v>45108</v>
       </c>
       <c r="H59" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="29" t="s">
         <v>14</v>
       </c>
@@ -3210,14 +3210,14 @@
         <v>156</v>
       </c>
       <c r="G60" s="23">
-        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <f t="shared" si="1"/>
         <v>45108</v>
       </c>
       <c r="H60" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="29" t="s">
         <v>16</v>
       </c>
@@ -3237,14 +3237,14 @@
         <v>156</v>
       </c>
       <c r="G61" s="23">
-        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
+        <f t="shared" si="1"/>
         <v>45108</v>
       </c>
       <c r="H61" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="29" t="s">
         <v>8</v>
       </c>
@@ -3264,14 +3264,14 @@
         <v>156</v>
       </c>
       <c r="G62" s="23">
-        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <f t="shared" si="1"/>
         <v>45170</v>
       </c>
       <c r="H62" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
         <v>57</v>
       </c>
@@ -3291,14 +3291,14 @@
         <v>156</v>
       </c>
       <c r="G63" s="31">
-        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <f t="shared" si="1"/>
         <v>45170</v>
       </c>
       <c r="H63" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
         <v>31</v>
       </c>
@@ -3318,14 +3318,14 @@
         <v>156</v>
       </c>
       <c r="G64" s="31">
-        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
+        <f t="shared" si="1"/>
         <v>45170</v>
       </c>
       <c r="H64" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="29" t="s">
         <v>195</v>
       </c>
@@ -3345,14 +3345,14 @@
         <v>156</v>
       </c>
       <c r="G65" s="23">
-        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <f t="shared" si="1"/>
         <v>45170</v>
       </c>
       <c r="H65" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
         <v>61</v>
       </c>
@@ -3372,14 +3372,14 @@
         <v>156</v>
       </c>
       <c r="G66" s="31">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <f t="shared" si="1"/>
         <v>45231</v>
       </c>
       <c r="H66" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="29" t="s">
         <v>55</v>
       </c>
@@ -3399,14 +3399,14 @@
         <v>156</v>
       </c>
       <c r="G67" s="31">
-        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
+        <f t="shared" si="1"/>
         <v>45536</v>
       </c>
       <c r="H67" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="45"/>
@@ -3416,7 +3416,7 @@
       <c r="G68" s="47"/>
       <c r="H68" s="44"/>
     </row>
-    <row r="69" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
         <v>159</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21" t="s">
         <v>106</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>25</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>114</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="21" t="s">
         <v>124</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>186</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>20</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
         <v>118</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
         <v>122</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>201</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>174</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21" t="s">
         <v>120</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21" t="s">
         <v>74</v>
       </c>
@@ -3712,17 +3712,20 @@
         <v>266</v>
       </c>
       <c r="E81" s="23">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="F81" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G81" s="23"/>
+      <c r="G81" s="31">
+        <f t="shared" ref="G81" si="2">DATE(YEAR(E81)+1,MONTH(E81),DAY(E81))</f>
+        <v>44986</v>
+      </c>
       <c r="H81" s="21" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>98</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>249</v>
       </c>
@@ -3768,7 +3771,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>179</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>200</v>
       </c>
@@ -3804,7 +3807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E90" s="7"/>
       <c r="G90" s="8"/>
     </row>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9614C6F-393B-4A3F-AD61-A9A77AD3AEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BC70BE-647E-4284-8401-EC17E077D31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1065,7 +1065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1118,6 +1118,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1598,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2246,7 +2247,7 @@
         <v>155</v>
       </c>
       <c r="G24" s="23">
-        <f t="shared" ref="G24:G39" si="0">DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
+        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
         <v>44896</v>
       </c>
       <c r="H24" s="29" t="s">
@@ -2273,7 +2274,7 @@
         <v>155</v>
       </c>
       <c r="G25" s="31">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
         <v>44896</v>
       </c>
       <c r="H25" s="29" t="s">
@@ -2298,7 +2299,7 @@
         <v>155</v>
       </c>
       <c r="G26" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
         <v>44896</v>
       </c>
       <c r="H26" s="21" t="s">
@@ -2325,7 +2326,7 @@
         <v>155</v>
       </c>
       <c r="G27" s="31">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
         <v>44896</v>
       </c>
       <c r="H27" s="29" t="s">
@@ -2352,7 +2353,7 @@
         <v>155</v>
       </c>
       <c r="G28" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
         <v>44896</v>
       </c>
       <c r="H28" s="29" t="s">
@@ -2379,7 +2380,7 @@
         <v>155</v>
       </c>
       <c r="G29" s="31">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
         <v>44896</v>
       </c>
       <c r="H29" s="29" t="s">
@@ -2406,7 +2407,7 @@
         <v>155</v>
       </c>
       <c r="G30" s="31">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
         <v>44896</v>
       </c>
       <c r="H30" s="29" t="s">
@@ -2433,7 +2434,7 @@
         <v>155</v>
       </c>
       <c r="G31" s="31">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
         <v>44896</v>
       </c>
       <c r="H31" s="29" t="s">
@@ -2460,7 +2461,7 @@
         <v>155</v>
       </c>
       <c r="G32" s="31">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
         <v>44896</v>
       </c>
       <c r="H32" s="29" t="s">
@@ -2487,7 +2488,7 @@
         <v>155</v>
       </c>
       <c r="G33" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
         <v>44896</v>
       </c>
       <c r="H33" s="29" t="s">
@@ -2514,7 +2515,7 @@
         <v>155</v>
       </c>
       <c r="G34" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
         <v>44896</v>
       </c>
       <c r="H34" s="21" t="s">
@@ -2541,7 +2542,7 @@
         <v>155</v>
       </c>
       <c r="G35" s="31">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
         <v>44896</v>
       </c>
       <c r="H35" s="29" t="s">
@@ -2566,7 +2567,7 @@
         <v>155</v>
       </c>
       <c r="G36" s="31">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
         <v>44896</v>
       </c>
       <c r="H36" s="29" t="s">
@@ -2591,7 +2592,7 @@
         <v>155</v>
       </c>
       <c r="G37" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
         <v>44896</v>
       </c>
       <c r="H37" s="29" t="s">
@@ -2618,7 +2619,7 @@
         <v>155</v>
       </c>
       <c r="G38" s="23">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E38),MONTH(E38)+3,DAY(E38))</f>
         <v>44896</v>
       </c>
       <c r="H38" s="29" t="s">
@@ -2643,7 +2644,7 @@
         <v>155</v>
       </c>
       <c r="G39" s="31">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
         <v>44896</v>
       </c>
       <c r="H39" s="29" t="s">
@@ -2967,7 +2968,7 @@
         <v>156</v>
       </c>
       <c r="G51" s="23">
-        <f t="shared" ref="G51:G67" si="1">DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
+        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
         <v>44958</v>
       </c>
       <c r="H51" s="21" t="s">
@@ -2975,98 +2976,98 @@
       </c>
     </row>
     <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="31">
-        <v>44652</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G52" s="23">
-        <f t="shared" si="1"/>
-        <v>45017</v>
+      <c r="A52" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52" s="23">
+        <v>44621</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G52" s="31">
+        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
+        <v>44986</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D53" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>150</v>
       </c>
       <c r="E53" s="31">
         <v>44652</v>
       </c>
-      <c r="F53" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G53" s="31">
-        <f t="shared" si="1"/>
+      <c r="F53" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="23">
+        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
         <v>45017</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>173</v>
+        <v>223</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="E54" s="31">
-        <v>44713</v>
+        <v>44652</v>
       </c>
       <c r="F54" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G54" s="31">
-        <f t="shared" si="1"/>
-        <v>45078</v>
+        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <v>45017</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>285</v>
+        <v>92</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>173</v>
       </c>
       <c r="E55" s="31">
         <v>44713</v>
@@ -3075,21 +3076,21 @@
         <v>156</v>
       </c>
       <c r="G55" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
         <v>45078</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="40" t="s">
         <v>286</v>
       </c>
       <c r="D56" s="22" t="s">
@@ -3102,7 +3103,7 @@
         <v>156</v>
       </c>
       <c r="G56" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
         <v>45078</v>
       </c>
       <c r="H56" s="29" t="s">
@@ -3111,79 +3112,79 @@
     </row>
     <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
-        <v>229</v>
+        <v>102</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="C57" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="D57" s="46" t="s">
-        <v>283</v>
+        <v>103</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="E57" s="31">
         <v>44713</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G57" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
         <v>45078</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" s="52" t="s">
+        <v>283</v>
       </c>
       <c r="E58" s="28">
-        <v>44743</v>
-      </c>
-      <c r="F58" s="35" t="s">
+        <v>44713</v>
+      </c>
+      <c r="F58" s="27" t="s">
         <v>156</v>
       </c>
       <c r="G58" s="31">
-        <f t="shared" si="1"/>
-        <v>45108</v>
+        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <v>45078</v>
       </c>
       <c r="H58" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>241</v>
+      <c r="A59" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>231</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" s="23">
+        <v>232</v>
+      </c>
+      <c r="E59" s="31">
         <v>44743</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G59" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
         <v>45108</v>
       </c>
       <c r="H59" s="29" t="s">
@@ -3191,26 +3192,26 @@
       </c>
     </row>
     <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>242</v>
+      <c r="A60" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E60" s="23">
         <v>44743</v>
       </c>
-      <c r="F60" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G60" s="23">
-        <f t="shared" si="1"/>
+      <c r="F60" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="31">
+        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
         <v>45108</v>
       </c>
       <c r="H60" s="29" t="s">
@@ -3219,25 +3220,25 @@
     </row>
     <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>233</v>
+        <v>15</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>242</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="31">
         <v>44743</v>
       </c>
       <c r="F61" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G61" s="23">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
         <v>45108</v>
       </c>
       <c r="H61" s="29" t="s">
@@ -3246,26 +3247,26 @@
     </row>
     <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="29" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="E62" s="31">
-        <v>44805</v>
+        <v>133</v>
+      </c>
+      <c r="E62" s="23">
+        <v>44743</v>
       </c>
       <c r="F62" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G62" s="23">
-        <f t="shared" si="1"/>
-        <v>45170</v>
+        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <v>45108</v>
       </c>
       <c r="H62" s="29" t="s">
         <v>216</v>
@@ -3273,16 +3274,16 @@
     </row>
     <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>144</v>
+        <v>302</v>
       </c>
       <c r="E63" s="31">
         <v>44805</v>
@@ -3290,8 +3291,8 @@
       <c r="F63" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G63" s="31">
-        <f t="shared" si="1"/>
+      <c r="G63" s="23">
+        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
         <v>45170</v>
       </c>
       <c r="H63" s="29" t="s">
@@ -3300,16 +3301,16 @@
     </row>
     <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="E64" s="31">
         <v>44805</v>
@@ -3318,7 +3319,7 @@
         <v>156</v>
       </c>
       <c r="G64" s="31">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
         <v>45170</v>
       </c>
       <c r="H64" s="29" t="s">
@@ -3327,134 +3328,137 @@
     </row>
     <row r="65" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="29" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>193</v>
+        <v>32</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="E65" s="31">
         <v>44805</v>
       </c>
-      <c r="F65" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G65" s="23">
-        <f t="shared" si="1"/>
+      <c r="F65" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="31">
+        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
         <v>45170</v>
       </c>
-      <c r="H65" s="21" t="s">
+      <c r="H65" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>146</v>
+        <v>196</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>193</v>
       </c>
       <c r="E66" s="31">
-        <v>44866</v>
-      </c>
-      <c r="F66" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G66" s="31">
-        <f t="shared" si="1"/>
-        <v>45231</v>
-      </c>
-      <c r="H66" s="29" t="s">
+        <v>44805</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="23">
+        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <v>45170</v>
+      </c>
+      <c r="H66" s="21" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="29" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>297</v>
+        <v>62</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>248</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E67" s="31">
-        <v>45170</v>
+        <v>44866</v>
       </c>
       <c r="F67" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G67" s="31">
-        <f t="shared" si="1"/>
-        <v>45536</v>
+        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
+        <v>45231</v>
       </c>
       <c r="H67" s="29" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="44"/>
+      <c r="A68" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="31">
+        <v>45170</v>
+      </c>
+      <c r="F68" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G68" s="31">
+        <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
+        <v>45536</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="69" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E69" s="23">
-        <v>43435</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="G69" s="23"/>
-      <c r="H69" s="21" t="s">
-        <v>219</v>
-      </c>
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="44"/>
     </row>
     <row r="70" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>149</v>
+      <c r="C70" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="E70" s="23">
-        <v>43447</v>
+        <v>43435</v>
       </c>
       <c r="F70" s="23" t="s">
         <v>166</v>
@@ -3465,156 +3469,156 @@
       </c>
     </row>
     <row r="71" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" s="23">
+        <v>43447</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G71" s="23"/>
+      <c r="H71" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B72" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="10">
+      <c r="D72" s="12"/>
+      <c r="E72" s="10">
         <v>43466</v>
       </c>
-      <c r="F71" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="6" t="s">
+      <c r="F72" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="H72" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C73" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D73" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E73" s="20">
         <v>43831</v>
       </c>
-      <c r="F72" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="G72" s="20"/>
-      <c r="H72" s="2" t="s">
+      <c r="F73" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G73" s="20"/>
+      <c r="H73" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="21" t="s">
+    <row r="74" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B74" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C74" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D74" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E74" s="23">
         <v>43831</v>
       </c>
-      <c r="F73" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G73" s="23"/>
-      <c r="H73" s="21" t="s">
+      <c r="F74" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G74" s="23"/>
+      <c r="H74" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C75" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D75" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="E74" s="20">
+      <c r="E75" s="20">
         <v>43908</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G74" s="20"/>
-      <c r="H74" s="2" t="s">
+      <c r="F75" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G75" s="20"/>
+      <c r="H75" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+    <row r="76" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="10">
+      <c r="D76" s="6"/>
+      <c r="E76" s="10">
         <v>43916</v>
       </c>
-      <c r="F75" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="G75" s="10"/>
-      <c r="H75" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="23">
-        <v>43950</v>
-      </c>
-      <c r="F76" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G76" s="23"/>
-      <c r="H76" s="21" t="s">
+      <c r="F76" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>153</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="25"/>
       <c r="E77" s="23">
         <v>43950</v>
       </c>
@@ -3623,106 +3627,103 @@
       </c>
       <c r="G77" s="23"/>
       <c r="H77" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78" s="23">
+        <v>43950</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G78" s="23"/>
+      <c r="H78" s="21" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E78" s="10">
-        <v>44044</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G78" s="10"/>
-      <c r="H78" s="6" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="E79" s="10">
-        <v>44166</v>
-      </c>
-      <c r="F79" s="11" t="s">
+        <v>44044</v>
+      </c>
+      <c r="F79" s="6" t="s">
         <v>156</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="10">
+        <v>44166</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G80" s="10"/>
+      <c r="H80" s="6" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="E80" s="23">
-        <v>44166</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G80" s="23"/>
-      <c r="H80" s="21" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>266</v>
+        <v>211</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="E81" s="23">
-        <v>44621</v>
+        <v>44166</v>
       </c>
       <c r="F81" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G81" s="31">
-        <f t="shared" ref="G81" si="2">DATE(YEAR(E81)+1,MONTH(E81),DAY(E81))</f>
-        <v>44986</v>
-      </c>
+      <c r="G81" s="23"/>
       <c r="H81" s="21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3819,70 +3820,70 @@
     <hyperlink ref="C36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="C37" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C70" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C71" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="C8" r:id="rId8" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C80" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D73" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C81" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D74" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="D32" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="D33" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="D13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="D27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D58" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D59" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="D40" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="D45" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
     <hyperlink ref="D46" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="D43" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D67" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D63" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D68" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D64" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="D44" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D66" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D67" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="D38" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
     <hyperlink ref="D19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="D9" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="D10" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D82" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D70" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D71" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="D8" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
     <hyperlink ref="D24" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="D41" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="D34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="D15" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D77" r:id="rId36" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D69" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C69" r:id="rId38" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D60" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D61" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D78" r:id="rId36" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D70" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C70" r:id="rId38" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D61" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D62" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
     <hyperlink ref="C33" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="D18" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
     <hyperlink ref="D20" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="D21" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="C49" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
     <hyperlink ref="D48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D54" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D55" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
     <hyperlink ref="D7" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D53" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D54" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
     <hyperlink ref="D5" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C79" r:id="rId51" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="C80" r:id="rId51" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C84" r:id="rId52" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
     <hyperlink ref="D51" r:id="rId53" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
     <hyperlink ref="C26" r:id="rId54" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D74" r:id="rId55" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C74" r:id="rId56" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D72" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C72" r:id="rId58" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C77" r:id="rId59" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D75" r:id="rId55" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C75" r:id="rId56" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D73" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C73" r:id="rId58" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C78" r:id="rId59" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
     <hyperlink ref="D16" r:id="rId60" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D65" r:id="rId61" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="D66" r:id="rId61" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
     <hyperlink ref="D50" r:id="rId62" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C78" r:id="rId63" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C79" r:id="rId63" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
     <hyperlink ref="C13" r:id="rId64" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
     <hyperlink ref="D35" r:id="rId65" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
     <hyperlink ref="D25" r:id="rId66" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C53" r:id="rId67" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
+    <hyperlink ref="C54" r:id="rId67" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
     <hyperlink ref="D12" r:id="rId68" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
     <hyperlink ref="C5" r:id="rId69" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
-    <hyperlink ref="C63" r:id="rId70" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
+    <hyperlink ref="C64" r:id="rId70" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
     <hyperlink ref="D22" r:id="rId71" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C83" r:id="rId72" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
     <hyperlink ref="D42" r:id="rId73" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
@@ -3892,12 +3893,12 @@
     <hyperlink ref="C2" r:id="rId77" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
     <hyperlink ref="D14" r:id="rId78" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
     <hyperlink ref="C15" r:id="rId79" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
-    <hyperlink ref="D78" r:id="rId80" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
+    <hyperlink ref="D79" r:id="rId80" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
     <hyperlink ref="D3" r:id="rId81" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
     <hyperlink ref="C3" r:id="rId82" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
-    <hyperlink ref="D80" r:id="rId83" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
+    <hyperlink ref="D81" r:id="rId83" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
     <hyperlink ref="D83" r:id="rId84" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
-    <hyperlink ref="C81" r:id="rId85" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
+    <hyperlink ref="C52" r:id="rId85" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
     <hyperlink ref="C40" r:id="rId86" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
     <hyperlink ref="D28" r:id="rId87" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
     <hyperlink ref="D29" r:id="rId88" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
@@ -3913,9 +3914,9 @@
     <hyperlink ref="C35" r:id="rId98" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
     <hyperlink ref="C38" r:id="rId99" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
     <hyperlink ref="C27" r:id="rId100" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
-    <hyperlink ref="D57" r:id="rId101" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
-    <hyperlink ref="C57" r:id="rId102" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
-    <hyperlink ref="C55" r:id="rId103" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
+    <hyperlink ref="D58" r:id="rId101" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
+    <hyperlink ref="C58" r:id="rId102" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
+    <hyperlink ref="C56" r:id="rId103" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
     <hyperlink ref="C12" r:id="rId104" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
     <hyperlink ref="C22" r:id="rId105" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
   </hyperlinks>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BC70BE-647E-4284-8401-EC17E077D31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8D3E76-1138-48D1-AC0A-EE57BD09FFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="305">
   <si>
     <t>Code</t>
   </si>
@@ -829,9 +829,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043388/table_234.xlsx</t>
   </si>
   <si>
-    <t>https://energysavingtrust.org.uk/wp-content/uploads/2021/03/Community-and-locally-owned-renewable-energy-in-Scotland-2020-report.pdf</t>
-  </si>
-  <si>
     <t>Bi-Annual</t>
   </si>
   <si>
@@ -941,6 +938,12 @@
   </si>
   <si>
     <t>https://www.gov.uk/government/statistics/household-energy-efficiency-statistics-headline-release-september-2022</t>
+  </si>
+  <si>
+    <t>https://energysavingtrust.org.uk/report/community-and-locally-owned-energy-in-scotland-2021-report/</t>
+  </si>
+  <si>
+    <t>https://energysavingtrust.org.uk/wp-content/uploads/2022/03/Community-and-locally-owned-energy-report-2021.pdf</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1603,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1911,7 +1914,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>141</v>
@@ -1965,10 +1968,10 @@
         <v>206</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E14" s="23">
         <v>44652</v>
@@ -1992,7 +1995,7 @@
         <v>97</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>158</v>
@@ -2046,10 +2049,10 @@
         <v>209</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E17" s="31">
         <v>44743</v>
@@ -2127,7 +2130,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>169</v>
@@ -2154,7 +2157,7 @@
         <v>70</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>170</v>
@@ -2181,7 +2184,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>247</v>
@@ -2247,7 +2250,7 @@
         <v>155</v>
       </c>
       <c r="G24" s="23">
-        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
+        <f t="shared" ref="G24:G39" si="0">DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
         <v>44896</v>
       </c>
       <c r="H24" s="29" t="s">
@@ -2274,7 +2277,7 @@
         <v>155</v>
       </c>
       <c r="G25" s="31">
-        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H25" s="29" t="s">
@@ -2299,7 +2302,7 @@
         <v>155</v>
       </c>
       <c r="G26" s="23">
-        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H26" s="21" t="s">
@@ -2326,7 +2329,7 @@
         <v>155</v>
       </c>
       <c r="G27" s="31">
-        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H27" s="29" t="s">
@@ -2335,13 +2338,13 @@
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>272</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>273</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>132</v>
@@ -2353,7 +2356,7 @@
         <v>155</v>
       </c>
       <c r="G28" s="23">
-        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H28" s="29" t="s">
@@ -2362,13 +2365,13 @@
     </row>
     <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>132</v>
@@ -2380,7 +2383,7 @@
         <v>155</v>
       </c>
       <c r="G29" s="31">
-        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H29" s="29" t="s">
@@ -2389,13 +2392,13 @@
     </row>
     <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B30" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>138</v>
@@ -2407,7 +2410,7 @@
         <v>155</v>
       </c>
       <c r="G30" s="31">
-        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H30" s="29" t="s">
@@ -2416,13 +2419,13 @@
     </row>
     <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B31" s="44" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>138</v>
@@ -2434,7 +2437,7 @@
         <v>155</v>
       </c>
       <c r="G31" s="31">
-        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H31" s="29" t="s">
@@ -2461,7 +2464,7 @@
         <v>155</v>
       </c>
       <c r="G32" s="31">
-        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H32" s="29" t="s">
@@ -2488,7 +2491,7 @@
         <v>155</v>
       </c>
       <c r="G33" s="23">
-        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H33" s="29" t="s">
@@ -2503,7 +2506,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>138</v>
@@ -2515,7 +2518,7 @@
         <v>155</v>
       </c>
       <c r="G34" s="23">
-        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H34" s="21" t="s">
@@ -2542,7 +2545,7 @@
         <v>155</v>
       </c>
       <c r="G35" s="31">
-        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H35" s="29" t="s">
@@ -2567,7 +2570,7 @@
         <v>155</v>
       </c>
       <c r="G36" s="31">
-        <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H36" s="29" t="s">
@@ -2592,7 +2595,7 @@
         <v>155</v>
       </c>
       <c r="G37" s="23">
-        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H37" s="29" t="s">
@@ -2619,7 +2622,7 @@
         <v>155</v>
       </c>
       <c r="G38" s="23">
-        <f>DATE(YEAR(E38),MONTH(E38)+3,DAY(E38))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H38" s="29" t="s">
@@ -2644,7 +2647,7 @@
         <v>155</v>
       </c>
       <c r="G39" s="31">
-        <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H39" s="29" t="s">
@@ -2794,7 +2797,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>139</v>
@@ -2821,7 +2824,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D46" s="34" t="s">
         <v>140</v>
@@ -2848,10 +2851,10 @@
         <v>117</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E47" s="23">
         <v>44835</v>
@@ -2929,7 +2932,7 @@
         <v>198</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>199</v>
@@ -2938,7 +2941,7 @@
         <v>44774</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G50" s="23">
         <f>DATE(YEAR(E50),MONTH(E50)+6,DAY(E50))</f>
@@ -2968,7 +2971,7 @@
         <v>156</v>
       </c>
       <c r="G51" s="23">
-        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
+        <f t="shared" ref="G51:G68" si="1">DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
         <v>44958</v>
       </c>
       <c r="H51" s="21" t="s">
@@ -2983,10 +2986,10 @@
         <v>75</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="E52" s="23">
         <v>44621</v>
@@ -2995,7 +2998,7 @@
         <v>156</v>
       </c>
       <c r="G52" s="31">
-        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
+        <f t="shared" si="1"/>
         <v>44986</v>
       </c>
       <c r="H52" s="21" t="s">
@@ -3022,7 +3025,7 @@
         <v>156</v>
       </c>
       <c r="G53" s="23">
-        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
+        <f t="shared" si="1"/>
         <v>45017</v>
       </c>
       <c r="H53" s="21" t="s">
@@ -3049,7 +3052,7 @@
         <v>156</v>
       </c>
       <c r="G54" s="31">
-        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <f t="shared" si="1"/>
         <v>45017</v>
       </c>
       <c r="H54" s="29" t="s">
@@ -3076,7 +3079,7 @@
         <v>156</v>
       </c>
       <c r="G55" s="31">
-        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <f t="shared" si="1"/>
         <v>45078</v>
       </c>
       <c r="H55" s="29" t="s">
@@ -3091,10 +3094,10 @@
         <v>101</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E56" s="31">
         <v>44713</v>
@@ -3103,7 +3106,7 @@
         <v>156</v>
       </c>
       <c r="G56" s="31">
-        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
+        <f t="shared" si="1"/>
         <v>45078</v>
       </c>
       <c r="H56" s="29" t="s">
@@ -3118,10 +3121,10 @@
         <v>103</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E57" s="31">
         <v>44713</v>
@@ -3130,7 +3133,7 @@
         <v>156</v>
       </c>
       <c r="G57" s="31">
-        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <f t="shared" si="1"/>
         <v>45078</v>
       </c>
       <c r="H57" s="29" t="s">
@@ -3145,10 +3148,10 @@
         <v>230</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E58" s="28">
         <v>44713</v>
@@ -3157,7 +3160,7 @@
         <v>156</v>
       </c>
       <c r="G58" s="31">
-        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <f t="shared" si="1"/>
         <v>45078</v>
       </c>
       <c r="H58" s="29" t="s">
@@ -3184,7 +3187,7 @@
         <v>156</v>
       </c>
       <c r="G59" s="31">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <f t="shared" si="1"/>
         <v>45108</v>
       </c>
       <c r="H59" s="29" t="s">
@@ -3211,7 +3214,7 @@
         <v>156</v>
       </c>
       <c r="G60" s="31">
-        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <f t="shared" si="1"/>
         <v>45108</v>
       </c>
       <c r="H60" s="29" t="s">
@@ -3238,7 +3241,7 @@
         <v>156</v>
       </c>
       <c r="G61" s="23">
-        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
+        <f t="shared" si="1"/>
         <v>45108</v>
       </c>
       <c r="H61" s="29" t="s">
@@ -3265,7 +3268,7 @@
         <v>156</v>
       </c>
       <c r="G62" s="23">
-        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <f t="shared" si="1"/>
         <v>45108</v>
       </c>
       <c r="H62" s="29" t="s">
@@ -3280,10 +3283,10 @@
         <v>9</v>
       </c>
       <c r="C63" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="D63" s="22" t="s">
         <v>301</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>302</v>
       </c>
       <c r="E63" s="31">
         <v>44805</v>
@@ -3292,7 +3295,7 @@
         <v>156</v>
       </c>
       <c r="G63" s="23">
-        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <f t="shared" si="1"/>
         <v>45170</v>
       </c>
       <c r="H63" s="29" t="s">
@@ -3319,7 +3322,7 @@
         <v>156</v>
       </c>
       <c r="G64" s="31">
-        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
+        <f t="shared" si="1"/>
         <v>45170</v>
       </c>
       <c r="H64" s="29" t="s">
@@ -3334,10 +3337,10 @@
         <v>32</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E65" s="31">
         <v>44805</v>
@@ -3346,7 +3349,7 @@
         <v>156</v>
       </c>
       <c r="G65" s="31">
-        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <f t="shared" si="1"/>
         <v>45170</v>
       </c>
       <c r="H65" s="29" t="s">
@@ -3361,7 +3364,7 @@
         <v>196</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>193</v>
@@ -3373,7 +3376,7 @@
         <v>156</v>
       </c>
       <c r="G66" s="23">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <f t="shared" si="1"/>
         <v>45170</v>
       </c>
       <c r="H66" s="21" t="s">
@@ -3400,7 +3403,7 @@
         <v>156</v>
       </c>
       <c r="G67" s="31">
-        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
+        <f t="shared" si="1"/>
         <v>45231</v>
       </c>
       <c r="H67" s="29" t="s">
@@ -3415,7 +3418,7 @@
         <v>56</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>143</v>
@@ -3427,7 +3430,7 @@
         <v>156</v>
       </c>
       <c r="G68" s="31">
-        <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
+        <f t="shared" si="1"/>
         <v>45536</v>
       </c>
       <c r="H68" s="29" t="s">
@@ -3665,7 +3668,7 @@
         <v>203</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E79" s="10">
         <v>44044</v>
@@ -3734,7 +3737,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>148</v>
@@ -3898,32 +3901,31 @@
     <hyperlink ref="C3" r:id="rId82" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
     <hyperlink ref="D81" r:id="rId83" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
     <hyperlink ref="D83" r:id="rId84" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
-    <hyperlink ref="C52" r:id="rId85" xr:uid="{CCF6F9E7-8F70-4D1E-8597-F9646028F25D}"/>
-    <hyperlink ref="C40" r:id="rId86" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D28" r:id="rId87" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D29" r:id="rId88" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C28" r:id="rId89" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C34" r:id="rId90" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C30" r:id="rId91" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C18" r:id="rId92" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C10" r:id="rId93" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C51" r:id="rId94" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="D47" r:id="rId95" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C17" r:id="rId96" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D31" r:id="rId97" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C35" r:id="rId98" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C38" r:id="rId99" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C27" r:id="rId100" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
-    <hyperlink ref="D58" r:id="rId101" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
-    <hyperlink ref="C58" r:id="rId102" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
-    <hyperlink ref="C56" r:id="rId103" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
-    <hyperlink ref="C12" r:id="rId104" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
-    <hyperlink ref="C22" r:id="rId105" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
+    <hyperlink ref="C40" r:id="rId85" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D28" r:id="rId86" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D29" r:id="rId87" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C28" r:id="rId88" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C34" r:id="rId89" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C30" r:id="rId90" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C18" r:id="rId91" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C10" r:id="rId92" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="C51" r:id="rId93" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
+    <hyperlink ref="D47" r:id="rId94" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C17" r:id="rId95" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="D31" r:id="rId96" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C35" r:id="rId97" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C38" r:id="rId98" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C27" r:id="rId99" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="D58" r:id="rId100" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
+    <hyperlink ref="C58" r:id="rId101" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
+    <hyperlink ref="C56" r:id="rId102" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
+    <hyperlink ref="C12" r:id="rId103" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
+    <hyperlink ref="C22" r:id="rId104" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId105"/>
   <tableParts count="1">
-    <tablePart r:id="rId107"/>
+    <tablePart r:id="rId106"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8D3E76-1138-48D1-AC0A-EE57BD09FFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1BFF06-5C18-4D39-B9F8-A52CD560A205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -793,9 +793,6 @@
     <t>ONS</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043467/subnational_electricity_consumption_statistics_2005-2020.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043473/subnational_gas_consumption_statistics_2005-2020.xlsx</t>
   </si>
   <si>
@@ -944,6 +941,9 @@
   </si>
   <si>
     <t>https://energysavingtrust.org.uk/wp-content/uploads/2022/03/Community-and-locally-owned-energy-report-2021.pdf</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1115149/subnational_electricity_consumption_statistics_2005-2020.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1119,7 +1119,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
@@ -1602,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1914,7 +1913,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>141</v>
@@ -1968,10 +1967,10 @@
         <v>206</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E14" s="23">
         <v>44652</v>
@@ -1995,7 +1994,7 @@
         <v>97</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>158</v>
@@ -2049,10 +2048,10 @@
         <v>209</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E17" s="31">
         <v>44743</v>
@@ -2076,7 +2075,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>137</v>
@@ -2103,7 +2102,7 @@
         <v>66</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>132</v>
@@ -2130,7 +2129,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>169</v>
@@ -2157,7 +2156,7 @@
         <v>70</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>170</v>
@@ -2184,7 +2183,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>247</v>
@@ -2238,7 +2237,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>154</v>
@@ -2265,7 +2264,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>138</v>
@@ -2317,7 +2316,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>135</v>
@@ -2338,13 +2337,13 @@
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>272</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>132</v>
@@ -2365,13 +2364,13 @@
     </row>
     <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>132</v>
@@ -2392,13 +2391,13 @@
     </row>
     <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B30" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>138</v>
@@ -2419,13 +2418,13 @@
     </row>
     <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" s="44" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>138</v>
@@ -2452,7 +2451,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>132</v>
@@ -2479,7 +2478,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>132</v>
@@ -2506,7 +2505,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>138</v>
@@ -2610,7 +2609,7 @@
         <v>64</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>132</v>
@@ -2662,7 +2661,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>136</v>
@@ -2689,7 +2688,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>134</v>
@@ -2716,7 +2715,7 @@
         <v>24</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>145</v>
@@ -2743,7 +2742,7 @@
         <v>54</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="D43" s="34" t="s">
         <v>142</v>
@@ -2770,7 +2769,7 @@
         <v>60</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>145</v>
@@ -2797,7 +2796,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>139</v>
@@ -2823,8 +2822,8 @@
       <c r="B46" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="51" t="s">
-        <v>287</v>
+      <c r="C46" s="50" t="s">
+        <v>286</v>
       </c>
       <c r="D46" s="34" t="s">
         <v>140</v>
@@ -2851,10 +2850,10 @@
         <v>117</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E47" s="23">
         <v>44835</v>
@@ -2932,7 +2931,7 @@
         <v>198</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>199</v>
@@ -2941,7 +2940,7 @@
         <v>44774</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G50" s="23">
         <f>DATE(YEAR(E50),MONTH(E50)+6,DAY(E50))</f>
@@ -2986,10 +2985,10 @@
         <v>75</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E52" s="23">
         <v>44621</v>
@@ -3094,10 +3093,10 @@
         <v>101</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E56" s="31">
         <v>44713</v>
@@ -3121,10 +3120,10 @@
         <v>103</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E57" s="31">
         <v>44713</v>
@@ -3147,11 +3146,11 @@
       <c r="B58" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="C58" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="D58" s="52" t="s">
+      <c r="C58" s="51" t="s">
         <v>282</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>281</v>
       </c>
       <c r="E58" s="28">
         <v>44713</v>
@@ -3283,10 +3282,10 @@
         <v>9</v>
       </c>
       <c r="C63" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="D63" s="22" t="s">
         <v>300</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>301</v>
       </c>
       <c r="E63" s="31">
         <v>44805</v>
@@ -3337,10 +3336,10 @@
         <v>32</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E65" s="31">
         <v>44805</v>
@@ -3364,7 +3363,7 @@
         <v>196</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>193</v>
@@ -3418,20 +3417,20 @@
         <v>56</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>143</v>
       </c>
       <c r="E68" s="31">
-        <v>45170</v>
+        <v>44805</v>
       </c>
       <c r="F68" s="42" t="s">
         <v>156</v>
       </c>
       <c r="G68" s="31">
         <f t="shared" si="1"/>
-        <v>45536</v>
+        <v>45170</v>
       </c>
       <c r="H68" s="29" t="s">
         <v>216</v>
@@ -3668,7 +3667,7 @@
         <v>203</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E79" s="10">
         <v>44044</v>
@@ -3737,7 +3736,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>148</v>
@@ -3921,11 +3920,12 @@
     <hyperlink ref="C56" r:id="rId102" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
     <hyperlink ref="C12" r:id="rId103" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
     <hyperlink ref="C22" r:id="rId104" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
+    <hyperlink ref="C43" r:id="rId105" xr:uid="{5B6E2066-FB6E-45C7-8042-6748245C029E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId105"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>
   <tableParts count="1">
-    <tablePart r:id="rId106"/>
+    <tablePart r:id="rId107"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1BFF06-5C18-4D39-B9F8-A52CD560A205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022E462E-7314-4A7D-8477-D1F340212CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -733,12 +733,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1006721/DUKES_5.11.xls</t>
   </si>
   <si>
-    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/06/scottish-natural-capital-accounts-2021/documents/reference-tables-2021/reference-tables-2021/govscot%3Adocument/reference-tables-2021.xlsx?forceDownload=true</t>
-  </si>
-  <si>
-    <t>https://www.gov.scot/publications/scottish-natural-capital-accounts-2021/documents/</t>
-  </si>
-  <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true</t>
   </si>
   <si>
@@ -832,9 +826,6 @@
     <t>https://www.ofgem.gov.uk/environmental-and-social-schemes/domestic-renewable-heat-incentive-domestic-rhi</t>
   </si>
   <si>
-    <t>https://oguk.org.uk/wp-content/uploads/woocommerce_uploads/2021/08/OGUK_Workforce-Employment-Insight-2021-z07os0.pdf</t>
-  </si>
-  <si>
     <t>https://www.ombudsman-services.org/about-us/annual-reports</t>
   </si>
   <si>
@@ -901,12 +892,6 @@
     <t>https://www.ons.gov.uk/file?uri=/economy/environmentalaccounts/datasets/lowcarbonandrenewableenergyeconomyfirstestimatesdataset/current/lcreedataset202016022022143552.xlsx</t>
   </si>
   <si>
-    <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-may-2022</t>
-  </si>
-  <si>
-    <t>https://www.ofgem.gov.uk/sites/default/files/2022-05/DRHI%20Quarterly%20Report%20Issue%2032%20May%202022.pdf</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/statistics/renewable-fuel-statistics-2021-fourth-provisional-report</t>
   </si>
   <si>
@@ -944,6 +929,21 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1115149/subnational_electricity_consumption_statistics_2005-2020.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.ofgem.gov.uk/publications/domestic-renewable-heat-incentive-drhi-quarterly-report-issue-34</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/rhi-monthly-deployment-data-september-2022-quarterly-edition</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/publications/scottish-natural-capital-accounts-2022/</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/04/scottish-natural-capital-accounts-2022/documents/scottish-natural-capital-accounts-2022-reference-tables/scottish-natural-capital-accounts-2022-reference-tables/govscot%3Adocument/scottish-natural-capital-accounts-2022-reference-tables.xlsx</t>
+  </si>
+  <si>
+    <t>https://oeuk.org.uk/wp-content/uploads/2022/11/OEUK-Workforce-Insight-2022.pdf</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1108,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="15" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1121,6 +1120,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1601,22 +1601,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" customWidth="1"/>
-    <col min="3" max="3" width="74.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="3" max="3" width="74.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -1667,34 +1667,34 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="39">
-        <v>43891</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="20">
+      <c r="C3" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="51">
+        <v>44652</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="23">
         <f>DATE(YEAR(E3)+1,MONTH(E3),DAY(E3))</f>
-        <v>44256</v>
-      </c>
-      <c r="H3" s="2" t="s">
+        <v>45017</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>212</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>112</v>
       </c>
@@ -1729,15 +1729,15 @@
         <v>113</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E5" s="16">
         <v>44256</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="47" t="s">
         <v>156</v>
       </c>
       <c r="G5" s="16">
@@ -1747,7 +1747,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>162</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>128</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>109</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="E8" s="31">
         <v>44287</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G8" s="31">
@@ -1826,15 +1826,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>176</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>147</v>
@@ -1853,7 +1853,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>68</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>93</v>
       </c>
@@ -1905,34 +1905,34 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>290</v>
+      <c r="C12" s="39" t="s">
+        <v>301</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="23">
-        <v>44713</v>
+        <v>44835</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G12" s="23">
-        <f>DATE(YEAR(E12),MONTH(E12)+1,DAY(E12))</f>
-        <v>44743</v>
+        <f>DATE(YEAR(E12),MONTH(E12)+4,DAY(E12))</f>
+        <v>44958</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>10</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>133</v>
@@ -1948,7 +1948,7 @@
       <c r="E13" s="31">
         <v>44378</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G13" s="31">
@@ -1959,34 +1959,34 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>205</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>291</v>
+      <c r="C14" s="42" t="s">
+        <v>300</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E14" s="23">
-        <v>44652</v>
+        <v>44866</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>155</v>
       </c>
       <c r="G14" s="23">
         <f>DATE(YEAR(E14),MONTH(E14)+4,DAY(E14))</f>
-        <v>44774</v>
+        <v>44986</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>96</v>
       </c>
@@ -1994,26 +1994,26 @@
         <v>97</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>158</v>
       </c>
       <c r="E15" s="23">
-        <v>44409</v>
+        <v>44866</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G15" s="31">
         <f>DATE(YEAR(E15)+1,MONTH(E15),DAY(E15))</f>
-        <v>44774</v>
+        <v>45231</v>
       </c>
       <c r="H15" s="29" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>192</v>
       </c>
@@ -2040,18 +2040,18 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>208</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>296</v>
+      <c r="C17" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>291</v>
       </c>
       <c r="E17" s="31">
         <v>44743</v>
@@ -2067,17 +2067,17 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="D18" s="40" t="s">
+      <c r="C18" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>137</v>
       </c>
       <c r="E18" s="23">
@@ -2094,7 +2094,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>65</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>66</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>132</v>
@@ -2121,15 +2121,15 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>126</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>292</v>
+      <c r="C20" s="42" t="s">
+        <v>287</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>169</v>
@@ -2148,15 +2148,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>297</v>
+      <c r="C21" s="39" t="s">
+        <v>292</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>170</v>
@@ -2175,18 +2175,18 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>247</v>
+      <c r="C22" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="E22" s="23">
         <v>44835</v>
@@ -2202,7 +2202,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>76</v>
       </c>
@@ -2210,15 +2210,15 @@
         <v>77</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E23" s="31">
         <v>44501</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G23" s="31">
@@ -2229,7 +2229,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>43</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>154</v>
@@ -2245,7 +2245,7 @@
       <c r="E24" s="31">
         <v>44805</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="41" t="s">
         <v>155</v>
       </c>
       <c r="G24" s="23">
@@ -2256,7 +2256,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>45</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>138</v>
@@ -2272,7 +2272,7 @@
       <c r="E25" s="31">
         <v>44805</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="41" t="s">
         <v>155</v>
       </c>
       <c r="G25" s="31">
@@ -2283,7 +2283,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>183</v>
       </c>
@@ -2308,15 +2308,15 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="40" t="s">
-        <v>256</v>
+      <c r="C27" s="39" t="s">
+        <v>254</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>135</v>
@@ -2335,15 +2335,15 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>132</v>
@@ -2351,7 +2351,7 @@
       <c r="E28" s="4">
         <v>44805</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="41" t="s">
         <v>155</v>
       </c>
       <c r="G28" s="23">
@@ -2362,23 +2362,23 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>269</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>272</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="46">
         <v>44805</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="41" t="s">
         <v>155</v>
       </c>
       <c r="G29" s="31">
@@ -2389,23 +2389,23 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="B30" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="D30" s="41" t="s">
+      <c r="C30" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="40" t="s">
         <v>138</v>
       </c>
       <c r="E30" s="31">
         <v>44805</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="41" t="s">
         <v>155</v>
       </c>
       <c r="G30" s="31">
@@ -2416,23 +2416,23 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="B31" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="D31" s="40" t="s">
+      <c r="C31" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" s="39" t="s">
         <v>138</v>
       </c>
       <c r="E31" s="31">
         <v>44805</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="41" t="s">
         <v>155</v>
       </c>
       <c r="G31" s="31">
@@ -2443,7 +2443,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>4</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>132</v>
@@ -2470,7 +2470,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>6</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>132</v>
@@ -2486,7 +2486,7 @@
       <c r="E33" s="4">
         <v>44805</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="41" t="s">
         <v>155</v>
       </c>
       <c r="G33" s="23">
@@ -2497,7 +2497,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>39</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>138</v>
@@ -2524,23 +2524,23 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="40" t="s">
-        <v>244</v>
+      <c r="C35" s="39" t="s">
+        <v>242</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="46">
         <v>44805</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="41" t="s">
         <v>155</v>
       </c>
       <c r="G35" s="31">
@@ -2551,7 +2551,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>86</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="31">
@@ -2576,7 +2576,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>89</v>
       </c>
@@ -2601,15 +2601,15 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>63</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="40" t="s">
-        <v>263</v>
+      <c r="C38" s="39" t="s">
+        <v>261</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>132</v>
@@ -2617,7 +2617,7 @@
       <c r="E38" s="4">
         <v>44805</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="41" t="s">
         <v>155</v>
       </c>
       <c r="G38" s="23">
@@ -2628,7 +2628,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>83</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>35</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>136</v>
@@ -2669,7 +2669,7 @@
       <c r="E40" s="31">
         <v>44531</v>
       </c>
-      <c r="F40" s="42" t="s">
+      <c r="F40" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G40" s="23">
@@ -2680,7 +2680,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>18</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>134</v>
@@ -2696,7 +2696,7 @@
       <c r="E41" s="31">
         <v>44531</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G41" s="31">
@@ -2707,7 +2707,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>23</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>24</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>145</v>
@@ -2723,7 +2723,7 @@
       <c r="E42" s="31">
         <v>44531</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="F42" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G42" s="31">
@@ -2734,15 +2734,15 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="50" t="s">
-        <v>304</v>
+      <c r="C43" s="49" t="s">
+        <v>299</v>
       </c>
       <c r="D43" s="34" t="s">
         <v>142</v>
@@ -2761,7 +2761,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>59</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>60</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>145</v>
@@ -2777,7 +2777,7 @@
       <c r="E44" s="31">
         <v>44531</v>
       </c>
-      <c r="F44" s="42" t="s">
+      <c r="F44" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G44" s="28">
@@ -2788,7 +2788,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>47</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>139</v>
@@ -2804,7 +2804,7 @@
       <c r="E45" s="31">
         <v>44835</v>
       </c>
-      <c r="F45" s="42" t="s">
+      <c r="F45" s="41" t="s">
         <v>155</v>
       </c>
       <c r="G45" s="31">
@@ -2815,15 +2815,15 @@
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="50" t="s">
-        <v>286</v>
+      <c r="C46" s="49" t="s">
+        <v>283</v>
       </c>
       <c r="D46" s="34" t="s">
         <v>140</v>
@@ -2842,23 +2842,23 @@
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>279</v>
+      <c r="C47" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>276</v>
       </c>
       <c r="E47" s="23">
         <v>44835</v>
       </c>
-      <c r="F47" s="42" t="s">
+      <c r="F47" s="41" t="s">
         <v>155</v>
       </c>
       <c r="G47" s="23">
@@ -2869,7 +2869,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>78</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>71</v>
       </c>
@@ -2912,7 +2912,7 @@
       <c r="E49" s="23">
         <v>44562</v>
       </c>
-      <c r="F49" s="42" t="s">
+      <c r="F49" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G49" s="23">
@@ -2923,15 +2923,15 @@
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>197</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C50" s="46" t="s">
-        <v>298</v>
+      <c r="C50" s="45" t="s">
+        <v>293</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>199</v>
@@ -2939,8 +2939,8 @@
       <c r="E50" s="23">
         <v>44774</v>
       </c>
-      <c r="F50" s="42" t="s">
-        <v>265</v>
+      <c r="F50" s="41" t="s">
+        <v>263</v>
       </c>
       <c r="G50" s="23">
         <f>DATE(YEAR(E50),MONTH(E50)+6,DAY(E50))</f>
@@ -2950,14 +2950,14 @@
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>181</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="42" t="s">
         <v>182</v>
       </c>
       <c r="D51" s="25" t="s">
@@ -2977,7 +2977,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>74</v>
       </c>
@@ -2985,10 +2985,10 @@
         <v>75</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E52" s="23">
         <v>44621</v>
@@ -3004,7 +3004,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>225</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>104</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="E54" s="31">
         <v>44652</v>
       </c>
-      <c r="F54" s="42" t="s">
+      <c r="F54" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G54" s="31">
@@ -3058,7 +3058,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>91</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>92</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D55" s="30" t="s">
         <v>173</v>
@@ -3074,7 +3074,7 @@
       <c r="E55" s="31">
         <v>44713</v>
       </c>
-      <c r="F55" s="42" t="s">
+      <c r="F55" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G55" s="31">
@@ -3085,23 +3085,23 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>100</v>
       </c>
       <c r="B56" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="40" t="s">
-        <v>284</v>
+      <c r="C56" s="39" t="s">
+        <v>281</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E56" s="31">
         <v>44713</v>
       </c>
-      <c r="F56" s="42" t="s">
+      <c r="F56" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G56" s="31">
@@ -3112,7 +3112,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>102</v>
       </c>
@@ -3120,15 +3120,15 @@
         <v>103</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E57" s="31">
         <v>44713</v>
       </c>
-      <c r="F57" s="42" t="s">
+      <c r="F57" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G57" s="31">
@@ -3139,18 +3139,18 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>229</v>
       </c>
       <c r="B58" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="C58" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="D58" s="51" t="s">
-        <v>281</v>
+      <c r="C58" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>278</v>
       </c>
       <c r="E58" s="28">
         <v>44713</v>
@@ -3166,7 +3166,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
         <v>33</v>
       </c>
@@ -3182,7 +3182,7 @@
       <c r="E59" s="31">
         <v>44743</v>
       </c>
-      <c r="F59" s="42" t="s">
+      <c r="F59" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G59" s="31">
@@ -3193,7 +3193,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>12</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>13</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>133</v>
@@ -3220,7 +3220,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
         <v>14</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>15</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>133</v>
@@ -3236,7 +3236,7 @@
       <c r="E61" s="31">
         <v>44743</v>
       </c>
-      <c r="F61" s="42" t="s">
+      <c r="F61" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G61" s="23">
@@ -3247,7 +3247,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>16</v>
       </c>
@@ -3263,7 +3263,7 @@
       <c r="E62" s="23">
         <v>44743</v>
       </c>
-      <c r="F62" s="42" t="s">
+      <c r="F62" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G62" s="23">
@@ -3274,7 +3274,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>8</v>
       </c>
@@ -3282,15 +3282,15 @@
         <v>9</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E63" s="31">
         <v>44805</v>
       </c>
-      <c r="F63" s="42" t="s">
+      <c r="F63" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G63" s="23">
@@ -3301,7 +3301,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>57</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>58</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>144</v>
@@ -3317,7 +3317,7 @@
       <c r="E64" s="31">
         <v>44805</v>
       </c>
-      <c r="F64" s="42" t="s">
+      <c r="F64" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G64" s="31">
@@ -3328,7 +3328,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>31</v>
       </c>
@@ -3336,15 +3336,15 @@
         <v>32</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E65" s="31">
         <v>44805</v>
       </c>
-      <c r="F65" s="42" t="s">
+      <c r="F65" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G65" s="31">
@@ -3355,7 +3355,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
         <v>195</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>196</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>193</v>
@@ -3382,71 +3382,71 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>248</v>
+        <v>56</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>290</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E67" s="31">
-        <v>44866</v>
-      </c>
-      <c r="F67" s="42" t="s">
+        <v>44805</v>
+      </c>
+      <c r="F67" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G67" s="31">
         <f t="shared" si="1"/>
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="H67" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>295</v>
+        <v>62</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>246</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E68" s="31">
-        <v>44805</v>
-      </c>
-      <c r="F68" s="42" t="s">
+        <v>44866</v>
+      </c>
+      <c r="F68" s="41" t="s">
         <v>156</v>
       </c>
       <c r="G68" s="31">
         <f t="shared" si="1"/>
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="H68" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
+    <row r="69" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="44"/>
-    </row>
-    <row r="70" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="43"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="43"/>
+    </row>
+    <row r="70" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
         <v>159</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>106</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>25</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>114</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>124</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>186</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>20</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
         <v>118</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>122</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>201</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>203</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E79" s="10">
         <v>44044</v>
@@ -3680,7 +3680,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>174</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
         <v>120</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>98</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>148</v>
@@ -3752,18 +3752,18 @@
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="E83" s="10">
         <v>44256</v>
@@ -3771,10 +3771,10 @@
       <c r="F83" s="6"/>
       <c r="G83" s="10"/>
       <c r="H83" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>179</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>200</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E90" s="7"/>
       <c r="G90" s="8"/>
     </row>
@@ -3836,10 +3836,10 @@
     <hyperlink ref="D45" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
     <hyperlink ref="D46" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="D43" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D68" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D67" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="D64" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="D44" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D67" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D68" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="D38" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
     <hyperlink ref="D19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="D9" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
@@ -3894,38 +3894,37 @@
     <hyperlink ref="D23" r:id="rId76" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId77" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
     <hyperlink ref="D14" r:id="rId78" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
-    <hyperlink ref="C15" r:id="rId79" xr:uid="{E75D3585-4283-4149-B12A-500F1C77C046}"/>
-    <hyperlink ref="D79" r:id="rId80" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
-    <hyperlink ref="D3" r:id="rId81" xr:uid="{DC015219-0BD9-4A0B-AAA2-E97E313B87A6}"/>
-    <hyperlink ref="C3" r:id="rId82" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
-    <hyperlink ref="D81" r:id="rId83" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
-    <hyperlink ref="D83" r:id="rId84" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
-    <hyperlink ref="C40" r:id="rId85" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D28" r:id="rId86" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D29" r:id="rId87" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C28" r:id="rId88" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C34" r:id="rId89" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C30" r:id="rId90" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C18" r:id="rId91" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C10" r:id="rId92" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C51" r:id="rId93" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="D47" r:id="rId94" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C17" r:id="rId95" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D31" r:id="rId96" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C35" r:id="rId97" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C38" r:id="rId98" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C27" r:id="rId99" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
-    <hyperlink ref="D58" r:id="rId100" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
-    <hyperlink ref="C58" r:id="rId101" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
-    <hyperlink ref="C56" r:id="rId102" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
-    <hyperlink ref="C12" r:id="rId103" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
-    <hyperlink ref="C22" r:id="rId104" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
-    <hyperlink ref="C43" r:id="rId105" xr:uid="{5B6E2066-FB6E-45C7-8042-6748245C029E}"/>
+    <hyperlink ref="D79" r:id="rId79" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
+    <hyperlink ref="C3" r:id="rId80" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/04/scottish-natural-capital-accounts-2022/documents/scottish-natural-capital-accounts-2022-reference-tables/scottish-natural-capital-accounts-2022-reference-tables/govscot%3Adocument/scottish-natural-capital-accounts-2022-reference-tables.xlsx" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
+    <hyperlink ref="D81" r:id="rId81" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
+    <hyperlink ref="D83" r:id="rId82" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
+    <hyperlink ref="C40" r:id="rId83" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D28" r:id="rId84" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D29" r:id="rId85" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C28" r:id="rId86" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C34" r:id="rId87" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C30" r:id="rId88" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C18" r:id="rId89" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C10" r:id="rId90" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="C51" r:id="rId91" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
+    <hyperlink ref="D47" r:id="rId92" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C17" r:id="rId93" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="D31" r:id="rId94" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C35" r:id="rId95" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C38" r:id="rId96" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C27" r:id="rId97" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="D58" r:id="rId98" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
+    <hyperlink ref="C58" r:id="rId99" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
+    <hyperlink ref="C56" r:id="rId100" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
+    <hyperlink ref="C12" r:id="rId101" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
+    <hyperlink ref="C22" r:id="rId102" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
+    <hyperlink ref="C43" r:id="rId103" xr:uid="{5B6E2066-FB6E-45C7-8042-6748245C029E}"/>
+    <hyperlink ref="C14" r:id="rId104" xr:uid="{61BEAFD6-8542-4172-94BF-7ACCDCB0C9AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId105"/>
   <tableParts count="1">
-    <tablePart r:id="rId107"/>
+    <tablePart r:id="rId106"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE41870-6BC4-46BA-AD96-B144793DB64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E01DA3-DAE5-421F-BDF5-779DD3822D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30840" yWindow="-120" windowWidth="30960" windowHeight="16920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -724,12 +724,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1006721/DUKES_5.11.xls</t>
   </si>
   <si>
-    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true</t>
-  </si>
-  <si>
-    <t>https://www.gov.scot/publications/oil-and-gas-production-statistics-2019/</t>
-  </si>
-  <si>
     <t>https://mip-prd-web.azurewebsites.net/DataItemExplorer/Index</t>
   </si>
   <si>
@@ -935,6 +929,12 @@
   </si>
   <si>
     <t>https://oeuk.org.uk/wp-content/uploads/2022/11/OEUK-Workforce-Insight-2022.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/publications/oil-and-gas-production-statistics/</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2023/01/oil-and-gas-production-statistics/documents/oil-and-gas-production-income-and-expenditure-1998-2021/oil-and-gas-production-income-and-expenditure-1998-2021/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2Bincome%2Band%2Bexpenditure%2B1998-2021.ods</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1097,9 +1097,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1582,7 +1579,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,28 +1672,29 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="8">
-        <v>44256</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="8">
-        <v>44621</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="C4" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" s="18">
+        <v>44927</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="18">
+        <f>DATE(YEAR(E4)+1,MONTH(E4),DAY(E4))</f>
+        <v>45292</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1787,7 +1785,7 @@
         <v>176</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>147</v>
@@ -1841,10 +1839,10 @@
         <v>209</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E10" s="18">
         <v>44743</v>
@@ -1868,7 +1866,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>137</v>
@@ -1895,7 +1893,7 @@
         <v>66</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>132</v>
@@ -1922,7 +1920,7 @@
         <v>127</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>169</v>
@@ -1949,7 +1947,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>170</v>
@@ -1976,10 +1974,10 @@
         <v>28</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E15" s="18">
         <v>44835</v>
@@ -2003,10 +2001,10 @@
         <v>77</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E16" s="18">
         <v>44501</v>
@@ -2057,7 +2055,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>154</v>
@@ -2084,7 +2082,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>138</v>
@@ -2130,13 +2128,13 @@
     </row>
     <row r="21" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>132</v>
@@ -2157,13 +2155,13 @@
     </row>
     <row r="22" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>132</v>
@@ -2184,13 +2182,13 @@
     </row>
     <row r="23" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>138</v>
@@ -2211,13 +2209,13 @@
     </row>
     <row r="24" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>138</v>
@@ -2244,7 +2242,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>132</v>
@@ -2271,7 +2269,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>132</v>
@@ -2298,7 +2296,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>138</v>
@@ -2325,7 +2323,7 @@
         <v>42</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>138</v>
@@ -2352,7 +2350,7 @@
         <v>87</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="18">
@@ -2402,7 +2400,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>132</v>
@@ -2454,7 +2452,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>136</v>
@@ -2481,7 +2479,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>145</v>
@@ -2562,7 +2560,7 @@
         <v>52</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>141</v>
@@ -2589,7 +2587,7 @@
         <v>198</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>199</v>
@@ -2598,7 +2596,7 @@
         <v>44774</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G38" s="18">
         <f>DATE(YEAR(E38),MONTH(E38)+6,DAY(E38))</f>
@@ -2643,10 +2641,10 @@
         <v>206</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E40" s="18">
         <v>44866</v>
@@ -2663,29 +2661,29 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="18">
         <v>44896</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="F41" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="18">
         <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
         <v>44986</v>
       </c>
-      <c r="H41" s="37" t="s">
+      <c r="H41" s="16" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2697,7 +2695,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>139</v>
@@ -2708,11 +2706,11 @@
       <c r="F42" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="38">
+      <c r="G42" s="18">
         <f>DATE(YEAR(E42),MONTH(E42)+3,DAY(E42))</f>
         <v>44986</v>
       </c>
-      <c r="H42" s="37" t="s">
+      <c r="H42" s="16" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2724,7 +2722,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D43" s="26" t="s">
         <v>140</v>
@@ -2744,22 +2742,22 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E44" s="18">
         <v>44896</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F44" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G44" s="22">
@@ -2778,10 +2776,10 @@
         <v>75</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E45" s="18">
         <v>44621</v>
@@ -2805,10 +2803,10 @@
         <v>176</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>300</v>
       </c>
       <c r="E46" s="36">
         <v>44652</v>
@@ -2911,7 +2909,7 @@
         <v>92</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>173</v>
@@ -2938,10 +2936,10 @@
         <v>101</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E51" s="18">
         <v>44713</v>
@@ -2965,10 +2963,10 @@
         <v>103</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E52" s="18">
         <v>44713</v>
@@ -2985,22 +2983,22 @@
       </c>
     </row>
     <row r="53" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="16" t="s">
         <v>230</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="E53" s="38">
+        <v>276</v>
+      </c>
+      <c r="E53" s="18">
         <v>44713</v>
       </c>
-      <c r="F53" s="37" t="s">
+      <c r="F53" s="16" t="s">
         <v>156</v>
       </c>
       <c r="G53" s="18">
@@ -3019,7 +3017,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>133</v>
@@ -3073,7 +3071,7 @@
         <v>13</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>133</v>
@@ -3093,22 +3091,22 @@
       </c>
     </row>
     <row r="57" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="38">
+      <c r="E57" s="18">
         <v>44743</v>
       </c>
-      <c r="F57" s="39" t="s">
+      <c r="F57" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G57" s="18">
@@ -3154,10 +3152,10 @@
         <v>9</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E59" s="18">
         <v>44805</v>
@@ -3181,7 +3179,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>144</v>
@@ -3208,10 +3206,10 @@
         <v>32</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E61" s="18">
         <v>44805</v>
@@ -3235,7 +3233,7 @@
         <v>196</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>193</v>
@@ -3262,7 +3260,7 @@
         <v>56</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>143</v>
@@ -3289,7 +3287,7 @@
         <v>97</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>158</v>
@@ -3316,7 +3314,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>146</v>
@@ -3343,7 +3341,7 @@
         <v>19</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>134</v>
@@ -3363,29 +3361,29 @@
       </c>
     </row>
     <row r="67" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E67" s="38">
+      <c r="E67" s="18">
         <v>44896</v>
       </c>
-      <c r="F67" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="G67" s="38">
+      <c r="F67" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G67" s="18">
         <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
         <v>45261</v>
       </c>
-      <c r="H67" s="37" t="s">
+      <c r="H67" s="16" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3397,7 +3395,7 @@
         <v>60</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>145</v>
@@ -3408,11 +3406,11 @@
       <c r="F68" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="G68" s="38">
+      <c r="G68" s="18">
         <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
         <v>45261</v>
       </c>
-      <c r="H68" s="37" t="s">
+      <c r="H68" s="16" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3647,7 +3645,7 @@
         <v>203</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E79" s="8">
         <v>44044</v>
@@ -3716,7 +3714,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>148</v>
@@ -3734,16 +3732,16 @@
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="E83" s="8">
         <v>44256</v>
@@ -3751,7 +3749,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="8"/>
       <c r="H83" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3845,66 +3843,64 @@
     <hyperlink ref="D50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
     <hyperlink ref="D6" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
     <hyperlink ref="D48" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D4" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C80" r:id="rId51" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="C84" r:id="rId52" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D39" r:id="rId53" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C20" r:id="rId54" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D75" r:id="rId55" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C75" r:id="rId56" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D73" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C73" r:id="rId58" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C78" r:id="rId59" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D17" r:id="rId60" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D62" r:id="rId61" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D38" r:id="rId62" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C79" r:id="rId63" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C54" r:id="rId64" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D28" r:id="rId65" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D19" r:id="rId66" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C48" r:id="rId67" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="D37" r:id="rId68" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C4" r:id="rId69" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2021/03/oil-and-gas-production-statistics-2019/documents/oil-and-gas-production-statistics-2019---tables/oil-and-gas-production-statistics-2019---tables/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2B2019%2B-%2Bpublication%2Btables.xlsx?forceDownload=true" xr:uid="{EFFB3F7D-992D-403B-9018-45F56D2F9DE7}"/>
-    <hyperlink ref="C60" r:id="rId70" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D15" r:id="rId71" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
-    <hyperlink ref="C83" r:id="rId72" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="D34" r:id="rId73" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C25" r:id="rId74" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="C66" r:id="rId75" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
-    <hyperlink ref="D16" r:id="rId76" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
-    <hyperlink ref="C2" r:id="rId77" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D40" r:id="rId78" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
-    <hyperlink ref="D79" r:id="rId79" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
-    <hyperlink ref="C46" r:id="rId80" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/04/scottish-natural-capital-accounts-2022/documents/scottish-natural-capital-accounts-2022-reference-tables/scottish-natural-capital-accounts-2022-reference-tables/govscot%3Adocument/scottish-natural-capital-accounts-2022-reference-tables.xlsx" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
-    <hyperlink ref="D81" r:id="rId81" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
-    <hyperlink ref="D83" r:id="rId82" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
-    <hyperlink ref="C33" r:id="rId83" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D21" r:id="rId84" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D22" r:id="rId85" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C21" r:id="rId86" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C27" r:id="rId87" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C23" r:id="rId88" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C11" r:id="rId89" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C9" r:id="rId90" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C39" r:id="rId91" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="D44" r:id="rId92" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C10" r:id="rId93" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D24" r:id="rId94" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C28" r:id="rId95" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C31" r:id="rId96" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C41" r:id="rId97" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
-    <hyperlink ref="D53" r:id="rId98" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
-    <hyperlink ref="C53" r:id="rId99" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
-    <hyperlink ref="C51" r:id="rId100" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
-    <hyperlink ref="C37" r:id="rId101" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
-    <hyperlink ref="C15" r:id="rId102" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
-    <hyperlink ref="C67" r:id="rId103" xr:uid="{5B6E2066-FB6E-45C7-8042-6748245C029E}"/>
-    <hyperlink ref="C40" r:id="rId104" xr:uid="{61BEAFD6-8542-4172-94BF-7ACCDCB0C9AB}"/>
+    <hyperlink ref="C80" r:id="rId50" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
+    <hyperlink ref="C84" r:id="rId51" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
+    <hyperlink ref="D39" r:id="rId52" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C20" r:id="rId53" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D75" r:id="rId54" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
+    <hyperlink ref="C75" r:id="rId55" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
+    <hyperlink ref="D73" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C73" r:id="rId57" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
+    <hyperlink ref="C78" r:id="rId58" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
+    <hyperlink ref="D17" r:id="rId59" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D62" r:id="rId60" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="D38" r:id="rId61" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="C79" r:id="rId62" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
+    <hyperlink ref="C54" r:id="rId63" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="D28" r:id="rId64" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D19" r:id="rId65" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="C48" r:id="rId66" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
+    <hyperlink ref="D37" r:id="rId67" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C60" r:id="rId68" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
+    <hyperlink ref="D15" r:id="rId69" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="C83" r:id="rId70" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
+    <hyperlink ref="D34" r:id="rId71" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
+    <hyperlink ref="C25" r:id="rId72" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C66" r:id="rId73" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
+    <hyperlink ref="D16" r:id="rId74" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
+    <hyperlink ref="C2" r:id="rId75" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
+    <hyperlink ref="D40" r:id="rId76" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="D79" r:id="rId77" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
+    <hyperlink ref="C46" r:id="rId78" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/04/scottish-natural-capital-accounts-2022/documents/scottish-natural-capital-accounts-2022-reference-tables/scottish-natural-capital-accounts-2022-reference-tables/govscot%3Adocument/scottish-natural-capital-accounts-2022-reference-tables.xlsx" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
+    <hyperlink ref="D81" r:id="rId79" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
+    <hyperlink ref="D83" r:id="rId80" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
+    <hyperlink ref="C33" r:id="rId81" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D21" r:id="rId82" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D22" r:id="rId83" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C21" r:id="rId84" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C27" r:id="rId85" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C23" r:id="rId86" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C11" r:id="rId87" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C9" r:id="rId88" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="C39" r:id="rId89" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
+    <hyperlink ref="D44" r:id="rId90" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C10" r:id="rId91" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="D24" r:id="rId92" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C28" r:id="rId93" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C31" r:id="rId94" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C41" r:id="rId95" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="D53" r:id="rId96" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
+    <hyperlink ref="C53" r:id="rId97" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
+    <hyperlink ref="C51" r:id="rId98" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
+    <hyperlink ref="C37" r:id="rId99" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
+    <hyperlink ref="C15" r:id="rId100" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
+    <hyperlink ref="C67" r:id="rId101" xr:uid="{5B6E2066-FB6E-45C7-8042-6748245C029E}"/>
+    <hyperlink ref="C40" r:id="rId102" xr:uid="{61BEAFD6-8542-4172-94BF-7ACCDCB0C9AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId105"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId103"/>
   <tableParts count="1">
-    <tablePart r:id="rId106"/>
+    <tablePart r:id="rId104"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E01DA3-DAE5-421F-BDF5-779DD3822D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068FEAE6-0FB3-4A98-BBA2-3A7B64EA75C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1094,10 +1094,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E14" sqref="E14:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,214 +1672,216 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="E4" s="18">
-        <v>44927</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>156</v>
+      <c r="A4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="8">
+        <v>44562</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="G4" s="18">
-        <f>DATE(YEAR(E4)+1,MONTH(E4),DAY(E4))</f>
-        <v>45292</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>219</v>
+        <f>DATE(YEAR(E4),MONTH(E4)+3,DAY(E4))</f>
+        <v>44652</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="18">
-        <v>44287</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>156</v>
+      <c r="A5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44562</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="G5" s="18">
-        <f>DATE(YEAR(E5)+1,MONTH(E5),DAY(E5))</f>
+        <f>DATE(YEAR(E5),MONTH(E5)+3,DAY(E5))</f>
         <v>44652</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>217</v>
+      <c r="H5" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>151</v>
+        <v>209</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>289</v>
       </c>
       <c r="E6" s="18">
-        <v>44287</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>156</v>
+        <v>44743</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="G6" s="18">
-        <f>DATE(YEAR(E6)+1,MONTH(E6),DAY(E6))</f>
-        <v>44652</v>
+        <f>DATE(YEAR(E6),MONTH(E6)+3,DAY(E6))</f>
+        <v>44835</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>151</v>
+        <v>38</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>137</v>
       </c>
       <c r="E7" s="18">
-        <v>44287</v>
+        <v>44805</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G7" s="18">
-        <f>DATE(YEAR(E7)+1,MONTH(E7),DAY(E7))</f>
-        <v>44652</v>
+        <f>DATE(YEAR(E7),MONTH(E7)+1,DAY(E7))</f>
+        <v>44835</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="8">
-        <v>44562</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="A8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44743</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G8" s="18">
         <f>DATE(YEAR(E8),MONTH(E8)+3,DAY(E8))</f>
-        <v>44652</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>218</v>
+        <v>44835</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="8">
-        <v>44562</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="A9" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="18">
+        <v>44743</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G9" s="18">
         <f>DATE(YEAR(E9),MONTH(E9)+3,DAY(E9))</f>
-        <v>44652</v>
-      </c>
-      <c r="H9" s="4" t="s">
+        <v>44835</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>289</v>
+        <v>70</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="E10" s="18">
-        <v>44743</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>155</v>
+        <v>44835</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="G10" s="18">
-        <f>DATE(YEAR(E10),MONTH(E10)+3,DAY(E10))</f>
-        <v>44835</v>
+        <f>DATE(YEAR(E10),MONTH(E10)+1,DAY(E10))</f>
+        <v>44866</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="E11" s="18">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>157</v>
       </c>
       <c r="G11" s="18">
         <f>DATE(YEAR(E11),MONTH(E11)+1,DAY(E11))</f>
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>216</v>
@@ -1887,26 +1889,26 @@
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="1">
-        <v>44743</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>155</v>
+        <v>194</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="18">
+        <v>44531</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="G12" s="18">
-        <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
-        <v>44835</v>
+        <f>DATE(YEAR(E12)+1,MONTH(E12),DAY(E12))</f>
+        <v>44896</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>216</v>
@@ -1914,160 +1916,152 @@
     </row>
     <row r="13" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>169</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="17"/>
       <c r="E13" s="18">
-        <v>44743</v>
-      </c>
-      <c r="F13" s="19" t="s">
+        <v>44805</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>155</v>
       </c>
       <c r="G13" s="18">
         <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
-        <v>44835</v>
+        <v>44896</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>170</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="17"/>
       <c r="E14" s="18">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G14" s="18">
-        <f>DATE(YEAR(E14),MONTH(E14)+1,DAY(E14))</f>
-        <v>44866</v>
+        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
+        <v>44896</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>243</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="17"/>
       <c r="E15" s="18">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G15" s="18">
-        <f>DATE(YEAR(E15),MONTH(E15)+1,DAY(E15))</f>
-        <v>44866</v>
+        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
+        <v>44896</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>242</v>
+        <v>64</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>259</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16" s="18">
-        <v>44501</v>
+        <v>132</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44805</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G16" s="18">
-        <f>DATE(YEAR(E16)+1,MONTH(E16),DAY(E16))</f>
-        <v>44866</v>
+        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
+        <v>44896</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>193</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="17"/>
       <c r="E17" s="18">
-        <v>44531</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>156</v>
+        <v>44805</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="G17" s="18">
-        <f>DATE(YEAR(E17)+1,MONTH(E17),DAY(E17))</f>
+        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
         <v>44896</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E18" s="18">
-        <v>44805</v>
+        <v>44531</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G18" s="18">
-        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
+        <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
         <v>44896</v>
       </c>
       <c r="H18" s="16" t="s">
@@ -2076,25 +2070,25 @@
     </row>
     <row r="19" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E19" s="18">
-        <v>44805</v>
+        <v>44531</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G19" s="18">
-        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
+        <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
         <v>44896</v>
       </c>
       <c r="H19" s="16" t="s">
@@ -2103,78 +2097,80 @@
     </row>
     <row r="20" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="17"/>
+        <v>79</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="E20" s="18">
-        <v>44805</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>155</v>
+        <v>44562</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="G20" s="18">
-        <f>DATE(YEAR(E20),MONTH(E20)+3,DAY(E20))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E20)+1,MONTH(E20),DAY(E20))</f>
+        <v>44927</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>266</v>
+        <v>72</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>171</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="1">
-        <v>44805</v>
+        <v>73</v>
+      </c>
+      <c r="E21" s="18">
+        <v>44562</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G21" s="18">
-        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E21),MONTH(E21)+12,DAY(E21))</f>
+        <v>44927</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>264</v>
+        <v>51</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>267</v>
+        <v>52</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>299</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="1">
-        <v>44805</v>
+        <v>141</v>
+      </c>
+      <c r="E22" s="18">
+        <v>44835</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G22" s="18">
-        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E22),MONTH(E22)+4,DAY(E22))</f>
+        <v>44958</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>216</v>
@@ -2182,53 +2178,53 @@
     </row>
     <row r="23" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>138</v>
+        <v>197</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="E23" s="18">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c r="G23" s="18">
-        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E23),MONTH(E23)+6,DAY(E23))</f>
+        <v>44958</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>138</v>
+        <v>181</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="E24" s="18">
-        <v>44805</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>155</v>
+        <v>44593</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="G24" s="18">
-        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E24)+1,MONTH(E24),DAY(E24))</f>
+        <v>44958</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>216</v>
@@ -2236,26 +2232,26 @@
     </row>
     <row r="25" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="1">
-        <v>44805</v>
+        <v>272</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="18">
+        <v>44896</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G25" s="18">
         <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>216</v>
@@ -2263,26 +2259,26 @@
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>7</v>
+        <v>269</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>132</v>
       </c>
       <c r="E26" s="1">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G26" s="18">
         <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>216</v>
@@ -2290,26 +2286,26 @@
     </row>
     <row r="27" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E27" s="1">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G27" s="18">
         <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>216</v>
@@ -2317,26 +2313,26 @@
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>240</v>
+        <v>5</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>253</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E28" s="1">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G28" s="18">
         <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>216</v>
@@ -2344,76 +2340,80 @@
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18">
-        <v>44805</v>
+        <v>254</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="1">
+        <v>44896</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G29" s="18">
         <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="17"/>
+        <v>257</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="E30" s="18">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G30" s="18">
         <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>259</v>
+        <v>46</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="1">
-        <v>44805</v>
+        <v>138</v>
+      </c>
+      <c r="E31" s="18">
+        <v>44896</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G31" s="18">
         <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>216</v>
@@ -2421,51 +2421,53 @@
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="17"/>
+        <v>206</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="E32" s="18">
-        <v>44805</v>
+        <v>44866</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G32" s="18">
-        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E32),MONTH(E32)+4,DAY(E32))</f>
+        <v>44986</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>255</v>
+        <v>30</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>252</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" s="18">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G33" s="18">
-        <f>DATE(YEAR(E33)+1,MONTH(E33),DAY(E33))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
+        <v>44986</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>216</v>
@@ -2473,161 +2475,161 @@
     </row>
     <row r="34" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E34" s="18">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G34" s="18">
-        <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
+        <v>44986</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E35" s="18">
-        <v>44562</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="18">
-        <f>DATE(YEAR(E35)+1,MONTH(E35),DAY(E35))</f>
-        <v>44927</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>217</v>
+      <c r="A35" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="36">
+        <v>44896</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="36">
+        <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
+        <v>44986</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>73</v>
+        <v>117</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>274</v>
       </c>
       <c r="E36" s="18">
-        <v>44562</v>
+        <v>44896</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="18">
-        <f>DATE(YEAR(E36),MONTH(E36)+12,DAY(E36))</f>
-        <v>44927</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>217</v>
+        <v>155</v>
+      </c>
+      <c r="G36" s="36">
+        <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
+        <v>44986</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>141</v>
+        <v>75</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="E37" s="18">
-        <v>44835</v>
+        <v>44621</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G37" s="18">
-        <f>DATE(YEAR(E37),MONTH(E37)+4,DAY(E37))</f>
-        <v>44958</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>216</v>
+        <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
+        <v>44986</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>199</v>
+        <v>271</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>138</v>
       </c>
       <c r="E38" s="18">
-        <v>44774</v>
+        <v>44897</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>261</v>
+        <v>155</v>
       </c>
       <c r="G38" s="18">
-        <f>DATE(YEAR(E38),MONTH(E38)+6,DAY(E38))</f>
-        <v>44958</v>
+        <f>DATE(YEAR(E38),MONTH(E38)+3,DAY(E38))</f>
+        <v>44987</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>168</v>
+        <v>40</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="E39" s="18">
-        <v>44593</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>156</v>
+        <v>44898</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="G39" s="18">
-        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
-        <v>44958</v>
+        <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
+        <v>44988</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>216</v>
@@ -2635,183 +2637,181 @@
     </row>
     <row r="40" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>262</v>
+        <v>42</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="E40" s="18">
-        <v>44866</v>
+        <v>44899</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G40" s="18">
-        <f>DATE(YEAR(E40),MONTH(E40)+4,DAY(E40))</f>
-        <v>44986</v>
+        <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
+        <v>44989</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>135</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="20"/>
       <c r="E41" s="18">
-        <v>44896</v>
+        <v>44652</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G41" s="18">
-        <f>DATE(YEAR(E41),MONTH(E41)+3,DAY(E41))</f>
-        <v>44986</v>
+        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
+        <v>45017</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>280</v>
+        <v>129</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E42" s="18">
-        <v>44896</v>
+        <v>44652</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G42" s="18">
-        <f>DATE(YEAR(E42),MONTH(E42)+3,DAY(E42))</f>
-        <v>44986</v>
+        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
+        <v>45017</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>281</v>
+        <v>110</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E43" s="22">
-        <v>44896</v>
+        <v>44652</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G43" s="22">
-        <f>DATE(YEAR(E43),MONTH(E43)+3,DAY(E43))</f>
-        <v>44986</v>
+        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
+        <v>45017</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E44" s="18">
-        <v>44896</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>155</v>
+      <c r="A44" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E44" s="34">
+        <v>44652</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>156</v>
       </c>
       <c r="G44" s="22">
-        <f>DATE(YEAR(E44),MONTH(E44)+3,DAY(E44))</f>
-        <v>44986</v>
+        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
+        <v>45017</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>295</v>
+        <v>226</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="E45" s="18">
-        <v>44621</v>
-      </c>
-      <c r="F45" s="19" t="s">
+        <v>44652</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>156</v>
       </c>
       <c r="G45" s="18">
         <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="E46" s="36">
+        <v>105</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="18">
         <v>44652</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="27" t="s">
         <v>156</v>
       </c>
       <c r="G46" s="18">
@@ -2819,78 +2819,77 @@
         <v>45017</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>150</v>
+        <v>77</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>242</v>
       </c>
       <c r="E47" s="18">
-        <v>44652</v>
-      </c>
-      <c r="F47" s="16" t="s">
+        <v>44501</v>
+      </c>
+      <c r="F47" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G47" s="18">
-        <f>DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>150</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D48" s="17"/>
       <c r="E48" s="18">
-        <v>44652</v>
-      </c>
-      <c r="F48" s="19" t="s">
+        <v>44713</v>
+      </c>
+      <c r="F48" s="16" t="s">
         <v>156</v>
       </c>
       <c r="G48" s="18">
         <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="17"/>
+        <v>235</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>173</v>
+      </c>
       <c r="E49" s="18">
         <v>44713</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G49" s="18">
@@ -2898,21 +2897,21 @@
         <v>45078</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>173</v>
+        <v>101</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>278</v>
       </c>
       <c r="E50" s="18">
         <v>44713</v>
@@ -2925,17 +2924,17 @@
         <v>45078</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>279</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -2957,21 +2956,21 @@
     </row>
     <row r="52" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>278</v>
+        <v>230</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>276</v>
       </c>
       <c r="E52" s="18">
         <v>44713</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="16" t="s">
         <v>156</v>
       </c>
       <c r="G52" s="18">
@@ -2979,31 +2978,31 @@
         <v>45078</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>276</v>
+        <v>11</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="E53" s="18">
-        <v>44713</v>
-      </c>
-      <c r="F53" s="16" t="s">
+        <v>44743</v>
+      </c>
+      <c r="F53" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G53" s="18">
         <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="H53" s="16" t="s">
         <v>216</v>
@@ -3011,16 +3010,16 @@
     </row>
     <row r="54" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>236</v>
+        <v>34</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>231</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="E54" s="18">
         <v>44743</v>
@@ -3038,16 +3037,16 @@
     </row>
     <row r="55" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E55" s="18">
         <v>44743</v>
@@ -3065,13 +3064,13 @@
     </row>
     <row r="56" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>133</v>
@@ -3091,22 +3090,22 @@
       </c>
     </row>
     <row r="57" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>15</v>
+      <c r="A57" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="36">
         <v>44743</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="37" t="s">
         <v>156</v>
       </c>
       <c r="G57" s="18">
@@ -3119,26 +3118,26 @@
     </row>
     <row r="58" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>133</v>
+        <v>293</v>
       </c>
       <c r="E58" s="22">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="F58" s="27" t="s">
         <v>156</v>
       </c>
       <c r="G58" s="18">
         <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="H58" s="16" t="s">
         <v>216</v>
@@ -3146,16 +3145,16 @@
     </row>
     <row r="59" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>293</v>
+        <v>144</v>
       </c>
       <c r="E59" s="18">
         <v>44805</v>
@@ -3173,16 +3172,16 @@
     </row>
     <row r="60" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="E60" s="18">
         <v>44805</v>
@@ -3200,21 +3199,21 @@
     </row>
     <row r="61" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>282</v>
+        <v>196</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="E61" s="18">
         <v>44805</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="16" t="s">
         <v>156</v>
       </c>
       <c r="G61" s="18">
@@ -3227,21 +3226,21 @@
     </row>
     <row r="62" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>193</v>
+        <v>56</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="E62" s="18">
         <v>44805</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G62" s="18">
@@ -3254,43 +3253,43 @@
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E63" s="18">
-        <v>44805</v>
+        <v>44866</v>
       </c>
       <c r="F63" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G63" s="18">
         <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E64" s="18">
         <v>44866</v>
@@ -3303,31 +3302,31 @@
         <v>45231</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E65" s="18">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="F65" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G65" s="18">
         <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="H65" s="16" t="s">
         <v>216</v>
@@ -3335,16 +3334,16 @@
     </row>
     <row r="66" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>251</v>
+        <v>54</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>297</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E66" s="18">
         <v>44896</v>
@@ -3362,16 +3361,16 @@
     </row>
     <row r="67" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>297</v>
+        <v>60</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E67" s="18">
         <v>44896</v>
@@ -3389,29 +3388,29 @@
     </row>
     <row r="68" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>145</v>
+        <v>304</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>303</v>
       </c>
       <c r="E68" s="18">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="F68" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G68" s="18">
         <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3794,108 +3793,108 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C35" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C32" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C29" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C30" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C49" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C48" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C71" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C7" r:id="rId8" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C43" r:id="rId8" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C81" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D74" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D54" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D41" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D55" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D33" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D42" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D43" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D67" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D63" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D60" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D68" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D65" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D12" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D9" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C42" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D29" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D53" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D33" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D34" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D35" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D66" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D62" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D59" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D67" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D64" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D8" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D5" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D82" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D71" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D7" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D66" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D27" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D64" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D30" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D65" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D63" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D78" r:id="rId36" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D70" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C70" r:id="rId38" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D57" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D58" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C26" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D11" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D13" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D14" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C36" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D35" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D6" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D48" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D56" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D57" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C29" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D7" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D9" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D10" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C21" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D20" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D42" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D46" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
     <hyperlink ref="C80" r:id="rId50" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C84" r:id="rId51" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D39" r:id="rId52" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C20" r:id="rId53" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D24" r:id="rId52" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C13" r:id="rId53" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D75" r:id="rId54" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C75" r:id="rId55" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
     <hyperlink ref="D73" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="C73" r:id="rId57" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
     <hyperlink ref="C78" r:id="rId58" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D17" r:id="rId59" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D62" r:id="rId60" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D38" r:id="rId61" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="D12" r:id="rId59" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D61" r:id="rId60" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="D23" r:id="rId61" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C79" r:id="rId62" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C54" r:id="rId63" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D28" r:id="rId64" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D19" r:id="rId65" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C48" r:id="rId66" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="D37" r:id="rId67" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C60" r:id="rId68" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D15" r:id="rId69" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="C53" r:id="rId63" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="D40" r:id="rId64" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D31" r:id="rId65" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="C46" r:id="rId66" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
+    <hyperlink ref="D22" r:id="rId67" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C59" r:id="rId68" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
+    <hyperlink ref="D11" r:id="rId69" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C83" r:id="rId70" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="D34" r:id="rId71" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C25" r:id="rId72" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="C66" r:id="rId73" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
-    <hyperlink ref="D16" r:id="rId74" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
+    <hyperlink ref="D19" r:id="rId71" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
+    <hyperlink ref="C28" r:id="rId72" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="C65" r:id="rId73" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
+    <hyperlink ref="D47" r:id="rId74" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId75" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D40" r:id="rId76" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="D32" r:id="rId76" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
     <hyperlink ref="D79" r:id="rId77" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
-    <hyperlink ref="C46" r:id="rId78" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/04/scottish-natural-capital-accounts-2022/documents/scottish-natural-capital-accounts-2022-reference-tables/scottish-natural-capital-accounts-2022-reference-tables/govscot%3Adocument/scottish-natural-capital-accounts-2022-reference-tables.xlsx" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
+    <hyperlink ref="C44" r:id="rId78" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/04/scottish-natural-capital-accounts-2022/documents/scottish-natural-capital-accounts-2022-reference-tables/scottish-natural-capital-accounts-2022-reference-tables/govscot%3Adocument/scottish-natural-capital-accounts-2022-reference-tables.xlsx" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
     <hyperlink ref="D81" r:id="rId79" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
     <hyperlink ref="D83" r:id="rId80" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
-    <hyperlink ref="C33" r:id="rId81" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D21" r:id="rId82" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D22" r:id="rId83" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C21" r:id="rId84" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C27" r:id="rId85" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C23" r:id="rId86" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C11" r:id="rId87" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C9" r:id="rId88" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C39" r:id="rId89" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="D44" r:id="rId90" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C10" r:id="rId91" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D24" r:id="rId92" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C28" r:id="rId93" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C31" r:id="rId94" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C41" r:id="rId95" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
-    <hyperlink ref="D53" r:id="rId96" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
-    <hyperlink ref="C53" r:id="rId97" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
-    <hyperlink ref="C51" r:id="rId98" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
-    <hyperlink ref="C37" r:id="rId99" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
-    <hyperlink ref="C15" r:id="rId100" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
-    <hyperlink ref="C67" r:id="rId101" xr:uid="{5B6E2066-FB6E-45C7-8042-6748245C029E}"/>
-    <hyperlink ref="C40" r:id="rId102" xr:uid="{61BEAFD6-8542-4172-94BF-7ACCDCB0C9AB}"/>
+    <hyperlink ref="C18" r:id="rId81" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D26" r:id="rId82" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D27" r:id="rId83" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C26" r:id="rId84" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C39" r:id="rId85" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C25" r:id="rId86" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C7" r:id="rId87" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C5" r:id="rId88" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="C24" r:id="rId89" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
+    <hyperlink ref="D36" r:id="rId90" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C6" r:id="rId91" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="D38" r:id="rId92" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C40" r:id="rId93" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C16" r:id="rId94" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C33" r:id="rId95" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="D52" r:id="rId96" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
+    <hyperlink ref="C52" r:id="rId97" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
+    <hyperlink ref="C50" r:id="rId98" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
+    <hyperlink ref="C22" r:id="rId99" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
+    <hyperlink ref="C11" r:id="rId100" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
+    <hyperlink ref="C66" r:id="rId101" xr:uid="{5B6E2066-FB6E-45C7-8042-6748245C029E}"/>
+    <hyperlink ref="C32" r:id="rId102" xr:uid="{61BEAFD6-8542-4172-94BF-7ACCDCB0C9AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId103"/>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068FEAE6-0FB3-4A98-BBA2-3A7B64EA75C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E76A97D-B5BB-4CFD-BAAF-947945F1E4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,9 +775,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043473/subnational_gas_consumption_statistics_2005-2020.xlsx</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043239/Regional_Electricity_Generation_and_Supply_Timeseries.xlsx</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043309/ET_5.6_DEC_21.xlsx</t>
   </si>
   <si>
@@ -935,6 +932,9 @@
   </si>
   <si>
     <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2023/01/oil-and-gas-production-statistics/documents/oil-and-gas-production-income-and-expenditure-1998-2021/oil-and-gas-production-income-and-expenditure-1998-2021/govscot%3Adocument/Oil%2Band%2BGas%2BProduction%2Bincome%2Band%2Bexpenditure%2B1998-2021.ods</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1126102/Regional_Electricity_Generation_and_Supply_Timeseries.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1095,9 +1095,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1568,7 +1565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1578,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:G19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,10 +1730,10 @@
         <v>209</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E6" s="18">
         <v>44743</v>
@@ -1760,7 +1757,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>137</v>
@@ -1787,7 +1784,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>132</v>
@@ -1814,7 +1811,7 @@
         <v>127</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>169</v>
@@ -1841,7 +1838,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>170</v>
@@ -1868,7 +1865,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>243</v>
@@ -1997,7 +1994,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>132</v>
@@ -2049,7 +2046,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>136</v>
@@ -2157,7 +2154,7 @@
         <v>52</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>141</v>
@@ -2184,7 +2181,7 @@
         <v>198</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>199</v>
@@ -2193,7 +2190,7 @@
         <v>44774</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G23" s="18">
         <f>DATE(YEAR(E23),MONTH(E23)+6,DAY(E23))</f>
@@ -2232,13 +2229,13 @@
     </row>
     <row r="25" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>138</v>
@@ -2250,7 +2247,7 @@
         <v>155</v>
       </c>
       <c r="G25" s="18">
-        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
+        <f t="shared" ref="G25:G31" si="0">DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
         <v>44986</v>
       </c>
       <c r="H25" s="16" t="s">
@@ -2259,13 +2256,13 @@
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>265</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>266</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>132</v>
@@ -2277,7 +2274,7 @@
         <v>155</v>
       </c>
       <c r="G26" s="18">
-        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
+        <f t="shared" si="0"/>
         <v>44986</v>
       </c>
       <c r="H26" s="16" t="s">
@@ -2286,13 +2283,13 @@
     </row>
     <row r="27" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>132</v>
@@ -2304,7 +2301,7 @@
         <v>155</v>
       </c>
       <c r="G27" s="18">
-        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
+        <f t="shared" si="0"/>
         <v>44986</v>
       </c>
       <c r="H27" s="16" t="s">
@@ -2319,7 +2316,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>132</v>
@@ -2331,7 +2328,7 @@
         <v>155</v>
       </c>
       <c r="G28" s="18">
-        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
+        <f t="shared" si="0"/>
         <v>44986</v>
       </c>
       <c r="H28" s="16" t="s">
@@ -2346,7 +2343,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>132</v>
@@ -2358,7 +2355,7 @@
         <v>155</v>
       </c>
       <c r="G29" s="18">
-        <f>DATE(YEAR(E29),MONTH(E29)+3,DAY(E29))</f>
+        <f t="shared" si="0"/>
         <v>44986</v>
       </c>
       <c r="H29" s="16" t="s">
@@ -2373,7 +2370,7 @@
         <v>44</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>154</v>
@@ -2385,7 +2382,7 @@
         <v>155</v>
       </c>
       <c r="G30" s="18">
-        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
+        <f t="shared" si="0"/>
         <v>44986</v>
       </c>
       <c r="H30" s="16" t="s">
@@ -2400,7 +2397,7 @@
         <v>46</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>138</v>
@@ -2412,7 +2409,7 @@
         <v>155</v>
       </c>
       <c r="G31" s="18">
-        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
+        <f t="shared" si="0"/>
         <v>44986</v>
       </c>
       <c r="H31" s="16" t="s">
@@ -2427,10 +2424,10 @@
         <v>206</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E32" s="18">
         <v>44866</v>
@@ -2454,7 +2451,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>135</v>
@@ -2481,7 +2478,7 @@
         <v>48</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>139</v>
@@ -2501,29 +2498,29 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="18">
         <v>44896</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="18">
         <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
         <v>44986</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="16" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2535,10 +2532,10 @@
         <v>117</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E36" s="18">
         <v>44896</v>
@@ -2546,11 +2543,11 @@
       <c r="F36" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="18">
         <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
         <v>44986</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="16" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2562,10 +2559,10 @@
         <v>75</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E37" s="18">
         <v>44621</v>
@@ -2577,19 +2574,19 @@
         <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
         <v>44986</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H37" s="16" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>138</v>
@@ -2616,7 +2613,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>138</v>
@@ -2680,7 +2677,7 @@
         <v>156</v>
       </c>
       <c r="G41" s="18">
-        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
+        <f t="shared" ref="G41:G46" si="1">DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
         <v>45017</v>
       </c>
       <c r="H41" s="16" t="s">
@@ -2707,7 +2704,7 @@
         <v>156</v>
       </c>
       <c r="G42" s="18">
-        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
+        <f t="shared" si="1"/>
         <v>45017</v>
       </c>
       <c r="H42" s="16" t="s">
@@ -2734,7 +2731,7 @@
         <v>156</v>
       </c>
       <c r="G43" s="22">
-        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
+        <f t="shared" si="1"/>
         <v>45017</v>
       </c>
       <c r="H43" s="21" t="s">
@@ -2742,26 +2739,26 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="16" t="s">
         <v>176</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E44" s="34">
         <v>44652</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="F44" s="16" t="s">
         <v>156</v>
       </c>
       <c r="G44" s="22">
-        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
+        <f t="shared" si="1"/>
         <v>45017</v>
       </c>
       <c r="H44" s="21" t="s">
@@ -2788,7 +2785,7 @@
         <v>156</v>
       </c>
       <c r="G45" s="18">
-        <f>DATE(YEAR(E45)+1,MONTH(E45),DAY(E45))</f>
+        <f t="shared" si="1"/>
         <v>45017</v>
       </c>
       <c r="H45" s="21" t="s">
@@ -2815,7 +2812,7 @@
         <v>156</v>
       </c>
       <c r="G46" s="18">
-        <f>DATE(YEAR(E46)+1,MONTH(E46),DAY(E46))</f>
+        <f t="shared" si="1"/>
         <v>45017</v>
       </c>
       <c r="H46" s="21" t="s">
@@ -2866,7 +2863,7 @@
         <v>156</v>
       </c>
       <c r="G48" s="18">
-        <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
+        <f t="shared" ref="G48:G68" si="2">DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
         <v>45078</v>
       </c>
       <c r="H48" s="16" t="s">
@@ -2893,7 +2890,7 @@
         <v>156</v>
       </c>
       <c r="G49" s="18">
-        <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
+        <f t="shared" si="2"/>
         <v>45078</v>
       </c>
       <c r="H49" s="16" t="s">
@@ -2908,10 +2905,10 @@
         <v>101</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E50" s="18">
         <v>44713</v>
@@ -2920,7 +2917,7 @@
         <v>156</v>
       </c>
       <c r="G50" s="18">
-        <f>DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
+        <f t="shared" si="2"/>
         <v>45078</v>
       </c>
       <c r="H50" s="16" t="s">
@@ -2935,10 +2932,10 @@
         <v>103</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E51" s="18">
         <v>44713</v>
@@ -2947,7 +2944,7 @@
         <v>156</v>
       </c>
       <c r="G51" s="18">
-        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
+        <f t="shared" si="2"/>
         <v>45078</v>
       </c>
       <c r="H51" s="16" t="s">
@@ -2962,10 +2959,10 @@
         <v>230</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E52" s="18">
         <v>44713</v>
@@ -2974,7 +2971,7 @@
         <v>156</v>
       </c>
       <c r="G52" s="18">
-        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
+        <f t="shared" si="2"/>
         <v>45078</v>
       </c>
       <c r="H52" s="16" t="s">
@@ -3001,7 +2998,7 @@
         <v>156</v>
       </c>
       <c r="G53" s="18">
-        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
+        <f t="shared" si="2"/>
         <v>45108</v>
       </c>
       <c r="H53" s="16" t="s">
@@ -3028,7 +3025,7 @@
         <v>156</v>
       </c>
       <c r="G54" s="18">
-        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
+        <f t="shared" si="2"/>
         <v>45108</v>
       </c>
       <c r="H54" s="16" t="s">
@@ -3055,7 +3052,7 @@
         <v>156</v>
       </c>
       <c r="G55" s="18">
-        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
+        <f t="shared" si="2"/>
         <v>45108</v>
       </c>
       <c r="H55" s="16" t="s">
@@ -3082,7 +3079,7 @@
         <v>156</v>
       </c>
       <c r="G56" s="18">
-        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
+        <f t="shared" si="2"/>
         <v>45108</v>
       </c>
       <c r="H56" s="16" t="s">
@@ -3090,10 +3087,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="17" t="s">
@@ -3102,14 +3099,14 @@
       <c r="D57" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="36">
+      <c r="E57" s="18">
         <v>44743</v>
       </c>
-      <c r="F57" s="37" t="s">
+      <c r="F57" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G57" s="18">
-        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <f t="shared" si="2"/>
         <v>45108</v>
       </c>
       <c r="H57" s="16" t="s">
@@ -3124,10 +3121,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>292</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>293</v>
       </c>
       <c r="E58" s="22">
         <v>44805</v>
@@ -3136,7 +3133,7 @@
         <v>156</v>
       </c>
       <c r="G58" s="18">
-        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
+        <f t="shared" si="2"/>
         <v>45170</v>
       </c>
       <c r="H58" s="16" t="s">
@@ -3163,7 +3160,7 @@
         <v>156</v>
       </c>
       <c r="G59" s="18">
-        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
+        <f t="shared" si="2"/>
         <v>45170</v>
       </c>
       <c r="H59" s="16" t="s">
@@ -3178,10 +3175,10 @@
         <v>32</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E60" s="18">
         <v>44805</v>
@@ -3190,7 +3187,7 @@
         <v>156</v>
       </c>
       <c r="G60" s="18">
-        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
+        <f t="shared" si="2"/>
         <v>45170</v>
       </c>
       <c r="H60" s="16" t="s">
@@ -3205,7 +3202,7 @@
         <v>196</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>193</v>
@@ -3217,7 +3214,7 @@
         <v>156</v>
       </c>
       <c r="G61" s="18">
-        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
+        <f t="shared" si="2"/>
         <v>45170</v>
       </c>
       <c r="H61" s="16" t="s">
@@ -3232,7 +3229,7 @@
         <v>56</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>143</v>
@@ -3244,7 +3241,7 @@
         <v>156</v>
       </c>
       <c r="G62" s="18">
-        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <f t="shared" si="2"/>
         <v>45170</v>
       </c>
       <c r="H62" s="16" t="s">
@@ -3259,7 +3256,7 @@
         <v>97</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>158</v>
@@ -3271,7 +3268,7 @@
         <v>156</v>
       </c>
       <c r="G63" s="18">
-        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
+        <f t="shared" si="2"/>
         <v>45231</v>
       </c>
       <c r="H63" s="16" t="s">
@@ -3298,7 +3295,7 @@
         <v>156</v>
       </c>
       <c r="G64" s="18">
-        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
+        <f t="shared" si="2"/>
         <v>45231</v>
       </c>
       <c r="H64" s="16" t="s">
@@ -3313,7 +3310,7 @@
         <v>19</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>134</v>
@@ -3325,7 +3322,7 @@
         <v>156</v>
       </c>
       <c r="G65" s="18">
-        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
+        <f t="shared" si="2"/>
         <v>45261</v>
       </c>
       <c r="H65" s="16" t="s">
@@ -3340,7 +3337,7 @@
         <v>54</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>142</v>
@@ -3352,7 +3349,7 @@
         <v>156</v>
       </c>
       <c r="G66" s="18">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
+        <f t="shared" si="2"/>
         <v>45261</v>
       </c>
       <c r="H66" s="16" t="s">
@@ -3379,7 +3376,7 @@
         <v>156</v>
       </c>
       <c r="G67" s="18">
-        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
+        <f t="shared" si="2"/>
         <v>45261</v>
       </c>
       <c r="H67" s="16" t="s">
@@ -3394,10 +3391,10 @@
         <v>113</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E68" s="18">
         <v>44927</v>
@@ -3406,7 +3403,7 @@
         <v>156</v>
       </c>
       <c r="G68" s="18">
-        <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
+        <f t="shared" si="2"/>
         <v>45292</v>
       </c>
       <c r="H68" s="16" t="s">
@@ -3644,7 +3641,7 @@
         <v>203</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E79" s="8">
         <v>44044</v>
@@ -3713,7 +3710,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>148</v>
@@ -3865,41 +3862,40 @@
     <hyperlink ref="C83" r:id="rId70" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
     <hyperlink ref="D19" r:id="rId71" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
     <hyperlink ref="C28" r:id="rId72" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="C65" r:id="rId73" xr:uid="{0452CD0A-EB9C-4B25-88AF-06E4876A2427}"/>
-    <hyperlink ref="D47" r:id="rId74" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
-    <hyperlink ref="C2" r:id="rId75" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D32" r:id="rId76" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
-    <hyperlink ref="D79" r:id="rId77" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
-    <hyperlink ref="C44" r:id="rId78" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/04/scottish-natural-capital-accounts-2022/documents/scottish-natural-capital-accounts-2022-reference-tables/scottish-natural-capital-accounts-2022-reference-tables/govscot%3Adocument/scottish-natural-capital-accounts-2022-reference-tables.xlsx" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
-    <hyperlink ref="D81" r:id="rId79" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
-    <hyperlink ref="D83" r:id="rId80" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
-    <hyperlink ref="C18" r:id="rId81" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D26" r:id="rId82" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D27" r:id="rId83" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C26" r:id="rId84" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C39" r:id="rId85" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C25" r:id="rId86" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C7" r:id="rId87" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C5" r:id="rId88" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C24" r:id="rId89" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="D36" r:id="rId90" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C6" r:id="rId91" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D38" r:id="rId92" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C40" r:id="rId93" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C16" r:id="rId94" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C33" r:id="rId95" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
-    <hyperlink ref="D52" r:id="rId96" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
-    <hyperlink ref="C52" r:id="rId97" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
-    <hyperlink ref="C50" r:id="rId98" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
-    <hyperlink ref="C22" r:id="rId99" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
-    <hyperlink ref="C11" r:id="rId100" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
-    <hyperlink ref="C66" r:id="rId101" xr:uid="{5B6E2066-FB6E-45C7-8042-6748245C029E}"/>
-    <hyperlink ref="C32" r:id="rId102" xr:uid="{61BEAFD6-8542-4172-94BF-7ACCDCB0C9AB}"/>
+    <hyperlink ref="D47" r:id="rId73" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
+    <hyperlink ref="C2" r:id="rId74" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
+    <hyperlink ref="D32" r:id="rId75" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="D79" r:id="rId76" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
+    <hyperlink ref="C44" r:id="rId77" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/04/scottish-natural-capital-accounts-2022/documents/scottish-natural-capital-accounts-2022-reference-tables/scottish-natural-capital-accounts-2022-reference-tables/govscot%3Adocument/scottish-natural-capital-accounts-2022-reference-tables.xlsx" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
+    <hyperlink ref="D81" r:id="rId78" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
+    <hyperlink ref="D83" r:id="rId79" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
+    <hyperlink ref="C18" r:id="rId80" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D26" r:id="rId81" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D27" r:id="rId82" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C26" r:id="rId83" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C39" r:id="rId84" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C25" r:id="rId85" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C7" r:id="rId86" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C5" r:id="rId87" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
+    <hyperlink ref="C24" r:id="rId88" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
+    <hyperlink ref="D36" r:id="rId89" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C6" r:id="rId90" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
+    <hyperlink ref="D38" r:id="rId91" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C40" r:id="rId92" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C16" r:id="rId93" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C33" r:id="rId94" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="D52" r:id="rId95" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
+    <hyperlink ref="C52" r:id="rId96" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
+    <hyperlink ref="C50" r:id="rId97" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
+    <hyperlink ref="C22" r:id="rId98" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
+    <hyperlink ref="C11" r:id="rId99" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
+    <hyperlink ref="C66" r:id="rId100" xr:uid="{5B6E2066-FB6E-45C7-8042-6748245C029E}"/>
+    <hyperlink ref="C32" r:id="rId101" xr:uid="{61BEAFD6-8542-4172-94BF-7ACCDCB0C9AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId103"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId102"/>
   <tableParts count="1">
-    <tablePart r:id="rId104"/>
+    <tablePart r:id="rId103"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E76A97D-B5BB-4CFD-BAAF-947945F1E4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB53CFB-C4F0-4515-9AC5-50C56EA94D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1095,6 +1095,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1565,7 +1568,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1575,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,25 +1754,25 @@
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="18">
-        <v>44805</v>
+        <v>66</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44743</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G7" s="18">
-        <f>DATE(YEAR(E7),MONTH(E7)+1,DAY(E7))</f>
+        <f>DATE(YEAR(E7),MONTH(E7)+3,DAY(E7))</f>
         <v>44835</v>
       </c>
       <c r="H7" s="16" t="s">
@@ -1778,18 +1781,18 @@
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="1">
+        <v>127</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="18">
         <v>44743</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -1800,111 +1803,109 @@
         <v>44835</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>284</v>
+        <v>70</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>289</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E9" s="18">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G9" s="18">
-        <f>DATE(YEAR(E9),MONTH(E9)+3,DAY(E9))</f>
-        <v>44835</v>
+        <f>DATE(YEAR(E9),MONTH(E9)+1,DAY(E9))</f>
+        <v>44866</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>170</v>
+        <v>194</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="E10" s="18">
-        <v>44835</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>157</v>
+        <v>44531</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="G10" s="18">
-        <f>DATE(YEAR(E10),MONTH(E10)+1,DAY(E10))</f>
-        <v>44866</v>
+        <f>DATE(YEAR(E10)+1,MONTH(E10),DAY(E10))</f>
+        <v>44896</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>243</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="17"/>
       <c r="E11" s="18">
-        <v>44835</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>157</v>
+        <v>44805</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="G11" s="18">
-        <f>DATE(YEAR(E11),MONTH(E11)+1,DAY(E11))</f>
-        <v>44866</v>
+        <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
+        <v>44896</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="E12" s="18">
-        <v>44531</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>156</v>
+        <v>64</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44805</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="G12" s="18">
-        <f>DATE(YEAR(E12)+1,MONTH(E12),DAY(E12))</f>
+        <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
         <v>44896</v>
       </c>
       <c r="H12" s="16" t="s">
@@ -1913,101 +1914,107 @@
     </row>
     <row r="13" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>136</v>
+      </c>
       <c r="E13" s="18">
-        <v>44805</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>155</v>
+        <v>44531</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="G13" s="18">
-        <f>DATE(YEAR(E13),MONTH(E13)+3,DAY(E13))</f>
+        <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
         <v>44896</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="17"/>
+        <v>250</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="E14" s="18">
-        <v>44805</v>
+        <v>44531</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G14" s="18">
-        <f>DATE(YEAR(E14),MONTH(E14)+3,DAY(E14))</f>
+        <f>DATE(YEAR(E14)+1,MONTH(E14),DAY(E14))</f>
         <v>44896</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="17"/>
+        <v>80</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="E15" s="18">
-        <v>44805</v>
+        <v>44562</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G15" s="18">
-        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E15)+1,MONTH(E15),DAY(E15))</f>
+        <v>44927</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="1">
-        <v>44805</v>
+        <v>141</v>
+      </c>
+      <c r="E16" s="18">
+        <v>44835</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G16" s="18">
-        <f>DATE(YEAR(E16),MONTH(E16)+3,DAY(E16))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E16),MONTH(E16)+4,DAY(E16))</f>
+        <v>44958</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>216</v>
@@ -2015,51 +2022,53 @@
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="17"/>
+        <v>198</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>199</v>
+      </c>
       <c r="E17" s="18">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="G17" s="18">
-        <f>DATE(YEAR(E17),MONTH(E17)+3,DAY(E17))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E17),MONTH(E17)+6,DAY(E17))</f>
+        <v>44958</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>136</v>
+        <v>180</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="E18" s="18">
-        <v>44531</v>
-      </c>
-      <c r="F18" s="19" t="s">
+        <v>44593</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>156</v>
       </c>
       <c r="G18" s="18">
         <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
-        <v>44896</v>
+        <v>44958</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>216</v>
@@ -2067,107 +2076,105 @@
     </row>
     <row r="19" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>145</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D19" s="17"/>
       <c r="E19" s="18">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G19" s="18">
-        <f>DATE(YEAR(E19)+1,MONTH(E19),DAY(E19))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
+        <v>44986</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>243</v>
       </c>
       <c r="E20" s="18">
-        <v>44562</v>
+        <v>44958</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G20" s="18">
-        <f>DATE(YEAR(E20)+1,MONTH(E20),DAY(E20))</f>
-        <v>44927</v>
+        <f>DATE(YEAR(E20),MONTH(E20)+1,DAY(E20))</f>
+        <v>44986</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>73</v>
+        <v>38</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>137</v>
       </c>
       <c r="E21" s="18">
-        <v>44562</v>
+        <v>44958</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G21" s="18">
-        <f>DATE(YEAR(E21),MONTH(E21)+12,DAY(E21))</f>
-        <v>44927</v>
+        <f>DATE(YEAR(E21),MONTH(E21)+1,DAY(E21))</f>
+        <v>44986</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>52</v>
+        <v>271</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>141</v>
+        <v>272</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>138</v>
       </c>
       <c r="E22" s="18">
-        <v>44835</v>
+        <v>44896</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G22" s="18">
-        <f>DATE(YEAR(E22),MONTH(E22)+4,DAY(E22))</f>
-        <v>44958</v>
+        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+        <v>44986</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>216</v>
@@ -2175,53 +2182,53 @@
     </row>
     <row r="23" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="E23" s="18">
-        <v>44774</v>
+        <v>268</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44896</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="G23" s="18">
-        <f>DATE(YEAR(E23),MONTH(E23)+6,DAY(E23))</f>
-        <v>44958</v>
+        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
+        <v>44986</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24" s="18">
-        <v>44593</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>156</v>
+        <v>267</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="1">
+        <v>44896</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="G24" s="18">
-        <f>DATE(YEAR(E24)+1,MONTH(E24),DAY(E24))</f>
-        <v>44958</v>
+        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
+        <v>44986</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>216</v>
@@ -2229,25 +2236,25 @@
     </row>
     <row r="25" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="18">
+        <v>4</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="1">
         <v>44896</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G25" s="18">
-        <f t="shared" ref="G25:G31" si="0">DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
+        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
         <v>44986</v>
       </c>
       <c r="H25" s="16" t="s">
@@ -2256,13 +2263,13 @@
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>264</v>
+        <v>6</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>268</v>
+        <v>7</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>132</v>
@@ -2274,7 +2281,7 @@
         <v>155</v>
       </c>
       <c r="G26" s="18">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
         <v>44986</v>
       </c>
       <c r="H26" s="16" t="s">
@@ -2283,25 +2290,25 @@
     </row>
     <row r="27" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="1">
+        <v>154</v>
+      </c>
+      <c r="E27" s="18">
         <v>44896</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G27" s="18">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
         <v>44986</v>
       </c>
       <c r="H27" s="16" t="s">
@@ -2310,25 +2317,25 @@
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="1">
+        <v>138</v>
+      </c>
+      <c r="E28" s="18">
         <v>44896</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G28" s="18">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
         <v>44986</v>
       </c>
       <c r="H28" s="16" t="s">
@@ -2337,43 +2344,43 @@
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="1">
-        <v>44896</v>
+        <v>206</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="18">
+        <v>44866</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G29" s="18">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E29),MONTH(E29)+4,DAY(E29))</f>
         <v>44986</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>256</v>
+        <v>30</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>251</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E30" s="18">
         <v>44896</v>
@@ -2382,7 +2389,7 @@
         <v>155</v>
       </c>
       <c r="G30" s="18">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
         <v>44986</v>
       </c>
       <c r="H30" s="16" t="s">
@@ -2391,16 +2398,16 @@
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E31" s="18">
         <v>44896</v>
@@ -2409,7 +2416,7 @@
         <v>155</v>
       </c>
       <c r="G31" s="18">
-        <f t="shared" si="0"/>
+        <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
         <v>44986</v>
       </c>
       <c r="H31" s="16" t="s">
@@ -2418,43 +2425,43 @@
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>261</v>
+        <v>50</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="E32" s="18">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G32" s="18">
-        <f>DATE(YEAR(E32),MONTH(E32)+4,DAY(E32))</f>
+        <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
         <v>44986</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>135</v>
+        <v>285</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>273</v>
       </c>
       <c r="E33" s="18">
         <v>44896</v>
@@ -2467,58 +2474,58 @@
         <v>44986</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>139</v>
+        <v>295</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="E34" s="18">
-        <v>44896</v>
+        <v>44621</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G34" s="18">
-        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
+        <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
         <v>44986</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>140</v>
+        <v>269</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>138</v>
       </c>
       <c r="E35" s="18">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G35" s="18">
         <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>216</v>
@@ -2526,203 +2533,203 @@
     </row>
     <row r="36" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>273</v>
+        <v>40</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="E36" s="18">
-        <v>44896</v>
+        <v>44898</v>
       </c>
       <c r="F36" s="19" t="s">
         <v>155</v>
       </c>
       <c r="G36" s="18">
         <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
-        <v>44986</v>
+        <v>44988</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>294</v>
+        <v>42</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="E37" s="18">
-        <v>44621</v>
+        <v>44899</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G37" s="18">
-        <f>DATE(YEAR(E37)+1,MONTH(E37),DAY(E37))</f>
-        <v>44986</v>
+        <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
+        <v>44989</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>138</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="20"/>
       <c r="E38" s="18">
-        <v>44897</v>
+        <v>44652</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G38" s="18">
-        <f>DATE(YEAR(E38),MONTH(E38)+3,DAY(E38))</f>
-        <v>44987</v>
+        <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
+        <v>45017</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>269</v>
+        <v>129</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E39" s="18">
-        <v>44898</v>
+        <v>44652</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G39" s="18">
-        <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
-        <v>44988</v>
+        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
+        <v>45017</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>240</v>
+      <c r="A40" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>207</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="18">
-        <v>44899</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G40" s="18">
-        <f>DATE(YEAR(E40),MONTH(E40)+3,DAY(E40))</f>
-        <v>44989</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>216</v>
+        <v>151</v>
+      </c>
+      <c r="E40" s="36">
+        <v>44652</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="36">
+        <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
+        <v>45017</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="18">
+        <v>176</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="E41" s="34">
         <v>44652</v>
       </c>
-      <c r="F41" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="18">
-        <f t="shared" ref="G41:G46" si="1">DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
+      <c r="F41" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="36">
+        <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
         <v>45017</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="35" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="18">
+      <c r="A42" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="36">
         <v>44652</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" s="18">
-        <f t="shared" si="1"/>
+      <c r="F42" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="36">
+        <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
         <v>45017</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="35" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E43" s="22">
         <v>44652</v>
@@ -2731,7 +2738,7 @@
         <v>156</v>
       </c>
       <c r="G43" s="22">
-        <f t="shared" si="1"/>
+        <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
         <v>45017</v>
       </c>
       <c r="H43" s="21" t="s">
@@ -2740,148 +2747,144 @@
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="E44" s="34">
-        <v>44652</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>156</v>
+        <v>87</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18">
+        <v>44958</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="G44" s="22">
-        <f t="shared" si="1"/>
-        <v>45017</v>
+        <f>DATE(YEAR(E44),MONTH(E44)+3,DAY(E44))</f>
+        <v>45047</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>150</v>
-      </c>
+      <c r="A45" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="17"/>
       <c r="E45" s="18">
-        <v>44652</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>156</v>
+        <v>44958</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>155</v>
       </c>
       <c r="G45" s="18">
-        <f t="shared" si="1"/>
-        <v>45017</v>
+        <f>DATE(YEAR(E45),MONTH(E45)+3,DAY(E45))</f>
+        <v>45047</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>150</v>
+        <v>242</v>
       </c>
       <c r="E46" s="18">
-        <v>44652</v>
+        <v>44501</v>
       </c>
       <c r="F46" s="27" t="s">
         <v>156</v>
       </c>
       <c r="G46" s="18">
-        <f t="shared" si="1"/>
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>242</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D47" s="17"/>
       <c r="E47" s="18">
-        <v>44501</v>
-      </c>
-      <c r="F47" s="19" t="s">
+        <v>44713</v>
+      </c>
+      <c r="F47" s="16" t="s">
         <v>156</v>
       </c>
       <c r="G47" s="18">
-        <v>45047</v>
+        <f>DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
+        <v>45078</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="17"/>
+        <v>235</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>173</v>
+      </c>
       <c r="E48" s="18">
         <v>44713</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G48" s="18">
-        <f t="shared" ref="G48:G68" si="2">DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
+        <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
         <v>45078</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>173</v>
+        <v>101</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>277</v>
       </c>
       <c r="E49" s="18">
         <v>44713</v>
@@ -2890,21 +2893,21 @@
         <v>156</v>
       </c>
       <c r="G49" s="18">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
         <v>45078</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>278</v>
       </c>
       <c r="D50" s="17" t="s">
@@ -2917,7 +2920,7 @@
         <v>156</v>
       </c>
       <c r="G50" s="18">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
         <v>45078</v>
       </c>
       <c r="H50" s="16" t="s">
@@ -2926,53 +2929,53 @@
     </row>
     <row r="51" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>277</v>
+        <v>230</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>275</v>
       </c>
       <c r="E51" s="18">
         <v>44713</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="16" t="s">
         <v>156</v>
       </c>
       <c r="G51" s="18">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
         <v>45078</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>275</v>
+        <v>11</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="E52" s="18">
-        <v>44713</v>
-      </c>
-      <c r="F52" s="16" t="s">
+        <v>44743</v>
+      </c>
+      <c r="F52" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G52" s="18">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+        <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
+        <v>45108</v>
       </c>
       <c r="H52" s="16" t="s">
         <v>216</v>
@@ -2980,16 +2983,16 @@
     </row>
     <row r="53" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>236</v>
+        <v>34</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>231</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="E53" s="18">
         <v>44743</v>
@@ -2998,7 +3001,7 @@
         <v>156</v>
       </c>
       <c r="G53" s="18">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
         <v>45108</v>
       </c>
       <c r="H53" s="16" t="s">
@@ -3007,16 +3010,16 @@
     </row>
     <row r="54" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E54" s="18">
         <v>44743</v>
@@ -3025,7 +3028,7 @@
         <v>156</v>
       </c>
       <c r="G54" s="18">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
         <v>45108</v>
       </c>
       <c r="H54" s="16" t="s">
@@ -3034,13 +3037,13 @@
     </row>
     <row r="55" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>133</v>
@@ -3052,7 +3055,7 @@
         <v>156</v>
       </c>
       <c r="G55" s="18">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
         <v>45108</v>
       </c>
       <c r="H55" s="16" t="s">
@@ -3061,13 +3064,13 @@
     </row>
     <row r="56" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>133</v>
@@ -3079,7 +3082,7 @@
         <v>156</v>
       </c>
       <c r="G56" s="18">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
         <v>45108</v>
       </c>
       <c r="H56" s="16" t="s">
@@ -3087,27 +3090,27 @@
       </c>
     </row>
     <row r="57" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>17</v>
+      <c r="A57" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>9</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E57" s="18">
-        <v>44743</v>
-      </c>
-      <c r="F57" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="E57" s="36">
+        <v>44805</v>
+      </c>
+      <c r="F57" s="37" t="s">
         <v>156</v>
       </c>
       <c r="G57" s="18">
-        <f t="shared" si="2"/>
-        <v>45108</v>
+        <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
+        <v>45170</v>
       </c>
       <c r="H57" s="16" t="s">
         <v>216</v>
@@ -3115,16 +3118,16 @@
     </row>
     <row r="58" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>292</v>
+        <v>144</v>
       </c>
       <c r="E58" s="22">
         <v>44805</v>
@@ -3133,7 +3136,7 @@
         <v>156</v>
       </c>
       <c r="G58" s="18">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
         <v>45170</v>
       </c>
       <c r="H58" s="16" t="s">
@@ -3142,16 +3145,16 @@
     </row>
     <row r="59" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="E59" s="18">
         <v>44805</v>
@@ -3160,7 +3163,7 @@
         <v>156</v>
       </c>
       <c r="G59" s="18">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
         <v>45170</v>
       </c>
       <c r="H59" s="16" t="s">
@@ -3169,25 +3172,25 @@
     </row>
     <row r="60" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>281</v>
+        <v>196</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="E60" s="18">
         <v>44805</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="16" t="s">
         <v>156</v>
       </c>
       <c r="G60" s="18">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
         <v>45170</v>
       </c>
       <c r="H60" s="16" t="s">
@@ -3196,25 +3199,25 @@
     </row>
     <row r="61" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>193</v>
+        <v>56</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="E61" s="18">
         <v>44805</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G61" s="18">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
         <v>45170</v>
       </c>
       <c r="H61" s="16" t="s">
@@ -3223,43 +3226,43 @@
     </row>
     <row r="62" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E62" s="18">
-        <v>44805</v>
+        <v>44866</v>
       </c>
       <c r="F62" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G62" s="18">
-        <f t="shared" si="2"/>
-        <v>45170</v>
+        <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
+        <v>45231</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E63" s="18">
         <v>44866</v>
@@ -3268,35 +3271,35 @@
         <v>156</v>
       </c>
       <c r="G63" s="18">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
         <v>45231</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E64" s="18">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="F64" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G64" s="18">
-        <f t="shared" si="2"/>
-        <v>45231</v>
+        <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
+        <v>45261</v>
       </c>
       <c r="H64" s="16" t="s">
         <v>216</v>
@@ -3304,16 +3307,16 @@
     </row>
     <row r="65" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>304</v>
+        <v>54</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>296</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E65" s="18">
         <v>44896</v>
@@ -3322,7 +3325,7 @@
         <v>156</v>
       </c>
       <c r="G65" s="18">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
         <v>45261</v>
       </c>
       <c r="H65" s="16" t="s">
@@ -3331,16 +3334,16 @@
     </row>
     <row r="66" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>296</v>
+        <v>60</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E66" s="18">
         <v>44896</v>
@@ -3349,7 +3352,7 @@
         <v>156</v>
       </c>
       <c r="G66" s="18">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
         <v>45261</v>
       </c>
       <c r="H66" s="16" t="s">
@@ -3358,29 +3361,29 @@
     </row>
     <row r="67" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>250</v>
+        <v>72</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>171</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="E67" s="18">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="F67" s="19" t="s">
         <v>156</v>
       </c>
       <c r="G67" s="18">
-        <f t="shared" si="2"/>
-        <v>45261</v>
+        <f>DATE(YEAR(E67),MONTH(E67)+12,DAY(E67))</f>
+        <v>45292</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3403,7 +3406,7 @@
         <v>156</v>
       </c>
       <c r="G68" s="18">
-        <f t="shared" si="2"/>
+        <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
         <v>45292</v>
       </c>
       <c r="H68" s="16" t="s">
@@ -3790,107 +3793,107 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C48" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D67" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C44" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C45" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C47" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C71" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C43" r:id="rId8" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C40" r:id="rId8" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="C81" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="D74" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C42" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D29" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D53" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D33" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D54" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D34" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D35" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D66" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D62" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D59" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D67" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D64" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D8" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C39" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D52" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D53" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D13" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D65" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D61" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D58" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D66" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D63" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D12" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="D4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="D5" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="D82" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="D71" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D30" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D65" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D63" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D40" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D27" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D64" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D62" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="D78" r:id="rId36" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="D70" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="C70" r:id="rId38" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D56" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D57" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C29" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D7" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D9" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D10" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C21" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D20" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D42" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D46" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D56" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C26" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D21" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D8" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D9" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C67" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D15" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D39" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D43" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
     <hyperlink ref="C80" r:id="rId50" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
     <hyperlink ref="C84" r:id="rId51" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D24" r:id="rId52" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C13" r:id="rId53" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
+    <hyperlink ref="D18" r:id="rId52" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
+    <hyperlink ref="C11" r:id="rId53" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
     <hyperlink ref="D75" r:id="rId54" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
     <hyperlink ref="C75" r:id="rId55" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
     <hyperlink ref="D73" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="C73" r:id="rId57" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
     <hyperlink ref="C78" r:id="rId58" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D12" r:id="rId59" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D61" r:id="rId60" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D23" r:id="rId61" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
+    <hyperlink ref="D10" r:id="rId59" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
+    <hyperlink ref="D60" r:id="rId60" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
+    <hyperlink ref="D17" r:id="rId61" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
     <hyperlink ref="C79" r:id="rId62" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C53" r:id="rId63" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D40" r:id="rId64" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D31" r:id="rId65" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C46" r:id="rId66" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="D22" r:id="rId67" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C59" r:id="rId68" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D11" r:id="rId69" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
+    <hyperlink ref="C52" r:id="rId63" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
+    <hyperlink ref="D37" r:id="rId64" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
+    <hyperlink ref="D28" r:id="rId65" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
+    <hyperlink ref="C43" r:id="rId66" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
+    <hyperlink ref="D16" r:id="rId67" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
+    <hyperlink ref="C58" r:id="rId68" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
+    <hyperlink ref="D20" r:id="rId69" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
     <hyperlink ref="C83" r:id="rId70" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="D19" r:id="rId71" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C28" r:id="rId72" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="D47" r:id="rId73" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
+    <hyperlink ref="D14" r:id="rId71" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
+    <hyperlink ref="C25" r:id="rId72" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
+    <hyperlink ref="D46" r:id="rId73" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
     <hyperlink ref="C2" r:id="rId74" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D32" r:id="rId75" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
+    <hyperlink ref="D29" r:id="rId75" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
     <hyperlink ref="D79" r:id="rId76" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
-    <hyperlink ref="C44" r:id="rId77" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/04/scottish-natural-capital-accounts-2022/documents/scottish-natural-capital-accounts-2022-reference-tables/scottish-natural-capital-accounts-2022-reference-tables/govscot%3Adocument/scottish-natural-capital-accounts-2022-reference-tables.xlsx" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
+    <hyperlink ref="C41" r:id="rId77" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/04/scottish-natural-capital-accounts-2022/documents/scottish-natural-capital-accounts-2022-reference-tables/scottish-natural-capital-accounts-2022-reference-tables/govscot%3Adocument/scottish-natural-capital-accounts-2022-reference-tables.xlsx" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
     <hyperlink ref="D81" r:id="rId78" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
     <hyperlink ref="D83" r:id="rId79" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
-    <hyperlink ref="C18" r:id="rId80" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D26" r:id="rId81" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D27" r:id="rId82" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C26" r:id="rId83" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C39" r:id="rId84" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C25" r:id="rId85" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C7" r:id="rId86" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
+    <hyperlink ref="C13" r:id="rId80" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
+    <hyperlink ref="D23" r:id="rId81" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
+    <hyperlink ref="D24" r:id="rId82" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
+    <hyperlink ref="C23" r:id="rId83" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
+    <hyperlink ref="C36" r:id="rId84" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
+    <hyperlink ref="C22" r:id="rId85" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
+    <hyperlink ref="C21" r:id="rId86" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
     <hyperlink ref="C5" r:id="rId87" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C24" r:id="rId88" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="D36" r:id="rId89" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
+    <hyperlink ref="C18" r:id="rId88" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
+    <hyperlink ref="D33" r:id="rId89" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
     <hyperlink ref="C6" r:id="rId90" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D38" r:id="rId91" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C40" r:id="rId92" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C16" r:id="rId93" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C33" r:id="rId94" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
-    <hyperlink ref="D52" r:id="rId95" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
-    <hyperlink ref="C52" r:id="rId96" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
-    <hyperlink ref="C50" r:id="rId97" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
-    <hyperlink ref="C22" r:id="rId98" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
-    <hyperlink ref="C11" r:id="rId99" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
-    <hyperlink ref="C66" r:id="rId100" xr:uid="{5B6E2066-FB6E-45C7-8042-6748245C029E}"/>
-    <hyperlink ref="C32" r:id="rId101" xr:uid="{61BEAFD6-8542-4172-94BF-7ACCDCB0C9AB}"/>
+    <hyperlink ref="D35" r:id="rId91" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
+    <hyperlink ref="C37" r:id="rId92" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
+    <hyperlink ref="C12" r:id="rId93" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
+    <hyperlink ref="C30" r:id="rId94" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
+    <hyperlink ref="D51" r:id="rId95" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
+    <hyperlink ref="C51" r:id="rId96" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
+    <hyperlink ref="C49" r:id="rId97" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
+    <hyperlink ref="C16" r:id="rId98" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
+    <hyperlink ref="C20" r:id="rId99" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
+    <hyperlink ref="C65" r:id="rId100" xr:uid="{5B6E2066-FB6E-45C7-8042-6748245C029E}"/>
+    <hyperlink ref="C29" r:id="rId101" xr:uid="{61BEAFD6-8542-4172-94BF-7ACCDCB0C9AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId102"/>

--- a/Structure/Sources.xlsx
+++ b/Structure/Sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB53CFB-C4F0-4515-9AC5-50C56EA94D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FE87B9-63E5-4330-8CB9-FDE16A0FA52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,192 +37,99 @@
     <t>BEISAnnualElec</t>
   </si>
   <si>
-    <t>BEIS: Annual domestic electricity bills</t>
-  </si>
-  <si>
     <t>BEISAnnualGas</t>
   </si>
   <si>
-    <t>BEIS: Annual domestic gas bills</t>
-  </si>
-  <si>
     <t>BEISCHP</t>
   </si>
   <si>
-    <t>BEIS: Combined Heat and Power in Scotland, Wales, Northern Ireland and the regions of England, Energy Trends</t>
-  </si>
-  <si>
     <t>BEISDUKES</t>
   </si>
   <si>
-    <t>BEIS: Digest of UK Energy Statistics (DUKES)</t>
-  </si>
-  <si>
     <t>BEISDUKESBalance</t>
   </si>
   <si>
-    <t>BEIS: Digest of UK Energy Statistics (DUKES): aggregate energy balance</t>
-  </si>
-  <si>
     <t>BEISDUKESCoal</t>
   </si>
   <si>
-    <t>BEIS: Digest of UK Energy Statistics (DUKES): output and employment from UK coal mines</t>
-  </si>
-  <si>
     <t>BEISDUKESPower</t>
   </si>
   <si>
-    <t>BEIS: Digest of UK Energy Statistics (DUKES): power stations</t>
-  </si>
-  <si>
     <t>BEISElecGen</t>
   </si>
   <si>
-    <t>BEIS: Electricity generation and supply figures for Scotland, Wales, Northern Ireland and England, Energy Trends</t>
-  </si>
-  <si>
     <t>BEISElecMeter</t>
   </si>
   <si>
-    <t>BEIS: Electricty meter point data</t>
-  </si>
-  <si>
     <t>Unpublished</t>
   </si>
   <si>
     <t>BEISGasCustomers</t>
   </si>
   <si>
-    <t>BEIS: Sub-national gas sales and numbers of customers</t>
-  </si>
-  <si>
     <t>BEISHeatNetwork</t>
   </si>
   <si>
-    <t>BEIS: Heat Network Data</t>
-  </si>
-  <si>
     <t>BEISHHoldEE</t>
   </si>
   <si>
-    <t>BEIS: Household Energy Efficiency Statistics</t>
-  </si>
-  <si>
     <t>BEISImportExport</t>
   </si>
   <si>
-    <t>BEIS: Energy Trends: Imports, exports and transfers of electricity</t>
-  </si>
-  <si>
     <t>BEISLocalRoad</t>
   </si>
   <si>
-    <t>BEIS: Regional and local authority road transport consumption statistics</t>
-  </si>
-  <si>
     <t>BEISNEED</t>
   </si>
   <si>
-    <t>BEIS: National Energy Efficiency Data-Framework (NEED): impact of measures</t>
-  </si>
-  <si>
     <t>BEISNonGasGrid</t>
   </si>
   <si>
-    <t>BEIS: Sub-national estimates of households not connected to the gas network</t>
-  </si>
-  <si>
     <t>BEISOil</t>
   </si>
   <si>
-    <t>BEIS: Energy Trends: oil and oil products</t>
-  </si>
-  <si>
     <t>BEISPaymentMethodElec</t>
   </si>
   <si>
-    <t>BEIS: Regional variation of payment method for standard electricity</t>
-  </si>
-  <si>
     <t>BEISPaymentMethodGas</t>
   </si>
   <si>
-    <t>BEIS: Regional variation of payment method for gas</t>
-  </si>
-  <si>
     <t>BEISQuarterlyElecCustomers</t>
   </si>
   <si>
-    <t>BEIS: Quarterly domestic electricity customer numbers</t>
-  </si>
-  <si>
     <t>BEISQuarterlyGasCustomers</t>
   </si>
   <si>
-    <t>BEIS: Quarterly domestic gas customer numbers</t>
-  </si>
-  <si>
     <t>BEISRenElec</t>
   </si>
   <si>
-    <t>BEIS: Renewable electricity in Scotland, Wales, Northern Ireland and the regions of England, Energy Trends</t>
-  </si>
-  <si>
     <t>BEISREPD</t>
   </si>
   <si>
-    <t>BEIS: Renewable Energy Planning Database</t>
-  </si>
-  <si>
     <t>BEISRHI</t>
   </si>
   <si>
-    <t>BEIS: Renewable Heat Incentive statistics</t>
-  </si>
-  <si>
     <t>BEISSubNatElec</t>
   </si>
   <si>
-    <t>BEIS: Sub-national electricity consumption statistics</t>
-  </si>
-  <si>
     <t>BEISSubNatEnergy</t>
   </si>
   <si>
-    <t>BEIS: Sub-national total final energy consumption data</t>
-  </si>
-  <si>
     <t>BEISSubNatFuel</t>
   </si>
   <si>
-    <t>BEIS: Sub-national residual fuel consumption data</t>
-  </si>
-  <si>
     <t>BEISSubNatGas</t>
   </si>
   <si>
-    <t>BEIS: Sub-national gas consumption statistics</t>
-  </si>
-  <si>
     <t>BEISUKConsump</t>
   </si>
   <si>
-    <t>BEIS: Energy Consumption in the UK: end use</t>
-  </si>
-  <si>
     <t>BEISUnitElec</t>
   </si>
   <si>
-    <t>BEIS: Average variable unit costs and fixed costs for electricity for UK regions</t>
-  </si>
-  <si>
     <t>BEISUnitGas</t>
   </si>
   <si>
-    <t>BEIS: Average variable unit costs and fixed costs for gas for UK regions</t>
-  </si>
-  <si>
     <t>DFTLicenced</t>
   </si>
   <si>
@@ -523,9 +430,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>BEIS: LSOA and MSOA electricity consumption data</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/statistics/lower-and-middle-super-output-areas-electricity-consumption</t>
   </si>
   <si>
@@ -562,9 +466,6 @@
     <t>ChargePlace</t>
   </si>
   <si>
-    <t>BEIS: LSOA domestic electricity</t>
-  </si>
-  <si>
     <t>BEISLSOA</t>
   </si>
   <si>
@@ -604,15 +505,9 @@
     <t>https://www.gov.uk/government/statistics/regional-renewable-statistics</t>
   </si>
   <si>
-    <t>BEIS: Number of sites generating electricity from renewable sources</t>
-  </si>
-  <si>
     <t>BEISRenElecLA</t>
   </si>
   <si>
-    <t>BEIS: Renewable Electricity by Local Authority</t>
-  </si>
-  <si>
     <t>OFGEMTariff</t>
   </si>
   <si>
@@ -643,9 +538,6 @@
     <t>OFGEM: Domestic Renewable Heat Incentive</t>
   </si>
   <si>
-    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx</t>
-  </si>
-  <si>
     <t>DFTCharging</t>
   </si>
   <si>
@@ -712,9 +604,6 @@
     <t>BEISEmissions</t>
   </si>
   <si>
-    <t>BEIS: Final UK greenhouse gas emissions national statistics</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/995629/Impact_of_measures_headline_Scotland_2018.xlsx</t>
   </si>
   <si>
@@ -823,12 +712,6 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043387/table_233.xlsx</t>
   </si>
   <si>
-    <t>BEIS: Average annual domestic gas bills for GB regions</t>
-  </si>
-  <si>
-    <t>BEIS: Average annual domestic electricity bills for GB regions</t>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1043393/table_242.xlsx</t>
   </si>
   <si>
@@ -935,6 +818,123 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1126102/Regional_Electricity_Generation_and_Supply_Timeseries.xlsx</t>
+  </si>
+  <si>
+    <t>DESNZ: Energy Trends: Imports, exports and transfers of electricity</t>
+  </si>
+  <si>
+    <t>DESNZ: Renewable electricity in Scotland, Wales, Northern Ireland and the regions of England, Energy Trends</t>
+  </si>
+  <si>
+    <t>DESNZ: Renewable Energy Planning Database</t>
+  </si>
+  <si>
+    <t>DESNZ: Average variable unit costs and fixed costs for gas for UK regions</t>
+  </si>
+  <si>
+    <t>DESNZ: Number of sites generating electricity from renewable sources</t>
+  </si>
+  <si>
+    <t>DESNZ: Average variable unit costs and fixed costs for electricity for UK regions</t>
+  </si>
+  <si>
+    <t>DESNZ: Sub-national estimates of households not connected to the gas network</t>
+  </si>
+  <si>
+    <t>DESNZ: Sub-national gas sales and numbers of customers</t>
+  </si>
+  <si>
+    <t>DESNZ: Renewable Heat Incentive statistics</t>
+  </si>
+  <si>
+    <t>DESNZ: LSOA domestic electricity</t>
+  </si>
+  <si>
+    <t>DESNZ: Household Energy Efficiency Statistics</t>
+  </si>
+  <si>
+    <t>DESNZ: Energy Trends: oil and oil products</t>
+  </si>
+  <si>
+    <t>DESNZ: Regional variation of payment method for gas</t>
+  </si>
+  <si>
+    <t>DESNZ: Average annual domestic electricity bills for GB regions</t>
+  </si>
+  <si>
+    <t>DESNZ: Average annual domestic gas bills for GB regions</t>
+  </si>
+  <si>
+    <t>DESNZ: Annual domestic electricity bills</t>
+  </si>
+  <si>
+    <t>DESNZ: Annual domestic gas bills</t>
+  </si>
+  <si>
+    <t>DESNZ: Quarterly domestic electricity customer numbers</t>
+  </si>
+  <si>
+    <t>DESNZ: Quarterly domestic gas customer numbers</t>
+  </si>
+  <si>
+    <t>DESNZ: Regional variation of payment method for standard electricity</t>
+  </si>
+  <si>
+    <t>DESNZ: Final UK greenhouse gas emissions national statistics</t>
+  </si>
+  <si>
+    <t>DESNZ: Digest of UK Energy Statistics (DUKES)</t>
+  </si>
+  <si>
+    <t>DESNZ: National Energy Efficiency Data-Framework (NEED): impact of measures</t>
+  </si>
+  <si>
+    <t>DESNZ: Digest of UK Energy Statistics (DUKES): aggregate energy balance</t>
+  </si>
+  <si>
+    <t>DESNZ: Digest of UK Energy Statistics (DUKES): output and employment from UK coal mines</t>
+  </si>
+  <si>
+    <t>DESNZ: Digest of UK Energy Statistics (DUKES): power stations</t>
+  </si>
+  <si>
+    <t>DESNZ: Combined Heat and Power in Scotland, Wales, Northern Ireland and the regions of England, Energy Trends</t>
+  </si>
+  <si>
+    <t>DESNZ: Sub-national residual fuel consumption data</t>
+  </si>
+  <si>
+    <t>DESNZ: Regional and local authority road transport consumption statistics</t>
+  </si>
+  <si>
+    <t>DESNZ: Renewable Electricity by Local Authority</t>
+  </si>
+  <si>
+    <t>DESNZ: Sub-national total final energy consumption data</t>
+  </si>
+  <si>
+    <t>DESNZ: Energy Consumption in the UK: end use</t>
+  </si>
+  <si>
+    <t>DESNZ: Electricity generation and supply figures for Scotland, Wales, Northern Ireland and England, Energy Trends</t>
+  </si>
+  <si>
+    <t>DESNZ: Sub-national electricity consumption statistics</t>
+  </si>
+  <si>
+    <t>DESNZ: Sub-national gas consumption statistics</t>
+  </si>
+  <si>
+    <t>DESNZ: Heat Network Data</t>
+  </si>
+  <si>
+    <t>DESNZ: Electricty meter point data</t>
+  </si>
+  <si>
+    <t>DESNZ: LSOA and MSOA electricity consumption data</t>
+  </si>
+  <si>
+    <t>https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2023/01/oil-and-gas-production-statistics/documents/oil-and-gas-physical-commodity-balances-1998-2021/oil-and-gas-physical-commodity-balances-1998-2021/govscot%3Adocument/Oil%2Band%2BGas%2BPhysical%2BCommodity%2BBalances%2B1998-2021.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,10 +1601,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1613,1345 +1613,1345 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="15">
         <v>43862</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G2" s="15">
         <f>DATE(YEAR(E2)+1,MONTH(E2),DAY(E2))</f>
         <v>44228</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="E3" s="25">
         <v>44197</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G3" s="18">
         <f>DATE(YEAR(E3)+1,MONTH(E3),DAY(E3))</f>
         <v>44562</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E4" s="8">
         <v>44562</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G4" s="18">
         <f>DATE(YEAR(E4),MONTH(E4)+3,DAY(E4))</f>
         <v>44652</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E5" s="8">
         <v>44562</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G5" s="18">
         <f>DATE(YEAR(E5),MONTH(E5)+3,DAY(E5))</f>
         <v>44652</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E6" s="18">
         <v>44743</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G6" s="18">
         <f>DATE(YEAR(E6),MONTH(E6)+3,DAY(E6))</f>
         <v>44835</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="1">
+        <v>96</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="18">
         <v>44743</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G7" s="18">
         <f>DATE(YEAR(E7),MONTH(E7)+3,DAY(E7))</f>
         <v>44835</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="18">
+        <v>44835</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="E8" s="18">
-        <v>44743</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>155</v>
-      </c>
       <c r="G8" s="18">
-        <f>DATE(YEAR(E8),MONTH(E8)+3,DAY(E8))</f>
-        <v>44835</v>
+        <f>DATE(YEAR(E8),MONTH(E8)+1,DAY(E8))</f>
+        <v>44866</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>170</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="17"/>
       <c r="E9" s="18">
-        <v>44835</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>157</v>
+        <v>44805</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G9" s="18">
-        <f>DATE(YEAR(E9),MONTH(E9)+1,DAY(E9))</f>
-        <v>44866</v>
+        <f>DATE(YEAR(E9),MONTH(E9)+3,DAY(E9))</f>
+        <v>44896</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>193</v>
+        <v>272</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="E10" s="18">
         <v>44531</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>156</v>
+      <c r="F10" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="G10" s="18">
         <f>DATE(YEAR(E10)+1,MONTH(E10),DAY(E10))</f>
         <v>44896</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="17"/>
+        <v>273</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>114</v>
+      </c>
       <c r="E11" s="18">
-        <v>44805</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>155</v>
+        <v>44531</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="G11" s="18">
-        <f>DATE(YEAR(E11),MONTH(E11)+3,DAY(E11))</f>
+        <f>DATE(YEAR(E11)+1,MONTH(E11),DAY(E11))</f>
         <v>44896</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="1">
-        <v>44805</v>
+        <v>48</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="18">
+        <v>44562</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="G12" s="18">
-        <f>DATE(YEAR(E12),MONTH(E12)+3,DAY(E12))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E12)+1,MONTH(E12),DAY(E12))</f>
+        <v>44927</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>254</v>
+        <v>274</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>259</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E13" s="18">
-        <v>44531</v>
+        <v>44835</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="G13" s="18">
-        <f>DATE(YEAR(E13)+1,MONTH(E13),DAY(E13))</f>
-        <v>44896</v>
+        <f>DATE(YEAR(E13),MONTH(E13)+4,DAY(E13))</f>
+        <v>44958</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>145</v>
+        <v>275</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="E14" s="18">
-        <v>44531</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>156</v>
+        <v>44593</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="G14" s="18">
         <f>DATE(YEAR(E14)+1,MONTH(E14),DAY(E14))</f>
-        <v>44896</v>
+        <v>44958</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>172</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D15" s="17"/>
       <c r="E15" s="18">
-        <v>44562</v>
+        <v>44896</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="G15" s="18">
-        <f>DATE(YEAR(E15)+1,MONTH(E15),DAY(E15))</f>
-        <v>44927</v>
+        <f>DATE(YEAR(E15),MONTH(E15)+3,DAY(E15))</f>
+        <v>44986</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>52</v>
+        <v>276</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>141</v>
+        <v>254</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>206</v>
       </c>
       <c r="E16" s="18">
-        <v>44835</v>
+        <v>44958</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="G16" s="18">
-        <f>DATE(YEAR(E16),MONTH(E16)+4,DAY(E16))</f>
-        <v>44958</v>
+        <f>DATE(YEAR(E16),MONTH(E16)+1,DAY(E16))</f>
+        <v>44986</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>199</v>
+        <v>277</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="E17" s="18">
-        <v>44774</v>
+        <v>44958</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="G17" s="18">
-        <f>DATE(YEAR(E17),MONTH(E17)+6,DAY(E17))</f>
-        <v>44958</v>
+        <f>DATE(YEAR(E17),MONTH(E17)+1,DAY(E17))</f>
+        <v>44986</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="18">
+        <v>44896</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="18">
+        <f>DATE(YEAR(E18),MONTH(E18)+3,DAY(E18))</f>
+        <v>44986</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="18">
-        <v>44593</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="18">
-        <f>DATE(YEAR(E18)+1,MONTH(E18),DAY(E18))</f>
-        <v>44958</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="17"/>
+        <v>220</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="E19" s="18">
         <v>44896</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G19" s="18">
         <f>DATE(YEAR(E19),MONTH(E19)+3,DAY(E19))</f>
         <v>44986</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>243</v>
+        <v>171</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="E20" s="18">
-        <v>44958</v>
+        <v>44866</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G20" s="18">
-        <f>DATE(YEAR(E20),MONTH(E20)+1,DAY(E20))</f>
+        <f>DATE(YEAR(E20),MONTH(E20)+4,DAY(E20))</f>
         <v>44986</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>137</v>
+        <v>246</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>234</v>
       </c>
       <c r="E21" s="18">
-        <v>44958</v>
+        <v>44896</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G21" s="18">
-        <f>DATE(YEAR(E21),MONTH(E21)+1,DAY(E21))</f>
+        <f>DATE(YEAR(E21),MONTH(E21)+3,DAY(E21))</f>
         <v>44986</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>138</v>
+        <v>43</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>255</v>
       </c>
       <c r="E22" s="18">
-        <v>44896</v>
+        <v>44621</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="G22" s="18">
-        <f>DATE(YEAR(E22),MONTH(E22)+3,DAY(E22))</f>
+        <f>DATE(YEAR(E22)+1,MONTH(E22),DAY(E22))</f>
         <v>44986</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D23" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="1">
-        <v>44896</v>
+      <c r="C23" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="18">
+        <v>44652</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="G23" s="18">
-        <f>DATE(YEAR(E23),MONTH(E23)+3,DAY(E23))</f>
-        <v>44986</v>
+        <f>DATE(YEAR(E23)+1,MONTH(E23),DAY(E23))</f>
+        <v>45017</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>263</v>
+        <v>143</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="1">
-        <v>44896</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>155</v>
+        <v>144</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="34">
+        <v>44652</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="G24" s="18">
-        <f>DATE(YEAR(E24),MONTH(E24)+3,DAY(E24))</f>
-        <v>44986</v>
+        <f>DATE(YEAR(E24)+1,MONTH(E24),DAY(E24))</f>
+        <v>45017</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="1">
-        <v>44896</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>155</v>
+        <v>190</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="18">
+        <v>44652</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="G25" s="18">
-        <f>DATE(YEAR(E25),MONTH(E25)+3,DAY(E25))</f>
-        <v>44986</v>
+        <f>DATE(YEAR(E25)+1,MONTH(E25),DAY(E25))</f>
+        <v>45017</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="1">
-        <v>44896</v>
+        <v>119</v>
+      </c>
+      <c r="E26" s="18">
+        <v>44652</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="G26" s="18">
-        <f>DATE(YEAR(E26),MONTH(E26)+3,DAY(E26))</f>
-        <v>44986</v>
+        <f>DATE(YEAR(E26)+1,MONTH(E26),DAY(E26))</f>
+        <v>45017</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>154</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D27" s="17"/>
       <c r="E27" s="18">
-        <v>44896</v>
+        <v>44958</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G27" s="18">
         <f>DATE(YEAR(E27),MONTH(E27)+3,DAY(E27))</f>
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>138</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D28" s="17"/>
       <c r="E28" s="18">
-        <v>44896</v>
+        <v>44958</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G28" s="18">
         <f>DATE(YEAR(E28),MONTH(E28)+3,DAY(E28))</f>
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="E29" s="18">
-        <v>44866</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="18">
-        <f>DATE(YEAR(E29),MONTH(E29)+4,DAY(E29))</f>
-        <v>44986</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>221</v>
+      <c r="D29" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="36">
+        <v>44501</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="36">
+        <v>45047</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>30</v>
+        <v>232</v>
+      </c>
+      <c r="B30" t="s">
+        <v>278</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>135</v>
+        <v>233</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>107</v>
       </c>
       <c r="E30" s="18">
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G30" s="18">
         <f>DATE(YEAR(E30),MONTH(E30)+3,DAY(E30))</f>
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="18">
-        <v>44896</v>
+        <v>101</v>
+      </c>
+      <c r="E31" s="1">
+        <v>44986</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G31" s="18">
         <f>DATE(YEAR(E31),MONTH(E31)+3,DAY(E31))</f>
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>280</v>
+        <v>269</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="18">
-        <v>44896</v>
+        <v>101</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44986</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G32" s="18">
         <f>DATE(YEAR(E32),MONTH(E32)+3,DAY(E32))</f>
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>117</v>
+        <v>271</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="E33" s="18">
-        <v>44896</v>
+        <v>221</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="1">
+        <v>44986</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G33" s="18">
         <f>DATE(YEAR(E33),MONTH(E33)+3,DAY(E33))</f>
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>294</v>
+        <v>231</v>
+      </c>
+      <c r="B34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>107</v>
       </c>
       <c r="E34" s="18">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="G34" s="18">
-        <f>DATE(YEAR(E34)+1,MONTH(E34),DAY(E34))</f>
-        <v>44986</v>
+        <f>DATE(YEAR(E34),MONTH(E34)+3,DAY(E34))</f>
+        <v>45078</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>138</v>
+        <v>22</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="E35" s="18">
-        <v>44897</v>
+        <v>44986</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G35" s="18">
         <f>DATE(YEAR(E35),MONTH(E35)+3,DAY(E35))</f>
-        <v>44987</v>
+        <v>45078</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>269</v>
+        <v>278</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>203</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E36" s="18">
-        <v>44898</v>
+        <v>44986</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G36" s="18">
         <f>DATE(YEAR(E36),MONTH(E36)+3,DAY(E36))</f>
-        <v>44988</v>
+        <v>45078</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="E37" s="18">
-        <v>44899</v>
+        <v>44986</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G37" s="18">
+        <v>124</v>
+      </c>
+      <c r="G37" s="36">
         <f>DATE(YEAR(E37),MONTH(E37)+3,DAY(E37))</f>
-        <v>44989</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>216</v>
+        <v>45078</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="20"/>
+        <v>267</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="E38" s="18">
-        <v>44652</v>
+        <v>44986</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="G38" s="18">
-        <f>DATE(YEAR(E38)+1,MONTH(E38),DAY(E38))</f>
-        <v>45017</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>217</v>
+        <f>DATE(YEAR(E38),MONTH(E38)+3,DAY(E38))</f>
+        <v>45078</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>111</v>
+      <c r="A39" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>241</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="18">
-        <v>44652</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G39" s="18">
-        <f>DATE(YEAR(E39)+1,MONTH(E39),DAY(E39))</f>
-        <v>45017</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>219</v>
+        <v>109</v>
+      </c>
+      <c r="E39" s="36">
+        <v>44986</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="36">
+        <f>DATE(YEAR(E39),MONTH(E39)+3,DAY(E39))</f>
+        <v>45078</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>110</v>
+      <c r="A40" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="36">
-        <v>44652</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>156</v>
+        <v>64</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18">
+        <v>44713</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="G40" s="36">
         <f>DATE(YEAR(E40)+1,MONTH(E40),DAY(E40))</f>
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>300</v>
+        <v>61</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>198</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="E41" s="34">
-        <v>44652</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="36">
+        <v>141</v>
+      </c>
+      <c r="E41" s="18">
+        <v>44713</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="18">
         <f>DATE(YEAR(E41)+1,MONTH(E41),DAY(E41))</f>
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" s="36">
-        <v>44652</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" s="36">
+        <v>70</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" s="18">
+        <v>44713</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" s="18">
         <f>DATE(YEAR(E42)+1,MONTH(E42),DAY(E42))</f>
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="E43" s="22">
-        <v>44652</v>
+        <v>44713</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G43" s="22">
         <f>DATE(YEAR(E43)+1,MONTH(E43),DAY(E43))</f>
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="D44" s="17"/>
+        <v>286</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>236</v>
+      </c>
       <c r="E44" s="18">
-        <v>44958</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>155</v>
+        <v>44713</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="G44" s="22">
-        <f>DATE(YEAR(E44),MONTH(E44)+3,DAY(E44))</f>
-        <v>45047</v>
+        <f>DATE(YEAR(E44)+1,MONTH(E44),DAY(E44))</f>
+        <v>45078</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>90</v>
+      <c r="A45" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>280</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18">
-        <v>44958</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>155</v>
+        <v>229</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="1">
+        <v>44987</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="G45" s="18">
         <f>DATE(YEAR(E45),MONTH(E45)+3,DAY(E45))</f>
-        <v>45047</v>
+        <v>45079</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="E46" s="18">
-        <v>44501</v>
+        <v>101</v>
+      </c>
+      <c r="E46" s="1">
+        <v>44988</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="G46" s="18">
-        <v>45047</v>
+        <f>DATE(YEAR(E46),MONTH(E46)+3,DAY(E46))</f>
+        <v>45080</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18">
-        <v>44713</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>156</v>
+        <v>216</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44989</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="G47" s="18">
-        <f>DATE(YEAR(E47)+1,MONTH(E47),DAY(E47))</f>
-        <v>45078</v>
+        <f>DATE(YEAR(E47),MONTH(E47)+3,DAY(E47))</f>
+        <v>45081</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>173</v>
+        <v>287</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="E48" s="18">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G48" s="18">
         <f>DATE(YEAR(E48)+1,MONTH(E48),DAY(E48))</f>
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>278</v>
+        <v>288</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
       <c r="E49" s="18">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G49" s="18">
         <f>DATE(YEAR(E49)+1,MONTH(E49),DAY(E49))</f>
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>277</v>
-      </c>
       <c r="E50" s="18">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G50" s="18">
         <f>DATE(YEAR(E50)+1,MONTH(E50),DAY(E50))</f>
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>229</v>
+        <v>9</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>275</v>
+        <v>290</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="E51" s="18">
-        <v>44713</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>156</v>
+        <v>44743</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="G51" s="18">
         <f>DATE(YEAR(E51)+1,MONTH(E51),DAY(E51))</f>
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2959,458 +2959,458 @@
         <v>10</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>236</v>
+        <v>291</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E52" s="18">
         <v>44743</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G52" s="18">
         <f>DATE(YEAR(E52)+1,MONTH(E52),DAY(E52))</f>
         <v>45108</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>232</v>
+        <v>163</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>164</v>
       </c>
       <c r="E53" s="18">
-        <v>44743</v>
+        <v>44958</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="G53" s="18">
-        <f>DATE(YEAR(E53)+1,MONTH(E53),DAY(E53))</f>
-        <v>45108</v>
+        <f>DATE(YEAR(E53),MONTH(E53)+6,DAY(E53))</f>
+        <v>45139</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="E54" s="18">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G54" s="18">
         <f>DATE(YEAR(E54)+1,MONTH(E54),DAY(E54))</f>
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>15</v>
+      <c r="A55" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>293</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E55" s="18">
-        <v>44743</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>156</v>
+        <v>113</v>
+      </c>
+      <c r="E55" s="36">
+        <v>44805</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>125</v>
       </c>
       <c r="G55" s="18">
         <f>DATE(YEAR(E55)+1,MONTH(E55),DAY(E55))</f>
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="E56" s="18">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G56" s="18">
         <f>DATE(YEAR(E56)+1,MONTH(E56),DAY(E56))</f>
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="E57" s="36">
+      <c r="A57" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="18">
         <v>44805</v>
       </c>
-      <c r="F57" s="37" t="s">
-        <v>156</v>
+      <c r="F57" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="G57" s="18">
         <f>DATE(YEAR(E57)+1,MONTH(E57),DAY(E57))</f>
         <v>45170</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="E58" s="22">
         <v>44805</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G58" s="18">
         <f>DATE(YEAR(E58)+1,MONTH(E58),DAY(E58))</f>
         <v>45170</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="E59" s="18">
-        <v>44805</v>
+        <v>44866</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G59" s="18">
         <f>DATE(YEAR(E59)+1,MONTH(E59),DAY(E59))</f>
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>193</v>
+        <v>297</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="E60" s="18">
-        <v>44805</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>156</v>
+        <v>44866</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="G60" s="18">
         <f>DATE(YEAR(E60)+1,MONTH(E60),DAY(E60))</f>
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>143</v>
+        <v>270</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="E61" s="18">
-        <v>44805</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>156</v>
+        <v>44896</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="G61" s="18">
         <f>DATE(YEAR(E61)+1,MONTH(E61),DAY(E61))</f>
-        <v>45170</v>
+        <v>45261</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>97</v>
+        <v>298</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="E62" s="18">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G62" s="18">
         <f>DATE(YEAR(E62)+1,MONTH(E62),DAY(E62))</f>
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>244</v>
+        <v>299</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>257</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E63" s="18">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G63" s="18">
         <f>DATE(YEAR(E63)+1,MONTH(E63),DAY(E63))</f>
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E64" s="18">
         <v>44896</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G64" s="18">
         <f>DATE(YEAR(E64)+1,MONTH(E64),DAY(E64))</f>
         <v>45261</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="E65" s="18">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G65" s="18">
         <f>DATE(YEAR(E65)+1,MONTH(E65),DAY(E65))</f>
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>250</v>
+        <v>41</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E66" s="18">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G66" s="18">
-        <f>DATE(YEAR(E66)+1,MONTH(E66),DAY(E66))</f>
-        <v>45261</v>
+        <f>DATE(YEAR(E66),MONTH(E66)+12,DAY(E66))</f>
+        <v>45292</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>73</v>
+        <v>82</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="E67" s="18">
         <v>44927</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G67" s="18">
-        <f>DATE(YEAR(E67),MONTH(E67)+12,DAY(E67))</f>
+        <f>DATE(YEAR(E67)+1,MONTH(E67),DAY(E67))</f>
         <v>45292</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>302</v>
+        <v>98</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="E68" s="18">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G68" s="18">
         <f>DATE(YEAR(E68)+1,MONTH(E68),DAY(E68))</f>
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -3425,322 +3425,322 @@
     </row>
     <row r="70" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E70" s="18">
         <v>43435</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="G70" s="18"/>
       <c r="H70" s="16" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="E71" s="18">
         <v>43447</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="16" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>26</v>
+        <v>301</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="8">
         <v>43466</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="E73" s="15">
         <v>43831</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="2" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E74" s="18">
         <v>43831</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G74" s="18"/>
       <c r="H74" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="E75" s="15">
         <v>43908</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="2" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="8">
         <v>43916</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="18">
         <v>43950</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G77" s="18"/>
       <c r="H77" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>153</v>
       </c>
       <c r="E78" s="18">
         <v>43950</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G78" s="18"/>
       <c r="H78" s="16" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="E79" s="8">
         <v>44044</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="4" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="E80" s="8">
         <v>44166</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="4" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="E81" s="18">
         <v>44166</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E82" s="8">
-        <v>44593</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G82" s="8"/>
-      <c r="H82" s="4" t="s">
-        <v>217</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E82" s="18">
+        <v>44986</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G82" s="18"/>
+      <c r="H82" s="16" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="E83" s="8">
         <v>44256</v>
@@ -3748,43 +3748,43 @@
       <c r="F83" s="4"/>
       <c r="G83" s="8"/>
       <c r="H83" s="4" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="8"/>
       <c r="F84" s="4"/>
       <c r="G84" s="8"/>
       <c r="H84" s="4" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="15"/>
       <c r="F85" s="2"/>
       <c r="G85" s="15"/>
       <c r="H85" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3793,112 +3793,113 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D67" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C44" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C45" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C47" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D66" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C27" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C28" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C40" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C71" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C40" r:id="rId8" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/09/oil-and-gas-statistics-supplementary-tables-2018/documents/physical-commodity-balances-of-oil-gas-and-petroleum-products/physical-commodity-balances-of-oil-gas-and-petroleum-products/govscot%3Adocument/Commodity%2BBalances%2B-%2B1998-2018.xlsx" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C81" r:id="rId9" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D74" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C39" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D52" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D53" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D13" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D65" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D61" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D58" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D66" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D63" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D12" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D5" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D82" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D71" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D40" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D27" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D64" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D62" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D78" r:id="rId36" location="thescottishnationalaccountsprogramme(snap)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D70" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C70" r:id="rId38" display="https://www.gov.scot/binaries/content/documents/govscot/publications/research-and-analysis/2018/12/scotlands-non-domestic-energy-efficiency-baseline/documents/scotlands-non-domestic-energy-efficiency-baseline/scotlands-non-domestic-energy-efficiency-baseline/govscot%3Adocument/00544110.pdf?forceDownload=true" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D56" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C26" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D21" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D8" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D9" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C67" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D15" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D39" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D43" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C80" r:id="rId50" xr:uid="{52E842E9-D247-4F78-88A0-217490DB26DC}"/>
-    <hyperlink ref="C84" r:id="rId51" xr:uid="{74E28334-8574-4123-8AF4-3B16A49B29E4}"/>
-    <hyperlink ref="D18" r:id="rId52" xr:uid="{FEB7188F-6069-4320-A732-0D5E6CE94251}"/>
-    <hyperlink ref="C11" r:id="rId53" location="thumbchart-c23042756505310535-n95432" display="https://www.ofgem.gov.uk/data-portal/retail-market-indicators - thumbchart-c23042756505310535-n95432" xr:uid="{B9F0501D-AFB8-4B4D-953F-E3BC7D924F18}"/>
-    <hyperlink ref="D75" r:id="rId54" xr:uid="{C4988921-2E24-4390-A3C9-361CEE63651F}"/>
-    <hyperlink ref="C75" r:id="rId55" xr:uid="{CE0718F8-A335-45DA-B5B6-2421993AC8CB}"/>
-    <hyperlink ref="D73" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C73" r:id="rId57" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2019/05/scottish-national-accounts-programme-whole-of-scotland-economic-accounts-project/documents/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/development-of-supply--use-satellite-accounts-for-extra-regio-economic-activities/govscot%3Adocument/Development%2Bof%2BSupply%2B%2526%2BUse%2BSatellite%2BAccounts%2Bfor%2BExtra-Regio%2BEconomic%2BActivities.xlsx" xr:uid="{1E1171F7-3FA7-4DA0-AF12-73B304849A8E}"/>
-    <hyperlink ref="C78" r:id="rId58" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/04/gdp-quarterly-national-accounts-for-scotland-2019-q4/documents/other-quarterly-national-accounts-summary-tables%5B2%5D/other-quarterly-national-accounts-summary-tables/govscot%3Adocument/%25282%2529%2BQNAS%2B2019%2BQ4%2B--%2BOther%2BNational%2BAccounts%2BSummary%2BTables.xlsx" xr:uid="{0C8A3909-BDB7-4B5E-8E78-079038DEBB87}"/>
-    <hyperlink ref="D10" r:id="rId59" xr:uid="{E22CB7C1-666E-4646-9C00-4EF366985FA6}"/>
-    <hyperlink ref="D60" r:id="rId60" xr:uid="{C15CAB16-DAA4-4A78-A179-22DF9AF423CA}"/>
-    <hyperlink ref="D17" r:id="rId61" xr:uid="{8B65AF1A-CD33-4F88-B1C9-E10EB9EE5FF4}"/>
-    <hyperlink ref="C79" r:id="rId62" xr:uid="{3583A0F4-B6F6-49D3-A2BB-E1CDFB8779A8}"/>
-    <hyperlink ref="C52" r:id="rId63" xr:uid="{34113D8D-8455-4C83-A88E-E572A167879B}"/>
-    <hyperlink ref="D37" r:id="rId64" xr:uid="{C42D263B-7A21-4C4F-AAFE-41FDFE76DA53}"/>
-    <hyperlink ref="D28" r:id="rId65" xr:uid="{4EFECAF4-5CA2-4557-92F4-F13F0A656C5D}"/>
-    <hyperlink ref="C43" r:id="rId66" xr:uid="{C1166389-9A68-4C55-83E9-EB5BD8DADF18}"/>
-    <hyperlink ref="D16" r:id="rId67" xr:uid="{C3B710A7-8E88-451D-9260-4AA730AA1243}"/>
-    <hyperlink ref="C58" r:id="rId68" xr:uid="{BB13BC3C-E626-484C-AA42-B69F61990E6E}"/>
-    <hyperlink ref="D20" r:id="rId69" xr:uid="{73FBBA2B-41BE-4232-BC94-02C4A2A4337B}"/>
-    <hyperlink ref="C83" r:id="rId70" xr:uid="{A927D557-DFDB-4AEC-9C52-943C822A7BE5}"/>
-    <hyperlink ref="D14" r:id="rId71" xr:uid="{5E427227-A3F5-46D0-8ECB-B66F05FAEBD8}"/>
-    <hyperlink ref="C25" r:id="rId72" xr:uid="{6DB047C4-8112-4490-900E-290196538556}"/>
-    <hyperlink ref="D46" r:id="rId73" xr:uid="{67D6AD3A-CFA5-47C4-810A-48270F828F99}"/>
-    <hyperlink ref="C2" r:id="rId74" xr:uid="{4C72A6B4-2143-4394-ACD1-16D3C6165A5F}"/>
-    <hyperlink ref="D29" r:id="rId75" xr:uid="{EA182F35-D107-4521-B8E4-9E0E60BC090E}"/>
-    <hyperlink ref="D79" r:id="rId76" xr:uid="{A67B8192-CA33-4287-8573-5F8945F7CDF9}"/>
-    <hyperlink ref="C41" r:id="rId77" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2022/04/scottish-natural-capital-accounts-2022/documents/scottish-natural-capital-accounts-2022-reference-tables/scottish-natural-capital-accounts-2022-reference-tables/govscot%3Adocument/scottish-natural-capital-accounts-2022-reference-tables.xlsx" xr:uid="{B41F83ED-1C07-4EE9-8443-D5574B6AAE3B}"/>
-    <hyperlink ref="D81" r:id="rId78" xr:uid="{A4ADEDF4-32C7-4488-98D2-687C6E9BF5A8}"/>
-    <hyperlink ref="D83" r:id="rId79" xr:uid="{DCF7F52D-E031-45FE-92A8-99FFA2843EDB}"/>
-    <hyperlink ref="C13" r:id="rId80" xr:uid="{11A5D28F-2D00-4B9D-9605-5F4934D79928}"/>
-    <hyperlink ref="D23" r:id="rId81" xr:uid="{827D302C-F2CA-4368-96E2-7C5D378EBAE6}"/>
-    <hyperlink ref="D24" r:id="rId82" xr:uid="{CE79BA0C-757C-4235-AD05-E6F068C48C54}"/>
-    <hyperlink ref="C23" r:id="rId83" xr:uid="{BA76B832-6529-4B09-839B-7DA26362F7E2}"/>
-    <hyperlink ref="C36" r:id="rId84" xr:uid="{ECC5282C-1FA2-4F19-91E4-CD4CFCB06235}"/>
-    <hyperlink ref="C22" r:id="rId85" xr:uid="{46D15876-509D-4040-8ACA-A1265F19D3E1}"/>
-    <hyperlink ref="C21" r:id="rId86" xr:uid="{AC152226-69FF-4698-8A05-D7FE289A723A}"/>
-    <hyperlink ref="C5" r:id="rId87" xr:uid="{3000F582-61CB-4173-A59B-870C4FE2AB75}"/>
-    <hyperlink ref="C18" r:id="rId88" xr:uid="{37CFE1F4-0E77-4820-B8D8-DF572D5ECBB2}"/>
-    <hyperlink ref="D33" r:id="rId89" location="quarterlygrossdomesticproduct(gdp)" xr:uid="{74C8EEDC-6067-426A-AE0B-7402E4DFA196}"/>
-    <hyperlink ref="C6" r:id="rId90" xr:uid="{EBBB8C92-CAE7-4603-AEA2-0D438D30DD02}"/>
-    <hyperlink ref="D35" r:id="rId91" xr:uid="{47A29FD3-E1FE-4255-B416-F01539F6BDFE}"/>
-    <hyperlink ref="C37" r:id="rId92" xr:uid="{B54C112E-597A-4409-B9BF-5C0D471D20C6}"/>
-    <hyperlink ref="C12" r:id="rId93" xr:uid="{9629372E-78CB-4510-8C81-0128E1BFBF53}"/>
-    <hyperlink ref="C30" r:id="rId94" xr:uid="{5238C2C1-4095-4C31-BF6E-25170A443699}"/>
-    <hyperlink ref="D51" r:id="rId95" xr:uid="{B0D73686-B77C-4FE1-8404-4CC045E5C7F1}"/>
-    <hyperlink ref="C51" r:id="rId96" xr:uid="{27A6FF43-926C-44C6-897E-8B125E5AD7FA}"/>
-    <hyperlink ref="C49" r:id="rId97" xr:uid="{F58B7D0B-35FB-4A94-A1E6-AF8EB6FB21BF}"/>
-    <hyperlink ref="C16" r:id="rId98" xr:uid="{00BB129D-D5A2-40B8-82DE-D729F07874E2}"/>
-    <hyperlink ref="C20" r:id="rId99" xr:uid="{697F69A6-80B5-43A3-B48F-4C6250BA39A2}"/>
-    <hyperlink ref="C65" r:id="rId100" xr:uid="{5B6E2066-FB6E-45C7-8042-6748245C029E}"/>
-    <hyperlink ref="C29" r:id="rId101" xr:uid="{61BEAFD6-8542-4172-94BF-7ACCDCB0C9AB}"/>
+    <hyperlink ref="C81" r:id="rId8" display="https://www.gov.scot/binaries/content/documents/govscot/publications/statistics/2020/12/scottish-house-condition-survey-2019-key-findings/documents/scottish-house-condition-survey-2019-key-findings-tables-figures/scottish-house-condition-survey-2019-key-findings-tables-figures/govscot%3Adocument/scottish-house-condition-survey-2019-key-findings-tables-figures.xlsx" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D74" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C68" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D46" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D47" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D48" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D37" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyp